--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -786,7 +786,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="E15" t="n">
         <v>0.4</v>
@@ -798,10 +798,10 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J15" t="n">
         <v>0.65</v>
@@ -810,13 +810,13 @@
         <v>0.15</v>
       </c>
       <c r="M15" t="n">
-        <v>-42.158</v>
+        <v>-41.758</v>
       </c>
       <c r="N15" t="n">
         <v>-44.1</v>
       </c>
       <c r="O15" t="n">
-        <v>42.908</v>
+        <v>42.70800000000001</v>
       </c>
       <c r="P15" t="n">
         <v>44.5</v>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>-42.158</v>
+        <v>-41.758</v>
       </c>
       <c r="W15" t="n">
         <v>-44.1</v>
@@ -1034,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E19" t="n">
         <v>0.45</v>
@@ -1046,10 +1046,10 @@
         <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
         <v>0.65</v>
@@ -1064,7 +1064,7 @@
         <v>-24.241</v>
       </c>
       <c r="O19" t="n">
-        <v>49.35</v>
+        <v>49.55</v>
       </c>
       <c r="P19" t="n">
         <v>24.691</v>
@@ -1096,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E20" t="n">
         <v>0.45</v>
@@ -1108,10 +1108,10 @@
         <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
         <v>0.65</v>
@@ -1126,7 +1126,7 @@
         <v>-49.441</v>
       </c>
       <c r="O20" t="n">
-        <v>49.35</v>
+        <v>49.55</v>
       </c>
       <c r="P20" t="n">
         <v>49.89100000000001</v>
@@ -1158,7 +1158,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E21" t="n">
         <v>0.45</v>
@@ -1170,10 +1170,10 @@
         <v>0.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
         <v>0.65</v>
@@ -1188,7 +1188,7 @@
         <v>-11.641</v>
       </c>
       <c r="O21" t="n">
-        <v>-45.15</v>
+        <v>-44.95</v>
       </c>
       <c r="P21" t="n">
         <v>12.091</v>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E22" t="n">
         <v>0.45</v>
@@ -1232,10 +1232,10 @@
         <v>0.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
         <v>0.65</v>
@@ -1250,7 +1250,7 @@
         <v>-36.841</v>
       </c>
       <c r="O22" t="n">
-        <v>-45.15</v>
+        <v>-44.95</v>
       </c>
       <c r="P22" t="n">
         <v>37.291</v>
@@ -1282,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E23" t="n">
         <v>0.45</v>
@@ -1294,10 +1294,10 @@
         <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
         <v>0.65</v>
@@ -1312,7 +1312,7 @@
         <v>45.059</v>
       </c>
       <c r="O23" t="n">
-        <v>-49.09999999999999</v>
+        <v>-48.9</v>
       </c>
       <c r="P23" t="n">
         <v>-44.60899999999999</v>
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E24" t="n">
         <v>0.45</v>
@@ -1338,10 +1338,10 @@
         <v>0.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J24" t="n">
         <v>0.65</v>
@@ -1356,7 +1356,7 @@
         <v>-43.141</v>
       </c>
       <c r="O24" t="n">
-        <v>-49.09999999999999</v>
+        <v>-48.9</v>
       </c>
       <c r="P24" t="n">
         <v>43.591</v>
@@ -1376,16 +1376,16 @@
         <v>1.7</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G25" t="n">
         <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
         <v>2.75</v>
@@ -1432,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E26" t="n">
         <v>1.75</v>
@@ -1444,10 +1444,10 @@
         <v>0.4</v>
       </c>
       <c r="H26" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="I26" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J26" t="n">
         <v>1.95</v>
@@ -1462,7 +1462,7 @@
         <v>45.059</v>
       </c>
       <c r="O26" t="n">
-        <v>-43</v>
+        <v>-42.8</v>
       </c>
       <c r="P26" t="n">
         <v>-43.309</v>
@@ -1494,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E27" t="n">
         <v>1.75</v>
@@ -1506,10 +1506,10 @@
         <v>0.4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="I27" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
         <v>1.95</v>
@@ -1524,7 +1524,7 @@
         <v>-43.141</v>
       </c>
       <c r="O27" t="n">
-        <v>-43</v>
+        <v>-42.8</v>
       </c>
       <c r="P27" t="n">
         <v>44.891</v>
@@ -1704,13 +1704,13 @@
         <v>11.5</v>
       </c>
       <c r="M30" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N30" t="n">
         <v>-44.1</v>
       </c>
       <c r="O30" t="n">
-        <v>34.783</v>
+        <v>34.983</v>
       </c>
       <c r="P30" t="n">
         <v>56.35</v>
@@ -1748,13 +1748,13 @@
         <v>11.5</v>
       </c>
       <c r="M31" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N31" t="n">
         <v>-31.5</v>
       </c>
       <c r="O31" t="n">
-        <v>36.583</v>
+        <v>36.783</v>
       </c>
       <c r="P31" t="n">
         <v>43.75</v>
@@ -1792,13 +1792,13 @@
         <v>11.5</v>
       </c>
       <c r="M32" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N32" t="n">
         <v>-31.5</v>
       </c>
       <c r="O32" t="n">
-        <v>25.783</v>
+        <v>25.983</v>
       </c>
       <c r="P32" t="n">
         <v>43.75</v>
@@ -1836,13 +1836,13 @@
         <v>11.5</v>
       </c>
       <c r="M33" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N33" t="n">
         <v>-44.1</v>
       </c>
       <c r="O33" t="n">
-        <v>27.583</v>
+        <v>27.783</v>
       </c>
       <c r="P33" t="n">
         <v>56.35</v>
@@ -1880,13 +1880,13 @@
         <v>11.5</v>
       </c>
       <c r="M34" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N34" t="n">
         <v>-44.1</v>
       </c>
       <c r="O34" t="n">
-        <v>16.783</v>
+        <v>16.983</v>
       </c>
       <c r="P34" t="n">
         <v>56.35</v>
@@ -1924,13 +1924,13 @@
         <v>10</v>
       </c>
       <c r="M35" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N35" t="n">
         <v>-44.1</v>
       </c>
       <c r="O35" t="n">
-        <v>-3.016999999999999</v>
+        <v>-2.816999999999999</v>
       </c>
       <c r="P35" t="n">
         <v>54.85</v>
@@ -1968,13 +1968,13 @@
         <v>10</v>
       </c>
       <c r="M36" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N36" t="n">
         <v>-31.5</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.217000000000001</v>
+        <v>-1.017</v>
       </c>
       <c r="P36" t="n">
         <v>42.25</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="M37" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N37" t="n">
         <v>-31.5</v>
       </c>
       <c r="O37" t="n">
-        <v>13.183</v>
+        <v>13.383</v>
       </c>
       <c r="P37" t="n">
         <v>42.25</v>
@@ -2056,13 +2056,13 @@
         <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N38" t="n">
         <v>-18.9</v>
       </c>
       <c r="O38" t="n">
-        <v>14.983</v>
+        <v>15.183</v>
       </c>
       <c r="P38" t="n">
         <v>29.65</v>
@@ -2100,13 +2100,13 @@
         <v>10</v>
       </c>
       <c r="M39" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N39" t="n">
         <v>-18.9</v>
       </c>
       <c r="O39" t="n">
-        <v>4.183</v>
+        <v>4.383000000000001</v>
       </c>
       <c r="P39" t="n">
         <v>29.65</v>
@@ -2144,13 +2144,13 @@
         <v>8.5</v>
       </c>
       <c r="M40" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N40" t="n">
         <v>-6.3</v>
       </c>
       <c r="O40" t="n">
-        <v>-3.016999999999999</v>
+        <v>-2.816999999999999</v>
       </c>
       <c r="P40" t="n">
         <v>15.55</v>
@@ -2188,13 +2188,13 @@
         <v>8.5</v>
       </c>
       <c r="M41" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N41" t="n">
         <v>-6.3</v>
       </c>
       <c r="O41" t="n">
-        <v>11.383</v>
+        <v>11.583</v>
       </c>
       <c r="P41" t="n">
         <v>15.55</v>
@@ -2232,13 +2232,13 @@
         <v>8.5</v>
       </c>
       <c r="M42" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N42" t="n">
         <v>-6.3</v>
       </c>
       <c r="O42" t="n">
-        <v>25.783</v>
+        <v>25.983</v>
       </c>
       <c r="P42" t="n">
         <v>15.55</v>
@@ -2276,13 +2276,13 @@
         <v>8.5</v>
       </c>
       <c r="M43" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N43" t="n">
         <v>-18.9</v>
       </c>
       <c r="O43" t="n">
-        <v>27.583</v>
+        <v>27.783</v>
       </c>
       <c r="P43" t="n">
         <v>28.15</v>
@@ -2320,13 +2320,13 @@
         <v>8.5</v>
       </c>
       <c r="M44" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N44" t="n">
         <v>-18.9</v>
       </c>
       <c r="O44" t="n">
-        <v>41.983</v>
+        <v>42.183</v>
       </c>
       <c r="P44" t="n">
         <v>28.15</v>
@@ -2364,13 +2364,13 @@
         <v>7</v>
       </c>
       <c r="M45" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N45" t="n">
         <v>-6.3</v>
       </c>
       <c r="O45" t="n">
-        <v>34.783</v>
+        <v>34.983</v>
       </c>
       <c r="P45" t="n">
         <v>14.05</v>
@@ -2408,13 +2408,13 @@
         <v>7</v>
       </c>
       <c r="M46" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N46" t="n">
         <v>6.3</v>
       </c>
       <c r="O46" t="n">
-        <v>36.583</v>
+        <v>36.783</v>
       </c>
       <c r="P46" t="n">
         <v>1.45</v>
@@ -2452,13 +2452,13 @@
         <v>7</v>
       </c>
       <c r="M47" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N47" t="n">
         <v>6.3</v>
       </c>
       <c r="O47" t="n">
-        <v>25.783</v>
+        <v>25.983</v>
       </c>
       <c r="P47" t="n">
         <v>1.45</v>
@@ -2496,13 +2496,13 @@
         <v>7</v>
       </c>
       <c r="M48" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N48" t="n">
         <v>18.9</v>
       </c>
       <c r="O48" t="n">
-        <v>27.583</v>
+        <v>27.783</v>
       </c>
       <c r="P48" t="n">
         <v>-11.15</v>
@@ -2540,13 +2540,13 @@
         <v>7</v>
       </c>
       <c r="M49" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N49" t="n">
         <v>18.9</v>
       </c>
       <c r="O49" t="n">
-        <v>41.983</v>
+        <v>42.183</v>
       </c>
       <c r="P49" t="n">
         <v>-11.15</v>
@@ -2584,13 +2584,13 @@
         <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N50" t="n">
         <v>31.5</v>
       </c>
       <c r="O50" t="n">
-        <v>34.783</v>
+        <v>34.983</v>
       </c>
       <c r="P50" t="n">
         <v>-25.25</v>
@@ -2628,13 +2628,13 @@
         <v>5.5</v>
       </c>
       <c r="M51" t="n">
-        <v>-44.883</v>
+        <v>-45.083</v>
       </c>
       <c r="N51" t="n">
         <v>44.1</v>
       </c>
       <c r="O51" t="n">
-        <v>36.583</v>
+        <v>36.783</v>
       </c>
       <c r="P51" t="n">
         <v>-37.85</v>
@@ -2672,13 +2672,13 @@
         <v>5.5</v>
       </c>
       <c r="M52" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N52" t="n">
         <v>44.1</v>
       </c>
       <c r="O52" t="n">
-        <v>25.783</v>
+        <v>25.983</v>
       </c>
       <c r="P52" t="n">
         <v>-37.85</v>
@@ -2716,13 +2716,13 @@
         <v>5.5</v>
       </c>
       <c r="M53" t="n">
-        <v>-32.283</v>
+        <v>-32.483</v>
       </c>
       <c r="N53" t="n">
         <v>31.5</v>
       </c>
       <c r="O53" t="n">
-        <v>27.583</v>
+        <v>27.783</v>
       </c>
       <c r="P53" t="n">
         <v>-25.25</v>
@@ -2760,13 +2760,13 @@
         <v>5.5</v>
       </c>
       <c r="M54" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N54" t="n">
         <v>31.5</v>
       </c>
       <c r="O54" t="n">
-        <v>16.783</v>
+        <v>16.983</v>
       </c>
       <c r="P54" t="n">
         <v>-25.25</v>
@@ -2804,13 +2804,13 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N55" t="n">
         <v>44.1</v>
       </c>
       <c r="O55" t="n">
-        <v>9.583</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="P55" t="n">
         <v>-39.35</v>
@@ -2848,13 +2848,13 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N56" t="n">
         <v>44.1</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.217000000000001</v>
+        <v>-1.017</v>
       </c>
       <c r="P56" t="n">
         <v>-39.35</v>
@@ -2892,13 +2892,13 @@
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N57" t="n">
         <v>31.5</v>
       </c>
       <c r="O57" t="n">
-        <v>0.5830000000000002</v>
+        <v>0.7830000000000004</v>
       </c>
       <c r="P57" t="n">
         <v>-26.75</v>
@@ -2936,13 +2936,13 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N58" t="n">
         <v>18.9</v>
       </c>
       <c r="O58" t="n">
-        <v>2.383</v>
+        <v>2.583</v>
       </c>
       <c r="P58" t="n">
         <v>-14.15</v>
@@ -2980,13 +2980,13 @@
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N59" t="n">
         <v>18.9</v>
       </c>
       <c r="O59" t="n">
-        <v>16.783</v>
+        <v>16.983</v>
       </c>
       <c r="P59" t="n">
         <v>-14.15</v>
@@ -3024,13 +3024,13 @@
         <v>2.5</v>
       </c>
       <c r="M60" t="n">
-        <v>-19.683</v>
+        <v>-19.883</v>
       </c>
       <c r="N60" t="n">
         <v>6.3</v>
       </c>
       <c r="O60" t="n">
-        <v>9.583</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="P60" t="n">
         <v>-3.05</v>
@@ -3068,13 +3068,13 @@
         <v>2.5</v>
       </c>
       <c r="M61" t="n">
-        <v>-7.083</v>
+        <v>-7.283</v>
       </c>
       <c r="N61" t="n">
         <v>6.3</v>
       </c>
       <c r="O61" t="n">
-        <v>-1.217000000000001</v>
+        <v>-1.017</v>
       </c>
       <c r="P61" t="n">
         <v>-3.05</v>
@@ -3112,13 +3112,13 @@
         <v>2.5</v>
       </c>
       <c r="M62" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N62" t="n">
         <v>6.3</v>
       </c>
       <c r="O62" t="n">
-        <v>-12.017</v>
+        <v>-11.817</v>
       </c>
       <c r="P62" t="n">
         <v>-3.05</v>
@@ -3156,13 +3156,13 @@
         <v>2.5</v>
       </c>
       <c r="M63" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N63" t="n">
         <v>6.3</v>
       </c>
       <c r="O63" t="n">
-        <v>-22.817</v>
+        <v>-22.617</v>
       </c>
       <c r="P63" t="n">
         <v>-3.05</v>
@@ -3200,13 +3200,13 @@
         <v>2.5</v>
       </c>
       <c r="M64" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N64" t="n">
         <v>18.9</v>
       </c>
       <c r="O64" t="n">
-        <v>-21.017</v>
+        <v>-20.817</v>
       </c>
       <c r="P64" t="n">
         <v>-15.65</v>
@@ -3244,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N65" t="n">
         <v>18.9</v>
       </c>
       <c r="O65" t="n">
-        <v>-15.617</v>
+        <v>-15.417</v>
       </c>
       <c r="P65" t="n">
         <v>-17.15</v>
@@ -3288,13 +3288,13 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N66" t="n">
         <v>31.5</v>
       </c>
       <c r="O66" t="n">
-        <v>-13.817</v>
+        <v>-13.617</v>
       </c>
       <c r="P66" t="n">
         <v>-29.75</v>
@@ -3332,13 +3332,13 @@
         <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N67" t="n">
         <v>44.1</v>
       </c>
       <c r="O67" t="n">
-        <v>-12.017</v>
+        <v>-11.817</v>
       </c>
       <c r="P67" t="n">
         <v>-42.35</v>
@@ -3376,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N68" t="n">
         <v>44.1</v>
       </c>
       <c r="O68" t="n">
-        <v>-22.817</v>
+        <v>-22.617</v>
       </c>
       <c r="P68" t="n">
         <v>-42.35</v>
@@ -3420,13 +3420,13 @@
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N69" t="n">
         <v>31.5</v>
       </c>
       <c r="O69" t="n">
-        <v>-21.017</v>
+        <v>-20.817</v>
       </c>
       <c r="P69" t="n">
         <v>-29.75</v>
@@ -3464,13 +3464,13 @@
         <v>-0.5</v>
       </c>
       <c r="M70" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N70" t="n">
         <v>31.5</v>
       </c>
       <c r="O70" t="n">
-        <v>-40.817</v>
+        <v>-40.617</v>
       </c>
       <c r="P70" t="n">
         <v>-31.25</v>
@@ -3508,13 +3508,13 @@
         <v>-0.5</v>
       </c>
       <c r="M71" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N71" t="n">
         <v>44.1</v>
       </c>
       <c r="O71" t="n">
-        <v>-39.017</v>
+        <v>-38.817</v>
       </c>
       <c r="P71" t="n">
         <v>-43.85</v>
@@ -3552,13 +3552,13 @@
         <v>-0.5</v>
       </c>
       <c r="M72" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N72" t="n">
         <v>44.1</v>
       </c>
       <c r="O72" t="n">
-        <v>-49.817</v>
+        <v>-49.617</v>
       </c>
       <c r="P72" t="n">
         <v>-43.85</v>
@@ -3596,13 +3596,13 @@
         <v>-0.5</v>
       </c>
       <c r="M73" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N73" t="n">
         <v>31.5</v>
       </c>
       <c r="O73" t="n">
-        <v>-48.017</v>
+        <v>-47.817</v>
       </c>
       <c r="P73" t="n">
         <v>-31.25</v>
@@ -3640,13 +3640,13 @@
         <v>-0.5</v>
       </c>
       <c r="M74" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N74" t="n">
         <v>18.9</v>
       </c>
       <c r="O74" t="n">
-        <v>-46.217</v>
+        <v>-46.017</v>
       </c>
       <c r="P74" t="n">
         <v>-18.65</v>
@@ -3684,13 +3684,13 @@
         <v>-2</v>
       </c>
       <c r="M75" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N75" t="n">
         <v>18.9</v>
       </c>
       <c r="O75" t="n">
-        <v>-40.817</v>
+        <v>-40.617</v>
       </c>
       <c r="P75" t="n">
         <v>-20.15</v>
@@ -3728,13 +3728,13 @@
         <v>-2</v>
       </c>
       <c r="M76" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N76" t="n">
         <v>6.3</v>
       </c>
       <c r="O76" t="n">
-        <v>-39.017</v>
+        <v>-38.817</v>
       </c>
       <c r="P76" t="n">
         <v>-7.55</v>
@@ -3772,13 +3772,13 @@
         <v>-2</v>
       </c>
       <c r="M77" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N77" t="n">
         <v>6.3</v>
       </c>
       <c r="O77" t="n">
-        <v>-49.817</v>
+        <v>-49.617</v>
       </c>
       <c r="P77" t="n">
         <v>-7.55</v>
@@ -3816,13 +3816,13 @@
         <v>-2</v>
       </c>
       <c r="M78" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N78" t="n">
         <v>-6.3</v>
       </c>
       <c r="O78" t="n">
-        <v>-48.017</v>
+        <v>-47.817</v>
       </c>
       <c r="P78" t="n">
         <v>5.05</v>
@@ -3860,13 +3860,13 @@
         <v>-2</v>
       </c>
       <c r="M79" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N79" t="n">
         <v>-18.9</v>
       </c>
       <c r="O79" t="n">
-        <v>-46.217</v>
+        <v>-46.017</v>
       </c>
       <c r="P79" t="n">
         <v>17.65</v>
@@ -3904,13 +3904,13 @@
         <v>-3.5</v>
       </c>
       <c r="M80" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N80" t="n">
         <v>-18.9</v>
       </c>
       <c r="O80" t="n">
-        <v>-40.817</v>
+        <v>-40.617</v>
       </c>
       <c r="P80" t="n">
         <v>16.15</v>
@@ -3948,13 +3948,13 @@
         <v>-3.5</v>
       </c>
       <c r="M81" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N81" t="n">
         <v>-6.3</v>
       </c>
       <c r="O81" t="n">
-        <v>-39.017</v>
+        <v>-38.817</v>
       </c>
       <c r="P81" t="n">
         <v>3.55</v>
@@ -3992,13 +3992,13 @@
         <v>-3.5</v>
       </c>
       <c r="M82" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N82" t="n">
         <v>-6.3</v>
       </c>
       <c r="O82" t="n">
-        <v>-24.617</v>
+        <v>-24.417</v>
       </c>
       <c r="P82" t="n">
         <v>3.55</v>
@@ -4036,13 +4036,13 @@
         <v>-3.5</v>
       </c>
       <c r="M83" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N83" t="n">
         <v>-6.3</v>
       </c>
       <c r="O83" t="n">
-        <v>-10.217</v>
+        <v>-10.017</v>
       </c>
       <c r="P83" t="n">
         <v>3.55</v>
@@ -4080,13 +4080,13 @@
         <v>-3.5</v>
       </c>
       <c r="M84" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N84" t="n">
         <v>-18.9</v>
       </c>
       <c r="O84" t="n">
-        <v>-8.417</v>
+        <v>-8.217000000000001</v>
       </c>
       <c r="P84" t="n">
         <v>16.15</v>
@@ -4124,13 +4124,13 @@
         <v>-5</v>
       </c>
       <c r="M85" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N85" t="n">
         <v>-18.9</v>
       </c>
       <c r="O85" t="n">
-        <v>-28.217</v>
+        <v>-28.017</v>
       </c>
       <c r="P85" t="n">
         <v>14.65</v>
@@ -4168,13 +4168,13 @@
         <v>-5</v>
       </c>
       <c r="M86" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N86" t="n">
         <v>-31.5</v>
       </c>
       <c r="O86" t="n">
-        <v>-26.417</v>
+        <v>-26.217</v>
       </c>
       <c r="P86" t="n">
         <v>27.25</v>
@@ -4212,13 +4212,13 @@
         <v>-5</v>
       </c>
       <c r="M87" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N87" t="n">
         <v>-31.5</v>
       </c>
       <c r="O87" t="n">
-        <v>-12.017</v>
+        <v>-11.817</v>
       </c>
       <c r="P87" t="n">
         <v>27.25</v>
@@ -4256,13 +4256,13 @@
         <v>-5</v>
       </c>
       <c r="M88" t="n">
-        <v>5.517</v>
+        <v>5.317</v>
       </c>
       <c r="N88" t="n">
         <v>-44.1</v>
       </c>
       <c r="O88" t="n">
-        <v>-10.217</v>
+        <v>-10.017</v>
       </c>
       <c r="P88" t="n">
         <v>39.85</v>
@@ -4300,13 +4300,13 @@
         <v>-5</v>
       </c>
       <c r="M89" t="n">
-        <v>18.117</v>
+        <v>17.917</v>
       </c>
       <c r="N89" t="n">
         <v>-44.1</v>
       </c>
       <c r="O89" t="n">
-        <v>-21.017</v>
+        <v>-20.817</v>
       </c>
       <c r="P89" t="n">
         <v>39.85</v>
@@ -4344,13 +4344,13 @@
         <v>-6.5</v>
       </c>
       <c r="M90" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N90" t="n">
         <v>-44.1</v>
       </c>
       <c r="O90" t="n">
-        <v>-40.817</v>
+        <v>-40.617</v>
       </c>
       <c r="P90" t="n">
         <v>38.35</v>
@@ -4388,13 +4388,13 @@
         <v>-6.5</v>
       </c>
       <c r="M91" t="n">
-        <v>30.717</v>
+        <v>30.517</v>
       </c>
       <c r="N91" t="n">
         <v>-31.5</v>
       </c>
       <c r="O91" t="n">
-        <v>-39.017</v>
+        <v>-38.817</v>
       </c>
       <c r="P91" t="n">
         <v>25.75</v>
@@ -4432,13 +4432,13 @@
         <v>-6.5</v>
       </c>
       <c r="M92" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N92" t="n">
         <v>-31.5</v>
       </c>
       <c r="O92" t="n">
-        <v>-49.817</v>
+        <v>-49.617</v>
       </c>
       <c r="P92" t="n">
         <v>25.75</v>
@@ -4476,13 +4476,13 @@
         <v>-6.5</v>
       </c>
       <c r="M93" t="n">
-        <v>43.317</v>
+        <v>43.117</v>
       </c>
       <c r="N93" t="n">
         <v>-44.1</v>
       </c>
       <c r="O93" t="n">
-        <v>-48.017</v>
+        <v>-47.817</v>
       </c>
       <c r="P93" t="n">
         <v>38.35</v>
@@ -4496,7 +4496,7 @@
         <v>92</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.05</v>
+        <v>-1.25</v>
       </c>
       <c r="E94" t="n">
         <v>0.05</v>
@@ -4508,10 +4508,10 @@
         <v>1.2</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="J94" t="n">
         <v>0.65</v>
@@ -4520,13 +4520,13 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="M94" t="n">
-        <v>-44.125</v>
+        <v>-44.52500000000001</v>
       </c>
       <c r="N94" t="n">
         <v>-44.1</v>
       </c>
       <c r="O94" t="n">
-        <v>43.075</v>
+        <v>43.27500000000001</v>
       </c>
       <c r="P94" t="n">
         <v>44.15</v>
@@ -4538,7 +4538,7 @@
         <v>8</v>
       </c>
       <c r="V94" t="n">
-        <v>-44.125</v>
+        <v>-44.52500000000001</v>
       </c>
       <c r="W94" t="n">
         <v>-44.1</v>
@@ -4558,7 +4558,7 @@
         <v>93</v>
       </c>
       <c r="D95" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E95" t="n">
         <v>2.35</v>
@@ -4570,10 +4570,10 @@
         <v>0.8</v>
       </c>
       <c r="H95" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I95" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J95" t="n">
         <v>2.75</v>
@@ -4588,7 +4588,7 @@
         <v>7.059</v>
       </c>
       <c r="O95" t="n">
-        <v>-44.95</v>
+        <v>-44.75</v>
       </c>
       <c r="P95" t="n">
         <v>-4.709</v>
@@ -4602,7 +4602,7 @@
         <v>93</v>
       </c>
       <c r="D96" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E96" t="n">
         <v>2.35</v>
@@ -4614,10 +4614,10 @@
         <v>0.8</v>
       </c>
       <c r="H96" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I96" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J96" t="n">
         <v>2.75</v>
@@ -4632,7 +4632,7 @@
         <v>-5.141</v>
       </c>
       <c r="O96" t="n">
-        <v>-44.95</v>
+        <v>-44.75</v>
       </c>
       <c r="P96" t="n">
         <v>7.491</v>
@@ -4652,16 +4652,16 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G97" t="n">
         <v>1.3</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="I97" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J97" t="n">
         <v>0.65</v>
@@ -4708,7 +4708,7 @@
         <v>96</v>
       </c>
       <c r="D98" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="E98" t="n">
         <v>2.35</v>
@@ -4720,10 +4720,10 @@
         <v>0.8</v>
       </c>
       <c r="H98" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J98" t="n">
         <v>2.75</v>
@@ -4738,7 +4738,7 @@
         <v>7.059</v>
       </c>
       <c r="O98" t="n">
-        <v>-46.75</v>
+        <v>-46.55</v>
       </c>
       <c r="P98" t="n">
         <v>-4.709</v>
@@ -4752,7 +4752,7 @@
         <v>96</v>
       </c>
       <c r="D99" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="E99" t="n">
         <v>2.35</v>
@@ -4764,10 +4764,10 @@
         <v>0.8</v>
       </c>
       <c r="H99" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J99" t="n">
         <v>2.75</v>
@@ -4782,7 +4782,7 @@
         <v>-5.141</v>
       </c>
       <c r="O99" t="n">
-        <v>-46.75</v>
+        <v>-46.55</v>
       </c>
       <c r="P99" t="n">
         <v>7.491</v>
@@ -4796,7 +4796,7 @@
         <v>97</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E100" t="n">
         <v>-0.25</v>
@@ -4808,10 +4808,10 @@
         <v>0.8</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0.15</v>
@@ -4820,13 +4820,13 @@
         <v>-0.65</v>
       </c>
       <c r="M100" t="n">
-        <v>-44.25</v>
+        <v>-44.45</v>
       </c>
       <c r="N100" t="n">
         <v>-43.344</v>
       </c>
       <c r="O100" t="n">
-        <v>44.85</v>
+        <v>45.25</v>
       </c>
       <c r="P100" t="n">
         <v>43.094</v>
@@ -4838,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="V100" t="n">
-        <v>-44.25</v>
+        <v>-44.45</v>
       </c>
       <c r="W100" t="n">
         <v>-43.344</v>
@@ -4858,7 +4858,7 @@
         <v>98</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E101" t="n">
         <v>-0.15</v>
@@ -4870,10 +4870,10 @@
         <v>0.6</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J101" t="n">
         <v>0.15</v>
@@ -4882,13 +4882,13 @@
         <v>-0.45</v>
       </c>
       <c r="M101" t="n">
-        <v>-44.25</v>
+        <v>-44.45</v>
       </c>
       <c r="N101" t="n">
         <v>-44.754</v>
       </c>
       <c r="O101" t="n">
-        <v>45.25</v>
+        <v>45.65000000000001</v>
       </c>
       <c r="P101" t="n">
         <v>44.604</v>
@@ -4900,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="V101" t="n">
-        <v>-44.25</v>
+        <v>-44.45</v>
       </c>
       <c r="W101" t="n">
         <v>-44.754</v>
@@ -4920,7 +4920,7 @@
         <v>99</v>
       </c>
       <c r="D102" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E102" t="n">
         <v>0.45</v>
@@ -4932,10 +4932,10 @@
         <v>0.4</v>
       </c>
       <c r="H102" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I102" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J102" t="n">
         <v>0.65</v>
@@ -4950,7 +4950,7 @@
         <v>-24.241</v>
       </c>
       <c r="O102" t="n">
-        <v>48.55</v>
+        <v>48.75</v>
       </c>
       <c r="P102" t="n">
         <v>24.691</v>
@@ -4982,7 +4982,7 @@
         <v>99</v>
       </c>
       <c r="D103" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E103" t="n">
         <v>0.45</v>
@@ -4994,10 +4994,10 @@
         <v>0.4</v>
       </c>
       <c r="H103" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I103" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J103" t="n">
         <v>0.65</v>
@@ -5012,7 +5012,7 @@
         <v>-49.441</v>
       </c>
       <c r="O103" t="n">
-        <v>48.55</v>
+        <v>48.75</v>
       </c>
       <c r="P103" t="n">
         <v>49.89100000000001</v>
@@ -5044,7 +5044,7 @@
         <v>99</v>
       </c>
       <c r="D104" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E104" t="n">
         <v>0.45</v>
@@ -5056,10 +5056,10 @@
         <v>0.4</v>
       </c>
       <c r="H104" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I104" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J104" t="n">
         <v>0.65</v>
@@ -5074,7 +5074,7 @@
         <v>-11.641</v>
       </c>
       <c r="O104" t="n">
-        <v>-45.95</v>
+        <v>-45.75</v>
       </c>
       <c r="P104" t="n">
         <v>12.091</v>
@@ -5106,7 +5106,7 @@
         <v>99</v>
       </c>
       <c r="D105" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E105" t="n">
         <v>0.45</v>
@@ -5118,10 +5118,10 @@
         <v>0.4</v>
       </c>
       <c r="H105" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I105" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J105" t="n">
         <v>0.65</v>
@@ -5136,7 +5136,7 @@
         <v>-36.841</v>
       </c>
       <c r="O105" t="n">
-        <v>-45.95</v>
+        <v>-45.75</v>
       </c>
       <c r="P105" t="n">
         <v>37.291</v>
@@ -5168,7 +5168,7 @@
         <v>99</v>
       </c>
       <c r="D106" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E106" t="n">
         <v>0.45</v>
@@ -5180,10 +5180,10 @@
         <v>0.4</v>
       </c>
       <c r="H106" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I106" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J106" t="n">
         <v>0.65</v>
@@ -5198,7 +5198,7 @@
         <v>45.059</v>
       </c>
       <c r="O106" t="n">
-        <v>-49.9</v>
+        <v>-49.7</v>
       </c>
       <c r="P106" t="n">
         <v>-44.60899999999999</v>
@@ -5212,7 +5212,7 @@
         <v>99</v>
       </c>
       <c r="D107" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E107" t="n">
         <v>0.45</v>
@@ -5224,10 +5224,10 @@
         <v>0.4</v>
       </c>
       <c r="H107" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I107" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J107" t="n">
         <v>0.65</v>
@@ -5242,7 +5242,7 @@
         <v>-43.141</v>
       </c>
       <c r="O107" t="n">
-        <v>-49.9</v>
+        <v>-49.7</v>
       </c>
       <c r="P107" t="n">
         <v>43.591</v>
@@ -5442,7 +5442,7 @@
         <v>101</v>
       </c>
       <c r="D111" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="E111" t="n">
         <v>1.75</v>
@@ -5454,10 +5454,10 @@
         <v>0.4</v>
       </c>
       <c r="H111" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I111" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="J111" t="n">
         <v>1.95</v>
@@ -5472,7 +5472,7 @@
         <v>45.059</v>
       </c>
       <c r="O111" t="n">
-        <v>-44.8</v>
+        <v>-44.59999999999999</v>
       </c>
       <c r="P111" t="n">
         <v>-43.309</v>
@@ -5504,7 +5504,7 @@
         <v>101</v>
       </c>
       <c r="D112" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="E112" t="n">
         <v>1.75</v>
@@ -5516,10 +5516,10 @@
         <v>0.4</v>
       </c>
       <c r="H112" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I112" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="J112" t="n">
         <v>1.95</v>
@@ -5534,7 +5534,7 @@
         <v>-43.141</v>
       </c>
       <c r="O112" t="n">
-        <v>-44.8</v>
+        <v>-44.59999999999999</v>
       </c>
       <c r="P112" t="n">
         <v>44.891</v>
@@ -5690,7 +5690,7 @@
         <v>104</v>
       </c>
       <c r="D115" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E115" t="n">
         <v>0.45</v>
@@ -5702,10 +5702,10 @@
         <v>0.4</v>
       </c>
       <c r="H115" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I115" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J115" t="n">
         <v>0.65</v>
@@ -5720,7 +5720,7 @@
         <v>-24.241</v>
       </c>
       <c r="O115" t="n">
-        <v>48.95</v>
+        <v>49.15</v>
       </c>
       <c r="P115" t="n">
         <v>24.691</v>
@@ -5752,7 +5752,7 @@
         <v>104</v>
       </c>
       <c r="D116" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E116" t="n">
         <v>0.45</v>
@@ -5764,10 +5764,10 @@
         <v>0.4</v>
       </c>
       <c r="H116" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I116" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J116" t="n">
         <v>0.65</v>
@@ -5782,7 +5782,7 @@
         <v>-49.441</v>
       </c>
       <c r="O116" t="n">
-        <v>48.95</v>
+        <v>49.15</v>
       </c>
       <c r="P116" t="n">
         <v>49.89100000000001</v>
@@ -5814,7 +5814,7 @@
         <v>104</v>
       </c>
       <c r="D117" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E117" t="n">
         <v>0.45</v>
@@ -5826,10 +5826,10 @@
         <v>0.4</v>
       </c>
       <c r="H117" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I117" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J117" t="n">
         <v>0.65</v>
@@ -5844,7 +5844,7 @@
         <v>-11.641</v>
       </c>
       <c r="O117" t="n">
-        <v>-45.55</v>
+        <v>-45.35</v>
       </c>
       <c r="P117" t="n">
         <v>12.091</v>
@@ -5876,7 +5876,7 @@
         <v>104</v>
       </c>
       <c r="D118" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E118" t="n">
         <v>0.45</v>
@@ -5888,10 +5888,10 @@
         <v>0.4</v>
       </c>
       <c r="H118" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I118" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J118" t="n">
         <v>0.65</v>
@@ -5906,7 +5906,7 @@
         <v>-36.841</v>
       </c>
       <c r="O118" t="n">
-        <v>-45.55</v>
+        <v>-45.35</v>
       </c>
       <c r="P118" t="n">
         <v>37.291</v>
@@ -5938,7 +5938,7 @@
         <v>104</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E119" t="n">
         <v>0.45</v>
@@ -5950,10 +5950,10 @@
         <v>0.4</v>
       </c>
       <c r="H119" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I119" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J119" t="n">
         <v>0.65</v>
@@ -5968,7 +5968,7 @@
         <v>45.059</v>
       </c>
       <c r="O119" t="n">
-        <v>-49.49999999999999</v>
+        <v>-49.3</v>
       </c>
       <c r="P119" t="n">
         <v>-44.60899999999999</v>
@@ -5982,7 +5982,7 @@
         <v>104</v>
       </c>
       <c r="D120" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E120" t="n">
         <v>0.45</v>
@@ -5994,10 +5994,10 @@
         <v>0.4</v>
       </c>
       <c r="H120" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I120" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J120" t="n">
         <v>0.65</v>
@@ -6012,7 +6012,7 @@
         <v>-43.141</v>
       </c>
       <c r="O120" t="n">
-        <v>-49.49999999999999</v>
+        <v>-49.3</v>
       </c>
       <c r="P120" t="n">
         <v>43.591</v>
@@ -6026,7 +6026,7 @@
         <v>105</v>
       </c>
       <c r="D121" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E121" t="n">
         <v>2.35</v>
@@ -6038,10 +6038,10 @@
         <v>0.8</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I121" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
         <v>2.75</v>
@@ -6056,7 +6056,7 @@
         <v>7.059</v>
       </c>
       <c r="O121" t="n">
-        <v>-45.85</v>
+        <v>-45.65</v>
       </c>
       <c r="P121" t="n">
         <v>-4.709</v>
@@ -6070,7 +6070,7 @@
         <v>105</v>
       </c>
       <c r="D122" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E122" t="n">
         <v>2.35</v>
@@ -6082,10 +6082,10 @@
         <v>0.8</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J122" t="n">
         <v>2.75</v>
@@ -6100,7 +6100,7 @@
         <v>-5.141</v>
       </c>
       <c r="O122" t="n">
-        <v>-45.85</v>
+        <v>-45.65</v>
       </c>
       <c r="P122" t="n">
         <v>7.491</v>
@@ -6300,7 +6300,7 @@
         <v>107</v>
       </c>
       <c r="D126" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E126" t="n">
         <v>1.75</v>
@@ -6312,10 +6312,10 @@
         <v>0.4</v>
       </c>
       <c r="H126" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I126" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J126" t="n">
         <v>1.95</v>
@@ -6330,7 +6330,7 @@
         <v>45.059</v>
       </c>
       <c r="O126" t="n">
-        <v>-43.9</v>
+        <v>-43.7</v>
       </c>
       <c r="P126" t="n">
         <v>-43.309</v>
@@ -6362,7 +6362,7 @@
         <v>107</v>
       </c>
       <c r="D127" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E127" t="n">
         <v>1.75</v>
@@ -6374,10 +6374,10 @@
         <v>0.4</v>
       </c>
       <c r="H127" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I127" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J127" t="n">
         <v>1.95</v>
@@ -6392,7 +6392,7 @@
         <v>-43.141</v>
       </c>
       <c r="O127" t="n">
-        <v>-43.9</v>
+        <v>-43.7</v>
       </c>
       <c r="P127" t="n">
         <v>44.891</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Al_inductor</t>
   </si>
   <si>
+    <t>alignment_marks_patch_new</t>
+  </si>
+  <si>
     <t>LSNSUB</t>
   </si>
   <si>
@@ -89,10 +92,13 @@
     <t>gndsub_corner</t>
   </si>
   <si>
+    <t>lower_gndsub_feedline_to_pad</t>
+  </si>
+  <si>
     <t>reso_GP_sub</t>
   </si>
   <si>
-    <t>unit_GP_sub</t>
+    <t>upper_gndsub_feedline_to_pad</t>
   </si>
   <si>
     <t>vert_feedline_GP_sub</t>
@@ -320,7 +326,10 @@
     <t>feedline_main</t>
   </si>
   <si>
-    <t>unit_main_feed</t>
+    <t>lower_main_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>upper_main_feedline_to_pad</t>
   </si>
   <si>
     <t>vert_feedline_main</t>
@@ -329,19 +338,16 @@
     <t>ILD</t>
   </si>
   <si>
-    <t>ILD_corner</t>
-  </si>
-  <si>
-    <t>ILDfeed_bondpad</t>
-  </si>
-  <si>
-    <t>feedline_ILD</t>
-  </si>
-  <si>
-    <t>unit_ILD_feed</t>
-  </si>
-  <si>
-    <t>vert_feedline_ILD</t>
+    <t>GP_edge_opening_hor</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_vert</t>
+  </si>
+  <si>
+    <t>Via_to_Ground</t>
+  </si>
+  <si>
+    <t>reso_ILD_sub</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:Y129"/>
+  <dimension ref="A12:Y111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,7 +795,7 @@
         <v>0.95</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.7</v>
@@ -804,22 +810,22 @@
         <v>1.3</v>
       </c>
       <c r="J15" t="n">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="K15" t="n">
-        <v>0.15</v>
+        <v>-0.25</v>
       </c>
       <c r="M15" t="n">
-        <v>-41.758</v>
+        <v>-36.158</v>
       </c>
       <c r="N15" t="n">
-        <v>-44.1</v>
+        <v>-38.5</v>
       </c>
       <c r="O15" t="n">
-        <v>42.70800000000001</v>
+        <v>37.108</v>
       </c>
       <c r="P15" t="n">
-        <v>44.5</v>
+        <v>38.5</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -828,216 +834,216 @@
         <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>-41.758</v>
+        <v>-36.158</v>
       </c>
       <c r="W15" t="n">
-        <v>-44.1</v>
+        <v>-38.5</v>
       </c>
       <c r="X15" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" t="n">
-        <v>1.35</v>
+        <v>-3.05</v>
       </c>
       <c r="E16" t="n">
-        <v>3.75</v>
+        <v>-10.4</v>
       </c>
       <c r="F16" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>-3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>-2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>-10.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>-10.65</v>
       </c>
       <c r="M16" t="n">
-        <v>-44.1</v>
+        <v>-43.81</v>
       </c>
       <c r="N16" t="n">
-        <v>-43.141</v>
+        <v>-38.291</v>
       </c>
       <c r="O16" t="n">
-        <v>45.45</v>
+        <v>40.76000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>46.891</v>
+        <v>27.891</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U16" t="n">
         <v>8</v>
       </c>
       <c r="V16" t="n">
-        <v>-44.1</v>
+        <v>-43.81</v>
       </c>
       <c r="W16" t="n">
-        <v>-43.141</v>
+        <v>-38.291</v>
       </c>
       <c r="X16" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="F17" t="n">
-        <v>6.7</v>
+        <v>11.4</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>-2</v>
+        <v>-5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>10.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>10.3</v>
       </c>
       <c r="M17" t="n">
-        <v>51.2</v>
+        <v>-38.5</v>
       </c>
       <c r="N17" t="n">
-        <v>-24.241</v>
+        <v>-36.582</v>
       </c>
       <c r="O17" t="n">
-        <v>-49.84999999999999</v>
+        <v>38.5</v>
       </c>
       <c r="P17" t="n">
-        <v>27.991</v>
+        <v>47.082</v>
       </c>
       <c r="T17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>-38.5</v>
       </c>
       <c r="W17" t="n">
-        <v>-34.65</v>
+        <v>-36.582</v>
       </c>
       <c r="X17" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>1.35</v>
+        <v>-3.2</v>
       </c>
       <c r="E18" t="n">
-        <v>3.75</v>
+        <v>-10.85</v>
       </c>
       <c r="F18" t="n">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>
       </c>
       <c r="H18" t="n">
-        <v>-2</v>
+        <v>-3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>-3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>-10.65</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>-11.05</v>
       </c>
       <c r="M18" t="n">
-        <v>51.2</v>
+        <v>-44</v>
       </c>
       <c r="N18" t="n">
-        <v>-112.441</v>
+        <v>-21.041</v>
       </c>
       <c r="O18" t="n">
-        <v>-49.84999999999999</v>
+        <v>40.8</v>
       </c>
       <c r="P18" t="n">
-        <v>116.191</v>
+        <v>10.191</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.95</v>
+        <v>-44</v>
       </c>
       <c r="W18" t="n">
-        <v>-34.65</v>
+        <v>-21.041</v>
       </c>
       <c r="X18" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>2.3</v>
+        <v>-3.2</v>
       </c>
       <c r="E19" t="n">
-        <v>0.45</v>
+        <v>-10.85</v>
       </c>
       <c r="F19" t="n">
         <v>0.4</v>
@@ -1046,28 +1052,28 @@
         <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>-3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>-3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.65</v>
+        <v>-10.65</v>
       </c>
       <c r="K19" t="n">
-        <v>0.25</v>
+        <v>-11.05</v>
       </c>
       <c r="M19" t="n">
-        <v>-47.25</v>
+        <v>-44</v>
       </c>
       <c r="N19" t="n">
-        <v>-24.241</v>
+        <v>-43.041</v>
       </c>
       <c r="O19" t="n">
-        <v>49.55</v>
+        <v>40.8</v>
       </c>
       <c r="P19" t="n">
-        <v>24.691</v>
+        <v>32.191</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
@@ -1076,30 +1082,30 @@
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>-47.25</v>
+        <v>-44</v>
       </c>
       <c r="W19" t="n">
-        <v>-24.241</v>
+        <v>-43.041</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>2.3</v>
+        <v>-3.2</v>
       </c>
       <c r="E20" t="n">
-        <v>0.45</v>
+        <v>-10.85</v>
       </c>
       <c r="F20" t="n">
         <v>0.4</v>
@@ -1108,60 +1114,60 @@
         <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>-3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>-3</v>
       </c>
       <c r="J20" t="n">
-        <v>0.65</v>
+        <v>-10.65</v>
       </c>
       <c r="K20" t="n">
-        <v>0.25</v>
+        <v>-11.05</v>
       </c>
       <c r="M20" t="n">
-        <v>-47.25</v>
+        <v>44</v>
       </c>
       <c r="N20" t="n">
-        <v>-49.441</v>
+        <v>-10.041</v>
       </c>
       <c r="O20" t="n">
-        <v>49.55</v>
+        <v>-47.2</v>
       </c>
       <c r="P20" t="n">
-        <v>49.89100000000001</v>
+        <v>-0.8089999999999993</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>-47.25</v>
+        <v>44</v>
       </c>
       <c r="W20" t="n">
-        <v>-49.441</v>
+        <v>-10.041</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>2.3</v>
+        <v>-3.2</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45</v>
+        <v>-10.85</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
@@ -1170,28 +1176,28 @@
         <v>0.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.1</v>
+        <v>-3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>-3</v>
       </c>
       <c r="J21" t="n">
-        <v>0.65</v>
+        <v>-10.65</v>
       </c>
       <c r="K21" t="n">
-        <v>0.25</v>
+        <v>-11.05</v>
       </c>
       <c r="M21" t="n">
-        <v>47.25</v>
+        <v>44</v>
       </c>
       <c r="N21" t="n">
-        <v>-11.641</v>
+        <v>-32.041</v>
       </c>
       <c r="O21" t="n">
-        <v>-44.95</v>
+        <v>-47.2</v>
       </c>
       <c r="P21" t="n">
-        <v>12.091</v>
+        <v>21.191</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -1200,490 +1206,436 @@
         <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>47.25</v>
+        <v>44</v>
       </c>
       <c r="W21" t="n">
-        <v>-11.641</v>
+        <v>-32.041</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>2.3</v>
+        <v>-7.4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.45</v>
+        <v>-0.9</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>22.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.1</v>
+        <v>-8.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>-6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.65</v>
+        <v>10.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.25</v>
+        <v>-12.1</v>
       </c>
       <c r="M22" t="n">
-        <v>47.25</v>
+        <v>45.005</v>
       </c>
       <c r="N22" t="n">
-        <v>-36.841</v>
+        <v>-26.536</v>
       </c>
       <c r="O22" t="n">
-        <v>-44.95</v>
+        <v>-52.405</v>
       </c>
       <c r="P22" t="n">
-        <v>37.291</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
-      <c r="V22" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>25.2</v>
+        <v>25.636</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.45</v>
+        <v>-11.05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>0.65</v>
+        <v>-10</v>
       </c>
       <c r="K23" t="n">
-        <v>0.25</v>
+        <v>-12.1</v>
       </c>
       <c r="M23" t="n">
-        <v>51.2</v>
+        <v>-38.5</v>
       </c>
       <c r="N23" t="n">
-        <v>45.059</v>
+        <v>-38.5</v>
       </c>
       <c r="O23" t="n">
-        <v>-48.9</v>
+        <v>41.6</v>
       </c>
       <c r="P23" t="n">
-        <v>-44.60899999999999</v>
+        <v>27.45</v>
+      </c>
+      <c r="T23" t="n">
+        <v>8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.45</v>
+        <v>-0.9</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>22.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="J24" t="n">
-        <v>0.65</v>
+        <v>10.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.25</v>
+        <v>-12.1</v>
       </c>
       <c r="M24" t="n">
-        <v>51.2</v>
+        <v>45.005</v>
       </c>
       <c r="N24" t="n">
-        <v>-43.141</v>
+        <v>28.454</v>
       </c>
       <c r="O24" t="n">
-        <v>-48.9</v>
+        <v>-37.605</v>
       </c>
       <c r="P24" t="n">
-        <v>43.591</v>
+        <v>-29.354</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-5.399999999999999</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-44</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-32.041</v>
+      </c>
+      <c r="O25" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25.641</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-44</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-32.041</v>
+      </c>
+      <c r="X25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-44.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-44.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="T25" t="n">
-        <v>8</v>
-      </c>
-      <c r="U25" t="n">
-        <v>8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>-44.1</v>
-      </c>
-      <c r="W25" t="n">
-        <v>-44.1</v>
-      </c>
-      <c r="X25" t="n">
-        <v>12.6</v>
-      </c>
       <c r="Y25" t="n">
-        <v>12.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>4.5</v>
+        <v>-5.6</v>
       </c>
       <c r="E26" t="n">
-        <v>1.75</v>
+        <v>-6.4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H26" t="n">
-        <v>4.25</v>
+        <v>-5.8</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75</v>
+        <v>-5.399999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>1.95</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>1.55</v>
+        <v>-12.1</v>
       </c>
       <c r="M26" t="n">
-        <v>47.3</v>
+        <v>44</v>
       </c>
       <c r="N26" t="n">
-        <v>45.059</v>
+        <v>-21.041</v>
       </c>
       <c r="O26" t="n">
-        <v>-42.8</v>
+        <v>-49.6</v>
       </c>
       <c r="P26" t="n">
-        <v>-43.309</v>
+        <v>14.641</v>
       </c>
       <c r="T26" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
+        <v>44</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-21.041</v>
+      </c>
+      <c r="X26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>4.5</v>
+        <v>-3.6</v>
       </c>
       <c r="E27" t="n">
-        <v>1.75</v>
+        <v>8.9</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.25</v>
+        <v>-4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>-2.7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>9.65</v>
       </c>
       <c r="K27" t="n">
-        <v>1.55</v>
+        <v>8.15</v>
       </c>
       <c r="M27" t="n">
-        <v>47.3</v>
+        <v>-39.483</v>
       </c>
       <c r="N27" t="n">
-        <v>-43.141</v>
+        <v>-38.5</v>
       </c>
       <c r="O27" t="n">
-        <v>-42.8</v>
+        <v>35.883</v>
       </c>
       <c r="P27" t="n">
-        <v>44.891</v>
-      </c>
-      <c r="T27" t="n">
-        <v>20</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.02</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>5.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E28" t="n">
-        <v>3.25</v>
+        <v>8.9</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>-2.7</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>-0.9</v>
       </c>
       <c r="J28" t="n">
-        <v>9.75</v>
+        <v>9.65</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.25</v>
+        <v>8.15</v>
       </c>
       <c r="M28" t="n">
-        <v>-47.25</v>
+        <v>-39.483</v>
       </c>
       <c r="N28" t="n">
-        <v>-36.841</v>
+        <v>-27.5</v>
       </c>
       <c r="O28" t="n">
-        <v>52.95</v>
+        <v>37.683</v>
       </c>
       <c r="P28" t="n">
-        <v>40.091</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
-      <c r="V28" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="W28" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>25.2</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.25</v>
+        <v>8.9</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>-0.9</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="J29" t="n">
-        <v>9.75</v>
+        <v>9.65</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.25</v>
+        <v>8.15</v>
       </c>
       <c r="M29" t="n">
-        <v>47.25</v>
+        <v>-28.483</v>
       </c>
       <c r="N29" t="n">
-        <v>-24.241</v>
+        <v>-27.5</v>
       </c>
       <c r="O29" t="n">
-        <v>-41.55</v>
+        <v>28.483</v>
       </c>
       <c r="P29" t="n">
-        <v>27.491</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1</v>
-      </c>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
-      <c r="V29" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W29" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>25.2</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
-        <v>-10.1</v>
+        <v>1.8</v>
       </c>
       <c r="E30" t="n">
-        <v>12.25</v>
+        <v>8.9</v>
       </c>
       <c r="F30" t="n">
         <v>1.8</v>
@@ -1692,42 +1644,42 @@
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>-11</v>
+        <v>0.9</v>
       </c>
       <c r="I30" t="n">
-        <v>-9.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
-        <v>13</v>
+        <v>9.65</v>
       </c>
       <c r="K30" t="n">
-        <v>11.5</v>
+        <v>8.15</v>
       </c>
       <c r="M30" t="n">
-        <v>-45.083</v>
+        <v>-28.483</v>
       </c>
       <c r="N30" t="n">
-        <v>-44.1</v>
+        <v>-38.5</v>
       </c>
       <c r="O30" t="n">
-        <v>34.983</v>
+        <v>30.283</v>
       </c>
       <c r="P30" t="n">
-        <v>56.35</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E31" t="n">
-        <v>12.25</v>
+        <v>8.9</v>
       </c>
       <c r="F31" t="n">
         <v>1.8</v>
@@ -1736,42 +1688,42 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>-9.200000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>13</v>
+        <v>9.65</v>
       </c>
       <c r="K31" t="n">
-        <v>11.5</v>
+        <v>8.15</v>
       </c>
       <c r="M31" t="n">
-        <v>-45.083</v>
+        <v>-17.483</v>
       </c>
       <c r="N31" t="n">
-        <v>-31.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O31" t="n">
-        <v>36.783</v>
+        <v>21.083</v>
       </c>
       <c r="P31" t="n">
-        <v>43.75</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.5</v>
+        <v>-3.6</v>
       </c>
       <c r="E32" t="n">
-        <v>12.25</v>
+        <v>8.9</v>
       </c>
       <c r="F32" t="n">
         <v>1.8</v>
@@ -1780,42 +1732,42 @@
         <v>1.5</v>
       </c>
       <c r="H32" t="n">
-        <v>-7.4</v>
+        <v>-4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>-5.6</v>
+        <v>-2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>13</v>
+        <v>9.65</v>
       </c>
       <c r="K32" t="n">
-        <v>11.5</v>
+        <v>8.15</v>
       </c>
       <c r="M32" t="n">
-        <v>-32.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N32" t="n">
-        <v>-31.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O32" t="n">
-        <v>25.983</v>
+        <v>2.883</v>
       </c>
       <c r="P32" t="n">
-        <v>43.75</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E33" t="n">
-        <v>12.25</v>
+        <v>7.4</v>
       </c>
       <c r="F33" t="n">
         <v>1.8</v>
@@ -1824,42 +1776,42 @@
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.600000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="J33" t="n">
-        <v>13</v>
+        <v>8.15</v>
       </c>
       <c r="K33" t="n">
-        <v>11.5</v>
+        <v>6.65</v>
       </c>
       <c r="M33" t="n">
-        <v>-32.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N33" t="n">
-        <v>-44.1</v>
+        <v>-27.5</v>
       </c>
       <c r="O33" t="n">
-        <v>27.783</v>
+        <v>4.683</v>
       </c>
       <c r="P33" t="n">
-        <v>56.35</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>12.25</v>
+        <v>7.4</v>
       </c>
       <c r="F34" t="n">
         <v>1.8</v>
@@ -1868,42 +1820,42 @@
         <v>1.5</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I34" t="n">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="J34" t="n">
-        <v>13</v>
+        <v>8.15</v>
       </c>
       <c r="K34" t="n">
-        <v>11.5</v>
+        <v>6.65</v>
       </c>
       <c r="M34" t="n">
-        <v>-19.883</v>
+        <v>-17.483</v>
       </c>
       <c r="N34" t="n">
-        <v>-44.1</v>
+        <v>-27.5</v>
       </c>
       <c r="O34" t="n">
-        <v>16.983</v>
+        <v>17.483</v>
       </c>
       <c r="P34" t="n">
-        <v>56.35</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D35" t="n">
-        <v>-10.1</v>
+        <v>1.8</v>
       </c>
       <c r="E35" t="n">
-        <v>10.75</v>
+        <v>7.4</v>
       </c>
       <c r="F35" t="n">
         <v>1.8</v>
@@ -1912,42 +1864,42 @@
         <v>1.5</v>
       </c>
       <c r="H35" t="n">
-        <v>-11</v>
+        <v>0.9</v>
       </c>
       <c r="I35" t="n">
-        <v>-9.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J35" t="n">
-        <v>11.5</v>
+        <v>8.15</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="M35" t="n">
-        <v>-7.283</v>
+        <v>-17.483</v>
       </c>
       <c r="N35" t="n">
-        <v>-44.1</v>
+        <v>-16.5</v>
       </c>
       <c r="O35" t="n">
-        <v>-2.816999999999999</v>
+        <v>19.283</v>
       </c>
       <c r="P35" t="n">
-        <v>54.85</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E36" t="n">
-        <v>10.75</v>
+        <v>7.4</v>
       </c>
       <c r="F36" t="n">
         <v>1.8</v>
@@ -1956,42 +1908,42 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>-9.200000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="I36" t="n">
-        <v>-7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>11.5</v>
+        <v>8.15</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="M36" t="n">
-        <v>-7.283</v>
+        <v>-6.483</v>
       </c>
       <c r="N36" t="n">
-        <v>-31.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.017</v>
+        <v>10.083</v>
       </c>
       <c r="P36" t="n">
-        <v>42.25</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.5</v>
+        <v>-3.6</v>
       </c>
       <c r="E37" t="n">
-        <v>10.75</v>
+        <v>7.4</v>
       </c>
       <c r="F37" t="n">
         <v>1.8</v>
@@ -2000,42 +1952,42 @@
         <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.4</v>
+        <v>-4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>-5.6</v>
+        <v>-2.7</v>
       </c>
       <c r="J37" t="n">
-        <v>11.5</v>
+        <v>8.15</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="M37" t="n">
-        <v>-19.883</v>
+        <v>-6.483</v>
       </c>
       <c r="N37" t="n">
-        <v>-31.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O37" t="n">
-        <v>13.383</v>
+        <v>2.883</v>
       </c>
       <c r="P37" t="n">
-        <v>42.25</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E38" t="n">
-        <v>10.75</v>
+        <v>7.4</v>
       </c>
       <c r="F38" t="n">
         <v>1.8</v>
@@ -2044,42 +1996,42 @@
         <v>1.5</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.600000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="I38" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="J38" t="n">
-        <v>11.5</v>
+        <v>8.15</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="M38" t="n">
-        <v>-19.883</v>
+        <v>-17.483</v>
       </c>
       <c r="N38" t="n">
-        <v>-18.9</v>
+        <v>-5.5</v>
       </c>
       <c r="O38" t="n">
-        <v>15.183</v>
+        <v>15.683</v>
       </c>
       <c r="P38" t="n">
-        <v>29.65</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>10.75</v>
+        <v>5.9</v>
       </c>
       <c r="F39" t="n">
         <v>1.8</v>
@@ -2088,42 +2040,42 @@
         <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I39" t="n">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="J39" t="n">
-        <v>11.5</v>
+        <v>6.65</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>5.15</v>
       </c>
       <c r="M39" t="n">
-        <v>-7.283</v>
+        <v>-28.483</v>
       </c>
       <c r="N39" t="n">
-        <v>-18.9</v>
+        <v>-5.5</v>
       </c>
       <c r="O39" t="n">
-        <v>4.383000000000001</v>
+        <v>28.483</v>
       </c>
       <c r="P39" t="n">
-        <v>29.65</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D40" t="n">
-        <v>-10.1</v>
+        <v>1.8</v>
       </c>
       <c r="E40" t="n">
-        <v>9.25</v>
+        <v>5.9</v>
       </c>
       <c r="F40" t="n">
         <v>1.8</v>
@@ -2132,42 +2084,42 @@
         <v>1.5</v>
       </c>
       <c r="H40" t="n">
-        <v>-11</v>
+        <v>0.9</v>
       </c>
       <c r="I40" t="n">
-        <v>-9.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="K40" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="M40" t="n">
-        <v>-7.283</v>
+        <v>-28.483</v>
       </c>
       <c r="N40" t="n">
-        <v>-6.3</v>
+        <v>-16.5</v>
       </c>
       <c r="O40" t="n">
-        <v>-2.816999999999999</v>
+        <v>30.283</v>
       </c>
       <c r="P40" t="n">
-        <v>15.55</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E41" t="n">
-        <v>9.25</v>
+        <v>5.9</v>
       </c>
       <c r="F41" t="n">
         <v>1.8</v>
@@ -2176,42 +2128,42 @@
         <v>1.5</v>
       </c>
       <c r="H41" t="n">
-        <v>-9.200000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="I41" t="n">
-        <v>-7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="K41" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="M41" t="n">
-        <v>-19.883</v>
+        <v>-39.483</v>
       </c>
       <c r="N41" t="n">
-        <v>-6.3</v>
+        <v>-16.5</v>
       </c>
       <c r="O41" t="n">
-        <v>11.583</v>
+        <v>43.083</v>
       </c>
       <c r="P41" t="n">
-        <v>15.55</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>-6.5</v>
+        <v>-3.6</v>
       </c>
       <c r="E42" t="n">
-        <v>9.25</v>
+        <v>5.9</v>
       </c>
       <c r="F42" t="n">
         <v>1.8</v>
@@ -2220,42 +2172,42 @@
         <v>1.5</v>
       </c>
       <c r="H42" t="n">
-        <v>-7.4</v>
+        <v>-4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>-5.6</v>
+        <v>-2.7</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="K42" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="M42" t="n">
-        <v>-32.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N42" t="n">
-        <v>-6.3</v>
+        <v>-5.5</v>
       </c>
       <c r="O42" t="n">
-        <v>25.983</v>
+        <v>35.883</v>
       </c>
       <c r="P42" t="n">
-        <v>15.55</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E43" t="n">
-        <v>9.25</v>
+        <v>5.9</v>
       </c>
       <c r="F43" t="n">
         <v>1.8</v>
@@ -2264,42 +2216,42 @@
         <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.600000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="K43" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="M43" t="n">
-        <v>-32.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N43" t="n">
-        <v>-18.9</v>
+        <v>5.5</v>
       </c>
       <c r="O43" t="n">
-        <v>27.783</v>
+        <v>37.683</v>
       </c>
       <c r="P43" t="n">
-        <v>28.15</v>
+        <v>0.4000000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9.25</v>
+        <v>5.9</v>
       </c>
       <c r="F44" t="n">
         <v>1.8</v>
@@ -2308,42 +2260,42 @@
         <v>1.5</v>
       </c>
       <c r="H44" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I44" t="n">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>6.65</v>
       </c>
       <c r="K44" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="M44" t="n">
-        <v>-45.083</v>
+        <v>-28.483</v>
       </c>
       <c r="N44" t="n">
-        <v>-18.9</v>
+        <v>5.5</v>
       </c>
       <c r="O44" t="n">
-        <v>42.183</v>
+        <v>28.483</v>
       </c>
       <c r="P44" t="n">
-        <v>28.15</v>
+        <v>0.4000000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D45" t="n">
-        <v>-10.1</v>
+        <v>1.8</v>
       </c>
       <c r="E45" t="n">
-        <v>7.75</v>
+        <v>4.4</v>
       </c>
       <c r="F45" t="n">
         <v>1.8</v>
@@ -2352,42 +2304,42 @@
         <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>-11</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
-        <v>-9.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="M45" t="n">
-        <v>-45.083</v>
+        <v>-28.483</v>
       </c>
       <c r="N45" t="n">
-        <v>-6.3</v>
+        <v>16.5</v>
       </c>
       <c r="O45" t="n">
-        <v>34.983</v>
+        <v>30.283</v>
       </c>
       <c r="P45" t="n">
-        <v>14.05</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E46" t="n">
-        <v>7.75</v>
+        <v>4.4</v>
       </c>
       <c r="F46" t="n">
         <v>1.8</v>
@@ -2396,42 +2348,42 @@
         <v>1.5</v>
       </c>
       <c r="H46" t="n">
-        <v>-9.200000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="I46" t="n">
-        <v>-7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J46" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="M46" t="n">
-        <v>-45.083</v>
+        <v>-39.483</v>
       </c>
       <c r="N46" t="n">
-        <v>6.3</v>
+        <v>16.5</v>
       </c>
       <c r="O46" t="n">
-        <v>36.783</v>
+        <v>43.083</v>
       </c>
       <c r="P46" t="n">
-        <v>1.45</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.5</v>
+        <v>-3.6</v>
       </c>
       <c r="E47" t="n">
-        <v>7.75</v>
+        <v>4.4</v>
       </c>
       <c r="F47" t="n">
         <v>1.8</v>
@@ -2440,42 +2392,42 @@
         <v>1.5</v>
       </c>
       <c r="H47" t="n">
-        <v>-7.4</v>
+        <v>-4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.6</v>
+        <v>-2.7</v>
       </c>
       <c r="J47" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="K47" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="M47" t="n">
-        <v>-32.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N47" t="n">
-        <v>6.3</v>
+        <v>27.5</v>
       </c>
       <c r="O47" t="n">
-        <v>25.983</v>
+        <v>35.883</v>
       </c>
       <c r="P47" t="n">
-        <v>1.45</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E48" t="n">
-        <v>7.75</v>
+        <v>4.4</v>
       </c>
       <c r="F48" t="n">
         <v>1.8</v>
@@ -2484,42 +2436,42 @@
         <v>1.5</v>
       </c>
       <c r="H48" t="n">
-        <v>-5.600000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="I48" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="J48" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="M48" t="n">
-        <v>-32.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N48" t="n">
-        <v>18.9</v>
+        <v>38.5</v>
       </c>
       <c r="O48" t="n">
-        <v>27.783</v>
+        <v>37.683</v>
       </c>
       <c r="P48" t="n">
-        <v>-11.15</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>7.75</v>
+        <v>4.4</v>
       </c>
       <c r="F49" t="n">
         <v>1.8</v>
@@ -2528,42 +2480,42 @@
         <v>1.5</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I49" t="n">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="J49" t="n">
-        <v>8.5</v>
+        <v>5.15</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="M49" t="n">
-        <v>-45.083</v>
+        <v>-28.483</v>
       </c>
       <c r="N49" t="n">
-        <v>18.9</v>
+        <v>38.5</v>
       </c>
       <c r="O49" t="n">
-        <v>42.183</v>
+        <v>28.483</v>
       </c>
       <c r="P49" t="n">
-        <v>-11.15</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>-10.1</v>
+        <v>1.8</v>
       </c>
       <c r="E50" t="n">
-        <v>6.25</v>
+        <v>4.4</v>
       </c>
       <c r="F50" t="n">
         <v>1.8</v>
@@ -2572,42 +2524,42 @@
         <v>1.5</v>
       </c>
       <c r="H50" t="n">
-        <v>-11</v>
+        <v>0.9</v>
       </c>
       <c r="I50" t="n">
-        <v>-9.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>5.15</v>
       </c>
       <c r="K50" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="M50" t="n">
-        <v>-45.083</v>
+        <v>-28.483</v>
       </c>
       <c r="N50" t="n">
-        <v>31.5</v>
+        <v>27.5</v>
       </c>
       <c r="O50" t="n">
-        <v>34.983</v>
+        <v>30.283</v>
       </c>
       <c r="P50" t="n">
-        <v>-25.25</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E51" t="n">
-        <v>6.25</v>
+        <v>2.9</v>
       </c>
       <c r="F51" t="n">
         <v>1.8</v>
@@ -2616,42 +2568,42 @@
         <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.200000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="I51" t="n">
-        <v>-7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="K51" t="n">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="M51" t="n">
-        <v>-45.083</v>
+        <v>-17.483</v>
       </c>
       <c r="N51" t="n">
-        <v>44.1</v>
+        <v>27.5</v>
       </c>
       <c r="O51" t="n">
-        <v>36.783</v>
+        <v>21.083</v>
       </c>
       <c r="P51" t="n">
-        <v>-37.85</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.5</v>
+        <v>-3.6</v>
       </c>
       <c r="E52" t="n">
-        <v>6.25</v>
+        <v>2.9</v>
       </c>
       <c r="F52" t="n">
         <v>1.8</v>
@@ -2660,42 +2612,42 @@
         <v>1.5</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.4</v>
+        <v>-4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>-5.6</v>
+        <v>-2.7</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="M52" t="n">
-        <v>-32.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N52" t="n">
-        <v>44.1</v>
+        <v>38.5</v>
       </c>
       <c r="O52" t="n">
-        <v>25.983</v>
+        <v>13.883</v>
       </c>
       <c r="P52" t="n">
-        <v>-37.85</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E53" t="n">
-        <v>6.25</v>
+        <v>2.9</v>
       </c>
       <c r="F53" t="n">
         <v>1.8</v>
@@ -2704,42 +2656,42 @@
         <v>1.5</v>
       </c>
       <c r="H53" t="n">
-        <v>-5.600000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="I53" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="K53" t="n">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="M53" t="n">
-        <v>-32.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N53" t="n">
-        <v>31.5</v>
+        <v>38.5</v>
       </c>
       <c r="O53" t="n">
-        <v>27.783</v>
+        <v>4.683</v>
       </c>
       <c r="P53" t="n">
-        <v>-25.25</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>6.25</v>
+        <v>2.9</v>
       </c>
       <c r="F54" t="n">
         <v>1.8</v>
@@ -2748,42 +2700,42 @@
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>-3.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I54" t="n">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="M54" t="n">
-        <v>-19.883</v>
+        <v>-6.483</v>
       </c>
       <c r="N54" t="n">
-        <v>31.5</v>
+        <v>27.5</v>
       </c>
       <c r="O54" t="n">
-        <v>16.983</v>
+        <v>6.483</v>
       </c>
       <c r="P54" t="n">
-        <v>-25.25</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D55" t="n">
-        <v>-10.1</v>
+        <v>1.8</v>
       </c>
       <c r="E55" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="F55" t="n">
         <v>1.8</v>
@@ -2792,42 +2744,42 @@
         <v>1.5</v>
       </c>
       <c r="H55" t="n">
-        <v>-11</v>
+        <v>0.9</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J55" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="M55" t="n">
-        <v>-19.883</v>
+        <v>-6.483</v>
       </c>
       <c r="N55" t="n">
-        <v>44.1</v>
+        <v>16.5</v>
       </c>
       <c r="O55" t="n">
-        <v>9.782999999999999</v>
+        <v>8.282999999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>-39.35</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E56" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="F56" t="n">
         <v>1.8</v>
@@ -2836,42 +2788,42 @@
         <v>1.5</v>
       </c>
       <c r="H56" t="n">
-        <v>-9.200000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="I56" t="n">
-        <v>-7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="M56" t="n">
-        <v>-7.283</v>
+        <v>-17.483</v>
       </c>
       <c r="N56" t="n">
-        <v>44.1</v>
+        <v>16.5</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.017</v>
+        <v>21.083</v>
       </c>
       <c r="P56" t="n">
-        <v>-39.35</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.5</v>
+        <v>-0.9</v>
       </c>
       <c r="E57" t="n">
-        <v>4.75</v>
+        <v>-1.4</v>
       </c>
       <c r="F57" t="n">
         <v>1.8</v>
@@ -2880,42 +2832,42 @@
         <v>1.5</v>
       </c>
       <c r="H57" t="n">
-        <v>-7.4</v>
+        <v>-1.8</v>
       </c>
       <c r="I57" t="n">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>-0.6499999999999999</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-17.483</v>
+      </c>
+      <c r="N57" t="n">
         <v>5.5</v>
       </c>
-      <c r="K57" t="n">
-        <v>4</v>
-      </c>
-      <c r="M57" t="n">
-        <v>-7.283</v>
-      </c>
-      <c r="N57" t="n">
-        <v>31.5</v>
-      </c>
       <c r="O57" t="n">
-        <v>0.7830000000000004</v>
+        <v>16.583</v>
       </c>
       <c r="P57" t="n">
-        <v>-26.75</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.7</v>
+        <v>0.9</v>
       </c>
       <c r="E58" t="n">
-        <v>4.75</v>
+        <v>-1.4</v>
       </c>
       <c r="F58" t="n">
         <v>1.8</v>
@@ -2924,42 +2876,42 @@
         <v>1.5</v>
       </c>
       <c r="H58" t="n">
-        <v>-5.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-3.8</v>
+        <v>1.8</v>
       </c>
       <c r="J58" t="n">
+        <v>-0.6499999999999999</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-6.483</v>
+      </c>
+      <c r="N58" t="n">
         <v>5.5</v>
       </c>
-      <c r="K58" t="n">
-        <v>4</v>
-      </c>
-      <c r="M58" t="n">
-        <v>-7.283</v>
-      </c>
-      <c r="N58" t="n">
-        <v>18.9</v>
-      </c>
       <c r="O58" t="n">
-        <v>2.583</v>
+        <v>7.383</v>
       </c>
       <c r="P58" t="n">
-        <v>-14.15</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.9</v>
+        <v>-0.9</v>
       </c>
       <c r="E59" t="n">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="F59" t="n">
         <v>1.8</v>
@@ -2968,42 +2920,42 @@
         <v>1.5</v>
       </c>
       <c r="H59" t="n">
-        <v>-3.8</v>
+        <v>-1.8</v>
       </c>
       <c r="I59" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.517</v>
+      </c>
+      <c r="N59" t="n">
         <v>5.5</v>
       </c>
-      <c r="K59" t="n">
-        <v>4</v>
-      </c>
-      <c r="M59" t="n">
-        <v>-19.883</v>
-      </c>
-      <c r="N59" t="n">
-        <v>18.9</v>
-      </c>
       <c r="O59" t="n">
-        <v>16.983</v>
+        <v>-5.417000000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>-14.15</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D60" t="n">
-        <v>-10.1</v>
+        <v>0.9</v>
       </c>
       <c r="E60" t="n">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="F60" t="n">
         <v>1.8</v>
@@ -3012,42 +2964,42 @@
         <v>1.5</v>
       </c>
       <c r="H60" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-9.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="K60" t="n">
-        <v>2.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>-19.883</v>
+        <v>15.517</v>
       </c>
       <c r="N60" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="O60" t="n">
-        <v>9.782999999999999</v>
+        <v>-14.617</v>
       </c>
       <c r="P60" t="n">
-        <v>-3.05</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="E61" t="n">
-        <v>3.25</v>
+        <v>-8.9</v>
       </c>
       <c r="F61" t="n">
         <v>1.8</v>
@@ -3056,42 +3008,42 @@
         <v>1.5</v>
       </c>
       <c r="H61" t="n">
-        <v>-9.200000000000001</v>
+        <v>-4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>-8.15</v>
       </c>
       <c r="K61" t="n">
-        <v>2.5</v>
+        <v>-9.65</v>
       </c>
       <c r="M61" t="n">
-        <v>-7.283</v>
+        <v>15.517</v>
       </c>
       <c r="N61" t="n">
-        <v>6.3</v>
+        <v>16.5</v>
       </c>
       <c r="O61" t="n">
-        <v>-1.017</v>
+        <v>-19.117</v>
       </c>
       <c r="P61" t="n">
-        <v>-3.05</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.5</v>
+        <v>-1.8</v>
       </c>
       <c r="E62" t="n">
-        <v>3.25</v>
+        <v>-8.9</v>
       </c>
       <c r="F62" t="n">
         <v>1.8</v>
@@ -3100,42 +3052,42 @@
         <v>1.5</v>
       </c>
       <c r="H62" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I62" t="n">
-        <v>-5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>-8.15</v>
       </c>
       <c r="K62" t="n">
-        <v>2.5</v>
+        <v>-9.65</v>
       </c>
       <c r="M62" t="n">
-        <v>5.317</v>
+        <v>4.517</v>
       </c>
       <c r="N62" t="n">
-        <v>6.3</v>
+        <v>16.5</v>
       </c>
       <c r="O62" t="n">
-        <v>-11.817</v>
+        <v>-6.317</v>
       </c>
       <c r="P62" t="n">
-        <v>-3.05</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>3.25</v>
+        <v>-8.9</v>
       </c>
       <c r="F63" t="n">
         <v>1.8</v>
@@ -3144,42 +3096,42 @@
         <v>1.5</v>
       </c>
       <c r="H63" t="n">
-        <v>-5.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I63" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>-8.15</v>
       </c>
       <c r="K63" t="n">
-        <v>2.5</v>
+        <v>-9.65</v>
       </c>
       <c r="M63" t="n">
-        <v>17.917</v>
+        <v>4.517</v>
       </c>
       <c r="N63" t="n">
-        <v>6.3</v>
+        <v>27.5</v>
       </c>
       <c r="O63" t="n">
-        <v>-22.617</v>
+        <v>-4.517</v>
       </c>
       <c r="P63" t="n">
-        <v>-3.05</v>
+        <v>-36.4</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.9</v>
+        <v>1.8</v>
       </c>
       <c r="E64" t="n">
-        <v>3.25</v>
+        <v>-8.9</v>
       </c>
       <c r="F64" t="n">
         <v>1.8</v>
@@ -3188,42 +3140,42 @@
         <v>1.5</v>
       </c>
       <c r="H64" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="I64" t="n">
-        <v>-2</v>
+        <v>2.7</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>-8.15</v>
       </c>
       <c r="K64" t="n">
-        <v>2.5</v>
+        <v>-9.65</v>
       </c>
       <c r="M64" t="n">
-        <v>17.917</v>
+        <v>4.517</v>
       </c>
       <c r="N64" t="n">
-        <v>18.9</v>
+        <v>38.5</v>
       </c>
       <c r="O64" t="n">
-        <v>-20.817</v>
+        <v>-2.717000000000001</v>
       </c>
       <c r="P64" t="n">
-        <v>-15.65</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D65" t="n">
-        <v>-10.1</v>
+        <v>3.6</v>
       </c>
       <c r="E65" t="n">
-        <v>1.75</v>
+        <v>-8.9</v>
       </c>
       <c r="F65" t="n">
         <v>1.8</v>
@@ -3232,42 +3184,42 @@
         <v>1.5</v>
       </c>
       <c r="H65" t="n">
-        <v>-11</v>
+        <v>2.7</v>
       </c>
       <c r="I65" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.5</v>
+        <v>-8.15</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>-9.65</v>
       </c>
       <c r="M65" t="n">
-        <v>5.317</v>
+        <v>15.517</v>
       </c>
       <c r="N65" t="n">
-        <v>18.9</v>
+        <v>38.5</v>
       </c>
       <c r="O65" t="n">
-        <v>-15.417</v>
+        <v>-11.917</v>
       </c>
       <c r="P65" t="n">
-        <v>-17.15</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D66" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="E66" t="n">
-        <v>1.75</v>
+        <v>-8.9</v>
       </c>
       <c r="F66" t="n">
         <v>1.8</v>
@@ -3276,42 +3228,42 @@
         <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>-9.200000000000001</v>
+        <v>-4.5</v>
       </c>
       <c r="I66" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="J66" t="n">
-        <v>2.5</v>
+        <v>-8.15</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>-9.65</v>
       </c>
       <c r="M66" t="n">
-        <v>5.317</v>
+        <v>15.517</v>
       </c>
       <c r="N66" t="n">
-        <v>31.5</v>
+        <v>27.5</v>
       </c>
       <c r="O66" t="n">
-        <v>-13.617</v>
+        <v>-19.117</v>
       </c>
       <c r="P66" t="n">
-        <v>-29.75</v>
+        <v>-36.4</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.5</v>
+        <v>-1.8</v>
       </c>
       <c r="E67" t="n">
-        <v>1.75</v>
+        <v>-7.4</v>
       </c>
       <c r="F67" t="n">
         <v>1.8</v>
@@ -3320,42 +3272,42 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I67" t="n">
-        <v>-5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="J67" t="n">
-        <v>2.5</v>
+        <v>-6.65</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>-8.15</v>
       </c>
       <c r="M67" t="n">
-        <v>5.317</v>
+        <v>26.517</v>
       </c>
       <c r="N67" t="n">
-        <v>44.1</v>
+        <v>27.5</v>
       </c>
       <c r="O67" t="n">
-        <v>-11.817</v>
+        <v>-28.317</v>
       </c>
       <c r="P67" t="n">
-        <v>-42.35</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.75</v>
+        <v>-7.4</v>
       </c>
       <c r="F68" t="n">
         <v>1.8</v>
@@ -3364,42 +3316,42 @@
         <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>-5.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I68" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="J68" t="n">
-        <v>2.5</v>
+        <v>-6.65</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>-8.15</v>
       </c>
       <c r="M68" t="n">
-        <v>17.917</v>
+        <v>26.517</v>
       </c>
       <c r="N68" t="n">
-        <v>44.1</v>
+        <v>38.5</v>
       </c>
       <c r="O68" t="n">
-        <v>-22.617</v>
+        <v>-26.517</v>
       </c>
       <c r="P68" t="n">
-        <v>-42.35</v>
+        <v>-45.9</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.9</v>
+        <v>1.8</v>
       </c>
       <c r="E69" t="n">
-        <v>1.75</v>
+        <v>-7.4</v>
       </c>
       <c r="F69" t="n">
         <v>1.8</v>
@@ -3408,42 +3360,42 @@
         <v>1.5</v>
       </c>
       <c r="H69" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="I69" t="n">
-        <v>-2</v>
+        <v>2.7</v>
       </c>
       <c r="J69" t="n">
-        <v>2.5</v>
+        <v>-6.65</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>-8.15</v>
       </c>
       <c r="M69" t="n">
-        <v>17.917</v>
+        <v>37.517</v>
       </c>
       <c r="N69" t="n">
-        <v>31.5</v>
+        <v>38.5</v>
       </c>
       <c r="O69" t="n">
-        <v>-20.817</v>
+        <v>-35.71700000000001</v>
       </c>
       <c r="P69" t="n">
-        <v>-29.75</v>
+        <v>-45.9</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D70" t="n">
-        <v>-10.1</v>
+        <v>3.6</v>
       </c>
       <c r="E70" t="n">
-        <v>0.25</v>
+        <v>-7.4</v>
       </c>
       <c r="F70" t="n">
         <v>1.8</v>
@@ -3452,42 +3404,42 @@
         <v>1.5</v>
       </c>
       <c r="H70" t="n">
-        <v>-11</v>
+        <v>2.7</v>
       </c>
       <c r="I70" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>-6.65</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.5</v>
+        <v>-8.15</v>
       </c>
       <c r="M70" t="n">
-        <v>30.517</v>
+        <v>37.517</v>
       </c>
       <c r="N70" t="n">
-        <v>31.5</v>
+        <v>27.5</v>
       </c>
       <c r="O70" t="n">
-        <v>-40.617</v>
+        <v>-33.917</v>
       </c>
       <c r="P70" t="n">
-        <v>-31.25</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D71" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="E71" t="n">
-        <v>0.25</v>
+        <v>-7.4</v>
       </c>
       <c r="F71" t="n">
         <v>1.8</v>
@@ -3496,42 +3448,42 @@
         <v>1.5</v>
       </c>
       <c r="H71" t="n">
-        <v>-9.200000000000001</v>
+        <v>-4.5</v>
       </c>
       <c r="I71" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>-6.65</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.5</v>
+        <v>-8.15</v>
       </c>
       <c r="M71" t="n">
-        <v>30.517</v>
+        <v>37.517</v>
       </c>
       <c r="N71" t="n">
-        <v>44.1</v>
+        <v>16.5</v>
       </c>
       <c r="O71" t="n">
-        <v>-38.817</v>
+        <v>-41.117</v>
       </c>
       <c r="P71" t="n">
-        <v>-43.85</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.5</v>
+        <v>-1.8</v>
       </c>
       <c r="E72" t="n">
-        <v>0.25</v>
+        <v>-7.4</v>
       </c>
       <c r="F72" t="n">
         <v>1.8</v>
@@ -3540,42 +3492,42 @@
         <v>1.5</v>
       </c>
       <c r="H72" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I72" t="n">
-        <v>-5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>-6.65</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.5</v>
+        <v>-8.15</v>
       </c>
       <c r="M72" t="n">
-        <v>43.117</v>
+        <v>26.517</v>
       </c>
       <c r="N72" t="n">
-        <v>44.1</v>
+        <v>16.5</v>
       </c>
       <c r="O72" t="n">
-        <v>-49.617</v>
+        <v>-28.317</v>
       </c>
       <c r="P72" t="n">
-        <v>-43.85</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D73" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25</v>
+        <v>-5.9</v>
       </c>
       <c r="F73" t="n">
         <v>1.8</v>
@@ -3584,42 +3536,42 @@
         <v>1.5</v>
       </c>
       <c r="H73" t="n">
-        <v>-5.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I73" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>-5.15</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.5</v>
+        <v>-6.65</v>
       </c>
       <c r="M73" t="n">
-        <v>43.117</v>
+        <v>26.517</v>
       </c>
       <c r="N73" t="n">
-        <v>31.5</v>
+        <v>5.5</v>
       </c>
       <c r="O73" t="n">
-        <v>-47.817</v>
+        <v>-26.517</v>
       </c>
       <c r="P73" t="n">
-        <v>-31.25</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.9</v>
+        <v>1.8</v>
       </c>
       <c r="E74" t="n">
-        <v>0.25</v>
+        <v>-5.9</v>
       </c>
       <c r="F74" t="n">
         <v>1.8</v>
@@ -3628,42 +3580,42 @@
         <v>1.5</v>
       </c>
       <c r="H74" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="I74" t="n">
-        <v>-2</v>
+        <v>2.7</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>-5.15</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.5</v>
+        <v>-6.65</v>
       </c>
       <c r="M74" t="n">
-        <v>43.117</v>
+        <v>37.517</v>
       </c>
       <c r="N74" t="n">
-        <v>18.9</v>
+        <v>5.5</v>
       </c>
       <c r="O74" t="n">
-        <v>-46.017</v>
+        <v>-35.71700000000001</v>
       </c>
       <c r="P74" t="n">
-        <v>-18.65</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D75" t="n">
-        <v>-10.1</v>
+        <v>3.6</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.25</v>
+        <v>-5.9</v>
       </c>
       <c r="F75" t="n">
         <v>1.8</v>
@@ -3672,42 +3624,42 @@
         <v>1.5</v>
       </c>
       <c r="H75" t="n">
-        <v>-11</v>
+        <v>2.7</v>
       </c>
       <c r="I75" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.5</v>
+        <v>-5.15</v>
       </c>
       <c r="K75" t="n">
-        <v>-2</v>
+        <v>-6.65</v>
       </c>
       <c r="M75" t="n">
-        <v>30.517</v>
+        <v>37.517</v>
       </c>
       <c r="N75" t="n">
-        <v>18.9</v>
+        <v>-5.5</v>
       </c>
       <c r="O75" t="n">
-        <v>-40.617</v>
+        <v>-33.917</v>
       </c>
       <c r="P75" t="n">
-        <v>-20.15</v>
+        <v>-0.4000000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.25</v>
+        <v>-5.9</v>
       </c>
       <c r="F76" t="n">
         <v>1.8</v>
@@ -3716,42 +3668,42 @@
         <v>1.5</v>
       </c>
       <c r="H76" t="n">
-        <v>-9.200000000000001</v>
+        <v>-4.5</v>
       </c>
       <c r="I76" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.5</v>
+        <v>-5.15</v>
       </c>
       <c r="K76" t="n">
-        <v>-2</v>
+        <v>-6.65</v>
       </c>
       <c r="M76" t="n">
-        <v>30.517</v>
+        <v>37.517</v>
       </c>
       <c r="N76" t="n">
-        <v>6.3</v>
+        <v>-16.5</v>
       </c>
       <c r="O76" t="n">
-        <v>-38.817</v>
+        <v>-41.117</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.55</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.5</v>
+        <v>-1.8</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.25</v>
+        <v>-5.9</v>
       </c>
       <c r="F77" t="n">
         <v>1.8</v>
@@ -3760,42 +3712,42 @@
         <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I77" t="n">
-        <v>-5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.5</v>
+        <v>-5.15</v>
       </c>
       <c r="K77" t="n">
-        <v>-2</v>
+        <v>-6.65</v>
       </c>
       <c r="M77" t="n">
-        <v>43.117</v>
+        <v>26.517</v>
       </c>
       <c r="N77" t="n">
-        <v>6.3</v>
+        <v>-16.5</v>
       </c>
       <c r="O77" t="n">
-        <v>-49.617</v>
+        <v>-28.317</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.55</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D78" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.25</v>
+        <v>-5.9</v>
       </c>
       <c r="F78" t="n">
         <v>1.8</v>
@@ -3804,42 +3756,42 @@
         <v>1.5</v>
       </c>
       <c r="H78" t="n">
-        <v>-5.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I78" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.5</v>
+        <v>-5.15</v>
       </c>
       <c r="K78" t="n">
-        <v>-2</v>
+        <v>-6.65</v>
       </c>
       <c r="M78" t="n">
-        <v>43.117</v>
+        <v>26.517</v>
       </c>
       <c r="N78" t="n">
-        <v>-6.3</v>
+        <v>-5.5</v>
       </c>
       <c r="O78" t="n">
-        <v>-47.817</v>
+        <v>-26.517</v>
       </c>
       <c r="P78" t="n">
-        <v>5.05</v>
+        <v>-0.4000000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.9</v>
+        <v>1.8</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.25</v>
+        <v>-4.4</v>
       </c>
       <c r="F79" t="n">
         <v>1.8</v>
@@ -3848,42 +3800,42 @@
         <v>1.5</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="I79" t="n">
-        <v>-2</v>
+        <v>2.7</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.5</v>
+        <v>-3.65</v>
       </c>
       <c r="K79" t="n">
-        <v>-2</v>
+        <v>-5.15</v>
       </c>
       <c r="M79" t="n">
-        <v>43.117</v>
+        <v>15.517</v>
       </c>
       <c r="N79" t="n">
-        <v>-18.9</v>
+        <v>-5.5</v>
       </c>
       <c r="O79" t="n">
-        <v>-46.017</v>
+        <v>-13.717</v>
       </c>
       <c r="P79" t="n">
-        <v>17.65</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D80" t="n">
-        <v>-10.1</v>
+        <v>3.6</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.75</v>
+        <v>-4.4</v>
       </c>
       <c r="F80" t="n">
         <v>1.8</v>
@@ -3892,42 +3844,42 @@
         <v>1.5</v>
       </c>
       <c r="H80" t="n">
-        <v>-11</v>
+        <v>2.7</v>
       </c>
       <c r="I80" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J80" t="n">
-        <v>-2</v>
+        <v>-3.65</v>
       </c>
       <c r="K80" t="n">
-        <v>-3.5</v>
+        <v>-5.15</v>
       </c>
       <c r="M80" t="n">
-        <v>30.517</v>
+        <v>4.517</v>
       </c>
       <c r="N80" t="n">
-        <v>-18.9</v>
+        <v>-5.5</v>
       </c>
       <c r="O80" t="n">
-        <v>-40.617</v>
+        <v>-0.9170000000000003</v>
       </c>
       <c r="P80" t="n">
-        <v>16.15</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.75</v>
+        <v>-4.4</v>
       </c>
       <c r="F81" t="n">
         <v>1.8</v>
@@ -3936,42 +3888,42 @@
         <v>1.5</v>
       </c>
       <c r="H81" t="n">
-        <v>-9.200000000000001</v>
+        <v>-4.5</v>
       </c>
       <c r="I81" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="J81" t="n">
-        <v>-2</v>
+        <v>-3.65</v>
       </c>
       <c r="K81" t="n">
-        <v>-3.5</v>
+        <v>-5.15</v>
       </c>
       <c r="M81" t="n">
-        <v>30.517</v>
+        <v>4.517</v>
       </c>
       <c r="N81" t="n">
-        <v>-6.3</v>
+        <v>-16.5</v>
       </c>
       <c r="O81" t="n">
-        <v>-38.817</v>
+        <v>-8.117000000000001</v>
       </c>
       <c r="P81" t="n">
-        <v>3.55</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D82" t="n">
-        <v>-6.5</v>
+        <v>-1.8</v>
       </c>
       <c r="E82" t="n">
-        <v>-2.75</v>
+        <v>-4.4</v>
       </c>
       <c r="F82" t="n">
         <v>1.8</v>
@@ -3980,42 +3932,42 @@
         <v>1.5</v>
       </c>
       <c r="H82" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I82" t="n">
-        <v>-5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="J82" t="n">
-        <v>-2</v>
+        <v>-3.65</v>
       </c>
       <c r="K82" t="n">
-        <v>-3.5</v>
+        <v>-5.15</v>
       </c>
       <c r="M82" t="n">
-        <v>17.917</v>
+        <v>15.517</v>
       </c>
       <c r="N82" t="n">
-        <v>-6.3</v>
+        <v>-16.5</v>
       </c>
       <c r="O82" t="n">
-        <v>-24.417</v>
+        <v>-17.317</v>
       </c>
       <c r="P82" t="n">
-        <v>3.55</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D83" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>-2.75</v>
+        <v>-4.4</v>
       </c>
       <c r="F83" t="n">
         <v>1.8</v>
@@ -4024,42 +3976,42 @@
         <v>1.5</v>
       </c>
       <c r="H83" t="n">
-        <v>-5.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I83" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="J83" t="n">
-        <v>-2</v>
+        <v>-3.65</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.5</v>
+        <v>-5.15</v>
       </c>
       <c r="M83" t="n">
-        <v>5.317</v>
+        <v>15.517</v>
       </c>
       <c r="N83" t="n">
-        <v>-6.3</v>
+        <v>-27.5</v>
       </c>
       <c r="O83" t="n">
-        <v>-10.017</v>
+        <v>-15.517</v>
       </c>
       <c r="P83" t="n">
-        <v>3.55</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.9</v>
+        <v>1.8</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.75</v>
+        <v>-4.4</v>
       </c>
       <c r="F84" t="n">
         <v>1.8</v>
@@ -4068,42 +4020,42 @@
         <v>1.5</v>
       </c>
       <c r="H84" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="I84" t="n">
-        <v>-2</v>
+        <v>2.7</v>
       </c>
       <c r="J84" t="n">
-        <v>-2</v>
+        <v>-3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.5</v>
+        <v>-5.15</v>
       </c>
       <c r="M84" t="n">
-        <v>5.317</v>
+        <v>4.517</v>
       </c>
       <c r="N84" t="n">
-        <v>-18.9</v>
+        <v>-27.5</v>
       </c>
       <c r="O84" t="n">
-        <v>-8.217000000000001</v>
+        <v>-2.717000000000001</v>
       </c>
       <c r="P84" t="n">
-        <v>16.15</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D85" t="n">
-        <v>-10.1</v>
+        <v>3.6</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.25</v>
+        <v>-2.9</v>
       </c>
       <c r="F85" t="n">
         <v>1.8</v>
@@ -4112,42 +4064,42 @@
         <v>1.5</v>
       </c>
       <c r="H85" t="n">
-        <v>-11</v>
+        <v>2.7</v>
       </c>
       <c r="I85" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J85" t="n">
-        <v>-3.5</v>
+        <v>-2.15</v>
       </c>
       <c r="K85" t="n">
-        <v>-5</v>
+        <v>-3.65</v>
       </c>
       <c r="M85" t="n">
-        <v>17.917</v>
+        <v>4.517</v>
       </c>
       <c r="N85" t="n">
-        <v>-18.9</v>
+        <v>-38.5</v>
       </c>
       <c r="O85" t="n">
-        <v>-28.017</v>
+        <v>-0.9170000000000003</v>
       </c>
       <c r="P85" t="n">
-        <v>14.65</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="E86" t="n">
-        <v>-4.25</v>
+        <v>-2.9</v>
       </c>
       <c r="F86" t="n">
         <v>1.8</v>
@@ -4156,42 +4108,42 @@
         <v>1.5</v>
       </c>
       <c r="H86" t="n">
-        <v>-9.200000000000001</v>
+        <v>-4.5</v>
       </c>
       <c r="I86" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="J86" t="n">
-        <v>-3.5</v>
+        <v>-2.15</v>
       </c>
       <c r="K86" t="n">
-        <v>-5</v>
+        <v>-3.65</v>
       </c>
       <c r="M86" t="n">
-        <v>17.917</v>
+        <v>15.517</v>
       </c>
       <c r="N86" t="n">
-        <v>-31.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O86" t="n">
-        <v>-26.217</v>
+        <v>-19.117</v>
       </c>
       <c r="P86" t="n">
-        <v>27.25</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.5</v>
+        <v>-1.8</v>
       </c>
       <c r="E87" t="n">
-        <v>-4.25</v>
+        <v>-2.9</v>
       </c>
       <c r="F87" t="n">
         <v>1.8</v>
@@ -4200,42 +4152,42 @@
         <v>1.5</v>
       </c>
       <c r="H87" t="n">
-        <v>-7.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I87" t="n">
-        <v>-5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="J87" t="n">
-        <v>-3.5</v>
+        <v>-2.15</v>
       </c>
       <c r="K87" t="n">
-        <v>-5</v>
+        <v>-3.65</v>
       </c>
       <c r="M87" t="n">
-        <v>5.317</v>
+        <v>26.517</v>
       </c>
       <c r="N87" t="n">
-        <v>-31.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O87" t="n">
-        <v>-11.817</v>
+        <v>-28.317</v>
       </c>
       <c r="P87" t="n">
-        <v>27.25</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D88" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-4.25</v>
+        <v>-2.9</v>
       </c>
       <c r="F88" t="n">
         <v>1.8</v>
@@ -4244,43 +4196,43 @@
         <v>1.5</v>
       </c>
       <c r="H88" t="n">
-        <v>-5.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I88" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="J88" t="n">
-        <v>-3.5</v>
+        <v>-2.15</v>
       </c>
       <c r="K88" t="n">
-        <v>-5</v>
+        <v>-3.65</v>
       </c>
       <c r="M88" t="n">
-        <v>5.317</v>
+        <v>26.517</v>
       </c>
       <c r="N88" t="n">
-        <v>-44.1</v>
+        <v>-27.5</v>
       </c>
       <c r="O88" t="n">
-        <v>-10.017</v>
+        <v>-26.517</v>
       </c>
       <c r="P88" t="n">
-        <v>39.85</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E89" t="n">
         <v>-2.9</v>
       </c>
-      <c r="E89" t="n">
-        <v>-4.25</v>
-      </c>
       <c r="F89" t="n">
         <v>1.8</v>
       </c>
@@ -4288,42 +4240,42 @@
         <v>1.5</v>
       </c>
       <c r="H89" t="n">
-        <v>-3.8</v>
+        <v>0.9</v>
       </c>
       <c r="I89" t="n">
-        <v>-2</v>
+        <v>2.7</v>
       </c>
       <c r="J89" t="n">
-        <v>-3.5</v>
+        <v>-2.15</v>
       </c>
       <c r="K89" t="n">
-        <v>-5</v>
+        <v>-3.65</v>
       </c>
       <c r="M89" t="n">
-        <v>17.917</v>
+        <v>37.517</v>
       </c>
       <c r="N89" t="n">
-        <v>-44.1</v>
+        <v>-27.5</v>
       </c>
       <c r="O89" t="n">
-        <v>-20.817</v>
+        <v>-35.71700000000001</v>
       </c>
       <c r="P89" t="n">
-        <v>39.85</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D90" t="n">
-        <v>-10.1</v>
+        <v>3.6</v>
       </c>
       <c r="E90" t="n">
-        <v>-5.75</v>
+        <v>-2.9</v>
       </c>
       <c r="F90" t="n">
         <v>1.8</v>
@@ -4332,204 +4284,222 @@
         <v>1.5</v>
       </c>
       <c r="H90" t="n">
-        <v>-11</v>
+        <v>2.7</v>
       </c>
       <c r="I90" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J90" t="n">
-        <v>-5</v>
+        <v>-2.15</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.5</v>
+        <v>-3.65</v>
       </c>
       <c r="M90" t="n">
-        <v>30.517</v>
+        <v>37.517</v>
       </c>
       <c r="N90" t="n">
-        <v>-44.1</v>
+        <v>-38.5</v>
       </c>
       <c r="O90" t="n">
-        <v>-40.617</v>
+        <v>-33.917</v>
       </c>
       <c r="P90" t="n">
-        <v>38.35</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.300000000000001</v>
+        <v>-1.25</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.75</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
-        <v>-9.200000000000001</v>
+        <v>-1.9</v>
       </c>
       <c r="I91" t="n">
-        <v>-7.4</v>
+        <v>-0.6</v>
       </c>
       <c r="J91" t="n">
-        <v>-5</v>
+        <v>0.6</v>
       </c>
       <c r="K91" t="n">
-        <v>-6.5</v>
+        <v>-0.6</v>
       </c>
       <c r="M91" t="n">
-        <v>30.517</v>
+        <v>-38.925</v>
       </c>
       <c r="N91" t="n">
-        <v>-31.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O91" t="n">
-        <v>-38.817</v>
+        <v>37.675</v>
       </c>
       <c r="P91" t="n">
-        <v>25.75</v>
+        <v>38.5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>8</v>
+      </c>
+      <c r="U91" t="n">
+        <v>8</v>
+      </c>
+      <c r="V91" t="n">
+        <v>-38.925</v>
+      </c>
+      <c r="W91" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="X91" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.5</v>
+        <v>-3</v>
       </c>
       <c r="E92" t="n">
-        <v>-5.75</v>
+        <v>-11.45</v>
       </c>
       <c r="F92" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
-        <v>-7.4</v>
+        <v>-3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>-5.6</v>
+        <v>-2.6</v>
       </c>
       <c r="J92" t="n">
-        <v>-5</v>
+        <v>-11.05</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.5</v>
+        <v>-11.85</v>
       </c>
       <c r="M92" t="n">
-        <v>43.117</v>
+        <v>46.003</v>
       </c>
       <c r="N92" t="n">
-        <v>-31.5</v>
+        <v>17.259</v>
       </c>
       <c r="O92" t="n">
-        <v>-49.617</v>
+        <v>-49.003</v>
       </c>
       <c r="P92" t="n">
-        <v>25.75</v>
+        <v>-28.709</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D93" t="n">
-        <v>-4.7</v>
+        <v>-3</v>
       </c>
       <c r="E93" t="n">
-        <v>-5.75</v>
+        <v>-11.45</v>
       </c>
       <c r="F93" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
-        <v>-5.600000000000001</v>
+        <v>-3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>-3.8</v>
+        <v>-2.6</v>
       </c>
       <c r="J93" t="n">
-        <v>-5</v>
+        <v>-11.05</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.5</v>
+        <v>-11.85</v>
       </c>
       <c r="M93" t="n">
-        <v>43.117</v>
+        <v>46.003</v>
       </c>
       <c r="N93" t="n">
-        <v>-44.1</v>
+        <v>-15.341</v>
       </c>
       <c r="O93" t="n">
-        <v>-47.817</v>
+        <v>-49.003</v>
       </c>
       <c r="P93" t="n">
-        <v>38.35</v>
+        <v>3.891</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G94" t="n">
         <v>1.3</v>
       </c>
-      <c r="G94" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H94" t="n">
-        <v>-1.9</v>
+        <v>-0.6</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="J94" t="n">
         <v>0.65</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.5499999999999999</v>
+        <v>-0.65</v>
       </c>
       <c r="M94" t="n">
-        <v>-44.52500000000001</v>
+        <v>-37.283</v>
       </c>
       <c r="N94" t="n">
-        <v>-44.1</v>
+        <v>-38.5</v>
       </c>
       <c r="O94" t="n">
-        <v>43.27500000000001</v>
+        <v>37.283</v>
       </c>
       <c r="P94" t="n">
-        <v>44.15</v>
+        <v>38.5</v>
       </c>
       <c r="T94" t="n">
         <v>8</v>
@@ -4538,30 +4508,30 @@
         <v>8</v>
       </c>
       <c r="V94" t="n">
-        <v>-44.52500000000001</v>
+        <v>-37.283</v>
       </c>
       <c r="W94" t="n">
-        <v>-44.1</v>
+        <v>-38.5</v>
       </c>
       <c r="X94" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="Y94" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D95" t="n">
-        <v>4.5</v>
+        <v>-3.8</v>
       </c>
       <c r="E95" t="n">
-        <v>2.35</v>
+        <v>-11.45</v>
       </c>
       <c r="F95" t="n">
         <v>0.8</v>
@@ -4570,42 +4540,42 @@
         <v>0.8</v>
       </c>
       <c r="H95" t="n">
-        <v>4.1</v>
+        <v>-4.2</v>
       </c>
       <c r="I95" t="n">
-        <v>4.9</v>
+        <v>-3.4</v>
       </c>
       <c r="J95" t="n">
-        <v>2.75</v>
+        <v>-11.05</v>
       </c>
       <c r="K95" t="n">
-        <v>1.95</v>
+        <v>-11.85</v>
       </c>
       <c r="M95" t="n">
-        <v>49.25</v>
+        <v>46.003</v>
       </c>
       <c r="N95" t="n">
-        <v>7.059</v>
+        <v>17.259</v>
       </c>
       <c r="O95" t="n">
-        <v>-44.75</v>
+        <v>-49.803</v>
       </c>
       <c r="P95" t="n">
-        <v>-4.709</v>
+        <v>-28.709</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D96" t="n">
-        <v>4.5</v>
+        <v>-3.8</v>
       </c>
       <c r="E96" t="n">
-        <v>2.35</v>
+        <v>-11.45</v>
       </c>
       <c r="F96" t="n">
         <v>0.8</v>
@@ -4614,72 +4584,72 @@
         <v>0.8</v>
       </c>
       <c r="H96" t="n">
-        <v>4.1</v>
+        <v>-4.2</v>
       </c>
       <c r="I96" t="n">
-        <v>4.9</v>
+        <v>-3.4</v>
       </c>
       <c r="J96" t="n">
-        <v>2.75</v>
+        <v>-11.05</v>
       </c>
       <c r="K96" t="n">
-        <v>1.95</v>
+        <v>-11.85</v>
       </c>
       <c r="M96" t="n">
-        <v>49.25</v>
+        <v>46.003</v>
       </c>
       <c r="N96" t="n">
-        <v>-5.141</v>
+        <v>-15.341</v>
       </c>
       <c r="O96" t="n">
-        <v>-44.75</v>
+        <v>-49.803</v>
       </c>
       <c r="P96" t="n">
-        <v>7.491</v>
+        <v>3.891</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>-10.55</v>
       </c>
       <c r="F97" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.6</v>
+        <v>-2.6</v>
       </c>
       <c r="I97" t="n">
-        <v>0.6</v>
+        <v>-2.2</v>
       </c>
       <c r="J97" t="n">
-        <v>0.65</v>
+        <v>-10.15</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.65</v>
+        <v>-10.95</v>
       </c>
       <c r="M97" t="n">
-        <v>-42.883</v>
+        <v>-39.1</v>
       </c>
       <c r="N97" t="n">
-        <v>-44.1</v>
+        <v>-36.988</v>
       </c>
       <c r="O97" t="n">
-        <v>42.883</v>
+        <v>36.7</v>
       </c>
       <c r="P97" t="n">
-        <v>44.1</v>
+        <v>26.438</v>
       </c>
       <c r="T97" t="n">
         <v>8</v>
@@ -4688,242 +4658,278 @@
         <v>8</v>
       </c>
       <c r="V97" t="n">
-        <v>-42.883</v>
+        <v>-39.1</v>
       </c>
       <c r="W97" t="n">
-        <v>-44.1</v>
+        <v>-36.988</v>
       </c>
       <c r="X97" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="Y97" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D98" t="n">
-        <v>2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="E98" t="n">
-        <v>2.35</v>
+        <v>-11.25</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
-        <v>2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="I98" t="n">
-        <v>3.1</v>
+        <v>-2.2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.75</v>
+        <v>-10.95</v>
       </c>
       <c r="K98" t="n">
-        <v>1.95</v>
+        <v>-11.55</v>
       </c>
       <c r="M98" t="n">
-        <v>49.25</v>
+        <v>-39.1</v>
       </c>
       <c r="N98" t="n">
-        <v>7.059</v>
+        <v>-39.824</v>
       </c>
       <c r="O98" t="n">
-        <v>-46.55</v>
+        <v>36.7</v>
       </c>
       <c r="P98" t="n">
-        <v>-4.709</v>
+        <v>28.574</v>
+      </c>
+      <c r="T98" t="n">
+        <v>8</v>
+      </c>
+      <c r="U98" t="n">
+        <v>8</v>
+      </c>
+      <c r="V98" t="n">
+        <v>-39.1</v>
+      </c>
+      <c r="W98" t="n">
+        <v>-39.824</v>
+      </c>
+      <c r="X98" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D99" t="n">
-        <v>2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="E99" t="n">
-        <v>2.35</v>
+        <v>-11.75</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
-        <v>2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="I99" t="n">
-        <v>3.1</v>
+        <v>-2.2</v>
       </c>
       <c r="J99" t="n">
-        <v>2.75</v>
+        <v>-11.55</v>
       </c>
       <c r="K99" t="n">
-        <v>1.95</v>
+        <v>-11.95</v>
       </c>
       <c r="M99" t="n">
-        <v>49.25</v>
+        <v>-44</v>
       </c>
       <c r="N99" t="n">
-        <v>-5.141</v>
+        <v>-21.041</v>
       </c>
       <c r="O99" t="n">
-        <v>-46.55</v>
+        <v>41.6</v>
       </c>
       <c r="P99" t="n">
-        <v>7.491</v>
+        <v>9.290999999999997</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>-44</v>
+      </c>
+      <c r="W99" t="n">
+        <v>-21.041</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8</v>
+        <v>-2.4</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.25</v>
+        <v>-11.75</v>
       </c>
       <c r="F100" t="n">
         <v>0.4</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6000000000000001</v>
+        <v>-2.6</v>
       </c>
       <c r="I100" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-11.55</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-11.95</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-44</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-43.041</v>
+      </c>
+      <c r="O100" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="P100" t="n">
+        <v>31.291</v>
+      </c>
+      <c r="T100" t="n">
         <v>1</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="M100" t="n">
-        <v>-44.45</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-43.344</v>
-      </c>
-      <c r="O100" t="n">
-        <v>45.25</v>
-      </c>
-      <c r="P100" t="n">
-        <v>43.094</v>
-      </c>
-      <c r="T100" t="n">
-        <v>8</v>
-      </c>
       <c r="U100" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V100" t="n">
-        <v>-44.45</v>
+        <v>-44</v>
       </c>
       <c r="W100" t="n">
-        <v>-43.344</v>
+        <v>-43.041</v>
       </c>
       <c r="X100" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>12.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D101" t="n">
-        <v>1.2</v>
+        <v>-2.4</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.15</v>
+        <v>-11.75</v>
       </c>
       <c r="F101" t="n">
         <v>0.4</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-11.55</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-11.95</v>
+      </c>
+      <c r="M101" t="n">
+        <v>44</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-10.041</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-46.4</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-1.709</v>
+      </c>
+      <c r="T101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="M101" t="n">
-        <v>-44.45</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-44.754</v>
-      </c>
-      <c r="O101" t="n">
-        <v>45.65000000000001</v>
-      </c>
-      <c r="P101" t="n">
-        <v>44.604</v>
-      </c>
-      <c r="T101" t="n">
-        <v>8</v>
-      </c>
       <c r="U101" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V101" t="n">
-        <v>-44.45</v>
+        <v>44</v>
       </c>
       <c r="W101" t="n">
-        <v>-44.754</v>
+        <v>-10.041</v>
       </c>
       <c r="X101" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>12.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D102" t="n">
-        <v>1.5</v>
+        <v>-2.4</v>
       </c>
       <c r="E102" t="n">
-        <v>0.45</v>
+        <v>-11.75</v>
       </c>
       <c r="F102" t="n">
         <v>0.4</v>
@@ -4932,1612 +4938,568 @@
         <v>0.4</v>
       </c>
       <c r="H102" t="n">
-        <v>1.3</v>
+        <v>-2.6</v>
       </c>
       <c r="I102" t="n">
-        <v>1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="J102" t="n">
-        <v>0.65</v>
+        <v>-11.55</v>
       </c>
       <c r="K102" t="n">
-        <v>0.25</v>
+        <v>-11.95</v>
       </c>
       <c r="M102" t="n">
-        <v>-47.25</v>
+        <v>44</v>
       </c>
       <c r="N102" t="n">
-        <v>-24.241</v>
+        <v>-32.041</v>
       </c>
       <c r="O102" t="n">
-        <v>48.75</v>
+        <v>-46.4</v>
       </c>
       <c r="P102" t="n">
-        <v>24.691</v>
+        <v>20.291</v>
       </c>
       <c r="T102" t="n">
         <v>1</v>
       </c>
       <c r="U102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V102" t="n">
-        <v>-47.25</v>
+        <v>44</v>
       </c>
       <c r="W102" t="n">
-        <v>-24.241</v>
+        <v>-32.041</v>
       </c>
       <c r="X102" t="n">
         <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>25.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D103" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.45</v>
+        <v>10.9</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="G103" t="n">
         <v>0.4</v>
       </c>
       <c r="H103" t="n">
-        <v>1.3</v>
+        <v>-5.7</v>
       </c>
       <c r="I103" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="J103" t="n">
-        <v>0.65</v>
+        <v>11.1</v>
       </c>
       <c r="K103" t="n">
-        <v>0.25</v>
+        <v>10.7</v>
       </c>
       <c r="M103" t="n">
-        <v>-47.25</v>
+        <v>-38.5</v>
       </c>
       <c r="N103" t="n">
-        <v>-49.441</v>
+        <v>-36.582</v>
       </c>
       <c r="O103" t="n">
-        <v>48.75</v>
+        <v>38.5</v>
       </c>
       <c r="P103" t="n">
-        <v>49.89100000000001</v>
+        <v>47.482</v>
       </c>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U103" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V103" t="n">
-        <v>-47.25</v>
+        <v>-38.5</v>
       </c>
       <c r="W103" t="n">
-        <v>-49.441</v>
+        <v>-36.582</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y103" t="n">
-        <v>25.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D104" t="n">
-        <v>1.5</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.45</v>
+        <v>-0.9</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>22.4</v>
       </c>
       <c r="H104" t="n">
-        <v>1.3</v>
+        <v>-11</v>
       </c>
       <c r="I104" t="n">
-        <v>1.7</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>0.65</v>
+        <v>10.3</v>
       </c>
       <c r="K104" t="n">
-        <v>0.25</v>
+        <v>-12.1</v>
       </c>
       <c r="M104" t="n">
-        <v>47.25</v>
+        <v>45.005</v>
       </c>
       <c r="N104" t="n">
-        <v>-11.641</v>
+        <v>-26.536</v>
       </c>
       <c r="O104" t="n">
-        <v>-45.75</v>
+        <v>-54.80500000000001</v>
       </c>
       <c r="P104" t="n">
-        <v>12.091</v>
-      </c>
-      <c r="T104" t="n">
-        <v>1</v>
-      </c>
-      <c r="U104" t="n">
-        <v>3</v>
-      </c>
-      <c r="V104" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W104" t="n">
-        <v>-11.641</v>
-      </c>
-      <c r="X104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y104" t="n">
-        <v>25.2</v>
+        <v>25.636</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D105" t="n">
-        <v>1.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.45</v>
+        <v>-0.9</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>22.4</v>
       </c>
       <c r="H105" t="n">
-        <v>1.3</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="I105" t="n">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="J105" t="n">
-        <v>0.65</v>
+        <v>10.3</v>
       </c>
       <c r="K105" t="n">
-        <v>0.25</v>
+        <v>-12.1</v>
       </c>
       <c r="M105" t="n">
-        <v>47.25</v>
+        <v>45.005</v>
       </c>
       <c r="N105" t="n">
-        <v>-36.841</v>
+        <v>28.454</v>
       </c>
       <c r="O105" t="n">
-        <v>-45.75</v>
+        <v>-35.205</v>
       </c>
       <c r="P105" t="n">
-        <v>37.291</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" t="n">
-        <v>3</v>
-      </c>
-      <c r="V105" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W105" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="X105" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>25.2</v>
+        <v>-29.354</v>
       </c>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D106" t="n">
-        <v>1.5</v>
+        <v>-6</v>
       </c>
       <c r="E106" t="n">
-        <v>0.45</v>
+        <v>-6.4</v>
       </c>
       <c r="F106" t="n">
         <v>0.4</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H106" t="n">
-        <v>1.3</v>
+        <v>-6.2</v>
       </c>
       <c r="I106" t="n">
-        <v>1.7</v>
+        <v>-5.8</v>
       </c>
       <c r="J106" t="n">
-        <v>0.65</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>0.25</v>
+        <v>-12.1</v>
       </c>
       <c r="M106" t="n">
-        <v>51.2</v>
+        <v>-44</v>
       </c>
       <c r="N106" t="n">
-        <v>45.059</v>
+        <v>-32.041</v>
       </c>
       <c r="O106" t="n">
-        <v>-49.7</v>
+        <v>38</v>
       </c>
       <c r="P106" t="n">
-        <v>-44.60899999999999</v>
+        <v>25.641</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>-44</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-32.041</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D107" t="n">
-        <v>1.5</v>
+        <v>-6</v>
       </c>
       <c r="E107" t="n">
-        <v>0.45</v>
+        <v>-6.4</v>
       </c>
       <c r="F107" t="n">
         <v>0.4</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H107" t="n">
-        <v>1.3</v>
+        <v>-6.2</v>
       </c>
       <c r="I107" t="n">
-        <v>1.7</v>
+        <v>-5.8</v>
       </c>
       <c r="J107" t="n">
-        <v>0.65</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>0.25</v>
+        <v>-12.1</v>
       </c>
       <c r="M107" t="n">
-        <v>51.2</v>
+        <v>44</v>
       </c>
       <c r="N107" t="n">
-        <v>-43.141</v>
+        <v>-21.041</v>
       </c>
       <c r="O107" t="n">
-        <v>-49.7</v>
+        <v>-50</v>
       </c>
       <c r="P107" t="n">
-        <v>43.591</v>
+        <v>14.641</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>44</v>
+      </c>
+      <c r="W107" t="n">
+        <v>-21.041</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D108" t="n">
-        <v>1.35</v>
+        <v>5.75</v>
       </c>
       <c r="E108" t="n">
-        <v>2.95</v>
+        <v>-3.65</v>
       </c>
       <c r="F108" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="H108" t="n">
-        <v>-2</v>
+        <v>5.3</v>
       </c>
       <c r="I108" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="J108" t="n">
-        <v>3.15</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>2.75</v>
+        <v>-12.1</v>
       </c>
       <c r="M108" t="n">
-        <v>-44.1</v>
+        <v>-48.125</v>
       </c>
       <c r="N108" t="n">
-        <v>-43.141</v>
+        <v>-19.25</v>
       </c>
       <c r="O108" t="n">
-        <v>45.45</v>
+        <v>53.875</v>
       </c>
       <c r="P108" t="n">
-        <v>46.091</v>
+        <v>15.6</v>
       </c>
       <c r="T108" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="U108" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V108" t="n">
-        <v>-44.1</v>
+        <v>-48.125</v>
       </c>
       <c r="W108" t="n">
-        <v>-43.141</v>
+        <v>-19.25</v>
       </c>
       <c r="X108" t="n">
-        <v>6.3</v>
+        <v>96.25</v>
       </c>
       <c r="Y108" t="n">
-        <v>12.6</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D109" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>2.95</v>
+        <v>-12.55</v>
       </c>
       <c r="F109" t="n">
-        <v>6.7</v>
+        <v>16.9</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
-        <v>-2</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>4.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J109" t="n">
-        <v>3.15</v>
+        <v>-12.1</v>
       </c>
       <c r="K109" t="n">
-        <v>2.75</v>
+        <v>-13</v>
       </c>
       <c r="M109" t="n">
-        <v>51.2</v>
+        <v>-19.25</v>
       </c>
       <c r="N109" t="n">
-        <v>-24.241</v>
+        <v>-48.125</v>
       </c>
       <c r="O109" t="n">
-        <v>-49.84999999999999</v>
+        <v>19.25</v>
       </c>
       <c r="P109" t="n">
-        <v>27.191</v>
+        <v>35.575</v>
       </c>
       <c r="T109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V109" t="n">
-        <v>1.95</v>
+        <v>-19.25</v>
       </c>
       <c r="W109" t="n">
-        <v>-34.65</v>
+        <v>-48.125</v>
       </c>
       <c r="X109" t="n">
-        <v>6.3</v>
+        <v>38.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.02</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D110" t="n">
-        <v>1.35</v>
+        <v>-2.8</v>
       </c>
       <c r="E110" t="n">
-        <v>2.95</v>
+        <v>-10.85</v>
       </c>
       <c r="F110" t="n">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="G110" t="n">
         <v>0.4</v>
       </c>
       <c r="H110" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I110" t="n">
-        <v>4.7</v>
+        <v>-2.6</v>
       </c>
       <c r="J110" t="n">
-        <v>3.15</v>
+        <v>-10.65</v>
       </c>
       <c r="K110" t="n">
-        <v>2.75</v>
+        <v>-11.05</v>
       </c>
       <c r="M110" t="n">
-        <v>51.2</v>
+        <v>-39.1</v>
       </c>
       <c r="N110" t="n">
-        <v>-112.441</v>
+        <v>-40.034</v>
       </c>
       <c r="O110" t="n">
-        <v>-49.84999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="P110" t="n">
-        <v>115.391</v>
+        <v>29.184</v>
       </c>
       <c r="T110" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U110" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V110" t="n">
-        <v>1.95</v>
+        <v>-39.1</v>
       </c>
       <c r="W110" t="n">
-        <v>-34.65</v>
+        <v>-40.034</v>
       </c>
       <c r="X110" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.02</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D111" t="n">
-        <v>2.7</v>
+        <v>-0.65</v>
       </c>
       <c r="E111" t="n">
-        <v>1.75</v>
+        <v>-11.05</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
-        <v>2.45</v>
+        <v>-2.2</v>
       </c>
       <c r="I111" t="n">
-        <v>2.95</v>
+        <v>0.9</v>
       </c>
       <c r="J111" t="n">
-        <v>1.95</v>
+        <v>-10.15</v>
       </c>
       <c r="K111" t="n">
-        <v>1.55</v>
+        <v>-11.95</v>
       </c>
       <c r="M111" t="n">
-        <v>47.3</v>
+        <v>-39.626</v>
       </c>
       <c r="N111" t="n">
-        <v>45.059</v>
+        <v>-38.5</v>
       </c>
       <c r="O111" t="n">
-        <v>-44.59999999999999</v>
+        <v>38.976</v>
       </c>
       <c r="P111" t="n">
-        <v>-43.309</v>
+        <v>27.45</v>
       </c>
       <c r="T111" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="U111" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>-39.626</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="X111" t="n">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25">
-      <c r="A112" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M112" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="N112" t="n">
-        <v>-43.141</v>
-      </c>
-      <c r="O112" t="n">
-        <v>-44.59999999999999</v>
-      </c>
-      <c r="P112" t="n">
-        <v>44.891</v>
-      </c>
-      <c r="T112" t="n">
-        <v>20</v>
-      </c>
-      <c r="U112" t="n">
-        <v>1</v>
-      </c>
-      <c r="V112" t="n">
-        <v>0</v>
-      </c>
-      <c r="W112" t="n">
-        <v>0</v>
-      </c>
-      <c r="X112" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y112" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25">
-      <c r="A113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C113" t="s">
-        <v>102</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E113" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G113" t="n">
-        <v>13</v>
-      </c>
-      <c r="H113" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5.100000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="M113" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="N113" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="O113" t="n">
-        <v>52.15</v>
-      </c>
-      <c r="P113" t="n">
-        <v>40.091</v>
-      </c>
-      <c r="T113" t="n">
-        <v>1</v>
-      </c>
-      <c r="U113" t="n">
-        <v>4</v>
-      </c>
-      <c r="V113" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="W113" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="X113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25">
-      <c r="A114" t="s">
-        <v>94</v>
-      </c>
-      <c r="C114" t="s">
-        <v>102</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G114" t="n">
-        <v>13</v>
-      </c>
-      <c r="H114" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.100000000000001</v>
-      </c>
-      <c r="J114" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="M114" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="N114" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="O114" t="n">
-        <v>-42.35</v>
-      </c>
-      <c r="P114" t="n">
-        <v>27.491</v>
-      </c>
-      <c r="T114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U114" t="n">
-        <v>3</v>
-      </c>
-      <c r="V114" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W114" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="X114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25">
-      <c r="A115" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M115" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="N115" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="O115" t="n">
-        <v>49.15</v>
-      </c>
-      <c r="P115" t="n">
-        <v>24.691</v>
-      </c>
-      <c r="T115" t="n">
-        <v>1</v>
-      </c>
-      <c r="U115" t="n">
-        <v>4</v>
-      </c>
-      <c r="V115" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="W115" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="X115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y115" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25">
-      <c r="A116" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" t="s">
-        <v>104</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M116" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="N116" t="n">
-        <v>-49.441</v>
-      </c>
-      <c r="O116" t="n">
-        <v>49.15</v>
-      </c>
-      <c r="P116" t="n">
-        <v>49.89100000000001</v>
-      </c>
-      <c r="T116" t="n">
-        <v>1</v>
-      </c>
-      <c r="U116" t="n">
-        <v>4</v>
-      </c>
-      <c r="V116" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="W116" t="n">
-        <v>-49.441</v>
-      </c>
-      <c r="X116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25">
-      <c r="A117" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" t="s">
-        <v>104</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M117" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-11.641</v>
-      </c>
-      <c r="O117" t="n">
-        <v>-45.35</v>
-      </c>
-      <c r="P117" t="n">
-        <v>12.091</v>
-      </c>
-      <c r="T117" t="n">
-        <v>1</v>
-      </c>
-      <c r="U117" t="n">
-        <v>3</v>
-      </c>
-      <c r="V117" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W117" t="n">
-        <v>-11.641</v>
-      </c>
-      <c r="X117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25">
-      <c r="A118" t="s">
-        <v>103</v>
-      </c>
-      <c r="C118" t="s">
-        <v>104</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M118" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="N118" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="O118" t="n">
-        <v>-45.35</v>
-      </c>
-      <c r="P118" t="n">
-        <v>37.291</v>
-      </c>
-      <c r="T118" t="n">
-        <v>1</v>
-      </c>
-      <c r="U118" t="n">
-        <v>3</v>
-      </c>
-      <c r="V118" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W118" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="X118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25">
-      <c r="A119" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" t="s">
-        <v>104</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M119" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>45.059</v>
-      </c>
-      <c r="O119" t="n">
-        <v>-49.3</v>
-      </c>
-      <c r="P119" t="n">
-        <v>-44.60899999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25">
-      <c r="A120" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" t="s">
-        <v>104</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M120" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="N120" t="n">
-        <v>-43.141</v>
-      </c>
-      <c r="O120" t="n">
-        <v>-49.3</v>
-      </c>
-      <c r="P120" t="n">
-        <v>43.591</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25">
-      <c r="A121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" t="s">
-        <v>105</v>
-      </c>
-      <c r="D121" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H121" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M121" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="N121" t="n">
-        <v>7.059</v>
-      </c>
-      <c r="O121" t="n">
-        <v>-45.65</v>
-      </c>
-      <c r="P121" t="n">
-        <v>-4.709</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25">
-      <c r="A122" t="s">
-        <v>103</v>
-      </c>
-      <c r="C122" t="s">
-        <v>105</v>
-      </c>
-      <c r="D122" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H122" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M122" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="N122" t="n">
-        <v>-5.141</v>
-      </c>
-      <c r="O122" t="n">
-        <v>-45.65</v>
-      </c>
-      <c r="P122" t="n">
-        <v>7.491</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25">
-      <c r="A123" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" t="s">
-        <v>106</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E123" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F123" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M123" t="n">
-        <v>-44.1</v>
-      </c>
-      <c r="N123" t="n">
-        <v>-43.141</v>
-      </c>
-      <c r="O123" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="P123" t="n">
-        <v>46.491</v>
-      </c>
-      <c r="T123" t="n">
-        <v>15</v>
-      </c>
-      <c r="U123" t="n">
-        <v>8</v>
-      </c>
-      <c r="V123" t="n">
-        <v>-44.1</v>
-      </c>
-      <c r="W123" t="n">
-        <v>-43.141</v>
-      </c>
-      <c r="X123" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25">
-      <c r="A124" t="s">
-        <v>103</v>
-      </c>
-      <c r="C124" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E124" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M124" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="N124" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="O124" t="n">
-        <v>-49.84999999999999</v>
-      </c>
-      <c r="P124" t="n">
-        <v>27.591</v>
-      </c>
-      <c r="T124" t="n">
-        <v>6</v>
-      </c>
-      <c r="U124" t="n">
-        <v>1</v>
-      </c>
-      <c r="V124" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W124" t="n">
-        <v>-34.65</v>
-      </c>
-      <c r="X124" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y124" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25">
-      <c r="A125" t="s">
-        <v>103</v>
-      </c>
-      <c r="C125" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E125" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F125" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K125" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M125" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="N125" t="n">
-        <v>-112.441</v>
-      </c>
-      <c r="O125" t="n">
-        <v>-49.84999999999999</v>
-      </c>
-      <c r="P125" t="n">
-        <v>115.791</v>
-      </c>
-      <c r="T125" t="n">
-        <v>6</v>
-      </c>
-      <c r="U125" t="n">
-        <v>1</v>
-      </c>
-      <c r="V125" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W125" t="n">
-        <v>-34.65</v>
-      </c>
-      <c r="X125" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25">
-      <c r="A126" t="s">
-        <v>103</v>
-      </c>
-      <c r="C126" t="s">
-        <v>107</v>
-      </c>
-      <c r="D126" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H126" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M126" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="N126" t="n">
-        <v>45.059</v>
-      </c>
-      <c r="O126" t="n">
-        <v>-43.7</v>
-      </c>
-      <c r="P126" t="n">
-        <v>-43.309</v>
-      </c>
-      <c r="T126" t="n">
-        <v>20</v>
-      </c>
-      <c r="U126" t="n">
-        <v>1</v>
-      </c>
-      <c r="V126" t="n">
-        <v>0</v>
-      </c>
-      <c r="W126" t="n">
-        <v>0</v>
-      </c>
-      <c r="X126" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25">
-      <c r="A127" t="s">
-        <v>103</v>
-      </c>
-      <c r="C127" t="s">
-        <v>107</v>
-      </c>
-      <c r="D127" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H127" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M127" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="N127" t="n">
-        <v>-43.141</v>
-      </c>
-      <c r="O127" t="n">
-        <v>-43.7</v>
-      </c>
-      <c r="P127" t="n">
-        <v>44.891</v>
-      </c>
-      <c r="T127" t="n">
-        <v>20</v>
-      </c>
-      <c r="U127" t="n">
-        <v>1</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25">
-      <c r="A128" t="s">
-        <v>103</v>
-      </c>
-      <c r="C128" t="s">
-        <v>108</v>
-      </c>
-      <c r="D128" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G128" t="n">
-        <v>13</v>
-      </c>
-      <c r="H128" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="M128" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="N128" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="O128" t="n">
-        <v>52.55</v>
-      </c>
-      <c r="P128" t="n">
-        <v>40.091</v>
-      </c>
-      <c r="T128" t="n">
-        <v>1</v>
-      </c>
-      <c r="U128" t="n">
-        <v>4</v>
-      </c>
-      <c r="V128" t="n">
-        <v>-47.25</v>
-      </c>
-      <c r="W128" t="n">
-        <v>-36.841</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25">
-      <c r="A129" t="s">
-        <v>103</v>
-      </c>
-      <c r="C129" t="s">
-        <v>108</v>
-      </c>
-      <c r="D129" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G129" t="n">
-        <v>13</v>
-      </c>
-      <c r="H129" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="M129" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="N129" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="O129" t="n">
-        <v>-41.95</v>
-      </c>
-      <c r="P129" t="n">
-        <v>27.491</v>
-      </c>
-      <c r="T129" t="n">
-        <v>1</v>
-      </c>
-      <c r="U129" t="n">
-        <v>3</v>
-      </c>
-      <c r="V129" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="W129" t="n">
-        <v>-24.241</v>
-      </c>
-      <c r="X129" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>25.2</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -89,9 +89,6 @@
     <t>feedline_GP_sub</t>
   </si>
   <si>
-    <t>gndsub_corner</t>
-  </si>
-  <si>
     <t>lower_gndsub_feedline_to_pad</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>upper_gndsub_feedline_to_pad</t>
   </si>
   <si>
-    <t>vert_feedline_GP_sub</t>
+    <t>vert_gndsub_with_corners</t>
   </si>
   <si>
     <t>120nm_NbWiring</t>
@@ -320,9 +317,6 @@
     <t>cap_to_gnd</t>
   </si>
   <si>
-    <t>feed_corner</t>
-  </si>
-  <si>
     <t>feedline_main</t>
   </si>
   <si>
@@ -332,7 +326,7 @@
     <t>upper_main_feedline_to_pad</t>
   </si>
   <si>
-    <t>vert_feedline_main</t>
+    <t>vert_main_with_corners</t>
   </si>
   <si>
     <t>ILD</t>
@@ -683,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:Y111"/>
+  <dimension ref="A12:Y103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,16 +810,16 @@
         <v>-0.25</v>
       </c>
       <c r="M15" t="n">
-        <v>-36.158</v>
+        <v>0.821</v>
       </c>
       <c r="N15" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>37.108</v>
+        <v>0.129</v>
       </c>
       <c r="P15" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -834,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>-36.158</v>
+        <v>0.699</v>
       </c>
       <c r="W15" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -878,16 +872,16 @@
         <v>-10.65</v>
       </c>
       <c r="M16" t="n">
-        <v>-43.81</v>
+        <v>-2.655</v>
       </c>
       <c r="N16" t="n">
-        <v>-38.291</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>40.76000000000001</v>
+        <v>-0.395</v>
       </c>
       <c r="P16" t="n">
-        <v>27.891</v>
+        <v>-10.4</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -896,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="V16" t="n">
-        <v>-43.81</v>
+        <v>-0</v>
       </c>
       <c r="W16" t="n">
-        <v>-38.291</v>
+        <v>0.099</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -940,16 +934,16 @@
         <v>10.3</v>
       </c>
       <c r="M17" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-36.582</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>47.082</v>
+        <v>10.5</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -958,10 +952,10 @@
         <v>8</v>
       </c>
       <c r="V17" t="n">
-        <v>-38.5</v>
+        <v>-0</v>
       </c>
       <c r="W17" t="n">
-        <v>-36.582</v>
+        <v>0.099</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -978,58 +972,40 @@
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.2</v>
+        <v>-7.4</v>
       </c>
       <c r="E18" t="n">
-        <v>-10.85</v>
+        <v>-0.9</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>22.4</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.4</v>
+        <v>-8.6</v>
       </c>
       <c r="I18" t="n">
-        <v>-3</v>
+        <v>-6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>-10.65</v>
+        <v>10.3</v>
       </c>
       <c r="K18" t="n">
-        <v>-11.05</v>
+        <v>-12.1</v>
       </c>
       <c r="M18" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-21.041</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>40.8</v>
+        <v>-7.4</v>
       </c>
       <c r="P18" t="n">
-        <v>10.191</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>-44</v>
-      </c>
-      <c r="W18" t="n">
-        <v>-21.041</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1037,61 +1013,61 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E19" t="n">
-        <v>-10.85</v>
+        <v>-11.05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-3</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>-10.65</v>
+        <v>-10</v>
       </c>
       <c r="K19" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P19" t="n">
         <v>-11.05</v>
       </c>
-      <c r="M19" t="n">
-        <v>-44</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-43.041</v>
-      </c>
-      <c r="O19" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="P19" t="n">
-        <v>32.191</v>
-      </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V19" t="n">
-        <v>-44</v>
+        <v>-0</v>
       </c>
       <c r="W19" t="n">
-        <v>-43.041</v>
+        <v>0.099</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1099,61 +1075,43 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.2</v>
+        <v>7.4</v>
       </c>
       <c r="E20" t="n">
-        <v>-10.85</v>
+        <v>-0.9</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>22.4</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.4</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>-3</v>
+        <v>8.6</v>
       </c>
       <c r="J20" t="n">
-        <v>-10.65</v>
+        <v>10.3</v>
       </c>
       <c r="K20" t="n">
-        <v>-11.05</v>
+        <v>-12.1</v>
       </c>
       <c r="M20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-10.041</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-47.2</v>
+        <v>7.4</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.8089999999999993</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>44</v>
-      </c>
-      <c r="W20" t="n">
-        <v>-10.041</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1161,55 +1119,55 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.2</v>
+        <v>-5.6</v>
       </c>
       <c r="E21" t="n">
-        <v>-10.85</v>
+        <v>-6.4</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.4</v>
+        <v>-5.8</v>
       </c>
       <c r="I21" t="n">
-        <v>-3</v>
+        <v>-5.399999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>-10.65</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K21" t="n">
-        <v>-11.05</v>
+        <v>-12.1</v>
       </c>
       <c r="M21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-32.041</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-47.2</v>
+        <v>-5.6</v>
       </c>
       <c r="P21" t="n">
-        <v>21.191</v>
+        <v>-6.4</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>44</v>
+        <v>-44</v>
       </c>
       <c r="W21" t="n">
-        <v>-32.041</v>
+        <v>0.959</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -1223,284 +1181,248 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.4</v>
+        <v>-5.6</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9</v>
+        <v>-6.4</v>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="G22" t="n">
-        <v>22.4</v>
+        <v>11.4</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.6</v>
+        <v>-5.8</v>
       </c>
       <c r="I22" t="n">
-        <v>-6.2</v>
+        <v>-5.399999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>10.3</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K22" t="n">
         <v>-12.1</v>
       </c>
       <c r="M22" t="n">
-        <v>45.005</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-26.536</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-52.405</v>
+        <v>-5.6</v>
       </c>
       <c r="P22" t="n">
-        <v>25.636</v>
+        <v>-6.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>44</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="E23" t="n">
-        <v>-11.05</v>
+        <v>8.9</v>
       </c>
       <c r="F23" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8999999999999999</v>
+        <v>-4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.300000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>-10</v>
+        <v>9.65</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.1</v>
+        <v>8.15</v>
       </c>
       <c r="M23" t="n">
-        <v>-38.5</v>
+        <v>-39.483</v>
       </c>
       <c r="N23" t="n">
         <v>-38.5</v>
       </c>
       <c r="O23" t="n">
-        <v>41.6</v>
+        <v>35.883</v>
       </c>
       <c r="P23" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
-        <v>8</v>
-      </c>
-      <c r="V23" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>7.4</v>
+        <v>-1.8</v>
       </c>
       <c r="E24" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I24" t="n">
         <v>-0.9</v>
       </c>
-      <c r="F24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8.6</v>
-      </c>
       <c r="J24" t="n">
-        <v>10.3</v>
+        <v>9.65</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.1</v>
+        <v>8.15</v>
       </c>
       <c r="M24" t="n">
-        <v>45.005</v>
+        <v>-39.483</v>
       </c>
       <c r="N24" t="n">
-        <v>28.454</v>
+        <v>-27.5</v>
       </c>
       <c r="O24" t="n">
-        <v>-37.605</v>
+        <v>37.683</v>
       </c>
       <c r="P24" t="n">
-        <v>-29.354</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-6.4</v>
+        <v>8.9</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I25" t="n">
-        <v>-5.399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.7000000000000002</v>
+        <v>9.65</v>
       </c>
       <c r="K25" t="n">
-        <v>-12.1</v>
+        <v>8.15</v>
       </c>
       <c r="M25" t="n">
-        <v>-44</v>
+        <v>-28.483</v>
       </c>
       <c r="N25" t="n">
-        <v>-32.041</v>
+        <v>-27.5</v>
       </c>
       <c r="O25" t="n">
-        <v>38.4</v>
+        <v>28.483</v>
       </c>
       <c r="P25" t="n">
-        <v>25.641</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
-      <c r="V25" t="n">
-        <v>-44</v>
-      </c>
-      <c r="W25" t="n">
-        <v>-32.041</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>22</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.6</v>
+        <v>1.8</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.4</v>
+        <v>8.9</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.8</v>
+        <v>0.9</v>
       </c>
       <c r="I26" t="n">
-        <v>-5.399999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.7000000000000002</v>
+        <v>9.65</v>
       </c>
       <c r="K26" t="n">
-        <v>-12.1</v>
+        <v>8.15</v>
       </c>
       <c r="M26" t="n">
-        <v>44</v>
+        <v>-28.483</v>
       </c>
       <c r="N26" t="n">
-        <v>-21.041</v>
+        <v>-38.5</v>
       </c>
       <c r="O26" t="n">
-        <v>-49.6</v>
+        <v>30.283</v>
       </c>
       <c r="P26" t="n">
-        <v>14.641</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>44</v>
-      </c>
-      <c r="W26" t="n">
-        <v>-21.041</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>22</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E27" t="n">
         <v>8.9</v>
@@ -1512,10 +1434,10 @@
         <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
         <v>9.65</v>
@@ -1524,13 +1446,13 @@
         <v>8.15</v>
       </c>
       <c r="M27" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N27" t="n">
         <v>-38.5</v>
       </c>
       <c r="O27" t="n">
-        <v>35.883</v>
+        <v>21.083</v>
       </c>
       <c r="P27" t="n">
         <v>47.4</v>
@@ -1538,13 +1460,13 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E28" t="n">
         <v>8.9</v>
@@ -1556,10 +1478,10 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I28" t="n">
         <v>-2.7</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-0.9</v>
       </c>
       <c r="J28" t="n">
         <v>9.65</v>
@@ -1568,30 +1490,30 @@
         <v>8.15</v>
       </c>
       <c r="M28" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N28" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O28" t="n">
-        <v>37.683</v>
+        <v>2.883</v>
       </c>
       <c r="P28" t="n">
-        <v>36.4</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E29" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="F29" t="n">
         <v>1.8</v>
@@ -1600,42 +1522,42 @@
         <v>1.5</v>
       </c>
       <c r="H29" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I29" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J29" t="n">
-        <v>9.65</v>
+        <v>8.15</v>
       </c>
       <c r="K29" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="M29" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N29" t="n">
         <v>-27.5</v>
       </c>
       <c r="O29" t="n">
-        <v>28.483</v>
+        <v>4.683</v>
       </c>
       <c r="P29" t="n">
-        <v>36.4</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="F30" t="n">
         <v>1.8</v>
@@ -1644,42 +1566,42 @@
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.9</v>
       </c>
-      <c r="I30" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J30" t="n">
-        <v>9.65</v>
+        <v>8.15</v>
       </c>
       <c r="K30" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="M30" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N30" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O30" t="n">
-        <v>30.283</v>
+        <v>17.483</v>
       </c>
       <c r="P30" t="n">
-        <v>47.4</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E31" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="F31" t="n">
         <v>1.8</v>
@@ -1688,42 +1610,42 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I31" t="n">
         <v>2.7</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J31" t="n">
-        <v>9.65</v>
+        <v>8.15</v>
       </c>
       <c r="K31" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="M31" t="n">
         <v>-17.483</v>
       </c>
       <c r="N31" t="n">
-        <v>-38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O31" t="n">
-        <v>21.083</v>
+        <v>19.283</v>
       </c>
       <c r="P31" t="n">
-        <v>47.4</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E32" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="F32" t="n">
         <v>1.8</v>
@@ -1732,39 +1654,39 @@
         <v>1.5</v>
       </c>
       <c r="H32" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I32" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>9.65</v>
+        <v>8.15</v>
       </c>
       <c r="K32" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="M32" t="n">
         <v>-6.483</v>
       </c>
       <c r="N32" t="n">
-        <v>-38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O32" t="n">
-        <v>2.883</v>
+        <v>10.083</v>
       </c>
       <c r="P32" t="n">
-        <v>47.4</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E33" t="n">
         <v>7.4</v>
@@ -1776,10 +1698,10 @@
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I33" t="n">
         <v>-2.7</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-0.9</v>
       </c>
       <c r="J33" t="n">
         <v>8.15</v>
@@ -1791,24 +1713,24 @@
         <v>-6.483</v>
       </c>
       <c r="N33" t="n">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O33" t="n">
-        <v>4.683</v>
+        <v>2.883</v>
       </c>
       <c r="P33" t="n">
-        <v>34.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E34" t="n">
         <v>7.4</v>
@@ -1820,10 +1742,10 @@
         <v>1.5</v>
       </c>
       <c r="H34" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I34" t="n">
         <v>-0.9</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.9</v>
       </c>
       <c r="J34" t="n">
         <v>8.15</v>
@@ -1835,27 +1757,27 @@
         <v>-17.483</v>
       </c>
       <c r="N34" t="n">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O34" t="n">
-        <v>17.483</v>
+        <v>15.683</v>
       </c>
       <c r="P34" t="n">
-        <v>34.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="F35" t="n">
         <v>1.8</v>
@@ -1864,42 +1786,42 @@
         <v>1.5</v>
       </c>
       <c r="H35" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.9</v>
       </c>
-      <c r="I35" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J35" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="K35" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="M35" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N35" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O35" t="n">
-        <v>19.283</v>
+        <v>28.483</v>
       </c>
       <c r="P35" t="n">
-        <v>23.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E36" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="F36" t="n">
         <v>1.8</v>
@@ -1908,42 +1830,42 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I36" t="n">
         <v>2.7</v>
       </c>
-      <c r="I36" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J36" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="K36" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="M36" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N36" t="n">
         <v>-16.5</v>
       </c>
       <c r="O36" t="n">
-        <v>10.083</v>
+        <v>30.283</v>
       </c>
       <c r="P36" t="n">
-        <v>23.9</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E37" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="F37" t="n">
         <v>1.8</v>
@@ -1952,42 +1874,42 @@
         <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="K37" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="M37" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O37" t="n">
-        <v>2.883</v>
+        <v>43.083</v>
       </c>
       <c r="P37" t="n">
-        <v>12.9</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E38" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="F38" t="n">
         <v>1.8</v>
@@ -1996,39 +1918,39 @@
         <v>1.5</v>
       </c>
       <c r="H38" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I38" t="n">
         <v>-2.7</v>
       </c>
-      <c r="I38" t="n">
-        <v>-0.9</v>
-      </c>
       <c r="J38" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
       <c r="K38" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="M38" t="n">
-        <v>-17.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N38" t="n">
         <v>-5.5</v>
       </c>
       <c r="O38" t="n">
-        <v>15.683</v>
+        <v>35.883</v>
       </c>
       <c r="P38" t="n">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E39" t="n">
         <v>5.9</v>
@@ -2040,10 +1962,10 @@
         <v>1.5</v>
       </c>
       <c r="H39" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I39" t="n">
         <v>-0.9</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.9</v>
       </c>
       <c r="J39" t="n">
         <v>6.65</v>
@@ -2052,27 +1974,27 @@
         <v>5.15</v>
       </c>
       <c r="M39" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N39" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="O39" t="n">
-        <v>28.483</v>
+        <v>37.683</v>
       </c>
       <c r="P39" t="n">
-        <v>11.4</v>
+        <v>0.4000000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D40" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>5.9</v>
@@ -2084,10 +2006,10 @@
         <v>1.5</v>
       </c>
       <c r="H40" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.9</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.7</v>
       </c>
       <c r="J40" t="n">
         <v>6.65</v>
@@ -2099,27 +2021,27 @@
         <v>-28.483</v>
       </c>
       <c r="N40" t="n">
-        <v>-16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O40" t="n">
-        <v>30.283</v>
+        <v>28.483</v>
       </c>
       <c r="P40" t="n">
-        <v>22.4</v>
+        <v>0.4000000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D41" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E41" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="F41" t="n">
         <v>1.8</v>
@@ -2128,42 +2050,42 @@
         <v>1.5</v>
       </c>
       <c r="H41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I41" t="n">
         <v>2.7</v>
       </c>
-      <c r="I41" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J41" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="K41" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="M41" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N41" t="n">
-        <v>-16.5</v>
+        <v>16.5</v>
       </c>
       <c r="O41" t="n">
-        <v>43.083</v>
+        <v>30.283</v>
       </c>
       <c r="P41" t="n">
-        <v>22.4</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D42" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E42" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="F42" t="n">
         <v>1.8</v>
@@ -2172,42 +2094,42 @@
         <v>1.5</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="K42" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="M42" t="n">
         <v>-39.483</v>
       </c>
       <c r="N42" t="n">
-        <v>-5.5</v>
+        <v>16.5</v>
       </c>
       <c r="O42" t="n">
-        <v>35.883</v>
+        <v>43.083</v>
       </c>
       <c r="P42" t="n">
-        <v>11.4</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E43" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="F43" t="n">
         <v>1.8</v>
@@ -2216,42 +2138,42 @@
         <v>1.5</v>
       </c>
       <c r="H43" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I43" t="n">
         <v>-2.7</v>
       </c>
-      <c r="I43" t="n">
-        <v>-0.9</v>
-      </c>
       <c r="J43" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="K43" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="M43" t="n">
         <v>-39.483</v>
       </c>
       <c r="N43" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="O43" t="n">
-        <v>37.683</v>
+        <v>35.883</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4000000000000004</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E44" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="F44" t="n">
         <v>1.8</v>
@@ -2260,39 +2182,39 @@
         <v>1.5</v>
       </c>
       <c r="H44" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I44" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I44" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J44" t="n">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="K44" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="M44" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N44" t="n">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
       <c r="O44" t="n">
-        <v>28.483</v>
+        <v>37.683</v>
       </c>
       <c r="P44" t="n">
-        <v>0.4000000000000004</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D45" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>4.4</v>
@@ -2304,10 +2226,10 @@
         <v>1.5</v>
       </c>
       <c r="H45" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.9</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.7</v>
       </c>
       <c r="J45" t="n">
         <v>5.15</v>
@@ -2319,24 +2241,24 @@
         <v>-28.483</v>
       </c>
       <c r="N45" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="O45" t="n">
-        <v>30.283</v>
+        <v>28.483</v>
       </c>
       <c r="P45" t="n">
-        <v>-12.1</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D46" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E46" t="n">
         <v>4.4</v>
@@ -2348,10 +2270,10 @@
         <v>1.5</v>
       </c>
       <c r="H46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I46" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.5</v>
       </c>
       <c r="J46" t="n">
         <v>5.15</v>
@@ -2360,30 +2282,30 @@
         <v>3.65</v>
       </c>
       <c r="M46" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N46" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="O46" t="n">
-        <v>43.083</v>
+        <v>30.283</v>
       </c>
       <c r="P46" t="n">
-        <v>-12.1</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D47" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E47" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="F47" t="n">
         <v>1.8</v>
@@ -2392,42 +2314,42 @@
         <v>1.5</v>
       </c>
       <c r="H47" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I47" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="M47" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N47" t="n">
         <v>27.5</v>
       </c>
       <c r="O47" t="n">
-        <v>35.883</v>
+        <v>21.083</v>
       </c>
       <c r="P47" t="n">
-        <v>-23.1</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E48" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="F48" t="n">
         <v>1.8</v>
@@ -2436,42 +2358,42 @@
         <v>1.5</v>
       </c>
       <c r="H48" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I48" t="n">
         <v>-2.7</v>
       </c>
-      <c r="I48" t="n">
-        <v>-0.9</v>
-      </c>
       <c r="J48" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="K48" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="M48" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N48" t="n">
         <v>38.5</v>
       </c>
       <c r="O48" t="n">
-        <v>37.683</v>
+        <v>13.883</v>
       </c>
       <c r="P48" t="n">
-        <v>-34.1</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E49" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="F49" t="n">
         <v>1.8</v>
@@ -2480,42 +2402,42 @@
         <v>1.5</v>
       </c>
       <c r="H49" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I49" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I49" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J49" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="K49" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="M49" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N49" t="n">
         <v>38.5</v>
       </c>
       <c r="O49" t="n">
-        <v>28.483</v>
+        <v>4.683</v>
       </c>
       <c r="P49" t="n">
-        <v>-34.1</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D50" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="F50" t="n">
         <v>1.8</v>
@@ -2524,39 +2446,39 @@
         <v>1.5</v>
       </c>
       <c r="H50" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.9</v>
       </c>
-      <c r="I50" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J50" t="n">
-        <v>5.15</v>
+        <v>3.65</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="M50" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N50" t="n">
         <v>27.5</v>
       </c>
       <c r="O50" t="n">
-        <v>30.283</v>
+        <v>6.483</v>
       </c>
       <c r="P50" t="n">
-        <v>-23.1</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D51" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E51" t="n">
         <v>2.9</v>
@@ -2568,10 +2490,10 @@
         <v>1.5</v>
       </c>
       <c r="H51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I51" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4.5</v>
       </c>
       <c r="J51" t="n">
         <v>3.65</v>
@@ -2580,27 +2502,27 @@
         <v>2.15</v>
       </c>
       <c r="M51" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N51" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="O51" t="n">
-        <v>21.083</v>
+        <v>8.282999999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>-24.6</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E52" t="n">
         <v>2.9</v>
@@ -2612,10 +2534,10 @@
         <v>1.5</v>
       </c>
       <c r="H52" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I52" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
         <v>3.65</v>
@@ -2627,71 +2549,71 @@
         <v>-17.483</v>
       </c>
       <c r="N52" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="O52" t="n">
-        <v>13.883</v>
+        <v>21.083</v>
       </c>
       <c r="P52" t="n">
-        <v>-35.6</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D53" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H53" t="n">
         <v>-1.8</v>
       </c>
-      <c r="E53" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-2.7</v>
-      </c>
       <c r="I53" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>2.15</v>
+        <v>-2.15</v>
       </c>
       <c r="M53" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N53" t="n">
-        <v>38.5</v>
+        <v>5.5</v>
       </c>
       <c r="O53" t="n">
-        <v>4.683</v>
+        <v>16.583</v>
       </c>
       <c r="P53" t="n">
-        <v>-35.6</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E54" t="n">
-        <v>2.9</v>
+        <v>-1.4</v>
       </c>
       <c r="F54" t="n">
         <v>1.8</v>
@@ -2700,42 +2622,42 @@
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.65</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>2.15</v>
+        <v>-2.15</v>
       </c>
       <c r="M54" t="n">
         <v>-6.483</v>
       </c>
       <c r="N54" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="O54" t="n">
-        <v>6.483</v>
+        <v>7.383</v>
       </c>
       <c r="P54" t="n">
-        <v>-24.6</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D55" t="n">
-        <v>1.8</v>
+        <v>-0.9</v>
       </c>
       <c r="E55" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="F55" t="n">
         <v>1.8</v>
@@ -2744,42 +2666,42 @@
         <v>1.5</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9</v>
+        <v>-1.8</v>
       </c>
       <c r="I55" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="K55" t="n">
-        <v>2.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>-6.483</v>
+        <v>4.517</v>
       </c>
       <c r="N55" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O55" t="n">
-        <v>8.282999999999999</v>
+        <v>-5.417000000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>-13.6</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D56" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="E56" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="F56" t="n">
         <v>1.8</v>
@@ -2788,42 +2710,42 @@
         <v>1.5</v>
       </c>
       <c r="H56" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="K56" t="n">
-        <v>2.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="M56" t="n">
-        <v>-17.483</v>
+        <v>15.517</v>
       </c>
       <c r="N56" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O56" t="n">
-        <v>21.083</v>
+        <v>-14.617</v>
       </c>
       <c r="P56" t="n">
-        <v>-13.6</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.9</v>
+        <v>-3.6</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.4</v>
+        <v>-8.9</v>
       </c>
       <c r="F57" t="n">
         <v>1.8</v>
@@ -2832,42 +2754,42 @@
         <v>1.5</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.8</v>
+        <v>-4.5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>-2.7</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-8.15</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.15</v>
+        <v>-9.65</v>
       </c>
       <c r="M57" t="n">
-        <v>-17.483</v>
+        <v>15.517</v>
       </c>
       <c r="N57" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="O57" t="n">
-        <v>16.583</v>
+        <v>-19.117</v>
       </c>
       <c r="P57" t="n">
-        <v>-6.9</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9</v>
+        <v>-1.8</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.4</v>
+        <v>-8.9</v>
       </c>
       <c r="F58" t="n">
         <v>1.8</v>
@@ -2876,127 +2798,127 @@
         <v>1.5</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-2.7</v>
       </c>
       <c r="I58" t="n">
-        <v>1.8</v>
+        <v>-0.9</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-8.15</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.15</v>
+        <v>-9.65</v>
       </c>
       <c r="M58" t="n">
-        <v>-6.483</v>
+        <v>4.517</v>
       </c>
       <c r="N58" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="O58" t="n">
-        <v>7.383</v>
+        <v>-6.317</v>
       </c>
       <c r="P58" t="n">
-        <v>-6.9</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H59" t="n">
         <v>-0.9</v>
       </c>
-      <c r="E59" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-1.8</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J59" t="n">
-        <v>2.15</v>
+        <v>-8.15</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6499999999999999</v>
+        <v>-9.65</v>
       </c>
       <c r="M59" t="n">
         <v>4.517</v>
       </c>
       <c r="N59" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="O59" t="n">
-        <v>-5.417000000000001</v>
+        <v>-4.517</v>
       </c>
       <c r="P59" t="n">
-        <v>-4.1</v>
+        <v>-36.4</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.9</v>
       </c>
-      <c r="E60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="J60" t="n">
-        <v>2.15</v>
+        <v>-8.15</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6499999999999999</v>
+        <v>-9.65</v>
       </c>
       <c r="M60" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="N60" t="n">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
       <c r="O60" t="n">
-        <v>-14.617</v>
+        <v>-2.717000000000001</v>
       </c>
       <c r="P60" t="n">
-        <v>-4.1</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D61" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E61" t="n">
         <v>-8.9</v>
@@ -3008,10 +2930,10 @@
         <v>1.5</v>
       </c>
       <c r="H61" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I61" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
         <v>-8.15</v>
@@ -3023,24 +2945,24 @@
         <v>15.517</v>
       </c>
       <c r="N61" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="O61" t="n">
-        <v>-19.117</v>
+        <v>-11.917</v>
       </c>
       <c r="P61" t="n">
-        <v>-25.4</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E62" t="n">
         <v>-8.9</v>
@@ -3052,10 +2974,10 @@
         <v>1.5</v>
       </c>
       <c r="H62" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I62" t="n">
         <v>-2.7</v>
-      </c>
-      <c r="I62" t="n">
-        <v>-0.9</v>
       </c>
       <c r="J62" t="n">
         <v>-8.15</v>
@@ -3064,30 +2986,30 @@
         <v>-9.65</v>
       </c>
       <c r="M62" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="N62" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="O62" t="n">
-        <v>-6.317</v>
+        <v>-19.117</v>
       </c>
       <c r="P62" t="n">
-        <v>-25.4</v>
+        <v>-36.4</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.9</v>
+        <v>-7.4</v>
       </c>
       <c r="F63" t="n">
         <v>1.8</v>
@@ -3096,42 +3018,42 @@
         <v>1.5</v>
       </c>
       <c r="H63" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I63" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I63" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J63" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="K63" t="n">
         <v>-8.15</v>
       </c>
-      <c r="K63" t="n">
-        <v>-9.65</v>
-      </c>
       <c r="M63" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="N63" t="n">
         <v>27.5</v>
       </c>
       <c r="O63" t="n">
-        <v>-4.517</v>
+        <v>-28.317</v>
       </c>
       <c r="P63" t="n">
-        <v>-36.4</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.9</v>
+        <v>-7.4</v>
       </c>
       <c r="F64" t="n">
         <v>1.8</v>
@@ -3140,42 +3062,42 @@
         <v>1.5</v>
       </c>
       <c r="H64" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I64" t="n">
         <v>0.9</v>
       </c>
-      <c r="I64" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J64" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="K64" t="n">
         <v>-8.15</v>
       </c>
-      <c r="K64" t="n">
-        <v>-9.65</v>
-      </c>
       <c r="M64" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="N64" t="n">
         <v>38.5</v>
       </c>
       <c r="O64" t="n">
-        <v>-2.717000000000001</v>
+        <v>-26.517</v>
       </c>
       <c r="P64" t="n">
-        <v>-47.4</v>
+        <v>-45.9</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D65" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.9</v>
+        <v>-7.4</v>
       </c>
       <c r="F65" t="n">
         <v>1.8</v>
@@ -3184,42 +3106,42 @@
         <v>1.5</v>
       </c>
       <c r="H65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I65" t="n">
         <v>2.7</v>
       </c>
-      <c r="I65" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J65" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="K65" t="n">
         <v>-8.15</v>
       </c>
-      <c r="K65" t="n">
-        <v>-9.65</v>
-      </c>
       <c r="M65" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="N65" t="n">
         <v>38.5</v>
       </c>
       <c r="O65" t="n">
-        <v>-11.917</v>
+        <v>-35.71700000000001</v>
       </c>
       <c r="P65" t="n">
-        <v>-47.4</v>
+        <v>-45.9</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.9</v>
+        <v>-7.4</v>
       </c>
       <c r="F66" t="n">
         <v>1.8</v>
@@ -3228,39 +3150,39 @@
         <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I66" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J66" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="K66" t="n">
         <v>-8.15</v>
       </c>
-      <c r="K66" t="n">
-        <v>-9.65</v>
-      </c>
       <c r="M66" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="N66" t="n">
         <v>27.5</v>
       </c>
       <c r="O66" t="n">
-        <v>-19.117</v>
+        <v>-33.917</v>
       </c>
       <c r="P66" t="n">
-        <v>-36.4</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E67" t="n">
         <v>-7.4</v>
@@ -3272,10 +3194,10 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I67" t="n">
         <v>-2.7</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-0.9</v>
       </c>
       <c r="J67" t="n">
         <v>-6.65</v>
@@ -3284,27 +3206,27 @@
         <v>-8.15</v>
       </c>
       <c r="M67" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="N67" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="O67" t="n">
-        <v>-28.317</v>
+        <v>-41.117</v>
       </c>
       <c r="P67" t="n">
-        <v>-34.9</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E68" t="n">
         <v>-7.4</v>
@@ -3316,10 +3238,10 @@
         <v>1.5</v>
       </c>
       <c r="H68" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I68" t="n">
         <v>-0.9</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.9</v>
       </c>
       <c r="J68" t="n">
         <v>-6.65</v>
@@ -3331,27 +3253,27 @@
         <v>26.517</v>
       </c>
       <c r="N68" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="O68" t="n">
-        <v>-26.517</v>
+        <v>-28.317</v>
       </c>
       <c r="P68" t="n">
-        <v>-45.9</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D69" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.4</v>
+        <v>-5.9</v>
       </c>
       <c r="F69" t="n">
         <v>1.8</v>
@@ -3360,42 +3282,42 @@
         <v>1.5</v>
       </c>
       <c r="H69" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I69" t="n">
         <v>0.9</v>
       </c>
-      <c r="I69" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J69" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="K69" t="n">
         <v>-6.65</v>
       </c>
-      <c r="K69" t="n">
-        <v>-8.15</v>
-      </c>
       <c r="M69" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N69" t="n">
-        <v>38.5</v>
+        <v>5.5</v>
       </c>
       <c r="O69" t="n">
-        <v>-35.71700000000001</v>
+        <v>-26.517</v>
       </c>
       <c r="P69" t="n">
-        <v>-45.9</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D70" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.4</v>
+        <v>-5.9</v>
       </c>
       <c r="F70" t="n">
         <v>1.8</v>
@@ -3404,42 +3326,42 @@
         <v>1.5</v>
       </c>
       <c r="H70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I70" t="n">
         <v>2.7</v>
       </c>
-      <c r="I70" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J70" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="K70" t="n">
         <v>-6.65</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-8.15</v>
       </c>
       <c r="M70" t="n">
         <v>37.517</v>
       </c>
       <c r="N70" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="O70" t="n">
-        <v>-33.917</v>
+        <v>-35.71700000000001</v>
       </c>
       <c r="P70" t="n">
-        <v>-34.9</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.4</v>
+        <v>-5.9</v>
       </c>
       <c r="F71" t="n">
         <v>1.8</v>
@@ -3448,42 +3370,42 @@
         <v>1.5</v>
       </c>
       <c r="H71" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I71" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J71" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="K71" t="n">
         <v>-6.65</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-8.15</v>
       </c>
       <c r="M71" t="n">
         <v>37.517</v>
       </c>
       <c r="N71" t="n">
-        <v>16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O71" t="n">
-        <v>-41.117</v>
+        <v>-33.917</v>
       </c>
       <c r="P71" t="n">
-        <v>-23.9</v>
+        <v>-0.4000000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.4</v>
+        <v>-5.9</v>
       </c>
       <c r="F72" t="n">
         <v>1.8</v>
@@ -3492,39 +3414,39 @@
         <v>1.5</v>
       </c>
       <c r="H72" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I72" t="n">
         <v>-2.7</v>
       </c>
-      <c r="I72" t="n">
-        <v>-0.9</v>
-      </c>
       <c r="J72" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="K72" t="n">
         <v>-6.65</v>
       </c>
-      <c r="K72" t="n">
-        <v>-8.15</v>
-      </c>
       <c r="M72" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="N72" t="n">
-        <v>16.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O72" t="n">
-        <v>-28.317</v>
+        <v>-41.117</v>
       </c>
       <c r="P72" t="n">
-        <v>-23.9</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E73" t="n">
         <v>-5.9</v>
@@ -3536,10 +3458,10 @@
         <v>1.5</v>
       </c>
       <c r="H73" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I73" t="n">
         <v>-0.9</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.9</v>
       </c>
       <c r="J73" t="n">
         <v>-5.15</v>
@@ -3551,24 +3473,24 @@
         <v>26.517</v>
       </c>
       <c r="N73" t="n">
-        <v>5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O73" t="n">
-        <v>-26.517</v>
+        <v>-28.317</v>
       </c>
       <c r="P73" t="n">
-        <v>-11.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D74" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>-5.9</v>
@@ -3580,10 +3502,10 @@
         <v>1.5</v>
       </c>
       <c r="H74" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I74" t="n">
         <v>0.9</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.7</v>
       </c>
       <c r="J74" t="n">
         <v>-5.15</v>
@@ -3592,30 +3514,30 @@
         <v>-6.65</v>
       </c>
       <c r="M74" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N74" t="n">
-        <v>5.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O74" t="n">
-        <v>-35.71700000000001</v>
+        <v>-26.517</v>
       </c>
       <c r="P74" t="n">
-        <v>-11.4</v>
+        <v>-0.4000000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D75" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.9</v>
+        <v>-4.4</v>
       </c>
       <c r="F75" t="n">
         <v>1.8</v>
@@ -3624,42 +3546,42 @@
         <v>1.5</v>
       </c>
       <c r="H75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I75" t="n">
         <v>2.7</v>
       </c>
-      <c r="I75" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J75" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="K75" t="n">
         <v>-5.15</v>
       </c>
-      <c r="K75" t="n">
-        <v>-6.65</v>
-      </c>
       <c r="M75" t="n">
-        <v>37.517</v>
+        <v>15.517</v>
       </c>
       <c r="N75" t="n">
         <v>-5.5</v>
       </c>
       <c r="O75" t="n">
-        <v>-33.917</v>
+        <v>-13.717</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.4000000000000004</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D76" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E76" t="n">
-        <v>-5.9</v>
+        <v>-4.4</v>
       </c>
       <c r="F76" t="n">
         <v>1.8</v>
@@ -3668,42 +3590,42 @@
         <v>1.5</v>
       </c>
       <c r="H76" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I76" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J76" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="K76" t="n">
         <v>-5.15</v>
       </c>
-      <c r="K76" t="n">
-        <v>-6.65</v>
-      </c>
       <c r="M76" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="N76" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O76" t="n">
-        <v>-41.117</v>
+        <v>-0.9170000000000003</v>
       </c>
       <c r="P76" t="n">
-        <v>10.6</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E77" t="n">
-        <v>-5.9</v>
+        <v>-4.4</v>
       </c>
       <c r="F77" t="n">
         <v>1.8</v>
@@ -3712,42 +3634,42 @@
         <v>1.5</v>
       </c>
       <c r="H77" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I77" t="n">
         <v>-2.7</v>
       </c>
-      <c r="I77" t="n">
-        <v>-0.9</v>
-      </c>
       <c r="J77" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="K77" t="n">
         <v>-5.15</v>
       </c>
-      <c r="K77" t="n">
-        <v>-6.65</v>
-      </c>
       <c r="M77" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="N77" t="n">
         <v>-16.5</v>
       </c>
       <c r="O77" t="n">
-        <v>-28.317</v>
+        <v>-8.117000000000001</v>
       </c>
       <c r="P77" t="n">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E78" t="n">
-        <v>-5.9</v>
+        <v>-4.4</v>
       </c>
       <c r="F78" t="n">
         <v>1.8</v>
@@ -3756,39 +3678,39 @@
         <v>1.5</v>
       </c>
       <c r="H78" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I78" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I78" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J78" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="K78" t="n">
         <v>-5.15</v>
       </c>
-      <c r="K78" t="n">
-        <v>-6.65</v>
-      </c>
       <c r="M78" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="N78" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O78" t="n">
-        <v>-26.517</v>
+        <v>-17.317</v>
       </c>
       <c r="P78" t="n">
-        <v>-0.4000000000000004</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D79" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>-4.4</v>
@@ -3800,10 +3722,10 @@
         <v>1.5</v>
       </c>
       <c r="H79" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.9</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.7</v>
       </c>
       <c r="J79" t="n">
         <v>-3.65</v>
@@ -3815,24 +3737,24 @@
         <v>15.517</v>
       </c>
       <c r="N79" t="n">
-        <v>-5.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O79" t="n">
-        <v>-13.717</v>
+        <v>-15.517</v>
       </c>
       <c r="P79" t="n">
-        <v>1.1</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D80" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E80" t="n">
         <v>-4.4</v>
@@ -3844,10 +3766,10 @@
         <v>1.5</v>
       </c>
       <c r="H80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I80" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.5</v>
       </c>
       <c r="J80" t="n">
         <v>-3.65</v>
@@ -3859,27 +3781,27 @@
         <v>4.517</v>
       </c>
       <c r="N80" t="n">
-        <v>-5.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.9170000000000003</v>
+        <v>-2.717000000000001</v>
       </c>
       <c r="P80" t="n">
-        <v>1.1</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D81" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E81" t="n">
-        <v>-4.4</v>
+        <v>-2.9</v>
       </c>
       <c r="F81" t="n">
         <v>1.8</v>
@@ -3888,42 +3810,42 @@
         <v>1.5</v>
       </c>
       <c r="H81" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I81" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J81" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="K81" t="n">
         <v>-3.65</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-5.15</v>
       </c>
       <c r="M81" t="n">
         <v>4.517</v>
       </c>
       <c r="N81" t="n">
-        <v>-16.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O81" t="n">
-        <v>-8.117000000000001</v>
+        <v>-0.9170000000000003</v>
       </c>
       <c r="P81" t="n">
-        <v>12.1</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E82" t="n">
-        <v>-4.4</v>
+        <v>-2.9</v>
       </c>
       <c r="F82" t="n">
         <v>1.8</v>
@@ -3932,42 +3854,42 @@
         <v>1.5</v>
       </c>
       <c r="H82" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I82" t="n">
         <v>-2.7</v>
       </c>
-      <c r="I82" t="n">
-        <v>-0.9</v>
-      </c>
       <c r="J82" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="K82" t="n">
         <v>-3.65</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-5.15</v>
       </c>
       <c r="M82" t="n">
         <v>15.517</v>
       </c>
       <c r="N82" t="n">
-        <v>-16.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O82" t="n">
-        <v>-17.317</v>
+        <v>-19.117</v>
       </c>
       <c r="P82" t="n">
-        <v>12.1</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="E83" t="n">
-        <v>-4.4</v>
+        <v>-2.9</v>
       </c>
       <c r="F83" t="n">
         <v>1.8</v>
@@ -3976,42 +3898,42 @@
         <v>1.5</v>
       </c>
       <c r="H83" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="I83" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I83" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J83" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="K83" t="n">
         <v>-3.65</v>
       </c>
-      <c r="K83" t="n">
-        <v>-5.15</v>
-      </c>
       <c r="M83" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="N83" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O83" t="n">
-        <v>-15.517</v>
+        <v>-28.317</v>
       </c>
       <c r="P83" t="n">
-        <v>23.1</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D84" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-4.4</v>
+        <v>-2.9</v>
       </c>
       <c r="F84" t="n">
         <v>1.8</v>
@@ -4020,39 +3942,39 @@
         <v>1.5</v>
       </c>
       <c r="H84" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I84" t="n">
         <v>0.9</v>
       </c>
-      <c r="I84" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J84" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="K84" t="n">
         <v>-3.65</v>
       </c>
-      <c r="K84" t="n">
-        <v>-5.15</v>
-      </c>
       <c r="M84" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="N84" t="n">
         <v>-27.5</v>
       </c>
       <c r="O84" t="n">
-        <v>-2.717000000000001</v>
+        <v>-26.517</v>
       </c>
       <c r="P84" t="n">
-        <v>23.1</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D85" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E85" t="n">
         <v>-2.9</v>
@@ -4064,10 +3986,10 @@
         <v>1.5</v>
       </c>
       <c r="H85" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I85" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4.5</v>
       </c>
       <c r="J85" t="n">
         <v>-2.15</v>
@@ -4076,27 +3998,27 @@
         <v>-3.65</v>
       </c>
       <c r="M85" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="N85" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.9170000000000003</v>
+        <v>-35.71700000000001</v>
       </c>
       <c r="P85" t="n">
-        <v>35.6</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D86" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="E86" t="n">
         <v>-2.9</v>
@@ -4108,10 +4030,10 @@
         <v>1.5</v>
       </c>
       <c r="H86" t="n">
-        <v>-4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I86" t="n">
-        <v>-2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J86" t="n">
         <v>-2.15</v>
@@ -4120,13 +4042,13 @@
         <v>-3.65</v>
       </c>
       <c r="M86" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="N86" t="n">
         <v>-38.5</v>
       </c>
       <c r="O86" t="n">
-        <v>-19.117</v>
+        <v>-33.917</v>
       </c>
       <c r="P86" t="n">
         <v>35.6</v>
@@ -4134,251 +4056,269 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.8</v>
+        <v>-1.25</v>
       </c>
       <c r="E87" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
-        <v>-2.7</v>
+        <v>-1.9</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="J87" t="n">
-        <v>-2.15</v>
+        <v>0.6</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.65</v>
+        <v>-0.6</v>
       </c>
       <c r="M87" t="n">
-        <v>26.517</v>
+        <v>-0.5620000000000001</v>
       </c>
       <c r="N87" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>-28.317</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="P87" t="n">
-        <v>35.6</v>
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>8</v>
+      </c>
+      <c r="U87" t="n">
+        <v>8</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.9</v>
+        <v>-11.45</v>
       </c>
       <c r="F88" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.9</v>
+        <v>-3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9</v>
+        <v>-2.6</v>
       </c>
       <c r="J88" t="n">
-        <v>-2.15</v>
+        <v>-11.05</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.65</v>
+        <v>-11.85</v>
       </c>
       <c r="M88" t="n">
-        <v>26.517</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>-26.517</v>
+        <v>-3</v>
       </c>
       <c r="P88" t="n">
-        <v>24.6</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>1.8</v>
+        <v>-3</v>
       </c>
       <c r="E89" t="n">
-        <v>-2.9</v>
+        <v>-11.45</v>
       </c>
       <c r="F89" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9</v>
+        <v>-3.4</v>
       </c>
       <c r="I89" t="n">
-        <v>2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="J89" t="n">
-        <v>-2.15</v>
+        <v>-11.05</v>
       </c>
       <c r="K89" t="n">
-        <v>-3.65</v>
+        <v>-11.85</v>
       </c>
       <c r="M89" t="n">
-        <v>37.517</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>-35.71700000000001</v>
+        <v>-3</v>
       </c>
       <c r="P89" t="n">
-        <v>24.6</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D90" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
-        <v>2.7</v>
+        <v>-0.6</v>
       </c>
       <c r="I90" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="J90" t="n">
-        <v>-2.15</v>
+        <v>0.65</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.65</v>
+        <v>-0.65</v>
       </c>
       <c r="M90" t="n">
-        <v>37.517</v>
+        <v>0.259</v>
       </c>
       <c r="N90" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>-33.917</v>
+        <v>-0.259</v>
       </c>
       <c r="P90" t="n">
-        <v>35.6</v>
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>8</v>
+      </c>
+      <c r="U90" t="n">
+        <v>8</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.25</v>
+        <v>-3.8</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>-11.45</v>
       </c>
       <c r="F91" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.9</v>
+        <v>-4.2</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.6</v>
+        <v>-3.4</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6</v>
+        <v>-11.05</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.6</v>
+        <v>-11.85</v>
       </c>
       <c r="M91" t="n">
-        <v>-38.925</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>37.675</v>
+        <v>-3.8</v>
       </c>
       <c r="P91" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="T91" t="n">
-        <v>8</v>
-      </c>
-      <c r="U91" t="n">
-        <v>8</v>
-      </c>
-      <c r="V91" t="n">
-        <v>-38.925</v>
-      </c>
-      <c r="W91" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="X91" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>11</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D92" t="n">
-        <v>-3</v>
+        <v>-3.8</v>
       </c>
       <c r="E92" t="n">
         <v>-11.45</v>
@@ -4390,10 +4330,10 @@
         <v>0.8</v>
       </c>
       <c r="H92" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="I92" t="n">
         <v>-3.4</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-2.6</v>
       </c>
       <c r="J92" t="n">
         <v>-11.05</v>
@@ -4402,104 +4342,122 @@
         <v>-11.85</v>
       </c>
       <c r="M92" t="n">
-        <v>46.003</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>17.259</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>-49.003</v>
+        <v>-3.8</v>
       </c>
       <c r="P92" t="n">
-        <v>-28.709</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D93" t="n">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
       <c r="E93" t="n">
-        <v>-11.45</v>
+        <v>-10.55</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G93" t="n">
         <v>0.8</v>
       </c>
       <c r="H93" t="n">
-        <v>-3.4</v>
+        <v>-2.6</v>
       </c>
       <c r="I93" t="n">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="J93" t="n">
-        <v>-11.05</v>
+        <v>-10.15</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.85</v>
+        <v>-10.95</v>
       </c>
       <c r="M93" t="n">
-        <v>46.003</v>
+        <v>-0.3</v>
       </c>
       <c r="N93" t="n">
-        <v>-15.341</v>
+        <v>0.756</v>
       </c>
       <c r="O93" t="n">
-        <v>-49.003</v>
+        <v>-2.1</v>
       </c>
       <c r="P93" t="n">
-        <v>3.891</v>
+        <v>-11.306</v>
+      </c>
+      <c r="T93" t="n">
+        <v>8</v>
+      </c>
+      <c r="U93" t="n">
+        <v>8</v>
+      </c>
+      <c r="V93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X93" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>-11.25</v>
       </c>
       <c r="F94" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.6</v>
+        <v>-2.6</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6</v>
+        <v>-2.2</v>
       </c>
       <c r="J94" t="n">
-        <v>0.65</v>
+        <v>-10.95</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.65</v>
+        <v>-11.55</v>
       </c>
       <c r="M94" t="n">
-        <v>-37.283</v>
+        <v>-0.3</v>
       </c>
       <c r="N94" t="n">
-        <v>-38.5</v>
+        <v>-0.662</v>
       </c>
       <c r="O94" t="n">
-        <v>37.283</v>
+        <v>-2.1</v>
       </c>
       <c r="P94" t="n">
-        <v>38.5</v>
+        <v>-10.588</v>
       </c>
       <c r="T94" t="n">
         <v>8</v>
@@ -4508,10 +4466,10 @@
         <v>8</v>
       </c>
       <c r="V94" t="n">
-        <v>-37.283</v>
+        <v>-0</v>
       </c>
       <c r="W94" t="n">
-        <v>-38.5</v>
+        <v>0.099</v>
       </c>
       <c r="X94" t="n">
         <v>11</v>
@@ -4522,270 +4480,270 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.45</v>
+        <v>10.9</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8</v>
+        <v>11.4</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="n">
-        <v>-4.2</v>
+        <v>-5.7</v>
       </c>
       <c r="I95" t="n">
-        <v>-3.4</v>
+        <v>5.7</v>
       </c>
       <c r="J95" t="n">
-        <v>-11.05</v>
+        <v>11.1</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.85</v>
+        <v>10.7</v>
       </c>
       <c r="M95" t="n">
-        <v>46.003</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>17.259</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>-49.803</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>-28.709</v>
+        <v>10.9</v>
+      </c>
+      <c r="T95" t="n">
+        <v>8</v>
+      </c>
+      <c r="U95" t="n">
+        <v>8</v>
+      </c>
+      <c r="V95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X95" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D96" t="n">
-        <v>-3.8</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>-11.45</v>
+        <v>-0.9</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>22.4</v>
       </c>
       <c r="H96" t="n">
-        <v>-4.2</v>
+        <v>-11</v>
       </c>
       <c r="I96" t="n">
-        <v>-3.4</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J96" t="n">
-        <v>-11.05</v>
+        <v>10.3</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.85</v>
+        <v>-12.1</v>
       </c>
       <c r="M96" t="n">
-        <v>46.003</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>-15.341</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>-49.803</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="P96" t="n">
-        <v>3.891</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D97" t="n">
-        <v>-2.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>-10.55</v>
+        <v>-0.9</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>22.4</v>
       </c>
       <c r="H97" t="n">
-        <v>-2.6</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>-2.2</v>
+        <v>11</v>
       </c>
       <c r="J97" t="n">
-        <v>-10.15</v>
+        <v>10.3</v>
       </c>
       <c r="K97" t="n">
-        <v>-10.95</v>
+        <v>-12.1</v>
       </c>
       <c r="M97" t="n">
-        <v>-39.1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>-36.988</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>36.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P97" t="n">
-        <v>26.438</v>
-      </c>
-      <c r="T97" t="n">
-        <v>8</v>
-      </c>
-      <c r="U97" t="n">
-        <v>8</v>
-      </c>
-      <c r="V97" t="n">
-        <v>-39.1</v>
-      </c>
-      <c r="W97" t="n">
-        <v>-36.988</v>
-      </c>
-      <c r="X97" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>11</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.4</v>
+        <v>-6</v>
       </c>
       <c r="E98" t="n">
-        <v>-11.25</v>
+        <v>-6.4</v>
       </c>
       <c r="F98" t="n">
         <v>0.4</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>11.4</v>
       </c>
       <c r="H98" t="n">
-        <v>-2.6</v>
+        <v>-6.2</v>
       </c>
       <c r="I98" t="n">
-        <v>-2.2</v>
+        <v>-5.8</v>
       </c>
       <c r="J98" t="n">
-        <v>-10.95</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.55</v>
+        <v>-12.1</v>
       </c>
       <c r="M98" t="n">
-        <v>-39.1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>-39.824</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>36.7</v>
+        <v>-6</v>
       </c>
       <c r="P98" t="n">
-        <v>28.574</v>
+        <v>-6.4</v>
       </c>
       <c r="T98" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U98" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V98" t="n">
-        <v>-39.1</v>
+        <v>-44</v>
       </c>
       <c r="W98" t="n">
-        <v>-39.824</v>
+        <v>0.959</v>
       </c>
       <c r="X98" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.4</v>
+        <v>-6</v>
       </c>
       <c r="E99" t="n">
-        <v>-11.75</v>
+        <v>-6.4</v>
       </c>
       <c r="F99" t="n">
         <v>0.4</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H99" t="n">
-        <v>-2.6</v>
+        <v>-6.2</v>
       </c>
       <c r="I99" t="n">
-        <v>-2.2</v>
+        <v>-5.8</v>
       </c>
       <c r="J99" t="n">
-        <v>-11.55</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.95</v>
+        <v>-12.1</v>
       </c>
       <c r="M99" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>-21.041</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>41.6</v>
+        <v>-6</v>
       </c>
       <c r="P99" t="n">
-        <v>9.290999999999997</v>
+        <v>-6.4</v>
       </c>
       <c r="T99" t="n">
         <v>1</v>
       </c>
       <c r="U99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V99" t="n">
-        <v>-44</v>
+        <v>44</v>
       </c>
       <c r="W99" t="n">
-        <v>-21.041</v>
+        <v>0.959</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
@@ -4796,140 +4754,140 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D100" t="n">
-        <v>-2.4</v>
+        <v>5.75</v>
       </c>
       <c r="E100" t="n">
-        <v>-11.75</v>
+        <v>-3.65</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="H100" t="n">
-        <v>-2.6</v>
+        <v>5.3</v>
       </c>
       <c r="I100" t="n">
-        <v>-2.2</v>
+        <v>6.2</v>
       </c>
       <c r="J100" t="n">
-        <v>-11.55</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>-11.95</v>
+        <v>-12.1</v>
       </c>
       <c r="M100" t="n">
-        <v>-44</v>
+        <v>-48.125</v>
       </c>
       <c r="N100" t="n">
-        <v>-43.041</v>
+        <v>-19.25</v>
       </c>
       <c r="O100" t="n">
-        <v>41.6</v>
+        <v>53.875</v>
       </c>
       <c r="P100" t="n">
-        <v>31.291</v>
+        <v>15.6</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>-44</v>
+        <v>-0</v>
       </c>
       <c r="W100" t="n">
-        <v>-43.041</v>
+        <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>96.25</v>
       </c>
       <c r="Y100" t="n">
-        <v>22</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-11.75</v>
+        <v>-12.55</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
-        <v>-2.6</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I101" t="n">
-        <v>-2.2</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J101" t="n">
-        <v>-11.55</v>
+        <v>-12.1</v>
       </c>
       <c r="K101" t="n">
-        <v>-11.95</v>
+        <v>-13</v>
       </c>
       <c r="M101" t="n">
-        <v>44</v>
+        <v>-19.25</v>
       </c>
       <c r="N101" t="n">
-        <v>-10.041</v>
+        <v>-48.125</v>
       </c>
       <c r="O101" t="n">
-        <v>-46.4</v>
+        <v>19.25</v>
       </c>
       <c r="P101" t="n">
-        <v>-1.709</v>
+        <v>35.575</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V101" t="n">
-        <v>44</v>
+        <v>-0</v>
       </c>
       <c r="W101" t="n">
-        <v>-10.041</v>
+        <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="Y101" t="n">
-        <v>22</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="E102" t="n">
-        <v>-11.75</v>
+        <v>-10.85</v>
       </c>
       <c r="F102" t="n">
         <v>0.4</v>
@@ -4938,90 +4896,90 @@
         <v>0.4</v>
       </c>
       <c r="H102" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I102" t="n">
         <v>-2.6</v>
       </c>
-      <c r="I102" t="n">
-        <v>-2.2</v>
-      </c>
       <c r="J102" t="n">
-        <v>-11.55</v>
+        <v>-10.65</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.95</v>
+        <v>-11.05</v>
       </c>
       <c r="M102" t="n">
-        <v>44</v>
+        <v>-0.3</v>
       </c>
       <c r="N102" t="n">
-        <v>-32.041</v>
+        <v>-0.767</v>
       </c>
       <c r="O102" t="n">
-        <v>-46.4</v>
+        <v>-2.5</v>
       </c>
       <c r="P102" t="n">
-        <v>20.291</v>
+        <v>-10.083</v>
       </c>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V102" t="n">
-        <v>44</v>
+        <v>-0</v>
       </c>
       <c r="W102" t="n">
-        <v>-32.041</v>
+        <v>0.099</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y102" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
       <c r="E103" t="n">
-        <v>10.9</v>
+        <v>-11.05</v>
       </c>
       <c r="F103" t="n">
-        <v>11.4</v>
+        <v>3.1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
-        <v>-5.7</v>
+        <v>-2.2</v>
       </c>
       <c r="I103" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="J103" t="n">
-        <v>11.1</v>
+        <v>-10.15</v>
       </c>
       <c r="K103" t="n">
-        <v>10.7</v>
+        <v>-11.95</v>
       </c>
       <c r="M103" t="n">
-        <v>-38.5</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="N103" t="n">
-        <v>-36.582</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>38.5</v>
+        <v>-0.08700000000000008</v>
       </c>
       <c r="P103" t="n">
-        <v>47.482</v>
+        <v>-11.05</v>
       </c>
       <c r="T103" t="n">
         <v>8</v>
@@ -5030,475 +4988,15 @@
         <v>8</v>
       </c>
       <c r="V103" t="n">
-        <v>-38.5</v>
+        <v>-0</v>
       </c>
       <c r="W103" t="n">
-        <v>-36.582</v>
+        <v>0.099</v>
       </c>
       <c r="X103" t="n">
         <v>11</v>
       </c>
       <c r="Y103" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25">
-      <c r="A104" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G104" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-11</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-8.600000000000001</v>
-      </c>
-      <c r="J104" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="M104" t="n">
-        <v>45.005</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-26.536</v>
-      </c>
-      <c r="O104" t="n">
-        <v>-54.80500000000001</v>
-      </c>
-      <c r="P104" t="n">
-        <v>25.636</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25">
-      <c r="A105" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G105" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="H105" t="n">
-        <v>8.600000000000001</v>
-      </c>
-      <c r="I105" t="n">
-        <v>11</v>
-      </c>
-      <c r="J105" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="M105" t="n">
-        <v>45.005</v>
-      </c>
-      <c r="N105" t="n">
-        <v>28.454</v>
-      </c>
-      <c r="O105" t="n">
-        <v>-35.205</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-29.354</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25">
-      <c r="A106" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" t="s">
-        <v>105</v>
-      </c>
-      <c r="D106" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G106" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="J106" t="n">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="M106" t="n">
-        <v>-44</v>
-      </c>
-      <c r="N106" t="n">
-        <v>-32.041</v>
-      </c>
-      <c r="O106" t="n">
-        <v>38</v>
-      </c>
-      <c r="P106" t="n">
-        <v>25.641</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1</v>
-      </c>
-      <c r="U106" t="n">
-        <v>4</v>
-      </c>
-      <c r="V106" t="n">
-        <v>-44</v>
-      </c>
-      <c r="W106" t="n">
-        <v>-32.041</v>
-      </c>
-      <c r="X106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25">
-      <c r="A107" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G107" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H107" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="M107" t="n">
-        <v>44</v>
-      </c>
-      <c r="N107" t="n">
-        <v>-21.041</v>
-      </c>
-      <c r="O107" t="n">
-        <v>-50</v>
-      </c>
-      <c r="P107" t="n">
-        <v>14.641</v>
-      </c>
-      <c r="T107" t="n">
-        <v>1</v>
-      </c>
-      <c r="U107" t="n">
-        <v>3</v>
-      </c>
-      <c r="V107" t="n">
-        <v>44</v>
-      </c>
-      <c r="W107" t="n">
-        <v>-21.041</v>
-      </c>
-      <c r="X107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25">
-      <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-3.65</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G108" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H108" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>4.799999999999999</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="M108" t="n">
-        <v>-48.125</v>
-      </c>
-      <c r="N108" t="n">
-        <v>-19.25</v>
-      </c>
-      <c r="O108" t="n">
-        <v>53.875</v>
-      </c>
-      <c r="P108" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="T108" t="n">
-        <v>2</v>
-      </c>
-      <c r="U108" t="n">
-        <v>2</v>
-      </c>
-      <c r="V108" t="n">
-        <v>-48.125</v>
-      </c>
-      <c r="W108" t="n">
-        <v>-19.25</v>
-      </c>
-      <c r="X108" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-12.55</v>
-      </c>
-      <c r="F109" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H109" t="n">
-        <v>-8.449999999999999</v>
-      </c>
-      <c r="I109" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="J109" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-13</v>
-      </c>
-      <c r="M109" t="n">
-        <v>-19.25</v>
-      </c>
-      <c r="N109" t="n">
-        <v>-48.125</v>
-      </c>
-      <c r="O109" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="P109" t="n">
-        <v>35.575</v>
-      </c>
-      <c r="T109" t="n">
-        <v>2</v>
-      </c>
-      <c r="U109" t="n">
-        <v>2</v>
-      </c>
-      <c r="V109" t="n">
-        <v>-19.25</v>
-      </c>
-      <c r="W109" t="n">
-        <v>-48.125</v>
-      </c>
-      <c r="X109" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>96.25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25">
-      <c r="A110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-10.85</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H110" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I110" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>-10.65</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-11.05</v>
-      </c>
-      <c r="M110" t="n">
-        <v>-39.1</v>
-      </c>
-      <c r="N110" t="n">
-        <v>-40.034</v>
-      </c>
-      <c r="O110" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="P110" t="n">
-        <v>29.184</v>
-      </c>
-      <c r="T110" t="n">
-        <v>8</v>
-      </c>
-      <c r="U110" t="n">
-        <v>8</v>
-      </c>
-      <c r="V110" t="n">
-        <v>-39.1</v>
-      </c>
-      <c r="W110" t="n">
-        <v>-40.034</v>
-      </c>
-      <c r="X110" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25">
-      <c r="A111" t="s">
-        <v>106</v>
-      </c>
-      <c r="C111" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-11.05</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J111" t="n">
-        <v>-10.15</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-11.95</v>
-      </c>
-      <c r="M111" t="n">
-        <v>-39.626</v>
-      </c>
-      <c r="N111" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="O111" t="n">
-        <v>38.976</v>
-      </c>
-      <c r="P111" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="T111" t="n">
-        <v>8</v>
-      </c>
-      <c r="U111" t="n">
-        <v>8</v>
-      </c>
-      <c r="V111" t="n">
-        <v>-39.626</v>
-      </c>
-      <c r="W111" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="X111" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y111" t="n">
         <v>11</v>
       </c>
     </row>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -308,6 +308,12 @@
     <t>Cap_to_Ind_lines</t>
   </si>
   <si>
+    <t>GP_edge_filler_hor</t>
+  </si>
+  <si>
+    <t>GP_edge_filler_vert</t>
+  </si>
+  <si>
     <t>MSfeed_bondpad</t>
   </si>
   <si>
@@ -332,10 +338,10 @@
     <t>ILD</t>
   </si>
   <si>
-    <t>GP_edge_opening_hor</t>
-  </si>
-  <si>
-    <t>GP_edge_opening_vert</t>
+    <t>GP_edge_opening_hor_r</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_vert_r</t>
   </si>
   <si>
     <t>Via_to_Ground</t>
@@ -677,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:Y103"/>
+  <dimension ref="A12:Y105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.05</v>
+        <v>-11.05</v>
       </c>
       <c r="E16" t="n">
         <v>-10.4</v>
@@ -860,10 +866,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.6</v>
+        <v>-10.6</v>
       </c>
       <c r="J16" t="n">
         <v>-10.15</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.395</v>
+        <v>-8.395000000000001</v>
       </c>
       <c r="P16" t="n">
         <v>-10.4</v>
@@ -972,22 +978,22 @@
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.4</v>
+        <v>-1.4</v>
       </c>
       <c r="E18" t="n">
         <v>-0.9</v>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="G18" t="n">
         <v>22.4</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.6</v>
+        <v>-4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.2</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
         <v>10.3</v>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>-7.4</v>
+        <v>-1.4</v>
       </c>
       <c r="P18" t="n">
         <v>-0.9</v>
@@ -1016,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>3.1</v>
+        <v>-4.9</v>
       </c>
       <c r="E19" t="n">
         <v>-11.05</v>
@@ -1028,10 +1034,10 @@
         <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8999999999999999</v>
+        <v>-7.100000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>5.300000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="J19" t="n">
         <v>-10</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.1</v>
+        <v>-4.9</v>
       </c>
       <c r="P19" t="n">
         <v>-11.05</v>
@@ -1078,22 +1084,22 @@
         <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="E20" t="n">
         <v>-0.9</v>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="G20" t="n">
         <v>22.4</v>
       </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>-1.8</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
         <v>10.3</v>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
         <v>-0.9</v>
@@ -1122,7 +1128,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.6</v>
+        <v>2.4</v>
       </c>
       <c r="E21" t="n">
         <v>-6.4</v>
@@ -1134,10 +1140,10 @@
         <v>11.4</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.8</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.399999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
         <v>-0.7000000000000002</v>
@@ -1152,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-5.6</v>
+        <v>2.4</v>
       </c>
       <c r="P21" t="n">
         <v>-6.4</v>
@@ -1184,7 +1190,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.6</v>
+        <v>2.4</v>
       </c>
       <c r="E22" t="n">
         <v>-6.4</v>
@@ -1196,10 +1202,10 @@
         <v>11.4</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.8</v>
+        <v>2.2</v>
       </c>
       <c r="I22" t="n">
-        <v>-5.399999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
         <v>-0.7000000000000002</v>
@@ -1214,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-5.6</v>
+        <v>2.4</v>
       </c>
       <c r="P22" t="n">
         <v>-6.4</v>
@@ -4124,7 +4130,7 @@
         <v>94</v>
       </c>
       <c r="D88" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="E88" t="n">
         <v>-11.45</v>
@@ -4136,10 +4142,10 @@
         <v>0.8</v>
       </c>
       <c r="H88" t="n">
-        <v>-3.4</v>
+        <v>-11.4</v>
       </c>
       <c r="I88" t="n">
-        <v>-2.6</v>
+        <v>-10.6</v>
       </c>
       <c r="J88" t="n">
         <v>-11.05</v>
@@ -4154,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="P88" t="n">
         <v>-11.45</v>
@@ -4168,7 +4174,7 @@
         <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="E89" t="n">
         <v>-11.45</v>
@@ -4180,10 +4186,10 @@
         <v>0.8</v>
       </c>
       <c r="H89" t="n">
-        <v>-3.4</v>
+        <v>-11.4</v>
       </c>
       <c r="I89" t="n">
-        <v>-2.6</v>
+        <v>-10.6</v>
       </c>
       <c r="J89" t="n">
         <v>-11.05</v>
@@ -4198,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="P89" t="n">
         <v>-11.45</v>
@@ -4274,28 +4280,28 @@
         <v>97</v>
       </c>
       <c r="D91" t="n">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-11.45</v>
+        <v>11.55</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8</v>
+        <v>16.9</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
-        <v>-4.2</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>-3.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>-11.05</v>
+        <v>12</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.85</v>
+        <v>11.1</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -4304,10 +4310,28 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>-11.45</v>
+        <v>11.55</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>99.88</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -4315,31 +4339,31 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D92" t="n">
-        <v>-3.8</v>
+        <v>3.05</v>
       </c>
       <c r="E92" t="n">
-        <v>-11.45</v>
+        <v>-3.65</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>16.9</v>
       </c>
       <c r="H92" t="n">
-        <v>-4.2</v>
+        <v>2.6</v>
       </c>
       <c r="I92" t="n">
-        <v>-3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J92" t="n">
-        <v>-11.05</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.85</v>
+        <v>-12.1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4348,10 +4372,28 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>-3.8</v>
+        <v>3.05</v>
       </c>
       <c r="P92" t="n">
-        <v>-11.45</v>
+        <v>-3.65</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>99.88</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -4359,61 +4401,43 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D93" t="n">
-        <v>-2.4</v>
+        <v>-11.8</v>
       </c>
       <c r="E93" t="n">
-        <v>-10.55</v>
+        <v>-11.45</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G93" t="n">
         <v>0.8</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.6</v>
+        <v>-12.2</v>
       </c>
       <c r="I93" t="n">
-        <v>-2.2</v>
+        <v>-11.4</v>
       </c>
       <c r="J93" t="n">
-        <v>-10.15</v>
+        <v>-11.05</v>
       </c>
       <c r="K93" t="n">
-        <v>-10.95</v>
+        <v>-11.85</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0.756</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>-2.1</v>
+        <v>-11.8</v>
       </c>
       <c r="P93" t="n">
-        <v>-11.306</v>
-      </c>
-      <c r="T93" t="n">
-        <v>8</v>
-      </c>
-      <c r="U93" t="n">
-        <v>8</v>
-      </c>
-      <c r="V93" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X93" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>11</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -4424,58 +4448,40 @@
         <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.4</v>
+        <v>-11.8</v>
       </c>
       <c r="E94" t="n">
-        <v>-11.25</v>
+        <v>-11.45</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
-        <v>-2.6</v>
+        <v>-12.2</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.2</v>
+        <v>-11.4</v>
       </c>
       <c r="J94" t="n">
-        <v>-10.95</v>
+        <v>-11.05</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.55</v>
+        <v>-11.85</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>-0.662</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>-2.1</v>
+        <v>-11.8</v>
       </c>
       <c r="P94" t="n">
-        <v>-10.588</v>
-      </c>
-      <c r="T94" t="n">
-        <v>8</v>
-      </c>
-      <c r="U94" t="n">
-        <v>8</v>
-      </c>
-      <c r="V94" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W94" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X94" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>11</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -4486,40 +4492,40 @@
         <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-10.4</v>
       </c>
       <c r="E95" t="n">
-        <v>10.9</v>
+        <v>-10.55</v>
       </c>
       <c r="F95" t="n">
-        <v>11.4</v>
+        <v>0.4</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
-        <v>-5.7</v>
+        <v>-10.6</v>
       </c>
       <c r="I95" t="n">
-        <v>5.7</v>
+        <v>-10.2</v>
       </c>
       <c r="J95" t="n">
-        <v>11.1</v>
+        <v>-10.15</v>
       </c>
       <c r="K95" t="n">
-        <v>10.7</v>
+        <v>-10.95</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>0.756</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="P95" t="n">
-        <v>10.9</v>
+        <v>-11.306</v>
       </c>
       <c r="T95" t="n">
         <v>8</v>
@@ -4548,40 +4554,58 @@
         <v>101</v>
       </c>
       <c r="D96" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.4</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.9</v>
+        <v>-11.25</v>
       </c>
       <c r="F96" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="G96" t="n">
-        <v>22.4</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
-        <v>-11</v>
+        <v>-10.6</v>
       </c>
       <c r="I96" t="n">
-        <v>-8.600000000000001</v>
+        <v>-10.2</v>
       </c>
       <c r="J96" t="n">
-        <v>10.3</v>
+        <v>-10.95</v>
       </c>
       <c r="K96" t="n">
-        <v>-12.1</v>
+        <v>-11.55</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>-0.662</v>
       </c>
       <c r="O96" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.1</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.9</v>
+        <v>-10.588</v>
+      </c>
+      <c r="T96" t="n">
+        <v>8</v>
+      </c>
+      <c r="U96" t="n">
+        <v>8</v>
+      </c>
+      <c r="V96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X96" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -4592,40 +4616,58 @@
         <v>102</v>
       </c>
       <c r="D97" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.9</v>
+        <v>10.9</v>
       </c>
       <c r="F97" t="n">
-        <v>2.4</v>
+        <v>11.4</v>
       </c>
       <c r="G97" t="n">
-        <v>22.4</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
-        <v>8.600000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="I97" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="T97" t="n">
+        <v>8</v>
+      </c>
+      <c r="U97" t="n">
+        <v>8</v>
+      </c>
+      <c r="V97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X97" t="n">
         <v>11</v>
       </c>
-      <c r="J97" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="P97" t="n">
-        <v>-0.9</v>
+      <c r="Y97" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -4636,25 +4678,25 @@
         <v>103</v>
       </c>
       <c r="D98" t="n">
-        <v>-6</v>
+        <v>-7.8</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.4</v>
+        <v>-0.9</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4</v>
+        <v>6.4</v>
       </c>
       <c r="G98" t="n">
-        <v>11.4</v>
+        <v>22.4</v>
       </c>
       <c r="H98" t="n">
-        <v>-6.2</v>
+        <v>-11</v>
       </c>
       <c r="I98" t="n">
-        <v>-5.8</v>
+        <v>-4.6</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.7000000000000002</v>
+        <v>10.3</v>
       </c>
       <c r="K98" t="n">
         <v>-12.1</v>
@@ -4666,28 +4708,10 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>-6</v>
+        <v>-7.8</v>
       </c>
       <c r="P98" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="T98" t="n">
-        <v>1</v>
-      </c>
-      <c r="U98" t="n">
-        <v>4</v>
-      </c>
-      <c r="V98" t="n">
-        <v>-44</v>
-      </c>
-      <c r="W98" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="X98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -4695,28 +4719,28 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D99" t="n">
-        <v>-6</v>
+        <v>7.8</v>
       </c>
       <c r="E99" t="n">
-        <v>-6.4</v>
+        <v>-0.9</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4</v>
+        <v>6.4</v>
       </c>
       <c r="G99" t="n">
-        <v>11.4</v>
+        <v>22.4</v>
       </c>
       <c r="H99" t="n">
-        <v>-6.2</v>
+        <v>4.6</v>
       </c>
       <c r="I99" t="n">
-        <v>-5.8</v>
+        <v>11</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.7000000000000002</v>
+        <v>10.3</v>
       </c>
       <c r="K99" t="n">
         <v>-12.1</v>
@@ -4728,275 +4752,381 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>-6</v>
+        <v>7.8</v>
       </c>
       <c r="P99" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="T99" t="n">
-        <v>1</v>
-      </c>
-      <c r="U99" t="n">
-        <v>3</v>
-      </c>
-      <c r="V99" t="n">
-        <v>44</v>
-      </c>
-      <c r="W99" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="X99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>22</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
         <v>105</v>
       </c>
       <c r="D100" t="n">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>-3.65</v>
+        <v>-6.4</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G100" t="n">
-        <v>16.9</v>
+        <v>11.4</v>
       </c>
       <c r="H100" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="I100" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="J100" t="n">
-        <v>4.799999999999999</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="K100" t="n">
         <v>-12.1</v>
       </c>
       <c r="M100" t="n">
-        <v>-48.125</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>-19.25</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>53.875</v>
+        <v>2</v>
       </c>
       <c r="P100" t="n">
-        <v>15.6</v>
+        <v>-6.4</v>
       </c>
       <c r="T100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V100" t="n">
-        <v>-0</v>
+        <v>-44</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="X100" t="n">
-        <v>96.25</v>
+        <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>38.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>-12.55</v>
+        <v>-6.4</v>
       </c>
       <c r="F101" t="n">
-        <v>16.9</v>
+        <v>0.4</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.449999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="I101" t="n">
-        <v>8.449999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="J101" t="n">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="K101" t="n">
         <v>-12.1</v>
       </c>
-      <c r="K101" t="n">
-        <v>-13</v>
-      </c>
       <c r="M101" t="n">
-        <v>-19.25</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>-48.125</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>19.25</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
-        <v>35.575</v>
+        <v>-6.4</v>
       </c>
       <c r="T101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V101" t="n">
-        <v>-0</v>
+        <v>44</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="X101" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>96.25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
         <v>107</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-10.85</v>
+        <v>-12.55</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
-        <v>-3</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I102" t="n">
-        <v>-2.6</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J102" t="n">
-        <v>-10.65</v>
+        <v>-12.1</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.05</v>
+        <v>-13</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.767</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>-10.083</v>
+        <v>-12.55</v>
       </c>
       <c r="T102" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V102" t="n">
         <v>-0</v>
       </c>
       <c r="W102" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>11</v>
+        <v>38.9</v>
       </c>
       <c r="Y102" t="n">
-        <v>11</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
         <v>108</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.65</v>
+        <v>-2.25</v>
       </c>
       <c r="E103" t="n">
-        <v>-11.05</v>
+        <v>-3.65</v>
       </c>
       <c r="F103" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>16.9</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.2</v>
+        <v>-2.7</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9</v>
+        <v>-1.8</v>
       </c>
       <c r="J103" t="n">
-        <v>-10.15</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.95</v>
+        <v>-12.1</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.08700000000000008</v>
+        <v>-2.25</v>
       </c>
       <c r="P103" t="n">
-        <v>-11.05</v>
+        <v>-3.65</v>
       </c>
       <c r="T103" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U103" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V103" t="n">
         <v>-0</v>
       </c>
       <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>99.88</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-10.85</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-11</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-10.65</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-11.05</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.767</v>
+      </c>
+      <c r="O104" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="P104" t="n">
+        <v>-10.083</v>
+      </c>
+      <c r="T104" t="n">
+        <v>8</v>
+      </c>
+      <c r="U104" t="n">
+        <v>8</v>
+      </c>
+      <c r="V104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W104" t="n">
         <v>0.099</v>
       </c>
-      <c r="X103" t="n">
+      <c r="X104" t="n">
         <v>11</v>
       </c>
-      <c r="Y103" t="n">
+      <c r="Y104" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-11.05</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-7.100000000000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-11.95</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-0.5629999999999999</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>-8.087</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-11.05</v>
+      </c>
+      <c r="T105" t="n">
+        <v>8</v>
+      </c>
+      <c r="U105" t="n">
+        <v>8</v>
+      </c>
+      <c r="V105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X105" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y105" t="n">
         <v>11</v>
       </c>
     </row>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4316,7 +4316,7 @@
         <v>11.55</v>
       </c>
       <c r="T91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U91" t="n">
         <v>2</v>
@@ -4378,13 +4378,13 @@
         <v>-3.65</v>
       </c>
       <c r="T92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V92" t="n">
-        <v>-0</v>
+        <v>-49.95</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>-12.55</v>
       </c>
       <c r="T102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U102" t="n">
         <v>2</v>
@@ -4988,13 +4988,13 @@
         <v>-3.65</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V103" t="n">
-        <v>-0</v>
+        <v>-49.95</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -89,21 +89,27 @@
     <t>feedline_GP_sub</t>
   </si>
   <si>
-    <t>lower_gndsub_feedline_to_pad</t>
+    <t>gndsub_hor_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>gndsub_vert_feedline_to_pad</t>
   </si>
   <si>
     <t>reso_GP_sub</t>
   </si>
   <si>
-    <t>upper_gndsub_feedline_to_pad</t>
-  </si>
-  <si>
     <t>vert_gndsub_with_corners</t>
   </si>
   <si>
     <t>120nm_NbWiring</t>
   </si>
   <si>
+    <t>50umX15mm_Hline</t>
+  </si>
+  <si>
+    <t>50umX15mm_Vline</t>
+  </si>
+  <si>
     <t>Capacitor_300MHz</t>
   </si>
   <si>
@@ -326,10 +332,10 @@
     <t>feedline_main</t>
   </si>
   <si>
-    <t>lower_main_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>upper_main_feedline_to_pad</t>
+    <t>main_hor_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>main_vert_feedline_to_pad</t>
   </si>
   <si>
     <t>vert_main_with_corners</t>
@@ -792,10 +798,10 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F15" t="n">
         <v>0.7</v>
@@ -804,16 +810,16 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="I15" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="J15" t="n">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.25</v>
+        <v>0.15</v>
       </c>
       <c r="M15" t="n">
         <v>0.821</v>
@@ -822,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.129</v>
+        <v>0.179</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -854,10 +860,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>-11.05</v>
+        <v>1.1</v>
       </c>
       <c r="E16" t="n">
-        <v>-10.4</v>
+        <v>-0.15</v>
       </c>
       <c r="F16" t="n">
         <v>0.9</v>
@@ -866,16 +872,16 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>-11.5</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-10.6</v>
+        <v>1.55</v>
       </c>
       <c r="J16" t="n">
-        <v>-10.15</v>
+        <v>0.1</v>
       </c>
       <c r="K16" t="n">
-        <v>-10.65</v>
+        <v>-0.4</v>
       </c>
       <c r="M16" t="n">
         <v>-2.655</v>
@@ -884,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-8.395000000000001</v>
+        <v>3.755</v>
       </c>
       <c r="P16" t="n">
-        <v>-10.4</v>
+        <v>-0.15</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="F17" t="n">
         <v>11.4</v>
@@ -934,10 +940,10 @@
         <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="K17" t="n">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -978,40 +984,58 @@
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9</v>
+        <v>10.2</v>
       </c>
       <c r="F18" t="n">
         <v>6.4</v>
       </c>
       <c r="G18" t="n">
-        <v>22.4</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.6</v>
+        <v>-3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="K18" t="n">
-        <v>-12.1</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.9</v>
+        <v>48.7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1022,58 +1046,58 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.9</v>
+        <v>-10.6</v>
       </c>
       <c r="E19" t="n">
-        <v>-11.05</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>22.4</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.100000000000001</v>
+        <v>-10.8</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.7</v>
+        <v>-10.4</v>
       </c>
       <c r="J19" t="n">
-        <v>-10</v>
+        <v>11.2</v>
       </c>
       <c r="K19" t="n">
-        <v>-12.1</v>
+        <v>-11.2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.996</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-27.496</v>
       </c>
       <c r="O19" t="n">
-        <v>-4.9</v>
+        <v>-13.596</v>
       </c>
       <c r="P19" t="n">
-        <v>-11.05</v>
+        <v>27.496</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>-0</v>
+        <v>2.996</v>
       </c>
       <c r="W19" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>54.992</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1084,28 +1108,28 @@
         <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
-        <v>22.4</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.8</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>10.3</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>-12.1</v>
+        <v>-1.05</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1114,10 +1138,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.9</v>
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1128,10 +1170,10 @@
         <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>2.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
@@ -1140,16 +1182,16 @@
         <v>11.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>-9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="K21" t="n">
-        <v>-12.1</v>
+        <v>-5.7</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1158,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -1190,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>2.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0.4</v>
@@ -1202,16 +1244,16 @@
         <v>11.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.2</v>
+        <v>-9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="K22" t="n">
-        <v>-12.1</v>
+        <v>-5.7</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1220,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -1252,40 +1294,58 @@
         <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.9</v>
+        <v>12.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>15.4</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>-4.5</v>
+        <v>-7.7</v>
       </c>
       <c r="I23" t="n">
-        <v>-2.7</v>
+        <v>7.7</v>
       </c>
       <c r="J23" t="n">
-        <v>9.65</v>
+        <v>12.8</v>
       </c>
       <c r="K23" t="n">
-        <v>8.15</v>
+        <v>12.4</v>
       </c>
       <c r="M23" t="n">
-        <v>-39.483</v>
+        <v>-52.5</v>
       </c>
       <c r="N23" t="n">
-        <v>-38.5</v>
+        <v>-50.525</v>
       </c>
       <c r="O23" t="n">
-        <v>35.883</v>
+        <v>52.5</v>
       </c>
       <c r="P23" t="n">
-        <v>47.4</v>
+        <v>63.125</v>
+      </c>
+      <c r="T23" t="n">
+        <v>8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -1296,40 +1356,58 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.8</v>
+        <v>-10</v>
       </c>
       <c r="E24" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>15.4</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.7</v>
+        <v>-10.2</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>9.65</v>
+        <v>7.7</v>
       </c>
       <c r="K24" t="n">
-        <v>8.15</v>
+        <v>-7.7</v>
       </c>
       <c r="M24" t="n">
-        <v>-39.483</v>
+        <v>-50.525</v>
       </c>
       <c r="N24" t="n">
-        <v>-27.5</v>
+        <v>-52.5</v>
       </c>
       <c r="O24" t="n">
-        <v>37.683</v>
+        <v>40.525</v>
       </c>
       <c r="P24" t="n">
-        <v>36.4</v>
+        <v>52.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -1340,10 +1418,10 @@
         <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E25" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F25" t="n">
         <v>1.8</v>
@@ -1352,28 +1430,28 @@
         <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>9.65</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>8.15</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N25" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O25" t="n">
-        <v>28.483</v>
+        <v>35.78299999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>36.4</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -1384,10 +1462,10 @@
         <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E26" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F26" t="n">
         <v>1.8</v>
@@ -1396,28 +1474,28 @@
         <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>9.65</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>8.15</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N26" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O26" t="n">
-        <v>30.283</v>
+        <v>37.633</v>
       </c>
       <c r="P26" t="n">
-        <v>47.4</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -1428,10 +1506,10 @@
         <v>33</v>
       </c>
       <c r="D27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F27" t="n">
         <v>1.8</v>
@@ -1440,28 +1518,28 @@
         <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J27" t="n">
-        <v>9.65</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>8.15</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N27" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O27" t="n">
-        <v>21.083</v>
+        <v>28.483</v>
       </c>
       <c r="P27" t="n">
-        <v>47.4</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -1472,10 +1550,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E28" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F28" t="n">
         <v>1.8</v>
@@ -1484,28 +1562,28 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
-        <v>9.65</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>8.15</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N28" t="n">
         <v>-38.5</v>
       </c>
       <c r="O28" t="n">
-        <v>2.883</v>
+        <v>30.333</v>
       </c>
       <c r="P28" t="n">
-        <v>47.4</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -1516,10 +1594,10 @@
         <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E29" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F29" t="n">
         <v>1.8</v>
@@ -1528,28 +1606,28 @@
         <v>1.5</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>8.15</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>6.65</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N29" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O29" t="n">
-        <v>4.683</v>
+        <v>21.183</v>
       </c>
       <c r="P29" t="n">
-        <v>34.9</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -1560,10 +1638,10 @@
         <v>36</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E30" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F30" t="n">
         <v>1.8</v>
@@ -1572,28 +1650,28 @@
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J30" t="n">
-        <v>8.15</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>6.65</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N30" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O30" t="n">
-        <v>17.483</v>
+        <v>2.782999999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>34.9</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -1604,10 +1682,10 @@
         <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E31" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="F31" t="n">
         <v>1.8</v>
@@ -1616,28 +1694,28 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>8.15</v>
+        <v>8.4</v>
       </c>
       <c r="K31" t="n">
-        <v>6.65</v>
+        <v>6.9</v>
       </c>
       <c r="M31" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N31" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O31" t="n">
-        <v>19.283</v>
+        <v>4.632999999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>23.9</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -1648,10 +1726,10 @@
         <v>38</v>
       </c>
       <c r="D32" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="F32" t="n">
         <v>1.8</v>
@@ -1660,28 +1738,28 @@
         <v>1.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J32" t="n">
-        <v>8.15</v>
+        <v>8.4</v>
       </c>
       <c r="K32" t="n">
-        <v>6.65</v>
+        <v>6.9</v>
       </c>
       <c r="M32" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N32" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O32" t="n">
-        <v>10.083</v>
+        <v>17.483</v>
       </c>
       <c r="P32" t="n">
-        <v>23.9</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -1692,10 +1770,10 @@
         <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E33" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="F33" t="n">
         <v>1.8</v>
@@ -1704,28 +1782,28 @@
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
-        <v>8.15</v>
+        <v>8.4</v>
       </c>
       <c r="K33" t="n">
-        <v>6.65</v>
+        <v>6.9</v>
       </c>
       <c r="M33" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N33" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O33" t="n">
-        <v>2.883</v>
+        <v>19.333</v>
       </c>
       <c r="P33" t="n">
-        <v>12.9</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -1736,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E34" t="n">
-        <v>7.4</v>
+        <v>7.65</v>
       </c>
       <c r="F34" t="n">
         <v>1.8</v>
@@ -1748,28 +1826,28 @@
         <v>1.5</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>8.15</v>
+        <v>8.4</v>
       </c>
       <c r="K34" t="n">
-        <v>6.65</v>
+        <v>6.9</v>
       </c>
       <c r="M34" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N34" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O34" t="n">
-        <v>15.683</v>
+        <v>10.183</v>
       </c>
       <c r="P34" t="n">
-        <v>12.9</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -1780,10 +1858,10 @@
         <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E35" t="n">
-        <v>5.9</v>
+        <v>7.65</v>
       </c>
       <c r="F35" t="n">
         <v>1.8</v>
@@ -1792,28 +1870,28 @@
         <v>1.5</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J35" t="n">
-        <v>6.65</v>
+        <v>8.4</v>
       </c>
       <c r="K35" t="n">
-        <v>5.15</v>
+        <v>6.9</v>
       </c>
       <c r="M35" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N35" t="n">
         <v>-5.5</v>
       </c>
       <c r="O35" t="n">
-        <v>28.483</v>
+        <v>2.782999999999999</v>
       </c>
       <c r="P35" t="n">
-        <v>11.4</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -1824,10 +1902,10 @@
         <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E36" t="n">
-        <v>5.9</v>
+        <v>7.65</v>
       </c>
       <c r="F36" t="n">
         <v>1.8</v>
@@ -1836,28 +1914,28 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>6.65</v>
+        <v>8.4</v>
       </c>
       <c r="K36" t="n">
-        <v>5.15</v>
+        <v>6.9</v>
       </c>
       <c r="M36" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N36" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O36" t="n">
-        <v>30.283</v>
+        <v>15.633</v>
       </c>
       <c r="P36" t="n">
-        <v>22.4</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -1868,10 +1946,10 @@
         <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="F37" t="n">
         <v>1.8</v>
@@ -1880,28 +1958,28 @@
         <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J37" t="n">
-        <v>6.65</v>
+        <v>6.85</v>
       </c>
       <c r="K37" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="M37" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N37" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O37" t="n">
-        <v>43.083</v>
+        <v>28.483</v>
       </c>
       <c r="P37" t="n">
-        <v>22.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -1912,10 +1990,10 @@
         <v>44</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E38" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="F38" t="n">
         <v>1.8</v>
@@ -1924,28 +2002,28 @@
         <v>1.5</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J38" t="n">
-        <v>6.65</v>
+        <v>6.85</v>
       </c>
       <c r="K38" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="M38" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N38" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O38" t="n">
-        <v>35.883</v>
+        <v>30.333</v>
       </c>
       <c r="P38" t="n">
-        <v>11.4</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -1956,10 +2034,10 @@
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E39" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="F39" t="n">
         <v>1.8</v>
@@ -1968,28 +2046,28 @@
         <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>6.65</v>
+        <v>6.85</v>
       </c>
       <c r="K39" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="M39" t="n">
         <v>-39.483</v>
       </c>
       <c r="N39" t="n">
-        <v>5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O39" t="n">
-        <v>37.683</v>
+        <v>43.183</v>
       </c>
       <c r="P39" t="n">
-        <v>0.4000000000000004</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -2000,10 +2078,10 @@
         <v>46</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E40" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="F40" t="n">
         <v>1.8</v>
@@ -2012,28 +2090,28 @@
         <v>1.5</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J40" t="n">
-        <v>6.65</v>
+        <v>6.85</v>
       </c>
       <c r="K40" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="M40" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N40" t="n">
-        <v>5.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O40" t="n">
-        <v>28.483</v>
+        <v>35.78299999999999</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4000000000000004</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -2044,10 +2122,10 @@
         <v>47</v>
       </c>
       <c r="D41" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E41" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="F41" t="n">
         <v>1.8</v>
@@ -2056,28 +2134,28 @@
         <v>1.5</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>5.15</v>
+        <v>6.85</v>
       </c>
       <c r="K41" t="n">
-        <v>3.65</v>
+        <v>5.35</v>
       </c>
       <c r="M41" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N41" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O41" t="n">
-        <v>30.283</v>
+        <v>37.633</v>
       </c>
       <c r="P41" t="n">
-        <v>-12.1</v>
+        <v>0.5999999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -2088,10 +2166,10 @@
         <v>48</v>
       </c>
       <c r="D42" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="F42" t="n">
         <v>1.8</v>
@@ -2100,28 +2178,28 @@
         <v>1.5</v>
       </c>
       <c r="H42" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J42" t="n">
-        <v>5.15</v>
+        <v>6.85</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>5.35</v>
       </c>
       <c r="M42" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N42" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O42" t="n">
-        <v>43.083</v>
+        <v>28.483</v>
       </c>
       <c r="P42" t="n">
-        <v>-12.1</v>
+        <v>0.5999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -2132,10 +2210,10 @@
         <v>49</v>
       </c>
       <c r="D43" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E43" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="F43" t="n">
         <v>1.8</v>
@@ -2144,28 +2222,28 @@
         <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J43" t="n">
-        <v>5.15</v>
+        <v>5.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M43" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N43" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="O43" t="n">
-        <v>35.883</v>
+        <v>30.333</v>
       </c>
       <c r="P43" t="n">
-        <v>-23.1</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -2176,10 +2254,10 @@
         <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E44" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="F44" t="n">
         <v>1.8</v>
@@ -2188,28 +2266,28 @@
         <v>1.5</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>5.15</v>
+        <v>5.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M44" t="n">
         <v>-39.483</v>
       </c>
       <c r="N44" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="O44" t="n">
-        <v>37.683</v>
+        <v>43.183</v>
       </c>
       <c r="P44" t="n">
-        <v>-34.1</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -2220,10 +2298,10 @@
         <v>51</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E45" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="F45" t="n">
         <v>1.8</v>
@@ -2232,28 +2310,28 @@
         <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J45" t="n">
-        <v>5.15</v>
+        <v>5.3</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M45" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N45" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="O45" t="n">
-        <v>28.483</v>
+        <v>35.78299999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>-34.1</v>
+        <v>-22.95</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -2264,10 +2342,10 @@
         <v>52</v>
       </c>
       <c r="D46" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E46" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="F46" t="n">
         <v>1.8</v>
@@ -2276,28 +2354,28 @@
         <v>1.5</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>5.15</v>
+        <v>5.3</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M46" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="N46" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="O46" t="n">
-        <v>30.283</v>
+        <v>37.633</v>
       </c>
       <c r="P46" t="n">
-        <v>-23.1</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -2308,10 +2386,10 @@
         <v>53</v>
       </c>
       <c r="D47" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>2.9</v>
+        <v>4.55</v>
       </c>
       <c r="F47" t="n">
         <v>1.8</v>
@@ -2320,28 +2398,28 @@
         <v>1.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J47" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="K47" t="n">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="M47" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N47" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="O47" t="n">
-        <v>21.083</v>
+        <v>28.483</v>
       </c>
       <c r="P47" t="n">
-        <v>-24.6</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -2352,10 +2430,10 @@
         <v>54</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E48" t="n">
-        <v>2.9</v>
+        <v>4.55</v>
       </c>
       <c r="F48" t="n">
         <v>1.8</v>
@@ -2364,28 +2442,28 @@
         <v>1.5</v>
       </c>
       <c r="H48" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="K48" t="n">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="M48" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="N48" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="O48" t="n">
-        <v>13.883</v>
+        <v>30.333</v>
       </c>
       <c r="P48" t="n">
-        <v>-35.6</v>
+        <v>-22.95</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -2396,10 +2474,10 @@
         <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E49" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>1.8</v>
@@ -2408,28 +2486,28 @@
         <v>1.5</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K49" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M49" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N49" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="O49" t="n">
-        <v>4.683</v>
+        <v>21.183</v>
       </c>
       <c r="P49" t="n">
-        <v>-35.6</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -2440,10 +2518,10 @@
         <v>56</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E50" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>1.8</v>
@@ -2452,28 +2530,28 @@
         <v>1.5</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K50" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M50" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N50" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="O50" t="n">
-        <v>6.483</v>
+        <v>13.783</v>
       </c>
       <c r="P50" t="n">
-        <v>-24.6</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -2484,10 +2562,10 @@
         <v>57</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E51" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>1.8</v>
@@ -2496,28 +2574,28 @@
         <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K51" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M51" t="n">
         <v>-6.483</v>
       </c>
       <c r="N51" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="O51" t="n">
-        <v>8.282999999999999</v>
+        <v>4.632999999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>-13.6</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -2528,10 +2606,10 @@
         <v>58</v>
       </c>
       <c r="D52" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>1.8</v>
@@ -2540,28 +2618,28 @@
         <v>1.5</v>
       </c>
       <c r="H52" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J52" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M52" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N52" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="O52" t="n">
-        <v>21.083</v>
+        <v>6.483</v>
       </c>
       <c r="P52" t="n">
-        <v>-13.6</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -2572,10 +2650,10 @@
         <v>59</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.9</v>
+        <v>1.85</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>1.8</v>
@@ -2584,28 +2662,28 @@
         <v>1.5</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.8</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M53" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="N53" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="O53" t="n">
-        <v>16.583</v>
+        <v>8.333</v>
       </c>
       <c r="P53" t="n">
-        <v>-6.9</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -2616,10 +2694,10 @@
         <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>1.8</v>
@@ -2628,28 +2706,28 @@
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I54" t="n">
-        <v>1.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
-        <v>-2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M54" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="N54" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="O54" t="n">
-        <v>7.383</v>
+        <v>21.183</v>
       </c>
       <c r="P54" t="n">
-        <v>-6.9</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -2663,7 +2741,7 @@
         <v>-0.9</v>
       </c>
       <c r="E55" t="n">
-        <v>1.4</v>
+        <v>-1.45</v>
       </c>
       <c r="F55" t="n">
         <v>1.8</v>
@@ -2678,22 +2756,22 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.15</v>
+        <v>-0.7</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6499999999999999</v>
+        <v>-2.2</v>
       </c>
       <c r="M55" t="n">
-        <v>4.517</v>
+        <v>-17.483</v>
       </c>
       <c r="N55" t="n">
         <v>5.5</v>
       </c>
       <c r="O55" t="n">
-        <v>-5.417000000000001</v>
+        <v>16.583</v>
       </c>
       <c r="P55" t="n">
-        <v>-4.1</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -2707,7 +2785,7 @@
         <v>0.9</v>
       </c>
       <c r="E56" t="n">
-        <v>1.4</v>
+        <v>-1.45</v>
       </c>
       <c r="F56" t="n">
         <v>1.8</v>
@@ -2722,22 +2800,22 @@
         <v>1.8</v>
       </c>
       <c r="J56" t="n">
-        <v>2.15</v>
+        <v>-0.7</v>
       </c>
       <c r="K56" t="n">
-        <v>0.6499999999999999</v>
+        <v>-2.2</v>
       </c>
       <c r="M56" t="n">
-        <v>15.517</v>
+        <v>-6.483</v>
       </c>
       <c r="N56" t="n">
         <v>5.5</v>
       </c>
       <c r="O56" t="n">
-        <v>-14.617</v>
+        <v>7.383</v>
       </c>
       <c r="P56" t="n">
-        <v>-4.1</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -2748,10 +2826,10 @@
         <v>63</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.6</v>
+        <v>-0.9</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.9</v>
+        <v>1.45</v>
       </c>
       <c r="F57" t="n">
         <v>1.8</v>
@@ -2760,28 +2838,28 @@
         <v>1.5</v>
       </c>
       <c r="H57" t="n">
-        <v>-4.5</v>
+        <v>-1.8</v>
       </c>
       <c r="I57" t="n">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>-8.15</v>
+        <v>2.2</v>
       </c>
       <c r="K57" t="n">
-        <v>-9.65</v>
+        <v>0.7</v>
       </c>
       <c r="M57" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="N57" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O57" t="n">
-        <v>-19.117</v>
+        <v>-5.417000000000001</v>
       </c>
       <c r="P57" t="n">
-        <v>-25.4</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -2792,10 +2870,10 @@
         <v>64</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.8</v>
+        <v>0.9</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.9</v>
+        <v>1.45</v>
       </c>
       <c r="F58" t="n">
         <v>1.8</v>
@@ -2804,28 +2882,28 @@
         <v>1.5</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.9</v>
+        <v>1.8</v>
       </c>
       <c r="J58" t="n">
-        <v>-8.15</v>
+        <v>2.2</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.65</v>
+        <v>0.7</v>
       </c>
       <c r="M58" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="N58" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O58" t="n">
-        <v>-6.317</v>
+        <v>-14.617</v>
       </c>
       <c r="P58" t="n">
-        <v>-25.4</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -2836,10 +2914,10 @@
         <v>65</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F59" t="n">
         <v>1.8</v>
@@ -2848,28 +2926,28 @@
         <v>1.5</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J59" t="n">
-        <v>-8.15</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.65</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M59" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="N59" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="O59" t="n">
-        <v>-4.517</v>
+        <v>-19.217</v>
       </c>
       <c r="P59" t="n">
-        <v>-36.4</v>
+        <v>-25.7</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -2880,10 +2958,10 @@
         <v>66</v>
       </c>
       <c r="D60" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F60" t="n">
         <v>1.8</v>
@@ -2892,28 +2970,28 @@
         <v>1.5</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I60" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>-8.15</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.65</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M60" t="n">
         <v>4.517</v>
       </c>
       <c r="N60" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="O60" t="n">
-        <v>-2.717000000000001</v>
+        <v>-6.367000000000001</v>
       </c>
       <c r="P60" t="n">
-        <v>-47.4</v>
+        <v>-25.7</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -2924,10 +3002,10 @@
         <v>67</v>
       </c>
       <c r="D61" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F61" t="n">
         <v>1.8</v>
@@ -2936,28 +3014,28 @@
         <v>1.5</v>
       </c>
       <c r="H61" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J61" t="n">
-        <v>-8.15</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-9.65</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M61" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="N61" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="O61" t="n">
-        <v>-11.917</v>
+        <v>-4.517</v>
       </c>
       <c r="P61" t="n">
-        <v>-47.4</v>
+        <v>-36.7</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -2968,10 +3046,10 @@
         <v>68</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F62" t="n">
         <v>1.8</v>
@@ -2980,28 +3058,28 @@
         <v>1.5</v>
       </c>
       <c r="H62" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J62" t="n">
-        <v>-8.15</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>-9.65</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="N62" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="O62" t="n">
-        <v>-19.117</v>
+        <v>-2.667</v>
       </c>
       <c r="P62" t="n">
-        <v>-36.4</v>
+        <v>-47.7</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -3012,10 +3090,10 @@
         <v>69</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F63" t="n">
         <v>1.8</v>
@@ -3024,28 +3102,28 @@
         <v>1.5</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>-6.65</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>-8.15</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="N63" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="O63" t="n">
-        <v>-28.317</v>
+        <v>-11.817</v>
       </c>
       <c r="P63" t="n">
-        <v>-34.9</v>
+        <v>-47.7</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -3056,10 +3134,10 @@
         <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F64" t="n">
         <v>1.8</v>
@@ -3068,28 +3146,28 @@
         <v>1.5</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J64" t="n">
-        <v>-6.65</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>-8.15</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M64" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="N64" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="O64" t="n">
-        <v>-26.517</v>
+        <v>-19.217</v>
       </c>
       <c r="P64" t="n">
-        <v>-45.9</v>
+        <v>-36.7</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -3100,10 +3178,10 @@
         <v>71</v>
       </c>
       <c r="D65" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.4</v>
+        <v>-7.65</v>
       </c>
       <c r="F65" t="n">
         <v>1.8</v>
@@ -3112,28 +3190,28 @@
         <v>1.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I65" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>-6.65</v>
+        <v>-6.9</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.15</v>
+        <v>-8.4</v>
       </c>
       <c r="M65" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N65" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="O65" t="n">
-        <v>-35.71700000000001</v>
+        <v>-28.367</v>
       </c>
       <c r="P65" t="n">
-        <v>-45.9</v>
+        <v>-35.15</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -3144,10 +3222,10 @@
         <v>72</v>
       </c>
       <c r="D66" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.4</v>
+        <v>-7.65</v>
       </c>
       <c r="F66" t="n">
         <v>1.8</v>
@@ -3156,28 +3234,28 @@
         <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I66" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J66" t="n">
-        <v>-6.65</v>
+        <v>-6.9</v>
       </c>
       <c r="K66" t="n">
-        <v>-8.15</v>
+        <v>-8.4</v>
       </c>
       <c r="M66" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N66" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="O66" t="n">
-        <v>-33.917</v>
+        <v>-26.517</v>
       </c>
       <c r="P66" t="n">
-        <v>-34.9</v>
+        <v>-46.15</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -3188,10 +3266,10 @@
         <v>73</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.4</v>
+        <v>-7.65</v>
       </c>
       <c r="F67" t="n">
         <v>1.8</v>
@@ -3200,28 +3278,28 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J67" t="n">
-        <v>-6.65</v>
+        <v>-6.9</v>
       </c>
       <c r="K67" t="n">
-        <v>-8.15</v>
+        <v>-8.4</v>
       </c>
       <c r="M67" t="n">
         <v>37.517</v>
       </c>
       <c r="N67" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="O67" t="n">
-        <v>-41.117</v>
+        <v>-35.667</v>
       </c>
       <c r="P67" t="n">
-        <v>-23.9</v>
+        <v>-46.15</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -3232,10 +3310,10 @@
         <v>74</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.4</v>
+        <v>-7.65</v>
       </c>
       <c r="F68" t="n">
         <v>1.8</v>
@@ -3244,28 +3322,28 @@
         <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>-6.65</v>
+        <v>-6.9</v>
       </c>
       <c r="K68" t="n">
-        <v>-8.15</v>
+        <v>-8.4</v>
       </c>
       <c r="M68" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="N68" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="O68" t="n">
-        <v>-28.317</v>
+        <v>-33.817</v>
       </c>
       <c r="P68" t="n">
-        <v>-23.9</v>
+        <v>-35.15</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -3276,10 +3354,10 @@
         <v>75</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.9</v>
+        <v>-7.65</v>
       </c>
       <c r="F69" t="n">
         <v>1.8</v>
@@ -3288,28 +3366,28 @@
         <v>1.5</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J69" t="n">
-        <v>-5.15</v>
+        <v>-6.9</v>
       </c>
       <c r="K69" t="n">
-        <v>-6.65</v>
+        <v>-8.4</v>
       </c>
       <c r="M69" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="N69" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="O69" t="n">
-        <v>-26.517</v>
+        <v>-41.21700000000001</v>
       </c>
       <c r="P69" t="n">
-        <v>-11.4</v>
+        <v>-24.15</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -3320,10 +3398,10 @@
         <v>76</v>
       </c>
       <c r="D70" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.9</v>
+        <v>-7.65</v>
       </c>
       <c r="F70" t="n">
         <v>1.8</v>
@@ -3332,28 +3410,28 @@
         <v>1.5</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I70" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>-5.15</v>
+        <v>-6.9</v>
       </c>
       <c r="K70" t="n">
-        <v>-6.65</v>
+        <v>-8.4</v>
       </c>
       <c r="M70" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N70" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="O70" t="n">
-        <v>-35.71700000000001</v>
+        <v>-28.367</v>
       </c>
       <c r="P70" t="n">
-        <v>-11.4</v>
+        <v>-24.15</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -3364,10 +3442,10 @@
         <v>77</v>
       </c>
       <c r="D71" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="F71" t="n">
         <v>1.8</v>
@@ -3376,28 +3454,28 @@
         <v>1.5</v>
       </c>
       <c r="H71" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I71" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J71" t="n">
-        <v>-5.15</v>
+        <v>-5.35</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.65</v>
+        <v>-6.85</v>
       </c>
       <c r="M71" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N71" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="O71" t="n">
-        <v>-33.917</v>
+        <v>-26.517</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.4000000000000004</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -3408,10 +3486,10 @@
         <v>78</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="F72" t="n">
         <v>1.8</v>
@@ -3420,28 +3498,28 @@
         <v>1.5</v>
       </c>
       <c r="H72" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I72" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J72" t="n">
-        <v>-5.15</v>
+        <v>-5.35</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.65</v>
+        <v>-6.85</v>
       </c>
       <c r="M72" t="n">
         <v>37.517</v>
       </c>
       <c r="N72" t="n">
-        <v>-16.5</v>
+        <v>5.5</v>
       </c>
       <c r="O72" t="n">
-        <v>-41.117</v>
+        <v>-35.667</v>
       </c>
       <c r="P72" t="n">
-        <v>10.6</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -3452,10 +3530,10 @@
         <v>79</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="F73" t="n">
         <v>1.8</v>
@@ -3464,28 +3542,28 @@
         <v>1.5</v>
       </c>
       <c r="H73" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J73" t="n">
-        <v>-5.15</v>
+        <v>-5.35</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.65</v>
+        <v>-6.85</v>
       </c>
       <c r="M73" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="N73" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O73" t="n">
-        <v>-28.317</v>
+        <v>-33.817</v>
       </c>
       <c r="P73" t="n">
-        <v>10.6</v>
+        <v>-0.5999999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -3496,10 +3574,10 @@
         <v>80</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="F74" t="n">
         <v>1.8</v>
@@ -3508,28 +3586,28 @@
         <v>1.5</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J74" t="n">
-        <v>-5.15</v>
+        <v>-5.35</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.65</v>
+        <v>-6.85</v>
       </c>
       <c r="M74" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="N74" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O74" t="n">
-        <v>-26.517</v>
+        <v>-41.21700000000001</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.4000000000000004</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -3540,10 +3618,10 @@
         <v>81</v>
       </c>
       <c r="D75" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E75" t="n">
-        <v>-4.4</v>
+        <v>-6.1</v>
       </c>
       <c r="F75" t="n">
         <v>1.8</v>
@@ -3552,28 +3630,28 @@
         <v>1.5</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I75" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J75" t="n">
-        <v>-3.65</v>
+        <v>-5.35</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.15</v>
+        <v>-6.85</v>
       </c>
       <c r="M75" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="N75" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O75" t="n">
-        <v>-13.717</v>
+        <v>-28.367</v>
       </c>
       <c r="P75" t="n">
-        <v>1.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -3584,10 +3662,10 @@
         <v>82</v>
       </c>
       <c r="D76" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-4.4</v>
+        <v>-6.1</v>
       </c>
       <c r="F76" t="n">
         <v>1.8</v>
@@ -3596,28 +3674,28 @@
         <v>1.5</v>
       </c>
       <c r="H76" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I76" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J76" t="n">
-        <v>-3.65</v>
+        <v>-5.35</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.15</v>
+        <v>-6.85</v>
       </c>
       <c r="M76" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="N76" t="n">
         <v>-5.5</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.9170000000000003</v>
+        <v>-26.517</v>
       </c>
       <c r="P76" t="n">
-        <v>1.1</v>
+        <v>-0.5999999999999996</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -3628,10 +3706,10 @@
         <v>83</v>
       </c>
       <c r="D77" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E77" t="n">
-        <v>-4.4</v>
+        <v>-4.55</v>
       </c>
       <c r="F77" t="n">
         <v>1.8</v>
@@ -3640,28 +3718,28 @@
         <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J77" t="n">
-        <v>-3.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.15</v>
+        <v>-5.3</v>
       </c>
       <c r="M77" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="N77" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O77" t="n">
-        <v>-8.117000000000001</v>
+        <v>-13.667</v>
       </c>
       <c r="P77" t="n">
-        <v>12.1</v>
+        <v>0.9500000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -3672,10 +3750,10 @@
         <v>84</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E78" t="n">
-        <v>-4.4</v>
+        <v>-4.55</v>
       </c>
       <c r="F78" t="n">
         <v>1.8</v>
@@ -3684,28 +3762,28 @@
         <v>1.5</v>
       </c>
       <c r="H78" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>-3.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.15</v>
+        <v>-5.3</v>
       </c>
       <c r="M78" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="N78" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="O78" t="n">
-        <v>-17.317</v>
+        <v>-0.8170000000000002</v>
       </c>
       <c r="P78" t="n">
-        <v>12.1</v>
+        <v>0.9500000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -3716,10 +3794,10 @@
         <v>85</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E79" t="n">
-        <v>-4.4</v>
+        <v>-4.55</v>
       </c>
       <c r="F79" t="n">
         <v>1.8</v>
@@ -3728,28 +3806,28 @@
         <v>1.5</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J79" t="n">
-        <v>-3.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.15</v>
+        <v>-5.3</v>
       </c>
       <c r="M79" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="N79" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O79" t="n">
-        <v>-15.517</v>
+        <v>-8.217000000000001</v>
       </c>
       <c r="P79" t="n">
-        <v>23.1</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -3760,10 +3838,10 @@
         <v>86</v>
       </c>
       <c r="D80" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E80" t="n">
-        <v>-4.4</v>
+        <v>-4.55</v>
       </c>
       <c r="F80" t="n">
         <v>1.8</v>
@@ -3772,28 +3850,28 @@
         <v>1.5</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I80" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>-3.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.15</v>
+        <v>-5.3</v>
       </c>
       <c r="M80" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="N80" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="O80" t="n">
-        <v>-2.717000000000001</v>
+        <v>-17.367</v>
       </c>
       <c r="P80" t="n">
-        <v>23.1</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -3804,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="D81" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.9</v>
+        <v>-4.55</v>
       </c>
       <c r="F81" t="n">
         <v>1.8</v>
@@ -3816,28 +3894,28 @@
         <v>1.5</v>
       </c>
       <c r="H81" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I81" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J81" t="n">
-        <v>-2.15</v>
+        <v>-3.8</v>
       </c>
       <c r="K81" t="n">
-        <v>-3.65</v>
+        <v>-5.3</v>
       </c>
       <c r="M81" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="N81" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.9170000000000003</v>
+        <v>-15.517</v>
       </c>
       <c r="P81" t="n">
-        <v>35.6</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -3848,10 +3926,10 @@
         <v>88</v>
       </c>
       <c r="D82" t="n">
-        <v>-3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E82" t="n">
-        <v>-2.9</v>
+        <v>-4.55</v>
       </c>
       <c r="F82" t="n">
         <v>1.8</v>
@@ -3860,28 +3938,28 @@
         <v>1.5</v>
       </c>
       <c r="H82" t="n">
-        <v>-4.5</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J82" t="n">
-        <v>-2.15</v>
+        <v>-3.8</v>
       </c>
       <c r="K82" t="n">
-        <v>-3.65</v>
+        <v>-5.3</v>
       </c>
       <c r="M82" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="N82" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O82" t="n">
-        <v>-19.117</v>
+        <v>-2.667</v>
       </c>
       <c r="P82" t="n">
-        <v>35.6</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -3892,10 +3970,10 @@
         <v>89</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.8</v>
+        <v>3.7</v>
       </c>
       <c r="E83" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="F83" t="n">
         <v>1.8</v>
@@ -3904,28 +3982,28 @@
         <v>1.5</v>
       </c>
       <c r="H83" t="n">
-        <v>-2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>-2.15</v>
+        <v>-2.25</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.65</v>
+        <v>-3.75</v>
       </c>
       <c r="M83" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="N83" t="n">
         <v>-38.5</v>
       </c>
       <c r="O83" t="n">
-        <v>-28.317</v>
+        <v>-0.8170000000000002</v>
       </c>
       <c r="P83" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -3936,10 +4014,10 @@
         <v>90</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="F84" t="n">
         <v>1.8</v>
@@ -3948,28 +4026,28 @@
         <v>1.5</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J84" t="n">
-        <v>-2.15</v>
+        <v>-2.25</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.65</v>
+        <v>-3.75</v>
       </c>
       <c r="M84" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="N84" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O84" t="n">
-        <v>-26.517</v>
+        <v>-19.217</v>
       </c>
       <c r="P84" t="n">
-        <v>24.6</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -3980,10 +4058,10 @@
         <v>91</v>
       </c>
       <c r="D85" t="n">
-        <v>1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="F85" t="n">
         <v>1.8</v>
@@ -3992,28 +4070,28 @@
         <v>1.5</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I85" t="n">
-        <v>2.7</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>-2.15</v>
+        <v>-2.25</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.65</v>
+        <v>-3.75</v>
       </c>
       <c r="M85" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N85" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O85" t="n">
-        <v>-35.71700000000001</v>
+        <v>-28.367</v>
       </c>
       <c r="P85" t="n">
-        <v>24.6</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -4024,10 +4102,10 @@
         <v>92</v>
       </c>
       <c r="D86" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="F86" t="n">
         <v>1.8</v>
@@ -4036,28 +4114,28 @@
         <v>1.5</v>
       </c>
       <c r="H86" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I86" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="J86" t="n">
-        <v>-2.15</v>
+        <v>-2.25</v>
       </c>
       <c r="K86" t="n">
-        <v>-3.65</v>
+        <v>-3.75</v>
       </c>
       <c r="M86" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="N86" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="O86" t="n">
-        <v>-33.917</v>
+        <v>-26.517</v>
       </c>
       <c r="P86" t="n">
-        <v>35.6</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -4068,58 +4146,40 @@
         <v>93</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.25</v>
+        <v>1.85</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F87" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
-        <v>-1.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.6</v>
+        <v>2.75</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6</v>
+        <v>-2.25</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.6</v>
+        <v>-3.75</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.5620000000000001</v>
+        <v>37.517</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>-27.5</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-35.667</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
-        <v>8</v>
-      </c>
-      <c r="U87" t="n">
-        <v>8</v>
-      </c>
-      <c r="V87" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>11</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -4130,40 +4190,40 @@
         <v>94</v>
       </c>
       <c r="D88" t="n">
-        <v>-11</v>
+        <v>3.7</v>
       </c>
       <c r="E88" t="n">
-        <v>-11.45</v>
+        <v>-3</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
-        <v>-11.4</v>
+        <v>2.8</v>
       </c>
       <c r="I88" t="n">
-        <v>-10.6</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J88" t="n">
-        <v>-11.05</v>
+        <v>-2.25</v>
       </c>
       <c r="K88" t="n">
-        <v>-11.85</v>
+        <v>-3.75</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>37.517</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O88" t="n">
-        <v>-11</v>
+        <v>-33.817</v>
       </c>
       <c r="P88" t="n">
-        <v>-11.45</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -4171,199 +4231,217 @@
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D89" t="n">
-        <v>-11</v>
+        <v>-1.3</v>
       </c>
       <c r="E89" t="n">
-        <v>-11.45</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
-        <v>-11.4</v>
+        <v>-1.95</v>
       </c>
       <c r="I89" t="n">
-        <v>-10.6</v>
+        <v>-0.65</v>
       </c>
       <c r="J89" t="n">
-        <v>-11.05</v>
+        <v>0.6</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.85</v>
+        <v>-0.6</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>-0.5620000000000001</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>-11</v>
+        <v>-0.738</v>
       </c>
       <c r="P89" t="n">
-        <v>-11.45</v>
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>8</v>
+      </c>
+      <c r="U89" t="n">
+        <v>8</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
         <v>96</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="F90" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.6</v>
+        <v>2.6</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="J90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3</v>
+      </c>
+      <c r="P90" t="n">
         <v>0.65</v>
       </c>
-      <c r="K90" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>-0.259</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
       <c r="T90" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U90" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V90" t="n">
-        <v>0.699</v>
+        <v>2.996</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>11</v>
+        <v>32.604</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>11.55</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>16.9</v>
+        <v>1.2</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.449999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>8.449999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="J91" t="n">
-        <v>12</v>
+        <v>0.65</v>
       </c>
       <c r="K91" t="n">
-        <v>11.1</v>
+        <v>-0.65</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>-0.259</v>
       </c>
       <c r="P91" t="n">
-        <v>11.55</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U91" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V91" t="n">
-        <v>-0</v>
+        <v>0.699</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>38.9</v>
+        <v>11</v>
       </c>
       <c r="Y91" t="n">
-        <v>99.88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D92" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-3.65</v>
+        <v>-11.25</v>
       </c>
       <c r="F92" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.9</v>
       </c>
-      <c r="G92" t="n">
-        <v>16.9</v>
-      </c>
       <c r="H92" t="n">
-        <v>2.6</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I92" t="n">
-        <v>3.5</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>4.799999999999999</v>
+        <v>-10.8</v>
       </c>
       <c r="K92" t="n">
-        <v>-12.1</v>
+        <v>-11.7</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4372,60 +4450,60 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>-3.65</v>
+        <v>-11.25</v>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V92" t="n">
-        <v>-49.95</v>
+        <v>-0</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
       </c>
       <c r="X92" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Y92" t="n">
         <v>99.88</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>38.9</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>-11.8</v>
+        <v>9.75</v>
       </c>
       <c r="E93" t="n">
-        <v>-11.45</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>16.9</v>
       </c>
       <c r="H93" t="n">
-        <v>-12.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I93" t="n">
-        <v>-11.4</v>
+        <v>10.2</v>
       </c>
       <c r="J93" t="n">
-        <v>-11.05</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.85</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -4434,24 +4512,42 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>-11.8</v>
+        <v>9.75</v>
       </c>
       <c r="P93" t="n">
-        <v>-11.45</v>
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>-49.95</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>99.88</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D94" t="n">
-        <v>-11.8</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>-11.45</v>
+        <v>-0.35</v>
       </c>
       <c r="F94" t="n">
         <v>0.8</v>
@@ -4460,16 +4556,16 @@
         <v>0.8</v>
       </c>
       <c r="H94" t="n">
-        <v>-12.2</v>
+        <v>2.6</v>
       </c>
       <c r="I94" t="n">
-        <v>-11.4</v>
+        <v>3.4</v>
       </c>
       <c r="J94" t="n">
-        <v>-11.05</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.85</v>
+        <v>-0.75</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4478,24 +4574,42 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>-11.8</v>
+        <v>3</v>
       </c>
       <c r="P94" t="n">
-        <v>-11.45</v>
+        <v>-0.35</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>32.604</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D95" t="n">
-        <v>-10.4</v>
+        <v>2.2</v>
       </c>
       <c r="E95" t="n">
-        <v>-10.55</v>
+        <v>0.65</v>
       </c>
       <c r="F95" t="n">
         <v>0.4</v>
@@ -4504,16 +4618,16 @@
         <v>0.8</v>
       </c>
       <c r="H95" t="n">
-        <v>-10.6</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>-10.2</v>
+        <v>2.4</v>
       </c>
       <c r="J95" t="n">
-        <v>-10.15</v>
+        <v>1.05</v>
       </c>
       <c r="K95" t="n">
-        <v>-10.95</v>
+        <v>0.25</v>
       </c>
       <c r="M95" t="n">
         <v>-0.3</v>
@@ -4522,10 +4636,10 @@
         <v>0.756</v>
       </c>
       <c r="O95" t="n">
-        <v>-10.1</v>
+        <v>2.5</v>
       </c>
       <c r="P95" t="n">
-        <v>-11.306</v>
+        <v>-0.106</v>
       </c>
       <c r="T95" t="n">
         <v>8</v>
@@ -4548,16 +4662,16 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D96" t="n">
-        <v>-10.4</v>
+        <v>2.2</v>
       </c>
       <c r="E96" t="n">
-        <v>-11.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F96" t="n">
         <v>0.4</v>
@@ -4566,16 +4680,16 @@
         <v>0.6</v>
       </c>
       <c r="H96" t="n">
-        <v>-10.6</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>-10.2</v>
+        <v>2.4</v>
       </c>
       <c r="J96" t="n">
-        <v>-10.95</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.55</v>
+        <v>-0.55</v>
       </c>
       <c r="M96" t="n">
         <v>-0.3</v>
@@ -4584,10 +4698,10 @@
         <v>-0.662</v>
       </c>
       <c r="O96" t="n">
-        <v>-10.1</v>
+        <v>2.5</v>
       </c>
       <c r="P96" t="n">
-        <v>-10.588</v>
+        <v>0.412</v>
       </c>
       <c r="T96" t="n">
         <v>8</v>
@@ -4610,16 +4724,16 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="F97" t="n">
         <v>11.4</v>
@@ -4634,10 +4748,10 @@
         <v>5.7</v>
       </c>
       <c r="J97" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="K97" t="n">
-        <v>10.7</v>
+        <v>11.8</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -4649,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="T97" t="n">
         <v>8</v>
@@ -4672,104 +4786,140 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.8</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.9</v>
+        <v>10.8</v>
       </c>
       <c r="F98" t="n">
         <v>6.4</v>
       </c>
       <c r="G98" t="n">
-        <v>22.4</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
-        <v>-11</v>
+        <v>-3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>-4.6</v>
+        <v>3.2</v>
       </c>
       <c r="J98" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="K98" t="n">
-        <v>-12.1</v>
+        <v>10.6</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O98" t="n">
-        <v>-7.8</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.9</v>
+        <v>49.3</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D99" t="n">
-        <v>7.8</v>
+        <v>10.6</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="G99" t="n">
         <v>22.4</v>
       </c>
       <c r="H99" t="n">
-        <v>4.6</v>
+        <v>10.4</v>
       </c>
       <c r="I99" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="J99" t="n">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="K99" t="n">
-        <v>-12.1</v>
+        <v>-11.2</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>2.996</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>-27.496</v>
       </c>
       <c r="O99" t="n">
-        <v>7.8</v>
+        <v>7.603999999999999</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.9</v>
+        <v>27.496</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>54.992</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>-9.4</v>
       </c>
       <c r="E100" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0.4</v>
@@ -4778,16 +4928,16 @@
         <v>11.4</v>
       </c>
       <c r="H100" t="n">
-        <v>1.8</v>
+        <v>-9.6</v>
       </c>
       <c r="I100" t="n">
-        <v>2.2</v>
+        <v>-9.200000000000001</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="K100" t="n">
-        <v>-12.1</v>
+        <v>-5.7</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -4796,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>2</v>
+        <v>-9.4</v>
       </c>
       <c r="P100" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="T100" t="n">
         <v>1</v>
@@ -4822,16 +4972,16 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>-9.4</v>
       </c>
       <c r="E101" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0.4</v>
@@ -4840,16 +4990,16 @@
         <v>11.4</v>
       </c>
       <c r="H101" t="n">
-        <v>1.8</v>
+        <v>-9.6</v>
       </c>
       <c r="I101" t="n">
-        <v>2.2</v>
+        <v>-9.200000000000001</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="K101" t="n">
-        <v>-12.1</v>
+        <v>-5.7</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -4858,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>-9.4</v>
       </c>
       <c r="P101" t="n">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="T101" t="n">
         <v>1</v>
@@ -4884,16 +5034,16 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-12.55</v>
+        <v>-12.35</v>
       </c>
       <c r="F102" t="n">
         <v>16.9</v>
@@ -4908,10 +5058,10 @@
         <v>8.449999999999999</v>
       </c>
       <c r="J102" t="n">
-        <v>-12.1</v>
+        <v>-11.9</v>
       </c>
       <c r="K102" t="n">
-        <v>-13</v>
+        <v>-12.8</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -4923,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>-12.55</v>
+        <v>-12.35</v>
       </c>
       <c r="T102" t="n">
         <v>3</v>
@@ -4946,16 +5096,16 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D103" t="n">
-        <v>-2.25</v>
+        <v>8.65</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0.9</v>
@@ -4964,16 +5114,16 @@
         <v>16.9</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.7</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>-1.8</v>
+        <v>9.1</v>
       </c>
       <c r="J103" t="n">
-        <v>4.799999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>-12.1</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -4982,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>-2.25</v>
+        <v>8.65</v>
       </c>
       <c r="P103" t="n">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="T103" t="n">
         <v>1</v>
@@ -5008,16 +5158,16 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D104" t="n">
-        <v>-10.8</v>
+        <v>1.75</v>
       </c>
       <c r="E104" t="n">
-        <v>-10.85</v>
+        <v>0.4</v>
       </c>
       <c r="F104" t="n">
         <v>0.4</v>
@@ -5026,16 +5176,16 @@
         <v>0.4</v>
       </c>
       <c r="H104" t="n">
-        <v>-11</v>
+        <v>1.55</v>
       </c>
       <c r="I104" t="n">
-        <v>-10.6</v>
+        <v>1.95</v>
       </c>
       <c r="J104" t="n">
-        <v>-10.65</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.05</v>
+        <v>0.2</v>
       </c>
       <c r="M104" t="n">
         <v>-0.3</v>
@@ -5044,10 +5194,10 @@
         <v>-0.767</v>
       </c>
       <c r="O104" t="n">
-        <v>-10.5</v>
+        <v>2.05</v>
       </c>
       <c r="P104" t="n">
-        <v>-10.083</v>
+        <v>1.167</v>
       </c>
       <c r="T104" t="n">
         <v>8</v>
@@ -5070,16 +5220,16 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.65</v>
+        <v>6.45</v>
       </c>
       <c r="E105" t="n">
-        <v>-11.05</v>
+        <v>-2.15</v>
       </c>
       <c r="F105" t="n">
         <v>3.1</v>
@@ -5088,16 +5238,16 @@
         <v>1.8</v>
       </c>
       <c r="H105" t="n">
-        <v>-10.2</v>
+        <v>4.9</v>
       </c>
       <c r="I105" t="n">
-        <v>-7.100000000000001</v>
+        <v>8</v>
       </c>
       <c r="J105" t="n">
-        <v>-10.15</v>
+        <v>-1.25</v>
       </c>
       <c r="K105" t="n">
-        <v>-11.95</v>
+        <v>-3.05</v>
       </c>
       <c r="M105" t="n">
         <v>-0.5629999999999999</v>
@@ -5106,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>-8.087</v>
+        <v>7.013</v>
       </c>
       <c r="P105" t="n">
-        <v>-11.05</v>
+        <v>-2.15</v>
       </c>
       <c r="T105" t="n">
         <v>8</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -305,55 +305,58 @@
     <t>Capacitor_common</t>
   </si>
   <si>
+    <t>400nm_NbWiring</t>
+  </si>
+  <si>
+    <t>Cap_to_Ind_lines</t>
+  </si>
+  <si>
+    <t>GP_edge_filler_hor</t>
+  </si>
+  <si>
+    <t>GP_edge_filler_vert</t>
+  </si>
+  <si>
+    <t>MSfeed_bondpad</t>
+  </si>
+  <si>
+    <t>cap_to_feed</t>
+  </si>
+  <si>
+    <t>cap_to_gnd</t>
+  </si>
+  <si>
+    <t>feedline_main</t>
+  </si>
+  <si>
+    <t>main_hor_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>main_vert_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>vert_main_with_corners</t>
+  </si>
+  <si>
+    <t>ILD</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_hor_r</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_vert_r</t>
+  </si>
+  <si>
+    <t>Via_to_Ground</t>
+  </si>
+  <si>
+    <t>reso_ILD_sub</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
     <t>GNDfeed_bondpad</t>
-  </si>
-  <si>
-    <t>400nm_NbWiring</t>
-  </si>
-  <si>
-    <t>Cap_to_Ind_lines</t>
-  </si>
-  <si>
-    <t>GP_edge_filler_hor</t>
-  </si>
-  <si>
-    <t>GP_edge_filler_vert</t>
-  </si>
-  <si>
-    <t>MSfeed_bondpad</t>
-  </si>
-  <si>
-    <t>cap_to_feed</t>
-  </si>
-  <si>
-    <t>cap_to_gnd</t>
-  </si>
-  <si>
-    <t>feedline_main</t>
-  </si>
-  <si>
-    <t>main_hor_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>main_vert_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>vert_main_with_corners</t>
-  </si>
-  <si>
-    <t>ILD</t>
-  </si>
-  <si>
-    <t>GP_edge_opening_hor_r</t>
-  </si>
-  <si>
-    <t>GP_edge_opening_vert_r</t>
-  </si>
-  <si>
-    <t>Via_to_Ground</t>
-  </si>
-  <si>
-    <t>reso_ILD_sub</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>0.699</v>
+        <v>0.7</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -4258,13 +4261,13 @@
         <v>-0.6</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.5620000000000001</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.738</v>
+        <v>-0.7370000000000001</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -4276,7 +4279,7 @@
         <v>8</v>
       </c>
       <c r="V89" t="n">
-        <v>0.699</v>
+        <v>0.7</v>
       </c>
       <c r="W89" t="n">
         <v>0</v>
@@ -4290,69 +4293,69 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.65</v>
       </c>
-      <c r="F90" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.05</v>
-      </c>
       <c r="K90" t="n">
-        <v>0.25</v>
+        <v>-0.65</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.2585</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3</v>
+        <v>-0.2585</v>
       </c>
       <c r="P90" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V90" t="n">
-        <v>2.996</v>
+        <v>0.7</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y90" t="n">
-        <v>32.604</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -4361,88 +4364,88 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>-11.25</v>
       </c>
       <c r="F91" t="n">
-        <v>1.2</v>
+        <v>16.9</v>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.6</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>0.6</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>0.65</v>
+        <v>-10.8</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.65</v>
+        <v>-11.7</v>
       </c>
       <c r="M91" t="n">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.259</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>-11.25</v>
       </c>
       <c r="T91" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U91" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>0.699</v>
+        <v>-0</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>11</v>
+        <v>38.9</v>
       </c>
       <c r="Y91" t="n">
-        <v>11</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="E92" t="n">
-        <v>-11.25</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G92" t="n">
         <v>16.9</v>
       </c>
-      <c r="G92" t="n">
-        <v>0.9</v>
-      </c>
       <c r="H92" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K92" t="n">
         <v>-8.449999999999999</v>
       </c>
-      <c r="I92" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-10.8</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-11.7</v>
-      </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
@@ -4450,60 +4453,60 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="P92" t="n">
-        <v>-11.25</v>
+        <v>0</v>
       </c>
       <c r="T92" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" t="n">
         <v>3</v>
       </c>
-      <c r="U92" t="n">
-        <v>2</v>
-      </c>
       <c r="V92" t="n">
-        <v>-0</v>
+        <v>-49.95</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
       </c>
       <c r="X92" t="n">
+        <v>99.88</v>
+      </c>
+      <c r="Y92" t="n">
         <v>38.9</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>99.88</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>9.75</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G93" t="n">
-        <v>16.9</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
-        <v>9.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="I93" t="n">
-        <v>10.2</v>
+        <v>3.4</v>
       </c>
       <c r="J93" t="n">
-        <v>8.449999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="K93" t="n">
-        <v>-8.449999999999999</v>
+        <v>-0.75</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -4512,95 +4515,95 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>9.75</v>
+        <v>3</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="T93" t="n">
         <v>1</v>
       </c>
       <c r="U93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>-49.95</v>
+        <v>2.996</v>
       </c>
       <c r="W93" t="n">
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>99.88</v>
+        <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>38.9</v>
+        <v>32.604</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.35</v>
+        <v>0.65</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G94" t="n">
         <v>0.8</v>
       </c>
       <c r="H94" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05000000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>0.756</v>
       </c>
       <c r="O94" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.35</v>
+        <v>-0.106</v>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U94" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V94" t="n">
-        <v>2.996</v>
+        <v>-0</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y94" t="n">
-        <v>32.604</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -4609,13 +4612,13 @@
         <v>2.2</v>
       </c>
       <c r="E95" t="n">
-        <v>0.65</v>
+        <v>-0.25</v>
       </c>
       <c r="F95" t="n">
         <v>0.4</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>2</v>
@@ -4624,22 +4627,22 @@
         <v>2.4</v>
       </c>
       <c r="J95" t="n">
-        <v>1.05</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>0.25</v>
+        <v>-0.55</v>
       </c>
       <c r="M95" t="n">
         <v>-0.3</v>
       </c>
       <c r="N95" t="n">
-        <v>0.756</v>
+        <v>-0.662</v>
       </c>
       <c r="O95" t="n">
         <v>2.5</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.106</v>
+        <v>0.412</v>
       </c>
       <c r="T95" t="n">
         <v>8</v>
@@ -4662,46 +4665,46 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
       </c>
       <c r="D96" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.25</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.4</v>
       </c>
-      <c r="G96" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>-5.7</v>
       </c>
       <c r="I96" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04999999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.55</v>
+        <v>11.8</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.662</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>0.412</v>
+        <v>12</v>
       </c>
       <c r="T96" t="n">
         <v>8</v>
@@ -4724,7 +4727,7 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -4733,99 +4736,99 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="F97" t="n">
-        <v>11.4</v>
+        <v>6.4</v>
       </c>
       <c r="G97" t="n">
         <v>0.4</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.7</v>
+        <v>-3.2</v>
       </c>
       <c r="I97" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="J97" t="n">
-        <v>12.2</v>
+        <v>11</v>
       </c>
       <c r="K97" t="n">
-        <v>11.8</v>
+        <v>10.6</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>12</v>
+        <v>49.3</v>
       </c>
       <c r="T97" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V97" t="n">
         <v>-0</v>
       </c>
       <c r="W97" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I98" t="n">
         <v>10.8</v>
       </c>
-      <c r="F98" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J98" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="K98" t="n">
-        <v>10.6</v>
+        <v>-11.2</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>2.996</v>
       </c>
       <c r="N98" t="n">
-        <v>-38.5</v>
+        <v>-27.496</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>7.603999999999999</v>
       </c>
       <c r="P98" t="n">
-        <v>49.3</v>
+        <v>27.496</v>
       </c>
       <c r="T98" t="n">
         <v>1</v>
@@ -4834,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="V98" t="n">
-        <v>-0</v>
+        <v>2.996</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -4843,18 +4846,18 @@
         <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>77</v>
+        <v>54.992</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
       </c>
       <c r="D99" t="n">
-        <v>10.6</v>
+        <v>-9.4</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4863,57 +4866,57 @@
         <v>0.4</v>
       </c>
       <c r="G99" t="n">
-        <v>22.4</v>
+        <v>11.4</v>
       </c>
       <c r="H99" t="n">
-        <v>10.4</v>
+        <v>-9.6</v>
       </c>
       <c r="I99" t="n">
-        <v>10.8</v>
+        <v>-9.200000000000001</v>
       </c>
       <c r="J99" t="n">
-        <v>11.2</v>
+        <v>5.7</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.2</v>
+        <v>-5.7</v>
       </c>
       <c r="M99" t="n">
-        <v>2.996</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>-27.496</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>7.603999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="P99" t="n">
-        <v>27.496</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
         <v>1</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V99" t="n">
-        <v>2.996</v>
+        <v>-44</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>54.992</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D100" t="n">
         <v>-9.4</v>
@@ -4955,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="U100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V100" t="n">
-        <v>-44</v>
+        <v>44</v>
       </c>
       <c r="W100" t="n">
         <v>0.959</v>
@@ -4972,34 +4975,34 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D101" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-12.35</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="G101" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
-        <v>-9.6</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I101" t="n">
-        <v>-9.200000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J101" t="n">
-        <v>5.7</v>
+        <v>-11.9</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.7</v>
+        <v>-12.8</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -5008,61 +5011,61 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>-12.35</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V101" t="n">
-        <v>44</v>
+        <v>-0</v>
       </c>
       <c r="W101" t="n">
-        <v>0.959</v>
+        <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="Y101" t="n">
-        <v>22</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="E102" t="n">
-        <v>-12.35</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G102" t="n">
         <v>16.9</v>
       </c>
-      <c r="G102" t="n">
-        <v>0.9</v>
-      </c>
       <c r="H102" t="n">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K102" t="n">
         <v>-8.449999999999999</v>
       </c>
-      <c r="I102" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="J102" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-12.8</v>
-      </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
@@ -5070,134 +5073,134 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="P102" t="n">
-        <v>-12.35</v>
+        <v>0</v>
       </c>
       <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
         <v>3</v>
       </c>
-      <c r="U102" t="n">
-        <v>2</v>
-      </c>
       <c r="V102" t="n">
-        <v>-0</v>
+        <v>-49.95</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
       </c>
       <c r="X102" t="n">
+        <v>99.88</v>
+      </c>
+      <c r="Y102" t="n">
         <v>38.9</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>99.88</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
       </c>
       <c r="D103" t="n">
-        <v>8.65</v>
+        <v>1.75</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G103" t="n">
-        <v>16.9</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
-        <v>8.200000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="I103" t="n">
-        <v>9.1</v>
+        <v>1.95</v>
       </c>
       <c r="J103" t="n">
-        <v>8.449999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>-8.449999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>-0.767</v>
       </c>
       <c r="O103" t="n">
-        <v>8.65</v>
+        <v>2.05</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>1.167</v>
       </c>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U103" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V103" t="n">
-        <v>-49.95</v>
+        <v>-0</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="X103" t="n">
-        <v>99.88</v>
+        <v>11</v>
       </c>
       <c r="Y103" t="n">
-        <v>38.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
       </c>
       <c r="D104" t="n">
-        <v>1.75</v>
+        <v>6.45</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4</v>
+        <v>-2.15</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
-        <v>1.55</v>
+        <v>4.9</v>
       </c>
       <c r="I104" t="n">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6000000000000001</v>
+        <v>-1.25</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2</v>
+        <v>-3.05</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.3</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="N104" t="n">
-        <v>-0.767</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>2.05</v>
+        <v>7.013</v>
       </c>
       <c r="P104" t="n">
-        <v>1.167</v>
+        <v>-2.15</v>
       </c>
       <c r="T104" t="n">
         <v>8</v>
@@ -5220,64 +5223,64 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D105" t="n">
-        <v>6.45</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>-2.15</v>
+        <v>0.65</v>
       </c>
       <c r="F105" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="I105" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="J105" t="n">
-        <v>-1.25</v>
+        <v>1.05</v>
       </c>
       <c r="K105" t="n">
-        <v>-3.05</v>
+        <v>0.25</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>7.013</v>
+        <v>3</v>
       </c>
       <c r="P105" t="n">
-        <v>-2.15</v>
+        <v>0.65</v>
       </c>
       <c r="T105" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U105" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V105" t="n">
-        <v>-0</v>
+        <v>2.996</v>
       </c>
       <c r="W105" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X105" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y105" t="n">
-        <v>11</v>
+        <v>32.604</v>
       </c>
     </row>
   </sheetData>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -846,7 +846,7 @@
         <v>0.7</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -887,13 +887,13 @@
         <v>-0.4</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.655</v>
+        <v>-2.65</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.755</v>
+        <v>3.75</v>
       </c>
       <c r="P16" t="n">
         <v>-0.15</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.959</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>11.4</v>
+        <v>12.359</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1011,16 +1011,16 @@
         <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="N18" t="n">
-        <v>-38.5</v>
+        <v>-39.459</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="P18" t="n">
-        <v>48.7</v>
+        <v>49.65900000000001</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>-0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1073,16 +1073,16 @@
         <v>-11.2</v>
       </c>
       <c r="M19" t="n">
-        <v>2.996</v>
+        <v>-44.004</v>
       </c>
       <c r="N19" t="n">
-        <v>-27.496</v>
+        <v>-28.455</v>
       </c>
       <c r="O19" t="n">
-        <v>-13.596</v>
+        <v>33.404</v>
       </c>
       <c r="P19" t="n">
-        <v>27.496</v>
+        <v>28.455</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>2.996</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>-0.025</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X24" t="n">
         <v>101</v>
@@ -4282,7 +4282,7 @@
         <v>0.7</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X89" t="n">
         <v>11</v>
@@ -4344,7 +4344,7 @@
         <v>0.7</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X90" t="n">
         <v>11</v>
@@ -4406,7 +4406,7 @@
         <v>-0</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X91" t="n">
         <v>38.9</v>
@@ -4468,7 +4468,7 @@
         <v>-49.95</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X92" t="n">
         <v>99.88</v>
@@ -4530,7 +4530,7 @@
         <v>2.996</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
@@ -4698,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>-0.959</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>12</v>
+        <v>12.959</v>
       </c>
       <c r="T96" t="n">
         <v>8</v>
@@ -4757,16 +4757,16 @@
         <v>10.6</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="N97" t="n">
-        <v>-38.5</v>
+        <v>-39.459</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="P97" t="n">
-        <v>49.3</v>
+        <v>50.259</v>
       </c>
       <c r="T97" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>-0</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X97" t="n">
         <v>0</v>
@@ -4819,16 +4819,16 @@
         <v>-11.2</v>
       </c>
       <c r="M98" t="n">
-        <v>2.996</v>
+        <v>-44.004</v>
       </c>
       <c r="N98" t="n">
-        <v>-27.496</v>
+        <v>-28.455</v>
       </c>
       <c r="O98" t="n">
-        <v>7.603999999999999</v>
+        <v>54.604</v>
       </c>
       <c r="P98" t="n">
-        <v>27.496</v>
+        <v>28.455</v>
       </c>
       <c r="T98" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>2.996</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X98" t="n">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>-0</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X101" t="n">
         <v>38.9</v>
@@ -5088,7 +5088,7 @@
         <v>-49.95</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X102" t="n">
         <v>99.88</v>
@@ -5274,7 +5274,7 @@
         <v>2.996</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -825,13 +825,13 @@
         <v>0.15</v>
       </c>
       <c r="M15" t="n">
-        <v>0.821</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.179</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0.4</v>
@@ -887,13 +887,13 @@
         <v>-0.4</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.65</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
         <v>-0.15</v>
@@ -1011,16 +1011,16 @@
         <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-39.459</v>
+        <v>-38.5</v>
       </c>
       <c r="O18" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>49.65900000000001</v>
+        <v>48.7</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1073,16 +1073,16 @@
         <v>-11.2</v>
       </c>
       <c r="M19" t="n">
-        <v>-44.004</v>
+        <v>2.996</v>
       </c>
       <c r="N19" t="n">
-        <v>-28.455</v>
+        <v>-27.496</v>
       </c>
       <c r="O19" t="n">
-        <v>33.404</v>
+        <v>-13.596</v>
       </c>
       <c r="P19" t="n">
-        <v>28.455</v>
+        <v>27.496</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
@@ -1445,16 +1445,34 @@
         <v>8.449999999999999</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N25" t="n">
+      <c r="W25" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O25" t="n">
-        <v>35.78299999999999</v>
-      </c>
-      <c r="P25" t="n">
-        <v>47.7</v>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -1489,16 +1507,34 @@
         <v>8.449999999999999</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N26" t="n">
+      <c r="W26" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O26" t="n">
-        <v>37.633</v>
-      </c>
-      <c r="P26" t="n">
-        <v>36.7</v>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -1533,16 +1569,34 @@
         <v>8.449999999999999</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N27" t="n">
+      <c r="W27" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O27" t="n">
-        <v>28.483</v>
-      </c>
-      <c r="P27" t="n">
-        <v>36.7</v>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -1577,16 +1631,34 @@
         <v>8.449999999999999</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N28" t="n">
+      <c r="W28" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O28" t="n">
-        <v>30.333</v>
-      </c>
-      <c r="P28" t="n">
-        <v>47.7</v>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -1621,16 +1693,34 @@
         <v>8.449999999999999</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N29" t="n">
+      <c r="W29" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O29" t="n">
-        <v>21.183</v>
-      </c>
-      <c r="P29" t="n">
-        <v>47.7</v>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -1665,16 +1755,34 @@
         <v>8.449999999999999</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N30" t="n">
+      <c r="W30" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O30" t="n">
-        <v>2.782999999999999</v>
-      </c>
-      <c r="P30" t="n">
-        <v>47.7</v>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -1709,16 +1817,34 @@
         <v>6.9</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N31" t="n">
+      <c r="W31" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O31" t="n">
-        <v>4.632999999999999</v>
-      </c>
-      <c r="P31" t="n">
-        <v>35.15</v>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -1753,16 +1879,34 @@
         <v>6.9</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N32" t="n">
+      <c r="W32" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O32" t="n">
-        <v>17.483</v>
-      </c>
-      <c r="P32" t="n">
-        <v>35.15</v>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -1797,16 +1941,34 @@
         <v>6.9</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N33" t="n">
+      <c r="W33" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O33" t="n">
-        <v>19.333</v>
-      </c>
-      <c r="P33" t="n">
-        <v>24.15</v>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -1841,16 +2003,34 @@
         <v>6.9</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N34" t="n">
+      <c r="W34" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O34" t="n">
-        <v>10.183</v>
-      </c>
-      <c r="P34" t="n">
-        <v>24.15</v>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -1885,16 +2065,34 @@
         <v>6.9</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N35" t="n">
+      <c r="W35" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O35" t="n">
-        <v>2.782999999999999</v>
-      </c>
-      <c r="P35" t="n">
-        <v>13.15</v>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -1929,16 +2127,34 @@
         <v>6.9</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N36" t="n">
+      <c r="W36" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O36" t="n">
-        <v>15.633</v>
-      </c>
-      <c r="P36" t="n">
-        <v>13.15</v>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -1973,16 +2189,34 @@
         <v>5.35</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N37" t="n">
+      <c r="W37" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O37" t="n">
-        <v>28.483</v>
-      </c>
-      <c r="P37" t="n">
-        <v>11.6</v>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -2017,16 +2251,34 @@
         <v>5.35</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N38" t="n">
+      <c r="W38" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O38" t="n">
-        <v>30.333</v>
-      </c>
-      <c r="P38" t="n">
-        <v>22.6</v>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -2061,16 +2313,34 @@
         <v>5.35</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N39" t="n">
+      <c r="W39" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O39" t="n">
-        <v>43.183</v>
-      </c>
-      <c r="P39" t="n">
-        <v>22.6</v>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -2105,16 +2375,34 @@
         <v>5.35</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N40" t="n">
+      <c r="W40" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O40" t="n">
-        <v>35.78299999999999</v>
-      </c>
-      <c r="P40" t="n">
-        <v>11.6</v>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -2149,16 +2437,34 @@
         <v>5.35</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N41" t="n">
+      <c r="W41" t="n">
         <v>5.5</v>
       </c>
-      <c r="O41" t="n">
-        <v>37.633</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.5999999999999996</v>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -2193,16 +2499,34 @@
         <v>5.35</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N42" t="n">
+      <c r="W42" t="n">
         <v>5.5</v>
       </c>
-      <c r="O42" t="n">
-        <v>28.483</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.5999999999999996</v>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -2237,16 +2561,34 @@
         <v>3.8</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N43" t="n">
+      <c r="W43" t="n">
         <v>16.5</v>
       </c>
-      <c r="O43" t="n">
-        <v>30.333</v>
-      </c>
-      <c r="P43" t="n">
-        <v>-11.95</v>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -2281,16 +2623,34 @@
         <v>3.8</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N44" t="n">
+      <c r="W44" t="n">
         <v>16.5</v>
       </c>
-      <c r="O44" t="n">
-        <v>43.183</v>
-      </c>
-      <c r="P44" t="n">
-        <v>-11.95</v>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -2325,16 +2685,34 @@
         <v>3.8</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N45" t="n">
+      <c r="W45" t="n">
         <v>27.5</v>
       </c>
-      <c r="O45" t="n">
-        <v>35.78299999999999</v>
-      </c>
-      <c r="P45" t="n">
-        <v>-22.95</v>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -2369,16 +2747,34 @@
         <v>3.8</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
         <v>-39.483</v>
       </c>
-      <c r="N46" t="n">
+      <c r="W46" t="n">
         <v>38.5</v>
       </c>
-      <c r="O46" t="n">
-        <v>37.633</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-33.95</v>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -2413,16 +2809,34 @@
         <v>3.8</v>
       </c>
       <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N47" t="n">
+      <c r="W47" t="n">
         <v>38.5</v>
       </c>
-      <c r="O47" t="n">
-        <v>28.483</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-33.95</v>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -2457,16 +2871,34 @@
         <v>3.8</v>
       </c>
       <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
         <v>-28.483</v>
       </c>
-      <c r="N48" t="n">
+      <c r="W48" t="n">
         <v>27.5</v>
       </c>
-      <c r="O48" t="n">
-        <v>30.333</v>
-      </c>
-      <c r="P48" t="n">
-        <v>-22.95</v>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -2501,16 +2933,34 @@
         <v>2.25</v>
       </c>
       <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N49" t="n">
+      <c r="W49" t="n">
         <v>27.5</v>
       </c>
-      <c r="O49" t="n">
-        <v>21.183</v>
-      </c>
-      <c r="P49" t="n">
-        <v>-24.5</v>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -2545,16 +2995,34 @@
         <v>2.25</v>
       </c>
       <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N50" t="n">
+      <c r="W50" t="n">
         <v>38.5</v>
       </c>
-      <c r="O50" t="n">
-        <v>13.783</v>
-      </c>
-      <c r="P50" t="n">
-        <v>-35.5</v>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -2589,16 +3057,34 @@
         <v>2.25</v>
       </c>
       <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N51" t="n">
+      <c r="W51" t="n">
         <v>38.5</v>
       </c>
-      <c r="O51" t="n">
-        <v>4.632999999999999</v>
-      </c>
-      <c r="P51" t="n">
-        <v>-35.5</v>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -2633,16 +3119,34 @@
         <v>2.25</v>
       </c>
       <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N52" t="n">
+      <c r="W52" t="n">
         <v>27.5</v>
       </c>
-      <c r="O52" t="n">
-        <v>6.483</v>
-      </c>
-      <c r="P52" t="n">
-        <v>-24.5</v>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -2677,16 +3181,34 @@
         <v>2.25</v>
       </c>
       <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N53" t="n">
+      <c r="W53" t="n">
         <v>16.5</v>
       </c>
-      <c r="O53" t="n">
-        <v>8.333</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-13.5</v>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -2721,16 +3243,34 @@
         <v>2.25</v>
       </c>
       <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N54" t="n">
+      <c r="W54" t="n">
         <v>16.5</v>
       </c>
-      <c r="O54" t="n">
-        <v>21.183</v>
-      </c>
-      <c r="P54" t="n">
-        <v>-13.5</v>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -2765,16 +3305,34 @@
         <v>-2.2</v>
       </c>
       <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
         <v>-17.483</v>
       </c>
-      <c r="N55" t="n">
+      <c r="W55" t="n">
         <v>5.5</v>
       </c>
-      <c r="O55" t="n">
-        <v>16.583</v>
-      </c>
-      <c r="P55" t="n">
-        <v>-6.95</v>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -2809,16 +3367,34 @@
         <v>-2.2</v>
       </c>
       <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
         <v>-6.483</v>
       </c>
-      <c r="N56" t="n">
+      <c r="W56" t="n">
         <v>5.5</v>
       </c>
-      <c r="O56" t="n">
-        <v>7.383</v>
-      </c>
-      <c r="P56" t="n">
-        <v>-6.95</v>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -2853,16 +3429,34 @@
         <v>0.7</v>
       </c>
       <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
         <v>4.517</v>
       </c>
-      <c r="N57" t="n">
+      <c r="W57" t="n">
         <v>5.5</v>
       </c>
-      <c r="O57" t="n">
-        <v>-5.417000000000001</v>
-      </c>
-      <c r="P57" t="n">
-        <v>-4.05</v>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -2897,16 +3491,34 @@
         <v>0.7</v>
       </c>
       <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
         <v>15.517</v>
       </c>
-      <c r="N58" t="n">
+      <c r="W58" t="n">
         <v>5.5</v>
       </c>
-      <c r="O58" t="n">
-        <v>-14.617</v>
-      </c>
-      <c r="P58" t="n">
-        <v>-4.05</v>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -2941,16 +3553,34 @@
         <v>-9.949999999999999</v>
       </c>
       <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
         <v>15.517</v>
       </c>
-      <c r="N59" t="n">
+      <c r="W59" t="n">
         <v>16.5</v>
       </c>
-      <c r="O59" t="n">
-        <v>-19.217</v>
-      </c>
-      <c r="P59" t="n">
-        <v>-25.7</v>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -2985,16 +3615,34 @@
         <v>-9.949999999999999</v>
       </c>
       <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
         <v>4.517</v>
       </c>
-      <c r="N60" t="n">
+      <c r="W60" t="n">
         <v>16.5</v>
       </c>
-      <c r="O60" t="n">
-        <v>-6.367000000000001</v>
-      </c>
-      <c r="P60" t="n">
-        <v>-25.7</v>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -3029,16 +3677,34 @@
         <v>-9.949999999999999</v>
       </c>
       <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
         <v>4.517</v>
       </c>
-      <c r="N61" t="n">
+      <c r="W61" t="n">
         <v>27.5</v>
       </c>
-      <c r="O61" t="n">
-        <v>-4.517</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-36.7</v>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -3073,16 +3739,34 @@
         <v>-9.949999999999999</v>
       </c>
       <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
         <v>4.517</v>
       </c>
-      <c r="N62" t="n">
+      <c r="W62" t="n">
         <v>38.5</v>
       </c>
-      <c r="O62" t="n">
-        <v>-2.667</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-47.7</v>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -3117,16 +3801,34 @@
         <v>-9.949999999999999</v>
       </c>
       <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
         <v>15.517</v>
       </c>
-      <c r="N63" t="n">
+      <c r="W63" t="n">
         <v>38.5</v>
       </c>
-      <c r="O63" t="n">
-        <v>-11.817</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-47.7</v>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -3161,16 +3863,34 @@
         <v>-9.949999999999999</v>
       </c>
       <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
         <v>15.517</v>
       </c>
-      <c r="N64" t="n">
+      <c r="W64" t="n">
         <v>27.5</v>
       </c>
-      <c r="O64" t="n">
-        <v>-19.217</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-36.7</v>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -3205,16 +3925,34 @@
         <v>-8.4</v>
       </c>
       <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
         <v>26.517</v>
       </c>
-      <c r="N65" t="n">
+      <c r="W65" t="n">
         <v>27.5</v>
       </c>
-      <c r="O65" t="n">
-        <v>-28.367</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-35.15</v>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -3249,16 +3987,34 @@
         <v>-8.4</v>
       </c>
       <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
         <v>26.517</v>
       </c>
-      <c r="N66" t="n">
+      <c r="W66" t="n">
         <v>38.5</v>
       </c>
-      <c r="O66" t="n">
-        <v>-26.517</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-46.15</v>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -3293,16 +4049,34 @@
         <v>-8.4</v>
       </c>
       <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
         <v>37.517</v>
       </c>
-      <c r="N67" t="n">
+      <c r="W67" t="n">
         <v>38.5</v>
       </c>
-      <c r="O67" t="n">
-        <v>-35.667</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-46.15</v>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -3337,16 +4111,34 @@
         <v>-8.4</v>
       </c>
       <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
         <v>37.517</v>
       </c>
-      <c r="N68" t="n">
+      <c r="W68" t="n">
         <v>27.5</v>
       </c>
-      <c r="O68" t="n">
-        <v>-33.817</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-35.15</v>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -3381,16 +4173,34 @@
         <v>-8.4</v>
       </c>
       <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
         <v>37.517</v>
       </c>
-      <c r="N69" t="n">
+      <c r="W69" t="n">
         <v>16.5</v>
       </c>
-      <c r="O69" t="n">
-        <v>-41.21700000000001</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-24.15</v>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -3425,16 +4235,34 @@
         <v>-8.4</v>
       </c>
       <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
         <v>26.517</v>
       </c>
-      <c r="N70" t="n">
+      <c r="W70" t="n">
         <v>16.5</v>
       </c>
-      <c r="O70" t="n">
-        <v>-28.367</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-24.15</v>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -3469,16 +4297,34 @@
         <v>-6.85</v>
       </c>
       <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
         <v>26.517</v>
       </c>
-      <c r="N71" t="n">
+      <c r="W71" t="n">
         <v>5.5</v>
       </c>
-      <c r="O71" t="n">
-        <v>-26.517</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-11.6</v>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -3513,16 +4359,34 @@
         <v>-6.85</v>
       </c>
       <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
         <v>37.517</v>
       </c>
-      <c r="N72" t="n">
+      <c r="W72" t="n">
         <v>5.5</v>
       </c>
-      <c r="O72" t="n">
-        <v>-35.667</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-11.6</v>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -3557,16 +4421,34 @@
         <v>-6.85</v>
       </c>
       <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P73" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
         <v>37.517</v>
       </c>
-      <c r="N73" t="n">
+      <c r="W73" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O73" t="n">
-        <v>-33.817</v>
-      </c>
-      <c r="P73" t="n">
-        <v>-0.5999999999999996</v>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -3601,16 +4483,34 @@
         <v>-6.85</v>
       </c>
       <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
         <v>37.517</v>
       </c>
-      <c r="N74" t="n">
+      <c r="W74" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O74" t="n">
-        <v>-41.21700000000001</v>
-      </c>
-      <c r="P74" t="n">
-        <v>10.4</v>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -3645,16 +4545,34 @@
         <v>-6.85</v>
       </c>
       <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
         <v>26.517</v>
       </c>
-      <c r="N75" t="n">
+      <c r="W75" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O75" t="n">
-        <v>-28.367</v>
-      </c>
-      <c r="P75" t="n">
-        <v>10.4</v>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -3689,16 +4607,34 @@
         <v>-6.85</v>
       </c>
       <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
         <v>26.517</v>
       </c>
-      <c r="N76" t="n">
+      <c r="W76" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O76" t="n">
-        <v>-26.517</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-0.5999999999999996</v>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -3733,16 +4669,34 @@
         <v>-5.3</v>
       </c>
       <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P77" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
         <v>15.517</v>
       </c>
-      <c r="N77" t="n">
+      <c r="W77" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O77" t="n">
-        <v>-13.667</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.9500000000000002</v>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -3777,16 +4731,34 @@
         <v>-5.3</v>
       </c>
       <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
         <v>4.517</v>
       </c>
-      <c r="N78" t="n">
+      <c r="W78" t="n">
         <v>-5.5</v>
       </c>
-      <c r="O78" t="n">
-        <v>-0.8170000000000002</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.9500000000000002</v>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -3821,16 +4793,34 @@
         <v>-5.3</v>
       </c>
       <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P79" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
         <v>4.517</v>
       </c>
-      <c r="N79" t="n">
+      <c r="W79" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O79" t="n">
-        <v>-8.217000000000001</v>
-      </c>
-      <c r="P79" t="n">
-        <v>11.95</v>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -3865,16 +4855,34 @@
         <v>-5.3</v>
       </c>
       <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
         <v>15.517</v>
       </c>
-      <c r="N80" t="n">
+      <c r="W80" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O80" t="n">
-        <v>-17.367</v>
-      </c>
-      <c r="P80" t="n">
-        <v>11.95</v>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -3909,16 +4917,34 @@
         <v>-5.3</v>
       </c>
       <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
         <v>15.517</v>
       </c>
-      <c r="N81" t="n">
+      <c r="W81" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O81" t="n">
-        <v>-15.517</v>
-      </c>
-      <c r="P81" t="n">
-        <v>22.95</v>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -3953,16 +4979,34 @@
         <v>-5.3</v>
       </c>
       <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
         <v>4.517</v>
       </c>
-      <c r="N82" t="n">
+      <c r="W82" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O82" t="n">
-        <v>-2.667</v>
-      </c>
-      <c r="P82" t="n">
-        <v>22.95</v>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -3997,16 +5041,34 @@
         <v>-3.75</v>
       </c>
       <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P83" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
         <v>4.517</v>
       </c>
-      <c r="N83" t="n">
+      <c r="W83" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O83" t="n">
-        <v>-0.8170000000000002</v>
-      </c>
-      <c r="P83" t="n">
-        <v>35.5</v>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -4041,16 +5103,34 @@
         <v>-3.75</v>
       </c>
       <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P84" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
         <v>15.517</v>
       </c>
-      <c r="N84" t="n">
+      <c r="W84" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O84" t="n">
-        <v>-19.217</v>
-      </c>
-      <c r="P84" t="n">
-        <v>35.5</v>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -4085,16 +5165,34 @@
         <v>-3.75</v>
       </c>
       <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
         <v>26.517</v>
       </c>
-      <c r="N85" t="n">
+      <c r="W85" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O85" t="n">
-        <v>-28.367</v>
-      </c>
-      <c r="P85" t="n">
-        <v>35.5</v>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -4129,16 +5227,34 @@
         <v>-3.75</v>
       </c>
       <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
         <v>26.517</v>
       </c>
-      <c r="N86" t="n">
+      <c r="W86" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O86" t="n">
-        <v>-26.517</v>
-      </c>
-      <c r="P86" t="n">
-        <v>24.5</v>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -4173,16 +5289,34 @@
         <v>-3.75</v>
       </c>
       <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
         <v>37.517</v>
       </c>
-      <c r="N87" t="n">
+      <c r="W87" t="n">
         <v>-27.5</v>
       </c>
-      <c r="O87" t="n">
-        <v>-35.667</v>
-      </c>
-      <c r="P87" t="n">
-        <v>24.5</v>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -4217,16 +5351,34 @@
         <v>-3.75</v>
       </c>
       <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P88" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
         <v>37.517</v>
       </c>
-      <c r="N88" t="n">
+      <c r="W88" t="n">
         <v>-38.5</v>
       </c>
-      <c r="O88" t="n">
-        <v>-33.817</v>
-      </c>
-      <c r="P88" t="n">
-        <v>35.5</v>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -4261,13 +5413,13 @@
         <v>-0.6</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.7370000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -4323,13 +5475,13 @@
         <v>-0.65</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2585</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.2585</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -4509,16 +5661,16 @@
         <v>-0.75</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>-2.996000000000001</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>16.302</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>5.996</v>
       </c>
       <c r="P93" t="n">
-        <v>-0.35</v>
+        <v>-16.652</v>
       </c>
       <c r="T93" t="n">
         <v>1</v>
@@ -4571,16 +5723,16 @@
         <v>0.25</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0.756</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.106</v>
+        <v>0.65</v>
       </c>
       <c r="T94" t="n">
         <v>8</v>
@@ -4633,16 +5785,16 @@
         <v>-0.55</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.662</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P95" t="n">
-        <v>0.412</v>
+        <v>-0.25</v>
       </c>
       <c r="T95" t="n">
         <v>8</v>
@@ -4757,16 +5909,16 @@
         <v>10.6</v>
       </c>
       <c r="M97" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>-39.459</v>
+        <v>-38.5</v>
       </c>
       <c r="O97" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>50.259</v>
+        <v>49.3</v>
       </c>
       <c r="T97" t="n">
         <v>1</v>
@@ -4819,16 +5971,16 @@
         <v>-11.2</v>
       </c>
       <c r="M98" t="n">
-        <v>-44.004</v>
+        <v>2.996</v>
       </c>
       <c r="N98" t="n">
-        <v>-28.455</v>
+        <v>-27.496</v>
       </c>
       <c r="O98" t="n">
-        <v>54.604</v>
+        <v>7.603999999999999</v>
       </c>
       <c r="P98" t="n">
-        <v>28.455</v>
+        <v>27.496</v>
       </c>
       <c r="T98" t="n">
         <v>1</v>
@@ -5129,16 +6281,16 @@
         <v>0.2</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.767</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="P103" t="n">
-        <v>1.167</v>
+        <v>0.4</v>
       </c>
       <c r="T103" t="n">
         <v>8</v>
@@ -5191,13 +6343,13 @@
         <v>-3.05</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>7.013</v>
+        <v>6.45</v>
       </c>
       <c r="P104" t="n">
         <v>-2.15</v>
@@ -5253,16 +6405,16 @@
         <v>0.25</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>-2.996000000000001</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>16.302</v>
       </c>
       <c r="O105" t="n">
-        <v>3</v>
+        <v>5.996</v>
       </c>
       <c r="P105" t="n">
-        <v>0.65</v>
+        <v>-15.652</v>
       </c>
       <c r="T105" t="n">
         <v>1</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -83,7 +83,262 @@
     <t>alignment_marks_patch_new</t>
   </si>
   <si>
-    <t>LSNSUB</t>
+    <t>120nm_NbWiring</t>
+  </si>
+  <si>
+    <t>50umX15mm_Hline</t>
+  </si>
+  <si>
+    <t>50umX15mm_Vline</t>
+  </si>
+  <si>
+    <t>Capacitor_300MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_303MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_306MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_309MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_312MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_315MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_318MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_321MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_324MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_327MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_330MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_333MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_336MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_339MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_342MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_345MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_348MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_351MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_354MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_357MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_360MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_363MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_366MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_369MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_372MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_375MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_378MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_381MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_384MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_387MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_390MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_393MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_396MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_399MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_402MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_405MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_408MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_411MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_414MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_417MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_420MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_423MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_426MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_429MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_432MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_435MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_438MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_441MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_444MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_447MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_450MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_453MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_456MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_459MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_462MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_465MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_468MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_471MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_474MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_477MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_480MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_483MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_486MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_489MHz</t>
+  </si>
+  <si>
+    <t>Capacitor_common</t>
+  </si>
+  <si>
+    <t>400nm_NbWiring</t>
+  </si>
+  <si>
+    <t>Cap_to_Ind_lines</t>
+  </si>
+  <si>
+    <t>GP_edge_filler_hor</t>
+  </si>
+  <si>
+    <t>GP_edge_filler_vert</t>
+  </si>
+  <si>
+    <t>MSfeed_bondpad</t>
+  </si>
+  <si>
+    <t>cap_to_feed</t>
+  </si>
+  <si>
+    <t>cap_to_gnd</t>
+  </si>
+  <si>
+    <t>feedline_main</t>
+  </si>
+  <si>
+    <t>main_hor_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>main_vert_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>vert_main_with_corners</t>
+  </si>
+  <si>
+    <t>ILD</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_hor_r</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_vert_r</t>
+  </si>
+  <si>
+    <t>Via_to_Ground</t>
+  </si>
+  <si>
+    <t>reso_ILD_sub</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>GNDfeed_bondpad</t>
   </si>
   <si>
     <t>feedline_GP_sub</t>
@@ -99,264 +354,6 @@
   </si>
   <si>
     <t>vert_gndsub_with_corners</t>
-  </si>
-  <si>
-    <t>120nm_NbWiring</t>
-  </si>
-  <si>
-    <t>50umX15mm_Hline</t>
-  </si>
-  <si>
-    <t>50umX15mm_Vline</t>
-  </si>
-  <si>
-    <t>Capacitor_300MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_303MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_306MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_309MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_312MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_315MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_318MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_321MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_324MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_327MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_330MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_333MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_336MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_339MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_342MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_345MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_348MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_351MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_354MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_357MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_360MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_363MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_366MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_369MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_372MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_375MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_378MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_381MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_384MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_387MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_390MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_393MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_396MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_399MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_402MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_405MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_408MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_411MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_414MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_417MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_420MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_423MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_426MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_429MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_432MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_435MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_438MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_441MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_444MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_447MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_450MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_453MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_456MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_459MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_462MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_465MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_468MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_471MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_474MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_477MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_480MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_483MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_486MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_489MHz</t>
-  </si>
-  <si>
-    <t>Capacitor_common</t>
-  </si>
-  <si>
-    <t>400nm_NbWiring</t>
-  </si>
-  <si>
-    <t>Cap_to_Ind_lines</t>
-  </si>
-  <si>
-    <t>GP_edge_filler_hor</t>
-  </si>
-  <si>
-    <t>GP_edge_filler_vert</t>
-  </si>
-  <si>
-    <t>MSfeed_bondpad</t>
-  </si>
-  <si>
-    <t>cap_to_feed</t>
-  </si>
-  <si>
-    <t>cap_to_gnd</t>
-  </si>
-  <si>
-    <t>feedline_main</t>
-  </si>
-  <si>
-    <t>main_hor_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>main_vert_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>vert_main_with_corners</t>
-  </si>
-  <si>
-    <t>ILD</t>
-  </si>
-  <si>
-    <t>GP_edge_opening_hor_r</t>
-  </si>
-  <si>
-    <t>GP_edge_opening_vert_r</t>
-  </si>
-  <si>
-    <t>Via_to_Ground</t>
-  </si>
-  <si>
-    <t>reso_ILD_sub</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>GNDfeed_bondpad</t>
   </si>
 </sst>
 </file>
@@ -825,13 +822,13 @@
         <v>0.15</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
         <v>0.4</v>
@@ -843,10 +840,10 @@
         <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0</v>
+        <v>0.099</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -928,55 +925,55 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="F17" t="n">
-        <v>11.4</v>
+        <v>15.4</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.7</v>
+        <v>-7.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="J17" t="n">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="K17" t="n">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-52.5</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.959</v>
+        <v>-50.525</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="P17" t="n">
-        <v>12.359</v>
+        <v>63.125</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>-0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.099</v>
+        <v>-0.025</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -987,58 +984,58 @@
         <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E18" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>15.4</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.2</v>
+        <v>-10.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>10.4</v>
+        <v>7.7</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>-7.7</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-50.525</v>
       </c>
       <c r="N18" t="n">
-        <v>-38.5</v>
+        <v>-52.5</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>40.525</v>
       </c>
       <c r="P18" t="n">
-        <v>48.7</v>
+        <v>52.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
-        <v>-0</v>
+        <v>-0.025</v>
       </c>
       <c r="W18" t="n">
         <v>-0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Y18" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1049,58 +1046,58 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.6</v>
+        <v>-3.7</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>22.4</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>-10.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-10.4</v>
+        <v>-2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>11.2</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>-11.2</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>2.996</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-27.496</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-13.596</v>
+        <v>-3.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27.496</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>2.996</v>
+        <v>-39.483</v>
       </c>
       <c r="W19" t="n">
-        <v>-0</v>
+        <v>-38.5</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1111,28 +1108,28 @@
         <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>5.8</v>
+        <v>-1.85</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>-2.75</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.05</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1141,28 +1138,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.8</v>
+        <v>-1.85</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>-0</v>
+        <v>-39.483</v>
       </c>
       <c r="W20" t="n">
-        <v>0.099</v>
+        <v>-27.5</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1173,28 +1170,28 @@
         <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>-9</v>
+        <v>-0.9</v>
       </c>
       <c r="I21" t="n">
-        <v>-8.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J21" t="n">
-        <v>5.7</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>-5.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1203,28 +1200,28 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>-44</v>
+        <v>-28.483</v>
       </c>
       <c r="W21" t="n">
-        <v>0.959</v>
+        <v>-27.5</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -1232,31 +1229,31 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.800000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
-        <v>-9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.600000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
-        <v>5.7</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>-5.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1265,166 +1262,166 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-8.800000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>44</v>
+        <v>-28.483</v>
       </c>
       <c r="W22" t="n">
-        <v>0.959</v>
+        <v>-38.5</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E23" t="n">
-        <v>12.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.7</v>
+        <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>7.7</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>12.8</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>12.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-50.525</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>52.5</v>
+        <v>3.7</v>
       </c>
       <c r="P23" t="n">
-        <v>63.125</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>-0</v>
+        <v>-17.483</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.025</v>
+        <v>-38.5</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>-10</v>
+        <v>-3.7</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G24" t="n">
-        <v>15.4</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
-        <v>-10.2</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>-9.800000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>7.7</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>-50.525</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>40.525</v>
+        <v>-3.7</v>
       </c>
       <c r="P24" t="n">
-        <v>52.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.025</v>
+        <v>-6.483</v>
       </c>
       <c r="W24" t="n">
-        <v>-0</v>
+        <v>-38.5</v>
       </c>
       <c r="X24" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E25" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="F25" t="n">
         <v>1.8</v>
@@ -1433,16 +1430,16 @@
         <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I25" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K25" t="n">
-        <v>8.449999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1451,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P25" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
@@ -1463,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W25" t="n">
-        <v>-38.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -1477,16 +1474,16 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="F26" t="n">
         <v>1.8</v>
@@ -1495,16 +1492,16 @@
         <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J26" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K26" t="n">
-        <v>8.449999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1513,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -1525,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W26" t="n">
         <v>-27.5</v>
@@ -1539,16 +1536,16 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E27" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="F27" t="n">
         <v>1.8</v>
@@ -1557,16 +1554,16 @@
         <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J27" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K27" t="n">
-        <v>8.449999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1575,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P27" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
@@ -1587,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W27" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -1601,16 +1598,16 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E28" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="F28" t="n">
         <v>1.8</v>
@@ -1619,16 +1616,16 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K28" t="n">
-        <v>8.449999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1637,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P28" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -1649,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W28" t="n">
-        <v>-38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -1663,16 +1660,16 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E29" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="F29" t="n">
         <v>1.8</v>
@@ -1681,16 +1678,16 @@
         <v>1.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K29" t="n">
-        <v>8.449999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1699,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P29" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -1711,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W29" t="n">
-        <v>-38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -1725,16 +1722,16 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E30" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="F30" t="n">
         <v>1.8</v>
@@ -1743,16 +1740,16 @@
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K30" t="n">
-        <v>8.449999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1761,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P30" t="n">
-        <v>9.199999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -1773,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W30" t="n">
-        <v>-38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -1787,16 +1784,16 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="F31" t="n">
         <v>1.8</v>
@@ -1805,16 +1802,16 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J31" t="n">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
       <c r="K31" t="n">
-        <v>6.9</v>
+        <v>5.35</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -1823,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -1835,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W31" t="n">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -1849,16 +1846,16 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E32" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="F32" t="n">
         <v>1.8</v>
@@ -1867,16 +1864,16 @@
         <v>1.5</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
       <c r="K32" t="n">
-        <v>6.9</v>
+        <v>5.35</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -1885,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P32" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -1897,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W32" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -1911,16 +1908,16 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
       <c r="D33" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E33" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="F33" t="n">
         <v>1.8</v>
@@ -1929,16 +1926,16 @@
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
       <c r="K33" t="n">
-        <v>6.9</v>
+        <v>5.35</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1947,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P33" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -1959,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>-17.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W33" t="n">
         <v>-16.5</v>
@@ -1973,16 +1970,16 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E34" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="F34" t="n">
         <v>1.8</v>
@@ -1991,16 +1988,16 @@
         <v>1.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
       <c r="K34" t="n">
-        <v>6.9</v>
+        <v>5.35</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2009,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P34" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="T34" t="n">
         <v>1</v>
@@ -2021,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W34" t="n">
-        <v>-16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -2035,16 +2032,16 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E35" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="F35" t="n">
         <v>1.8</v>
@@ -2053,16 +2050,16 @@
         <v>1.5</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I35" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
       <c r="K35" t="n">
-        <v>6.9</v>
+        <v>5.35</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2071,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P35" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="T35" t="n">
         <v>1</v>
@@ -2083,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W35" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -2097,16 +2094,16 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="F36" t="n">
         <v>1.8</v>
@@ -2115,16 +2112,16 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J36" t="n">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
       <c r="K36" t="n">
-        <v>6.9</v>
+        <v>5.35</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2133,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>7.65</v>
+        <v>6.1</v>
       </c>
       <c r="T36" t="n">
         <v>1</v>
@@ -2145,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W36" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -2159,16 +2156,16 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E37" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="F37" t="n">
         <v>1.8</v>
@@ -2177,16 +2174,16 @@
         <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J37" t="n">
-        <v>6.85</v>
+        <v>5.3</v>
       </c>
       <c r="K37" t="n">
-        <v>5.35</v>
+        <v>3.8</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2195,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P37" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="T37" t="n">
         <v>1</v>
@@ -2210,7 +2207,7 @@
         <v>-28.483</v>
       </c>
       <c r="W37" t="n">
-        <v>-5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -2221,16 +2218,16 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
       </c>
       <c r="D38" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E38" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="F38" t="n">
         <v>1.8</v>
@@ -2239,16 +2236,16 @@
         <v>1.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I38" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>6.85</v>
+        <v>5.3</v>
       </c>
       <c r="K38" t="n">
-        <v>5.35</v>
+        <v>3.8</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2257,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P38" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -2269,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W38" t="n">
-        <v>-16.5</v>
+        <v>16.5</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -2283,16 +2280,16 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E39" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="F39" t="n">
         <v>1.8</v>
@@ -2301,16 +2298,16 @@
         <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J39" t="n">
-        <v>6.85</v>
+        <v>5.3</v>
       </c>
       <c r="K39" t="n">
-        <v>5.35</v>
+        <v>3.8</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2319,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P39" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -2334,7 +2331,7 @@
         <v>-39.483</v>
       </c>
       <c r="W39" t="n">
-        <v>-16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -2345,16 +2342,16 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E40" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="F40" t="n">
         <v>1.8</v>
@@ -2363,16 +2360,16 @@
         <v>1.5</v>
       </c>
       <c r="H40" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I40" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>6.85</v>
+        <v>5.3</v>
       </c>
       <c r="K40" t="n">
-        <v>5.35</v>
+        <v>3.8</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2381,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P40" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="T40" t="n">
         <v>1</v>
@@ -2396,7 +2393,7 @@
         <v>-39.483</v>
       </c>
       <c r="W40" t="n">
-        <v>-5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -2407,16 +2404,16 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="F41" t="n">
         <v>1.8</v>
@@ -2425,16 +2422,16 @@
         <v>1.5</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J41" t="n">
-        <v>6.85</v>
+        <v>5.3</v>
       </c>
       <c r="K41" t="n">
-        <v>5.35</v>
+        <v>3.8</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2443,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="T41" t="n">
         <v>1</v>
@@ -2455,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W41" t="n">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -2469,16 +2466,16 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E42" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="F42" t="n">
         <v>1.8</v>
@@ -2487,16 +2484,16 @@
         <v>1.5</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J42" t="n">
-        <v>6.85</v>
+        <v>5.3</v>
       </c>
       <c r="K42" t="n">
-        <v>5.35</v>
+        <v>3.8</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -2505,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P42" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -2520,7 +2517,7 @@
         <v>-28.483</v>
       </c>
       <c r="W42" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -2531,16 +2528,16 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
       </c>
       <c r="D43" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E43" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>1.8</v>
@@ -2549,16 +2546,16 @@
         <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I43" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -2567,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P43" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
@@ -2579,10 +2576,10 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W43" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -2593,16 +2590,16 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E44" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>1.8</v>
@@ -2611,16 +2608,16 @@
         <v>1.5</v>
       </c>
       <c r="H44" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J44" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2629,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P44" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -2641,10 +2638,10 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W44" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -2655,16 +2652,16 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
       </c>
       <c r="D45" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E45" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>1.8</v>
@@ -2673,16 +2670,16 @@
         <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I45" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2691,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P45" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -2703,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W45" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -2717,16 +2714,16 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>1.8</v>
@@ -2735,16 +2732,16 @@
         <v>1.5</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J46" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2753,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
@@ -2765,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W46" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -2779,16 +2776,16 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E47" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>1.8</v>
@@ -2797,16 +2794,16 @@
         <v>1.5</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J47" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K47" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2815,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P47" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -2827,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W47" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -2841,16 +2838,16 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
       </c>
       <c r="D48" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E48" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>1.8</v>
@@ -2859,16 +2856,16 @@
         <v>1.5</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I48" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K48" t="n">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2877,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P48" t="n">
-        <v>4.55</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -2889,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W48" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -2903,16 +2900,16 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
         <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>-1.45</v>
       </c>
       <c r="F49" t="n">
         <v>1.8</v>
@@ -2921,16 +2918,16 @@
         <v>1.5</v>
       </c>
       <c r="H49" t="n">
-        <v>2.8</v>
+        <v>-1.8</v>
       </c>
       <c r="I49" t="n">
-        <v>4.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.75</v>
+        <v>-0.7</v>
       </c>
       <c r="K49" t="n">
-        <v>2.25</v>
+        <v>-2.2</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2939,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>-1.45</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -2954,7 +2951,7 @@
         <v>-17.483</v>
       </c>
       <c r="W49" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -2965,16 +2962,16 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.7</v>
+        <v>0.9</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>-1.45</v>
       </c>
       <c r="F50" t="n">
         <v>1.8</v>
@@ -2983,16 +2980,16 @@
         <v>1.5</v>
       </c>
       <c r="H50" t="n">
-        <v>-4.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-2.8</v>
+        <v>1.8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.75</v>
+        <v>-0.7</v>
       </c>
       <c r="K50" t="n">
-        <v>2.25</v>
+        <v>-2.2</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3001,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>-3.7</v>
+        <v>0.9</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>-1.45</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -3013,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W50" t="n">
-        <v>38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -3027,16 +3024,16 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="F51" t="n">
         <v>1.8</v>
@@ -3045,16 +3042,16 @@
         <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.75</v>
+        <v>-1.8</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3063,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>-1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -3075,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>-6.483</v>
+        <v>4.517</v>
       </c>
       <c r="W51" t="n">
-        <v>38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -3089,16 +3086,16 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="F52" t="n">
         <v>1.8</v>
@@ -3107,28 +3104,28 @@
         <v>1.5</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>0.9</v>
       </c>
-      <c r="J52" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -3137,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>-6.483</v>
+        <v>15.517</v>
       </c>
       <c r="W52" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -3151,16 +3148,16 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
       </c>
       <c r="D53" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F53" t="n">
         <v>1.8</v>
@@ -3169,16 +3166,16 @@
         <v>1.5</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J53" t="n">
-        <v>3.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>2.25</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3187,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -3199,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>-6.483</v>
+        <v>15.517</v>
       </c>
       <c r="W53" t="n">
         <v>16.5</v>
@@ -3213,16 +3210,16 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F54" t="n">
         <v>1.8</v>
@@ -3231,16 +3228,16 @@
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>3.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>2.25</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3249,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -3261,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>-17.483</v>
+        <v>4.517</v>
       </c>
       <c r="W54" t="n">
         <v>16.5</v>
@@ -3275,16 +3272,16 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
         <v>61</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F55" t="n">
         <v>1.8</v>
@@ -3293,16 +3290,16 @@
         <v>1.5</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.7</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-2.2</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3311,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>-1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T55" t="n">
         <v>1</v>
@@ -3323,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>-17.483</v>
+        <v>4.517</v>
       </c>
       <c r="W55" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -3337,16 +3334,16 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
         <v>62</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9</v>
+        <v>1.85</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F56" t="n">
         <v>1.8</v>
@@ -3355,16 +3352,16 @@
         <v>1.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.7</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.2</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3373,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0.9</v>
+        <v>1.85</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T56" t="n">
         <v>1</v>
@@ -3385,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>-6.483</v>
+        <v>4.517</v>
       </c>
       <c r="W56" t="n">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -3399,16 +3396,16 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.9</v>
+        <v>3.7</v>
       </c>
       <c r="E57" t="n">
-        <v>1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F57" t="n">
         <v>1.8</v>
@@ -3417,16 +3414,16 @@
         <v>1.5</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>2.2</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3435,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.9</v>
+        <v>3.7</v>
       </c>
       <c r="P57" t="n">
-        <v>1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -3447,10 +3444,10 @@
         <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="W57" t="n">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -3461,16 +3458,16 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
         <v>64</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9</v>
+        <v>-3.7</v>
       </c>
       <c r="E58" t="n">
-        <v>1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F58" t="n">
         <v>1.8</v>
@@ -3479,16 +3476,16 @@
         <v>1.5</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>1.8</v>
+        <v>-2.8</v>
       </c>
       <c r="J58" t="n">
-        <v>2.2</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3497,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0.9</v>
+        <v>-3.7</v>
       </c>
       <c r="P58" t="n">
-        <v>1.45</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T58" t="n">
         <v>1</v>
@@ -3512,7 +3509,7 @@
         <v>15.517</v>
       </c>
       <c r="W58" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -3523,16 +3520,16 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>65</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="F59" t="n">
         <v>1.8</v>
@@ -3541,16 +3538,16 @@
         <v>1.5</v>
       </c>
       <c r="H59" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I59" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>-8.449999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.949999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -3559,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P59" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -3571,10 +3568,10 @@
         <v>1</v>
       </c>
       <c r="V59" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W59" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -3585,16 +3582,16 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
         <v>66</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="F60" t="n">
         <v>1.8</v>
@@ -3603,16 +3600,16 @@
         <v>1.5</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J60" t="n">
-        <v>-8.449999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.949999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3621,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -3633,10 +3630,10 @@
         <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="W60" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -3647,16 +3644,16 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
         <v>67</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="F61" t="n">
         <v>1.8</v>
@@ -3665,16 +3662,16 @@
         <v>1.5</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J61" t="n">
-        <v>-8.449999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="K61" t="n">
-        <v>-9.949999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3683,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P61" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
@@ -3695,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W61" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -3709,16 +3706,16 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
       </c>
       <c r="D62" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="F62" t="n">
         <v>1.8</v>
@@ -3727,16 +3724,16 @@
         <v>1.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I62" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>-8.449999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="K62" t="n">
-        <v>-9.949999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3745,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P62" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="T62" t="n">
         <v>1</v>
@@ -3757,10 +3754,10 @@
         <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W62" t="n">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -3771,16 +3768,16 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>69</v>
       </c>
       <c r="D63" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E63" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="F63" t="n">
         <v>1.8</v>
@@ -3789,16 +3786,16 @@
         <v>1.5</v>
       </c>
       <c r="H63" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J63" t="n">
-        <v>-8.449999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="K63" t="n">
-        <v>-9.949999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3807,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P63" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="T63" t="n">
         <v>1</v>
@@ -3819,10 +3816,10 @@
         <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="W63" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -3833,16 +3830,16 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E64" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="F64" t="n">
         <v>1.8</v>
@@ -3851,16 +3848,16 @@
         <v>1.5</v>
       </c>
       <c r="H64" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I64" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>-8.449999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="K64" t="n">
-        <v>-9.949999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3869,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P64" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.65</v>
       </c>
       <c r="T64" t="n">
         <v>1</v>
@@ -3881,10 +3878,10 @@
         <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W64" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -3895,16 +3892,16 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="F65" t="n">
         <v>1.8</v>
@@ -3913,16 +3910,16 @@
         <v>1.5</v>
       </c>
       <c r="H65" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J65" t="n">
-        <v>-6.9</v>
+        <v>-5.35</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.4</v>
+        <v>-6.85</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3931,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="T65" t="n">
         <v>1</v>
@@ -3946,7 +3943,7 @@
         <v>26.517</v>
       </c>
       <c r="W65" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -3957,16 +3954,16 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="F66" t="n">
         <v>1.8</v>
@@ -3975,16 +3972,16 @@
         <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J66" t="n">
-        <v>-6.9</v>
+        <v>-5.35</v>
       </c>
       <c r="K66" t="n">
-        <v>-8.4</v>
+        <v>-6.85</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -3993,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="T66" t="n">
         <v>1</v>
@@ -4005,10 +4002,10 @@
         <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="W66" t="n">
-        <v>38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -4019,16 +4016,16 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
         <v>73</v>
       </c>
       <c r="D67" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="F67" t="n">
         <v>1.8</v>
@@ -4037,16 +4034,16 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I67" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>-6.9</v>
+        <v>-5.35</v>
       </c>
       <c r="K67" t="n">
-        <v>-8.4</v>
+        <v>-6.85</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -4055,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="T67" t="n">
         <v>1</v>
@@ -4070,7 +4067,7 @@
         <v>37.517</v>
       </c>
       <c r="W67" t="n">
-        <v>38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -4081,16 +4078,16 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="F68" t="n">
         <v>1.8</v>
@@ -4099,16 +4096,16 @@
         <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J68" t="n">
-        <v>-6.9</v>
+        <v>-5.35</v>
       </c>
       <c r="K68" t="n">
-        <v>-8.4</v>
+        <v>-6.85</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4117,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -4132,7 +4129,7 @@
         <v>37.517</v>
       </c>
       <c r="W68" t="n">
-        <v>27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
@@ -4143,16 +4140,16 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="F69" t="n">
         <v>1.8</v>
@@ -4161,16 +4158,16 @@
         <v>1.5</v>
       </c>
       <c r="H69" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I69" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>-6.9</v>
+        <v>-5.35</v>
       </c>
       <c r="K69" t="n">
-        <v>-8.4</v>
+        <v>-6.85</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4179,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
@@ -4191,10 +4188,10 @@
         <v>1</v>
       </c>
       <c r="V69" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="W69" t="n">
-        <v>16.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
@@ -4205,16 +4202,16 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="F70" t="n">
         <v>1.8</v>
@@ -4223,16 +4220,16 @@
         <v>1.5</v>
       </c>
       <c r="H70" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J70" t="n">
-        <v>-6.9</v>
+        <v>-5.35</v>
       </c>
       <c r="K70" t="n">
-        <v>-8.4</v>
+        <v>-6.85</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4241,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.65</v>
+        <v>-6.1</v>
       </c>
       <c r="T70" t="n">
         <v>1</v>
@@ -4256,7 +4253,7 @@
         <v>26.517</v>
       </c>
       <c r="W70" t="n">
-        <v>16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -4267,16 +4264,16 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>77</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="F71" t="n">
         <v>1.8</v>
@@ -4285,16 +4282,16 @@
         <v>1.5</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J71" t="n">
-        <v>-5.35</v>
+        <v>-3.8</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.85</v>
+        <v>-5.3</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4303,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P71" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="T71" t="n">
         <v>1</v>
@@ -4315,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="V71" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W71" t="n">
-        <v>5.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -4329,16 +4326,16 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="F72" t="n">
         <v>1.8</v>
@@ -4347,16 +4344,16 @@
         <v>1.5</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I72" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>-5.35</v>
+        <v>-3.8</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.85</v>
+        <v>-5.3</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4365,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P72" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="T72" t="n">
         <v>1</v>
@@ -4377,10 +4374,10 @@
         <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="W72" t="n">
-        <v>5.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
@@ -4391,16 +4388,16 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>79</v>
       </c>
       <c r="D73" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="F73" t="n">
         <v>1.8</v>
@@ -4409,16 +4406,16 @@
         <v>1.5</v>
       </c>
       <c r="H73" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J73" t="n">
-        <v>-5.35</v>
+        <v>-3.8</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.85</v>
+        <v>-5.3</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -4427,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P73" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="T73" t="n">
         <v>1</v>
@@ -4439,10 +4436,10 @@
         <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="W73" t="n">
-        <v>-5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -4453,16 +4450,16 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>80</v>
       </c>
       <c r="D74" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="F74" t="n">
         <v>1.8</v>
@@ -4471,16 +4468,16 @@
         <v>1.5</v>
       </c>
       <c r="H74" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J74" t="n">
-        <v>-5.35</v>
+        <v>-3.8</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.85</v>
+        <v>-5.3</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -4489,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P74" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="T74" t="n">
         <v>1</v>
@@ -4501,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="V74" t="n">
-        <v>37.517</v>
+        <v>15.517</v>
       </c>
       <c r="W74" t="n">
         <v>-16.5</v>
@@ -4515,16 +4512,16 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>81</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="F75" t="n">
         <v>1.8</v>
@@ -4533,16 +4530,16 @@
         <v>1.5</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J75" t="n">
-        <v>-5.35</v>
+        <v>-3.8</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.85</v>
+        <v>-5.3</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4551,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -4563,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="V75" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W75" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -4577,16 +4574,16 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
         <v>82</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="F76" t="n">
         <v>1.8</v>
@@ -4595,16 +4592,16 @@
         <v>1.5</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J76" t="n">
-        <v>-5.35</v>
+        <v>-3.8</v>
       </c>
       <c r="K76" t="n">
-        <v>-6.85</v>
+        <v>-5.3</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -4613,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P76" t="n">
-        <v>-6.1</v>
+        <v>-4.55</v>
       </c>
       <c r="T76" t="n">
         <v>1</v>
@@ -4625,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="V76" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="W76" t="n">
-        <v>-5.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
@@ -4639,16 +4636,16 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>83</v>
       </c>
       <c r="D77" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E77" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="F77" t="n">
         <v>1.8</v>
@@ -4657,16 +4654,16 @@
         <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J77" t="n">
-        <v>-3.8</v>
+        <v>-2.25</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.3</v>
+        <v>-3.75</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4675,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P77" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="T77" t="n">
         <v>1</v>
@@ -4687,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="V77" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="W77" t="n">
-        <v>-5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -4701,16 +4698,16 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>84</v>
       </c>
       <c r="D78" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E78" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="F78" t="n">
         <v>1.8</v>
@@ -4719,16 +4716,16 @@
         <v>1.5</v>
       </c>
       <c r="H78" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I78" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J78" t="n">
-        <v>-3.8</v>
+        <v>-2.25</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.3</v>
+        <v>-3.75</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4737,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P78" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="T78" t="n">
         <v>1</v>
@@ -4749,10 +4746,10 @@
         <v>1</v>
       </c>
       <c r="V78" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="W78" t="n">
-        <v>-5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
@@ -4763,16 +4760,16 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>85</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E79" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="F79" t="n">
         <v>1.8</v>
@@ -4781,16 +4778,16 @@
         <v>1.5</v>
       </c>
       <c r="H79" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I79" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>-3.8</v>
+        <v>-2.25</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.3</v>
+        <v>-3.75</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -4799,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P79" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="T79" t="n">
         <v>1</v>
@@ -4811,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="V79" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="W79" t="n">
-        <v>-16.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
@@ -4825,16 +4822,16 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>86</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="F80" t="n">
         <v>1.8</v>
@@ -4843,16 +4840,16 @@
         <v>1.5</v>
       </c>
       <c r="H80" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J80" t="n">
-        <v>-3.8</v>
+        <v>-2.25</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.3</v>
+        <v>-3.75</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -4861,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -4873,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="V80" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W80" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
@@ -4887,16 +4884,16 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>87</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E81" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="F81" t="n">
         <v>1.8</v>
@@ -4905,16 +4902,16 @@
         <v>1.5</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J81" t="n">
-        <v>-3.8</v>
+        <v>-2.25</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.3</v>
+        <v>-3.75</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -4923,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P81" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="T81" t="n">
         <v>1</v>
@@ -4935,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="V81" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="W81" t="n">
         <v>-27.5</v>
@@ -4949,16 +4946,16 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>88</v>
       </c>
       <c r="D82" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E82" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="F82" t="n">
         <v>1.8</v>
@@ -4967,16 +4964,16 @@
         <v>1.5</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I82" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>-3.8</v>
+        <v>-2.25</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.3</v>
+        <v>-3.75</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4985,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P82" t="n">
-        <v>-4.55</v>
+        <v>-3</v>
       </c>
       <c r="T82" t="n">
         <v>1</v>
@@ -4997,10 +4994,10 @@
         <v>1</v>
       </c>
       <c r="V82" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W82" t="n">
-        <v>-27.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -5011,158 +5008,158 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
       </c>
       <c r="D83" t="n">
-        <v>3.7</v>
+        <v>-1.3</v>
       </c>
       <c r="E83" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
-        <v>2.8</v>
+        <v>-1.95</v>
       </c>
       <c r="I83" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.65</v>
       </c>
       <c r="J83" t="n">
-        <v>-2.25</v>
+        <v>0.6</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.75</v>
+        <v>-0.6</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>3.7</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="P83" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U83" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V83" t="n">
-        <v>4.517</v>
+        <v>-0</v>
       </c>
       <c r="W83" t="n">
-        <v>-38.5</v>
+        <v>0.099</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D84" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.6</v>
       </c>
       <c r="I84" t="n">
-        <v>-2.8</v>
+        <v>0.6</v>
       </c>
       <c r="J84" t="n">
-        <v>-2.25</v>
+        <v>0.65</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.75</v>
+        <v>-0.65</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>-3.7</v>
+        <v>0.7</v>
       </c>
       <c r="P84" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V84" t="n">
-        <v>15.517</v>
+        <v>-0</v>
       </c>
       <c r="W84" t="n">
-        <v>-38.5</v>
+        <v>0.099</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-3</v>
+        <v>-11.25</v>
       </c>
       <c r="F85" t="n">
-        <v>1.8</v>
+        <v>16.9</v>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>-2.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.9500000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J85" t="n">
-        <v>-2.25</v>
+        <v>-10.8</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.75</v>
+        <v>-11.7</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5171,60 +5168,60 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>-3</v>
+        <v>-11.25</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>26.517</v>
+        <v>-0</v>
       </c>
       <c r="W85" t="n">
-        <v>-38.5</v>
+        <v>-0</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="E86" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>16.9</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="J86" t="n">
-        <v>-2.25</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-3.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5233,122 +5230,122 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="P86" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
         <v>1</v>
       </c>
       <c r="U86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V86" t="n">
-        <v>26.517</v>
+        <v>-49.95</v>
       </c>
       <c r="W86" t="n">
-        <v>-27.5</v>
+        <v>-0</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>99.88</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D87" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>-3</v>
+        <v>-0.35</v>
       </c>
       <c r="F87" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="I87" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="J87" t="n">
-        <v>-2.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.75</v>
+        <v>-0.75</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>-2.996000000000001</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>16.302</v>
       </c>
       <c r="O87" t="n">
-        <v>1.85</v>
+        <v>5.996</v>
       </c>
       <c r="P87" t="n">
-        <v>-3</v>
+        <v>-16.652</v>
       </c>
       <c r="T87" t="n">
         <v>1</v>
       </c>
       <c r="U87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V87" t="n">
-        <v>37.517</v>
+        <v>2.996</v>
       </c>
       <c r="W87" t="n">
-        <v>-27.5</v>
+        <v>-0</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>32.604</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D88" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="E88" t="n">
-        <v>-3</v>
+        <v>0.65</v>
       </c>
       <c r="F88" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>4.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="J88" t="n">
-        <v>-2.25</v>
+        <v>1.05</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.75</v>
+        <v>0.25</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5357,60 +5354,60 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="P88" t="n">
-        <v>-3</v>
+        <v>0.65</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V88" t="n">
-        <v>37.517</v>
+        <v>-0</v>
       </c>
       <c r="W88" t="n">
-        <v>-38.5</v>
+        <v>0.099</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.3</v>
+        <v>2.2</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F89" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
-        <v>-1.95</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.65</v>
+        <v>2.4</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.6</v>
+        <v>-0.55</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -5419,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>-1.3</v>
+        <v>2.2</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="T89" t="n">
         <v>8</v>
@@ -5431,10 +5428,10 @@
         <v>8</v>
       </c>
       <c r="V89" t="n">
-        <v>0.7</v>
+        <v>-0</v>
       </c>
       <c r="W89" t="n">
-        <v>-0</v>
+        <v>0.099</v>
       </c>
       <c r="X89" t="n">
         <v>11</v>
@@ -5445,7 +5442,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -5454,37 +5451,37 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F90" t="n">
-        <v>1.2</v>
+        <v>11.4</v>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.6</v>
+        <v>-5.7</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="J90" t="n">
-        <v>0.65</v>
+        <v>12.2</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.65</v>
+        <v>11.8</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>-0.959</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>12.959</v>
       </c>
       <c r="T90" t="n">
         <v>8</v>
@@ -5493,10 +5490,10 @@
         <v>8</v>
       </c>
       <c r="V90" t="n">
-        <v>0.7</v>
+        <v>-0</v>
       </c>
       <c r="W90" t="n">
-        <v>-0</v>
+        <v>0.099</v>
       </c>
       <c r="X90" t="n">
         <v>11</v>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -5516,40 +5513,40 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-11.25</v>
+        <v>10.8</v>
       </c>
       <c r="F91" t="n">
-        <v>16.9</v>
+        <v>6.4</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.449999999999999</v>
+        <v>-3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>8.449999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="J91" t="n">
-        <v>-10.8</v>
+        <v>11</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.7</v>
+        <v>10.6</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>-11.25</v>
+        <v>49.3</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U91" t="n">
         <v>2</v>
@@ -5561,166 +5558,166 @@
         <v>-0</v>
       </c>
       <c r="X91" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>99.88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
       </c>
       <c r="D92" t="n">
-        <v>9.75</v>
+        <v>10.6</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G92" t="n">
-        <v>16.9</v>
+        <v>22.4</v>
       </c>
       <c r="H92" t="n">
-        <v>9.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="I92" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="J92" t="n">
-        <v>8.449999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="K92" t="n">
-        <v>-8.449999999999999</v>
+        <v>-11.2</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>2.996</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>-27.496</v>
       </c>
       <c r="O92" t="n">
-        <v>9.75</v>
+        <v>7.603999999999999</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>27.496</v>
       </c>
       <c r="T92" t="n">
         <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V92" t="n">
-        <v>-49.95</v>
+        <v>2.996</v>
       </c>
       <c r="W92" t="n">
         <v>-0</v>
       </c>
       <c r="X92" t="n">
-        <v>99.88</v>
+        <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>38.9</v>
+        <v>54.992</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>-9.4</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>11.4</v>
       </c>
       <c r="H93" t="n">
-        <v>2.6</v>
+        <v>-9.6</v>
       </c>
       <c r="I93" t="n">
-        <v>3.4</v>
+        <v>-9.200000000000001</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.75</v>
+        <v>-5.7</v>
       </c>
       <c r="M93" t="n">
-        <v>-2.996000000000001</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>16.302</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>5.996</v>
+        <v>-9.4</v>
       </c>
       <c r="P93" t="n">
-        <v>-16.652</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
         <v>1</v>
       </c>
       <c r="U93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V93" t="n">
-        <v>2.996</v>
+        <v>-44</v>
       </c>
       <c r="W93" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>32.604</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" t="n">
-        <v>2.2</v>
+        <v>-9.4</v>
       </c>
       <c r="E94" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0.4</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>11.4</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>-9.6</v>
       </c>
       <c r="I94" t="n">
-        <v>2.4</v>
+        <v>-9.200000000000001</v>
       </c>
       <c r="J94" t="n">
-        <v>1.05</v>
+        <v>5.7</v>
       </c>
       <c r="K94" t="n">
-        <v>0.25</v>
+        <v>-5.7</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -5729,447 +5726,447 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2.2</v>
+        <v>-9.4</v>
       </c>
       <c r="P94" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U94" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V94" t="n">
-        <v>-0</v>
+        <v>44</v>
       </c>
       <c r="W94" t="n">
-        <v>0.099</v>
+        <v>0.959</v>
       </c>
       <c r="X94" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
       </c>
       <c r="D95" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.25</v>
+        <v>-12.35</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+      <c r="I95" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>-12.35</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3</v>
+      </c>
+      <c r="U95" t="n">
         <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.04999999999999999</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P95" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="T95" t="n">
-        <v>8</v>
-      </c>
-      <c r="U95" t="n">
-        <v>8</v>
       </c>
       <c r="V95" t="n">
         <v>-0</v>
       </c>
       <c r="W95" t="n">
-        <v>0.099</v>
+        <v>-0</v>
       </c>
       <c r="X95" t="n">
-        <v>11</v>
+        <v>38.9</v>
       </c>
       <c r="Y95" t="n">
-        <v>11</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="H96" t="n">
-        <v>-5.7</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="I96" t="n">
-        <v>5.7</v>
+        <v>9.1</v>
       </c>
       <c r="J96" t="n">
-        <v>12.2</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>11.8</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.959</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="P96" t="n">
-        <v>12.959</v>
+        <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U96" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V96" t="n">
+        <v>-49.95</v>
+      </c>
+      <c r="W96" t="n">
         <v>-0</v>
       </c>
-      <c r="W96" t="n">
-        <v>0.099</v>
-      </c>
       <c r="X96" t="n">
-        <v>11</v>
+        <v>99.88</v>
       </c>
       <c r="Y96" t="n">
-        <v>11</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="E97" t="n">
-        <v>10.8</v>
+        <v>0.4</v>
       </c>
       <c r="F97" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="G97" t="n">
         <v>0.4</v>
       </c>
       <c r="H97" t="n">
-        <v>-3.2</v>
+        <v>1.55</v>
       </c>
       <c r="I97" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="J97" t="n">
-        <v>11</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>10.6</v>
+        <v>0.2</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P97" t="n">
-        <v>49.3</v>
+        <v>0.4</v>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U97" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V97" t="n">
         <v>-0</v>
       </c>
       <c r="W97" t="n">
-        <v>-0</v>
+        <v>0.099</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y97" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
       </c>
       <c r="D98" t="n">
-        <v>10.6</v>
+        <v>6.45</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-2.15</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="G98" t="n">
-        <v>22.4</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
-        <v>10.4</v>
+        <v>4.9</v>
       </c>
       <c r="I98" t="n">
-        <v>10.8</v>
+        <v>8</v>
       </c>
       <c r="J98" t="n">
-        <v>11.2</v>
+        <v>-1.25</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.2</v>
+        <v>-3.05</v>
       </c>
       <c r="M98" t="n">
-        <v>2.996</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>-27.496</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>7.603999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="P98" t="n">
-        <v>27.496</v>
+        <v>-2.15</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U98" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V98" t="n">
-        <v>2.996</v>
+        <v>-0</v>
       </c>
       <c r="W98" t="n">
-        <v>-0</v>
+        <v>0.099</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y98" t="n">
-        <v>54.992</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D99" t="n">
-        <v>-9.4</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G99" t="n">
-        <v>11.4</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
-        <v>-9.6</v>
+        <v>2.6</v>
       </c>
       <c r="I99" t="n">
-        <v>-9.200000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="J99" t="n">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.7</v>
+        <v>0.25</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>-2.996000000000001</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>16.302</v>
       </c>
       <c r="O99" t="n">
-        <v>-9.4</v>
+        <v>5.996</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>-15.652</v>
       </c>
       <c r="T99" t="n">
         <v>1</v>
       </c>
       <c r="U99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V99" t="n">
-        <v>-44</v>
+        <v>2.996</v>
       </c>
       <c r="W99" t="n">
-        <v>0.959</v>
+        <v>-0</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>22</v>
+        <v>32.604</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D100" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="F100" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.4</v>
       </c>
-      <c r="G100" t="n">
-        <v>11.4</v>
-      </c>
       <c r="H100" t="n">
-        <v>-9.6</v>
+        <v>-5.7</v>
       </c>
       <c r="I100" t="n">
-        <v>-9.200000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="J100" t="n">
-        <v>5.7</v>
+        <v>11.6</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.7</v>
+        <v>11.2</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>-0.959</v>
       </c>
       <c r="O100" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>12.359</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U100" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V100" t="n">
-        <v>44</v>
+        <v>-0</v>
       </c>
       <c r="W100" t="n">
-        <v>0.959</v>
+        <v>0.099</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y100" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-12.35</v>
+        <v>10.2</v>
       </c>
       <c r="F101" t="n">
-        <v>16.9</v>
+        <v>6.4</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.449999999999999</v>
+        <v>-3.2</v>
       </c>
       <c r="I101" t="n">
-        <v>8.449999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="J101" t="n">
-        <v>-11.9</v>
+        <v>10.4</v>
       </c>
       <c r="K101" t="n">
-        <v>-12.8</v>
+        <v>10</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>-12.35</v>
+        <v>48.7</v>
       </c>
       <c r="T101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>2</v>
@@ -6181,104 +6178,104 @@
         <v>-0</v>
       </c>
       <c r="X101" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>99.88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D102" t="n">
-        <v>8.65</v>
+        <v>-10.6</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G102" t="n">
-        <v>16.9</v>
+        <v>22.4</v>
       </c>
       <c r="H102" t="n">
-        <v>8.200000000000001</v>
+        <v>-10.8</v>
       </c>
       <c r="I102" t="n">
-        <v>9.1</v>
+        <v>-10.4</v>
       </c>
       <c r="J102" t="n">
-        <v>8.449999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="K102" t="n">
-        <v>-8.449999999999999</v>
+        <v>-11.2</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>2.996</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>-27.496</v>
       </c>
       <c r="O102" t="n">
-        <v>8.65</v>
+        <v>-13.596</v>
       </c>
       <c r="P102" t="n">
-        <v>0</v>
+        <v>27.496</v>
       </c>
       <c r="T102" t="n">
         <v>1</v>
       </c>
       <c r="U102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V102" t="n">
-        <v>-49.95</v>
+        <v>2.996</v>
       </c>
       <c r="W102" t="n">
         <v>-0</v>
       </c>
       <c r="X102" t="n">
-        <v>99.88</v>
+        <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>38.9</v>
+        <v>54.992</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D103" t="n">
-        <v>1.75</v>
+        <v>5.8</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2</v>
+        <v>-1.05</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -6287,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>1.75</v>
+        <v>5.8</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T103" t="n">
         <v>8</v>
@@ -6313,34 +6310,34 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D104" t="n">
-        <v>6.45</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>-2.15</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>11.4</v>
       </c>
       <c r="H104" t="n">
-        <v>4.9</v>
+        <v>-9</v>
       </c>
       <c r="I104" t="n">
-        <v>8</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>-1.25</v>
+        <v>5.7</v>
       </c>
       <c r="K104" t="n">
-        <v>-3.05</v>
+        <v>-5.7</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -6349,90 +6346,90 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>6.45</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P104" t="n">
-        <v>-2.15</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U104" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V104" t="n">
-        <v>-0</v>
+        <v>-44</v>
       </c>
       <c r="W104" t="n">
-        <v>0.099</v>
+        <v>0.959</v>
       </c>
       <c r="X104" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
         <v>112</v>
       </c>
-      <c r="C105" t="s">
-        <v>113</v>
-      </c>
       <c r="D105" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G105" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-8.600000000000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
         <v>3</v>
       </c>
-      <c r="E105" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M105" t="n">
-        <v>-2.996000000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>16.302</v>
-      </c>
-      <c r="O105" t="n">
-        <v>5.996</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-15.652</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" t="n">
-        <v>2</v>
-      </c>
       <c r="V105" t="n">
-        <v>2.996</v>
+        <v>44</v>
       </c>
       <c r="W105" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
       </c>
       <c r="Y105" t="n">
-        <v>32.604</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -436,7 +436,7 @@
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -86,10 +86,10 @@
     <t>R</t>
   </si>
   <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>alignment_marks_patch_new</t>
+    <t>120nm_NbWiring</t>
+  </si>
+  <si>
+    <t>50umX15mm_Hline</t>
   </si>
   <si>
     <t>Frontside</t>
@@ -98,45 +98,6 @@
     <t>ResoArray_Mask_May2018</t>
   </si>
   <si>
-    <t>feedline_GP_sub</t>
-  </si>
-  <si>
-    <t>gndfeed_bondpad</t>
-  </si>
-  <si>
-    <t>gndsub_hor_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>gndsub_vert_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>reso_GP_sub</t>
-  </si>
-  <si>
-    <t>vert_gndsub_with_corners</t>
-  </si>
-  <si>
-    <t>ILD</t>
-  </si>
-  <si>
-    <t>GP_edge_opening_hor_r</t>
-  </si>
-  <si>
-    <t>GP_edge_opening_vert_r</t>
-  </si>
-  <si>
-    <t>Via_to_Ground</t>
-  </si>
-  <si>
-    <t>reso_ILD_sub</t>
-  </si>
-  <si>
-    <t>120nm_NbWiring</t>
-  </si>
-  <si>
-    <t>50umX15mm_Hline</t>
-  </si>
-  <si>
     <t>50umX15mm_Vline</t>
   </si>
   <si>
@@ -332,15 +293,6 @@
     <t>Capacitor_489MHz</t>
   </si>
   <si>
-    <t>Capacitor_common</t>
-  </si>
-  <si>
-    <t>ALUMINUM</t>
-  </si>
-  <si>
-    <t>Al_inductor</t>
-  </si>
-  <si>
     <t>400nm_NbWiring</t>
   </si>
   <si>
@@ -354,21 +306,6 @@
   </si>
   <si>
     <t>MSfeed_bondpad</t>
-  </si>
-  <si>
-    <t>cap_to_feed</t>
-  </si>
-  <si>
-    <t>cap_to_gnd</t>
-  </si>
-  <si>
-    <t>feedline_main</t>
-  </si>
-  <si>
-    <t>main_hor_feedline_to_pad</t>
-  </si>
-  <si>
-    <t>main_vert_feedline_to_pad</t>
   </si>
   <si>
     <t>vert_main_with_corners</t>
@@ -735,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A11:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,276 +680,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="n"/>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="n"/>
-      <c r="R2" s="1" t="n"/>
-      <c r="S2" s="1" t="n"/>
-      <c r="T2" s="1" t="n"/>
-      <c r="U2" s="1" t="n"/>
-      <c r="V2" s="1" t="n"/>
-      <c r="W2" s="1" t="n"/>
-      <c r="X2" s="1" t="n"/>
-      <c r="Y2" s="1" t="n"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-      <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
-      <c r="P3" s="1" t="n"/>
-      <c r="Q3" s="1" t="n"/>
-      <c r="R3" s="1" t="n"/>
-      <c r="S3" s="1" t="n"/>
-      <c r="T3" s="1" t="n"/>
-      <c r="U3" s="1" t="n"/>
-      <c r="V3" s="1" t="n"/>
-      <c r="W3" s="1" t="n"/>
-      <c r="X3" s="1" t="n"/>
-      <c r="Y3" s="1" t="n"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
-      <c r="J4" s="1" t="n"/>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
-      <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
-      <c r="R4" s="1" t="n"/>
-      <c r="S4" s="1" t="n"/>
-      <c r="T4" s="1" t="n"/>
-      <c r="U4" s="1" t="n"/>
-      <c r="V4" s="1" t="n"/>
-      <c r="W4" s="1" t="n"/>
-      <c r="X4" s="1" t="n"/>
-      <c r="Y4" s="1" t="n"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
-      <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="Q5" s="1" t="n"/>
-      <c r="R5" s="1" t="n"/>
-      <c r="S5" s="1" t="n"/>
-      <c r="T5" s="1" t="n"/>
-      <c r="U5" s="1" t="n"/>
-      <c r="V5" s="1" t="n"/>
-      <c r="W5" s="1" t="n"/>
-      <c r="X5" s="1" t="n"/>
-      <c r="Y5" s="1" t="n"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-      <c r="I6" s="1" t="n"/>
-      <c r="J6" s="1" t="n"/>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
-      <c r="P6" s="1" t="n"/>
-      <c r="Q6" s="1" t="n"/>
-      <c r="R6" s="1" t="n"/>
-      <c r="S6" s="1" t="n"/>
-      <c r="T6" s="1" t="n"/>
-      <c r="U6" s="1" t="n"/>
-      <c r="V6" s="1" t="n"/>
-      <c r="W6" s="1" t="n"/>
-      <c r="X6" s="1" t="n"/>
-      <c r="Y6" s="1" t="n"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
-      <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
-      <c r="P7" s="1" t="n"/>
-      <c r="Q7" s="1" t="n"/>
-      <c r="R7" s="1" t="n"/>
-      <c r="S7" s="1" t="n"/>
-      <c r="T7" s="1" t="n"/>
-      <c r="U7" s="1" t="n"/>
-      <c r="V7" s="1" t="n"/>
-      <c r="W7" s="1" t="n"/>
-      <c r="X7" s="1" t="n"/>
-      <c r="Y7" s="1" t="n"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
-      <c r="G8" s="1" t="n"/>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
-      <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
-      <c r="L8" s="1" t="n"/>
-      <c r="M8" s="1" t="n"/>
-      <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
-      <c r="P8" s="1" t="n"/>
-      <c r="Q8" s="1" t="n"/>
-      <c r="R8" s="1" t="n"/>
-      <c r="S8" s="1" t="n"/>
-      <c r="T8" s="1" t="n"/>
-      <c r="U8" s="1" t="n"/>
-      <c r="V8" s="1" t="n"/>
-      <c r="W8" s="1" t="n"/>
-      <c r="X8" s="1" t="n"/>
-      <c r="Y8" s="1" t="n"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
-      <c r="G9" s="1" t="n"/>
-      <c r="H9" s="1" t="n"/>
-      <c r="I9" s="1" t="n"/>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
-      <c r="P9" s="1" t="n"/>
-      <c r="Q9" s="1" t="n"/>
-      <c r="R9" s="1" t="n"/>
-      <c r="S9" s="1" t="n"/>
-      <c r="T9" s="1" t="n"/>
-      <c r="U9" s="1" t="n"/>
-      <c r="V9" s="1" t="n"/>
-      <c r="W9" s="1" t="n"/>
-      <c r="X9" s="1" t="n"/>
-      <c r="Y9" s="1" t="n"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
-      <c r="J10" s="1" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
-      <c r="P10" s="1" t="n"/>
-      <c r="Q10" s="1" t="n"/>
-      <c r="R10" s="1" t="n"/>
-      <c r="S10" s="1" t="n"/>
-      <c r="T10" s="1" t="n"/>
-      <c r="U10" s="1" t="n"/>
-      <c r="V10" s="1" t="n"/>
-      <c r="W10" s="1" t="n"/>
-      <c r="X10" s="1" t="n"/>
-      <c r="Y10" s="1" t="n"/>
-    </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
@@ -1181,41 +848,41 @@
         <v>24</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-0.15</v>
+        <v>12.6</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.9</v>
+        <v>15.4</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.6500000000000001</v>
+        <v>-7.7</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1.55</v>
+        <v>7.7</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.1</v>
+        <v>12.8</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-0.4</v>
+        <v>12.4</v>
       </c>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n">
-        <v>0</v>
+        <v>-52.5</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0</v>
+        <v>-50.525</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>1.1</v>
+        <v>52.5</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>-0.15</v>
+        <v>63.125</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>25</v>
@@ -1228,19 +895,19 @@
         <v>8</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>-0</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.099</v>
+        <v>-0.025</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1252,41 +919,41 @@
         <v>27</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>11.4</v>
+        <v>0.4</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.4</v>
+        <v>15.4</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-5.7</v>
+        <v>-10.2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>5.7</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>11.6</v>
+        <v>7.7</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>11.2</v>
+        <v>-7.7</v>
       </c>
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n">
-        <v>0</v>
+        <v>-50.525</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-0.959</v>
+        <v>-52.5</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>0</v>
+        <v>40.525</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>12.359</v>
+        <v>52.5</v>
       </c>
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
@@ -1294,22 +961,22 @@
         <v>26</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U16" s="1" t="n">
         <v>8</v>
       </c>
       <c r="V16" s="1" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="W16" s="1" t="n">
         <v>-0</v>
       </c>
-      <c r="W16" s="1" t="n">
-        <v>0.099</v>
-      </c>
       <c r="X16" s="1" t="n">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1321,41 +988,41 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3</v>
+        <v>-3.7</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>2.6</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1.05</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.25</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
-        <v>-2.996000000000001</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>16.302</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>5.996</v>
+        <v>-3.7</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-15.652</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1366,19 +1033,19 @@
         <v>1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>2.996</v>
+        <v>-39.483</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-0</v>
+        <v>-38.5</v>
       </c>
       <c r="X17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>32.604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1390,41 +1057,41 @@
         <v>29</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-3.2</v>
+        <v>-2.75</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>3.2</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>10.4</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>10</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>48.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1435,19 +1102,19 @@
         <v>1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>-0</v>
+        <v>-39.483</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-0</v>
+        <v>-27.5</v>
       </c>
       <c r="X18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1459,41 +1126,41 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>22.4</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-10.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>-10.4</v>
+        <v>0.9</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>11.2</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>-11.2</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
-        <v>2.996</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>-27.496</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>-13.596</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>27.496</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1504,19 +1171,19 @@
         <v>1</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>2.996</v>
+        <v>-28.483</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>-0</v>
+        <v>-27.5</v>
       </c>
       <c r="X19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y19" s="1" t="n">
-        <v>54.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1528,28 +1195,28 @@
         <v>31</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5.8</v>
+        <v>1.85</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>3.6</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>1.05</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>-1.05</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
@@ -1559,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>5.8</v>
+        <v>1.85</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1570,22 +1237,22 @@
         <v>26</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>-0</v>
+        <v>-28.483</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.099</v>
+        <v>-38.5</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1597,28 +1264,28 @@
         <v>32</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-9</v>
+        <v>2.8</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-8.600000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>5.7</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>-5.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
@@ -1628,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1642,19 +1309,19 @@
         <v>1</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>-44</v>
+        <v>-17.483</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.959</v>
+        <v>-38.5</v>
       </c>
       <c r="X21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -1663,31 +1330,31 @@
       </c>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-3.7</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>-9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>-8.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>5.7</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-5.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
@@ -1697,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-3.7</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1711,52 +1378,52 @@
         <v>1</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>44</v>
+        <v>-6.483</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.959</v>
+        <v>-38.5</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-12.35</v>
+        <v>7.65</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>16.9</v>
+        <v>1.8</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-2.75</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>-11.9</v>
+        <v>8.4</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>-12.8</v>
+        <v>6.9</v>
       </c>
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
@@ -1766,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>-12.35</v>
+        <v>7.65</v>
       </c>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -1777,55 +1444,55 @@
         <v>26</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>-0</v>
+        <v>-6.483</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0</v>
+        <v>-27.5</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>99.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="F24" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>9.1</v>
-      </c>
       <c r="J24" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
@@ -1835,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -1849,52 +1516,52 @@
         <v>1</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>-49.95</v>
+        <v>-17.483</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>-0</v>
+        <v>-27.5</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>99.88</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.4</v>
+        <v>7.65</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1.55</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.6000000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>0.2</v>
+        <v>6.9</v>
       </c>
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
@@ -1904,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>0.4</v>
+        <v>7.65</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1915,55 +1582,55 @@
         <v>26</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>-0</v>
+        <v>-17.483</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.099</v>
+        <v>-16.5</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>6.45</v>
+        <v>3.7</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-2.15</v>
+        <v>7.65</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>-1.25</v>
+        <v>8.4</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>-3.05</v>
+        <v>6.9</v>
       </c>
       <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n">
@@ -1973,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>6.45</v>
+        <v>3.7</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>-2.15</v>
+        <v>7.65</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -1984,68 +1651,68 @@
         <v>26</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>-0</v>
+        <v>-6.483</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.099</v>
+        <v>-16.5</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>12.6</v>
+        <v>7.65</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>-7.7</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>7.7</v>
+        <v>-2.8</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>12.8</v>
+        <v>8.4</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>12.4</v>
+        <v>6.9</v>
       </c>
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>-50.525</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>52.5</v>
+        <v>-3.7</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>63.125</v>
+        <v>7.65</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
@@ -2053,68 +1720,68 @@
         <v>26</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>-0</v>
+        <v>-6.483</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>-0.025</v>
+        <v>-5.5</v>
       </c>
       <c r="X27" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-10</v>
+        <v>-1.85</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>15.4</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>-10.2</v>
+        <v>-2.75</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>-9.800000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>-7.7</v>
+        <v>6.9</v>
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>-50.525</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>40.525</v>
+        <v>-1.85</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>52.5</v>
+        <v>7.65</v>
       </c>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
@@ -2122,37 +1789,37 @@
         <v>26</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.025</v>
+        <v>-17.483</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-0</v>
+        <v>-5.5</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>1.8</v>
@@ -2161,16 +1828,16 @@
         <v>1.5</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n">
@@ -2180,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="Q29" s="1" t="n"/>
       <c r="R29" s="1" t="n"/>
@@ -2197,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>-38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X29" s="1" t="n">
         <v>0</v>
@@ -2211,17 +1878,17 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>1.8</v>
@@ -2230,16 +1897,16 @@
         <v>1.5</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
@@ -2249,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
@@ -2266,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>0</v>
@@ -2280,17 +1947,17 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>1.8</v>
@@ -2299,16 +1966,16 @@
         <v>1.5</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
@@ -2318,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
@@ -2335,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X31" s="1" t="n">
         <v>0</v>
@@ -2349,17 +2016,17 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1.8</v>
@@ -2368,16 +2035,16 @@
         <v>1.5</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n">
@@ -2387,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
@@ -2404,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>0</v>
@@ -2418,17 +2085,17 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>1.8</v>
@@ -2437,16 +2104,16 @@
         <v>1.5</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
@@ -2456,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="Q33" s="1" t="n"/>
       <c r="R33" s="1" t="n"/>
@@ -2473,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>-17.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>-38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X33" s="1" t="n">
         <v>0</v>
@@ -2487,17 +2154,17 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1.8</v>
@@ -2506,16 +2173,16 @@
         <v>1.5</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n">
@@ -2525,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="Q34" s="1" t="n"/>
       <c r="R34" s="1" t="n"/>
@@ -2542,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>-38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X34" s="1" t="n">
         <v>0</v>
@@ -2556,17 +2223,17 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>1.8</v>
@@ -2575,16 +2242,16 @@
         <v>1.5</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
@@ -2594,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q35" s="1" t="n"/>
       <c r="R35" s="1" t="n"/>
@@ -2611,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>-27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X35" s="1" t="n">
         <v>0</v>
@@ -2625,17 +2292,17 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>1.8</v>
@@ -2644,16 +2311,16 @@
         <v>1.5</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n">
@@ -2663,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q36" s="1" t="n"/>
       <c r="R36" s="1" t="n"/>
@@ -2680,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>-17.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>-27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X36" s="1" t="n">
         <v>0</v>
@@ -2694,17 +2361,17 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>1.8</v>
@@ -2713,16 +2380,16 @@
         <v>1.5</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n">
@@ -2732,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q37" s="1" t="n"/>
       <c r="R37" s="1" t="n"/>
@@ -2749,10 +2416,10 @@
         <v>1</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>-17.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>-16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X37" s="1" t="n">
         <v>0</v>
@@ -2763,17 +2430,17 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>1.8</v>
@@ -2782,16 +2449,16 @@
         <v>1.5</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n">
@@ -2801,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q38" s="1" t="n"/>
       <c r="R38" s="1" t="n"/>
@@ -2818,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>-16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X38" s="1" t="n">
         <v>0</v>
@@ -2832,17 +2499,17 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>1.8</v>
@@ -2851,16 +2518,16 @@
         <v>1.5</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n">
@@ -2870,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q39" s="1" t="n"/>
       <c r="R39" s="1" t="n"/>
@@ -2887,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>-5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X39" s="1" t="n">
         <v>0</v>
@@ -2901,17 +2568,17 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>1.8</v>
@@ -2920,16 +2587,16 @@
         <v>1.5</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n">
@@ -2939,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>7.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q40" s="1" t="n"/>
       <c r="R40" s="1" t="n"/>
@@ -2956,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X40" s="1" t="n">
         <v>0</v>
@@ -2970,17 +2637,17 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>1.8</v>
@@ -2989,16 +2656,16 @@
         <v>1.5</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>6.85</v>
+        <v>3.75</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>5.35</v>
+        <v>2.25</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
@@ -3008,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
@@ -3025,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X41" s="1" t="n">
         <v>0</v>
@@ -3039,17 +2706,17 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>1.8</v>
@@ -3058,16 +2725,16 @@
         <v>1.5</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>6.85</v>
+        <v>3.75</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>5.35</v>
+        <v>2.25</v>
       </c>
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n">
@@ -3077,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="1" t="n"/>
       <c r="R42" s="1" t="n"/>
@@ -3094,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>-16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>0</v>
@@ -3108,17 +2775,17 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>1.8</v>
@@ -3127,16 +2794,16 @@
         <v>1.5</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>6.85</v>
+        <v>3.75</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>5.35</v>
+        <v>2.25</v>
       </c>
       <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n">
@@ -3146,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="1" t="n"/>
       <c r="R43" s="1" t="n"/>
@@ -3163,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>-16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X43" s="1" t="n">
         <v>0</v>
@@ -3177,17 +2844,17 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>1.8</v>
@@ -3196,16 +2863,16 @@
         <v>1.5</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>6.85</v>
+        <v>3.75</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>5.35</v>
+        <v>2.25</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
@@ -3215,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="1" t="n"/>
       <c r="R44" s="1" t="n"/>
@@ -3232,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X44" s="1" t="n">
         <v>0</v>
@@ -3246,17 +2913,17 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>1.8</v>
@@ -3265,16 +2932,16 @@
         <v>1.5</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>6.85</v>
+        <v>3.75</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>5.35</v>
+        <v>2.25</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
@@ -3284,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="Q45" s="1" t="n"/>
       <c r="R45" s="1" t="n"/>
@@ -3301,10 +2968,10 @@
         <v>1</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X45" s="1" t="n">
         <v>0</v>
@@ -3315,17 +2982,17 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>1.8</v>
@@ -3334,16 +3001,16 @@
         <v>1.5</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>6.85</v>
+        <v>3.75</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>5.35</v>
+        <v>2.25</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
@@ -3353,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
@@ -3370,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X46" s="1" t="n">
         <v>0</v>
@@ -3384,17 +3051,17 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>4.55</v>
+        <v>-1.45</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>1.8</v>
@@ -3403,16 +3070,16 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>5.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>3.8</v>
+        <v>-2.2</v>
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
@@ -3422,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>4.55</v>
+        <v>-1.45</v>
       </c>
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
@@ -3439,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X47" s="1" t="n">
         <v>0</v>
@@ -3453,17 +3120,17 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>4.55</v>
+        <v>-1.45</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>1.8</v>
@@ -3472,16 +3139,16 @@
         <v>1.5</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>5.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>3.8</v>
+        <v>-2.2</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
@@ -3491,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>4.55</v>
+        <v>-1.45</v>
       </c>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
@@ -3508,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X48" s="1" t="n">
         <v>0</v>
@@ -3522,17 +3189,17 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>4.55</v>
+        <v>1.45</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>1.8</v>
@@ -3541,16 +3208,16 @@
         <v>1.5</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
@@ -3560,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>-3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>4.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q49" s="1" t="n"/>
       <c r="R49" s="1" t="n"/>
@@ -3577,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>-39.483</v>
+        <v>4.517</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X49" s="1" t="n">
         <v>0</v>
@@ -3591,17 +3258,17 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>-1.85</v>
+        <v>0.9</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>4.55</v>
+        <v>1.45</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1.8</v>
@@ -3610,16 +3277,16 @@
         <v>1.5</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
@@ -3629,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>-1.85</v>
+        <v>0.9</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>4.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q50" s="1" t="n"/>
       <c r="R50" s="1" t="n"/>
@@ -3646,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>-39.483</v>
+        <v>15.517</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X50" s="1" t="n">
         <v>0</v>
@@ -3660,17 +3327,17 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>4.55</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>1.8</v>
@@ -3679,16 +3346,16 @@
         <v>1.5</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>5.3</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>3.8</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
@@ -3698,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>4.55</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q51" s="1" t="n"/>
       <c r="R51" s="1" t="n"/>
@@ -3715,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>-28.483</v>
+        <v>15.517</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="X51" s="1" t="n">
         <v>0</v>
@@ -3729,17 +3396,17 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>4.55</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>1.8</v>
@@ -3748,16 +3415,16 @@
         <v>1.5</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>5.3</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>3.8</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L52" s="1" t="n"/>
       <c r="M52" s="1" t="n">
@@ -3767,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>4.55</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q52" s="1" t="n"/>
       <c r="R52" s="1" t="n"/>
@@ -3784,10 +3451,10 @@
         <v>1</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>-28.483</v>
+        <v>4.517</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X52" s="1" t="n">
         <v>0</v>
@@ -3798,17 +3465,17 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>1.8</v>
@@ -3817,16 +3484,16 @@
         <v>1.5</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>3.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>2.25</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n">
@@ -3836,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q53" s="1" t="n"/>
       <c r="R53" s="1" t="n"/>
@@ -3853,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>-17.483</v>
+        <v>4.517</v>
       </c>
       <c r="W53" s="1" t="n">
         <v>27.5</v>
@@ -3867,17 +3534,17 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>1.8</v>
@@ -3886,16 +3553,16 @@
         <v>1.5</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>3.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>2.25</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n">
@@ -3905,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q54" s="1" t="n"/>
       <c r="R54" s="1" t="n"/>
@@ -3922,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>-17.483</v>
+        <v>4.517</v>
       </c>
       <c r="W54" s="1" t="n">
         <v>38.5</v>
@@ -3936,17 +3603,17 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>1.8</v>
@@ -3955,16 +3622,16 @@
         <v>1.5</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>3.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>2.25</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L55" s="1" t="n"/>
       <c r="M55" s="1" t="n">
@@ -3974,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q55" s="1" t="n"/>
       <c r="R55" s="1" t="n"/>
@@ -3991,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>-6.483</v>
+        <v>15.517</v>
       </c>
       <c r="W55" s="1" t="n">
         <v>38.5</v>
@@ -4005,17 +3672,17 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>1.8</v>
@@ -4024,16 +3691,16 @@
         <v>1.5</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>3.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>2.25</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L56" s="1" t="n"/>
       <c r="M56" s="1" t="n">
@@ -4043,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q56" s="1" t="n"/>
       <c r="R56" s="1" t="n"/>
@@ -4060,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>-6.483</v>
+        <v>15.517</v>
       </c>
       <c r="W56" s="1" t="n">
         <v>27.5</v>
@@ -4074,17 +3741,17 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>3</v>
+        <v>-7.65</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>1.8</v>
@@ -4093,16 +3760,16 @@
         <v>1.5</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>3.75</v>
+        <v>-6.9</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>2.25</v>
+        <v>-8.4</v>
       </c>
       <c r="L57" s="1" t="n"/>
       <c r="M57" s="1" t="n">
@@ -4112,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>3</v>
+        <v>-7.65</v>
       </c>
       <c r="Q57" s="1" t="n"/>
       <c r="R57" s="1" t="n"/>
@@ -4129,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>-6.483</v>
+        <v>26.517</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X57" s="1" t="n">
         <v>0</v>
@@ -4143,17 +3810,17 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>3</v>
+        <v>-7.65</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>1.8</v>
@@ -4162,16 +3829,16 @@
         <v>1.5</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>3.75</v>
+        <v>-6.9</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>2.25</v>
+        <v>-8.4</v>
       </c>
       <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n">
@@ -4181,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>3</v>
+        <v>-7.65</v>
       </c>
       <c r="Q58" s="1" t="n"/>
       <c r="R58" s="1" t="n"/>
@@ -4198,10 +3865,10 @@
         <v>1</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>-17.483</v>
+        <v>26.517</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X58" s="1" t="n">
         <v>0</v>
@@ -4212,17 +3879,17 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>-0.9</v>
+        <v>1.85</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>-1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>1.8</v>
@@ -4231,16 +3898,16 @@
         <v>1.5</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>-1.8</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>-0.7</v>
+        <v>-6.9</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-2.2</v>
+        <v>-8.4</v>
       </c>
       <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n">
@@ -4250,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>-0.9</v>
+        <v>1.85</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>-1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="Q59" s="1" t="n"/>
       <c r="R59" s="1" t="n"/>
@@ -4267,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>-17.483</v>
+        <v>37.517</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X59" s="1" t="n">
         <v>0</v>
@@ -4281,17 +3948,17 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>-1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>1.8</v>
@@ -4300,16 +3967,16 @@
         <v>1.5</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>1.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>-0.7</v>
+        <v>-6.9</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-2.2</v>
+        <v>-8.4</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
@@ -4319,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>-1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="Q60" s="1" t="n"/>
       <c r="R60" s="1" t="n"/>
@@ -4336,10 +4003,10 @@
         <v>1</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>-6.483</v>
+        <v>37.517</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X60" s="1" t="n">
         <v>0</v>
@@ -4350,17 +4017,17 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>-0.9</v>
+        <v>-3.7</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>1.8</v>
@@ -4369,16 +4036,16 @@
         <v>1.5</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>-1.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>2.2</v>
+        <v>-6.9</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>0.7</v>
+        <v>-8.4</v>
       </c>
       <c r="L61" s="1" t="n"/>
       <c r="M61" s="1" t="n">
@@ -4388,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>-0.9</v>
+        <v>-3.7</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
@@ -4405,10 +4072,10 @@
         <v>1</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X61" s="1" t="n">
         <v>0</v>
@@ -4419,17 +4086,17 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>0.9</v>
+        <v>-1.85</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>1.8</v>
@@ -4438,16 +4105,16 @@
         <v>1.5</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>1.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>2.2</v>
+        <v>-6.9</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>0.7</v>
+        <v>-8.4</v>
       </c>
       <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n">
@@ -4457,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>0.9</v>
+        <v>-1.85</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>1.45</v>
+        <v>-7.65</v>
       </c>
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
@@ -4474,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>0</v>
@@ -4488,17 +4155,17 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>1.8</v>
@@ -4507,16 +4174,16 @@
         <v>1.5</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.35</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-6.85</v>
       </c>
       <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n">
@@ -4526,10 +4193,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
@@ -4543,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X63" s="1" t="n">
         <v>0</v>
@@ -4557,17 +4224,17 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>1.8</v>
@@ -4576,16 +4243,16 @@
         <v>1.5</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.35</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-6.85</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n">
@@ -4595,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
@@ -4612,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X64" s="1" t="n">
         <v>0</v>
@@ -4626,17 +4293,17 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>1.8</v>
@@ -4645,16 +4312,16 @@
         <v>1.5</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.35</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-6.85</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n">
@@ -4664,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
@@ -4681,10 +4348,10 @@
         <v>1</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X65" s="1" t="n">
         <v>0</v>
@@ -4695,17 +4362,17 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>1.8</v>
@@ -4714,16 +4381,16 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.35</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-6.85</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
@@ -4733,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
@@ -4750,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X66" s="1" t="n">
         <v>0</v>
@@ -4764,17 +4431,17 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>1.8</v>
@@ -4783,16 +4450,16 @@
         <v>1.5</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.35</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-6.85</v>
       </c>
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n">
@@ -4802,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
@@ -4819,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X67" s="1" t="n">
         <v>0</v>
@@ -4833,17 +4500,17 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>1.8</v>
@@ -4852,16 +4519,16 @@
         <v>1.5</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.35</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-6.85</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n">
@@ -4871,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.1</v>
       </c>
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
@@ -4888,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X68" s="1" t="n">
         <v>0</v>
@@ -4902,17 +4569,17 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>1.8</v>
@@ -4921,16 +4588,16 @@
         <v>1.5</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>-8.4</v>
+        <v>-5.3</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
@@ -4940,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
@@ -4957,10 +4624,10 @@
         <v>1</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X69" s="1" t="n">
         <v>0</v>
@@ -4971,17 +4638,17 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>1.8</v>
@@ -4990,16 +4657,16 @@
         <v>1.5</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>-8.4</v>
+        <v>-5.3</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n">
@@ -5009,10 +4676,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
@@ -5026,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="V70" s="1" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X70" s="1" t="n">
         <v>0</v>
@@ -5040,17 +4707,17 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>1.8</v>
@@ -5059,16 +4726,16 @@
         <v>1.5</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>-8.4</v>
+        <v>-5.3</v>
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
@@ -5078,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
@@ -5095,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X71" s="1" t="n">
         <v>0</v>
@@ -5109,17 +4776,17 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>1.8</v>
@@ -5128,16 +4795,16 @@
         <v>1.5</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-8.4</v>
+        <v>-5.3</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n">
@@ -5147,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
@@ -5164,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>37.517</v>
+        <v>15.517</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X72" s="1" t="n">
         <v>0</v>
@@ -5178,17 +4845,17 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>1.8</v>
@@ -5197,16 +4864,16 @@
         <v>1.5</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>-8.4</v>
+        <v>-5.3</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n">
@@ -5216,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
@@ -5233,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>37.517</v>
+        <v>15.517</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X73" s="1" t="n">
         <v>0</v>
@@ -5247,17 +4914,17 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>1.8</v>
@@ -5266,16 +4933,16 @@
         <v>1.5</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>-8.4</v>
+        <v>-5.3</v>
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
@@ -5285,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>-7.65</v>
+        <v>-4.55</v>
       </c>
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
@@ -5302,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="V74" s="1" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="W74" s="1" t="n">
-        <v>16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X74" s="1" t="n">
         <v>0</v>
@@ -5316,17 +4983,17 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>1.8</v>
@@ -5335,16 +5002,16 @@
         <v>1.5</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>-5.35</v>
+        <v>-2.25</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-6.85</v>
+        <v>-3.75</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
@@ -5354,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
@@ -5371,10 +5038,10 @@
         <v>1</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X75" s="1" t="n">
         <v>0</v>
@@ -5385,17 +5052,17 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>1.8</v>
@@ -5404,16 +5071,16 @@
         <v>1.5</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>-5.35</v>
+        <v>-2.25</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>-6.85</v>
+        <v>-3.75</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
@@ -5423,10 +5090,10 @@
         <v>0</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
@@ -5440,10 +5107,10 @@
         <v>1</v>
       </c>
       <c r="V76" s="1" t="n">
-        <v>37.517</v>
+        <v>15.517</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X76" s="1" t="n">
         <v>0</v>
@@ -5454,17 +5121,17 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="F77" s="1" t="n">
         <v>1.8</v>
@@ -5473,16 +5140,16 @@
         <v>1.5</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>-5.35</v>
+        <v>-2.25</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>-6.85</v>
+        <v>-3.75</v>
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
@@ -5492,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
@@ -5509,10 +5176,10 @@
         <v>1</v>
       </c>
       <c r="V77" s="1" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="W77" s="1" t="n">
-        <v>-5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X77" s="1" t="n">
         <v>0</v>
@@ -5523,17 +5190,17 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>1.8</v>
@@ -5542,16 +5209,16 @@
         <v>1.5</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>-5.35</v>
+        <v>-2.25</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>-6.85</v>
+        <v>-3.75</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
@@ -5561,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
@@ -5578,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="V78" s="1" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="W78" s="1" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X78" s="1" t="n">
         <v>0</v>
@@ -5592,17 +5259,17 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>1.8</v>
@@ -5611,16 +5278,16 @@
         <v>1.5</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>-5.35</v>
+        <v>-2.25</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>-6.85</v>
+        <v>-3.75</v>
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
@@ -5630,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
@@ -5647,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X79" s="1" t="n">
         <v>0</v>
@@ -5661,17 +5328,17 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>1.8</v>
@@ -5680,16 +5347,16 @@
         <v>1.5</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>-5.35</v>
+        <v>-2.25</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>-6.85</v>
+        <v>-3.75</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
@@ -5699,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>-6.1</v>
+        <v>-3</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
@@ -5716,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="V80" s="1" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>-5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X80" s="1" t="n">
         <v>0</v>
@@ -5730,48 +5397,48 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>-4.55</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-0.6</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>2.75</v>
+        <v>0.6</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>-3.8</v>
+        <v>0.65</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>-5.3</v>
+        <v>-0.65</v>
       </c>
       <c r="L81" s="1" t="n"/>
       <c r="M81" s="1" t="n">
-        <v>0</v>
+        <v>-37.542</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>1.85</v>
+        <v>37.542</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>-4.55</v>
+        <v>38.5</v>
       </c>
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
@@ -5779,68 +5446,68 @@
         <v>26</v>
       </c>
       <c r="T81" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U81" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V81" s="1" t="n">
-        <v>15.517</v>
+        <v>-0</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>-5.5</v>
+        <v>0.099</v>
       </c>
       <c r="X81" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y81" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>-4.55</v>
+        <v>-11.25</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1.8</v>
+        <v>16.9</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>2.8</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>-3.8</v>
+        <v>-10.8</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>-5.3</v>
+        <v>-11.7</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>0</v>
+        <v>-49.94</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>3.7</v>
+        <v>38.9</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>-4.55</v>
+        <v>38.69</v>
       </c>
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
@@ -5848,68 +5515,68 @@
         <v>26</v>
       </c>
       <c r="T82" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U82" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V82" s="1" t="n">
-        <v>4.517</v>
+        <v>-0</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>-5.5</v>
+        <v>-0</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>0</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>-3.7</v>
+        <v>9.75</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>-4.55</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1.5</v>
+        <v>16.9</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>-2.8</v>
+        <v>10.2</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>-3.8</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="L83" s="1" t="n"/>
       <c r="M83" s="1" t="n">
-        <v>0</v>
+        <v>-49.95</v>
       </c>
       <c r="N83" s="1" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>-3.7</v>
+        <v>59.7</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>-4.55</v>
+        <v>38.9</v>
       </c>
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
@@ -5920,65 +5587,65 @@
         <v>1</v>
       </c>
       <c r="U83" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>4.517</v>
+        <v>-49.95</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>-16.5</v>
+        <v>-0</v>
       </c>
       <c r="X83" s="1" t="n">
-        <v>0</v>
+        <v>99.88</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>-1.85</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>-4.55</v>
+        <v>-0.35</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>-3.8</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>-5.3</v>
+        <v>-0.75</v>
       </c>
       <c r="L84" s="1" t="n"/>
       <c r="M84" s="1" t="n">
-        <v>0</v>
+        <v>49.996</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>0</v>
+        <v>-15.323</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>-1.85</v>
+        <v>-46.996</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>-4.55</v>
+        <v>14.973</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
@@ -5989,65 +5656,65 @@
         <v>1</v>
       </c>
       <c r="U84" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V84" s="1" t="n">
-        <v>15.517</v>
+        <v>2.996</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>-16.5</v>
+        <v>-0</v>
       </c>
       <c r="X84" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>0</v>
+        <v>32.564</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0</v>
+        <v>-9.4</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>-4.55</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1.5</v>
+        <v>11.4</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-0.9</v>
+        <v>-9.6</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>0.9</v>
+        <v>-9.200000000000001</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>-3.8</v>
+        <v>5.7</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="L85" s="1" t="n"/>
       <c r="M85" s="1" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="N85" s="1" t="n">
-        <v>0</v>
+        <v>-32.041</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>-4.55</v>
+        <v>32.041</v>
       </c>
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
@@ -6058,65 +5725,65 @@
         <v>1</v>
       </c>
       <c r="U85" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V85" s="1" t="n">
-        <v>15.517</v>
+        <v>-44</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>-27.5</v>
+        <v>0.959</v>
       </c>
       <c r="X85" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y85" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>1.85</v>
+        <v>-9.4</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>-4.55</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1.5</v>
+        <v>11.4</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-9.6</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>2.75</v>
+        <v>-9.200000000000001</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>-3.8</v>
+        <v>5.7</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>-5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>0</v>
+        <v>-21.041</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>1.85</v>
+        <v>-53.4</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>-4.55</v>
+        <v>21.041</v>
       </c>
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
@@ -6127,1358 +5794,47 @@
         <v>1</v>
       </c>
       <c r="U86" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V86" s="1" t="n">
-        <v>4.517</v>
+        <v>44</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>-27.5</v>
+        <v>0.959</v>
       </c>
       <c r="X86" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y86" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G87" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H87" s="1" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I87" s="1" t="n">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="J87" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="K87" s="1" t="n">
-        <v>-3.75</v>
-      </c>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
       <c r="L87" s="1" t="n"/>
-      <c r="M87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" s="1" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P87" s="1" t="n">
-        <v>-3</v>
-      </c>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
-      <c r="S87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V87" s="1" t="n">
-        <v>4.517</v>
-      </c>
-      <c r="W87" s="1" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="X87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25">
-      <c r="A88" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="1" t="n"/>
-      <c r="C88" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H88" s="1" t="n">
-        <v>-4.600000000000001</v>
-      </c>
-      <c r="I88" s="1" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="J88" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="K88" s="1" t="n">
-        <v>-3.75</v>
-      </c>
-      <c r="L88" s="1" t="n"/>
-      <c r="M88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" s="1" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="P88" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q88" s="1" t="n"/>
-      <c r="R88" s="1" t="n"/>
-      <c r="S88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V88" s="1" t="n">
-        <v>15.517</v>
-      </c>
-      <c r="W88" s="1" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="X88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25">
-      <c r="A89" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="I89" s="1" t="n">
-        <v>-0.9500000000000001</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="K89" s="1" t="n">
-        <v>-3.75</v>
-      </c>
-      <c r="L89" s="1" t="n"/>
-      <c r="M89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" s="1" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="P89" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q89" s="1" t="n"/>
-      <c r="R89" s="1" t="n"/>
-      <c r="S89" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V89" s="1" t="n">
-        <v>26.517</v>
-      </c>
-      <c r="W89" s="1" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="X89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25">
-      <c r="A90" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H90" s="1" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="I90" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J90" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="K90" s="1" t="n">
-        <v>-3.75</v>
-      </c>
-      <c r="L90" s="1" t="n"/>
-      <c r="M90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q90" s="1" t="n"/>
-      <c r="R90" s="1" t="n"/>
-      <c r="S90" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V90" s="1" t="n">
-        <v>26.517</v>
-      </c>
-      <c r="W90" s="1" t="n">
-        <v>-27.5</v>
-      </c>
-      <c r="X90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
-      <c r="A91" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="1" t="n"/>
-      <c r="C91" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H91" s="1" t="n">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="I91" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J91" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="K91" s="1" t="n">
-        <v>-3.75</v>
-      </c>
-      <c r="L91" s="1" t="n"/>
-      <c r="M91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" s="1" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P91" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q91" s="1" t="n"/>
-      <c r="R91" s="1" t="n"/>
-      <c r="S91" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V91" s="1" t="n">
-        <v>37.517</v>
-      </c>
-      <c r="W91" s="1" t="n">
-        <v>-27.5</v>
-      </c>
-      <c r="X91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25">
-      <c r="A92" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B92" s="1" t="n"/>
-      <c r="C92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F92" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G92" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H92" s="1" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I92" s="1" t="n">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="J92" s="1" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="K92" s="1" t="n">
-        <v>-3.75</v>
-      </c>
-      <c r="L92" s="1" t="n"/>
-      <c r="M92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" s="1" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P92" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q92" s="1" t="n"/>
-      <c r="R92" s="1" t="n"/>
-      <c r="S92" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V92" s="1" t="n">
-        <v>37.517</v>
-      </c>
-      <c r="W92" s="1" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="X92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
-      <c r="A93" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="1" t="n"/>
-      <c r="C93" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G93" s="1" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H93" s="1" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="I93" s="1" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K93" s="1" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="L93" s="1" t="n"/>
-      <c r="M93" s="1" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="N93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" s="1" t="n">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="P93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="1" t="n"/>
-      <c r="R93" s="1" t="n"/>
-      <c r="S93" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T93" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U93" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V93" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W93" s="1" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X93" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y93" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25">
-      <c r="A94" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="1" t="n"/>
-      <c r="C94" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F94" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G94" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H94" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I94" s="1" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J94" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K94" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L94" s="1" t="n"/>
-      <c r="M94" s="1" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="N94" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" s="1" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P94" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q94" s="1" t="n"/>
-      <c r="R94" s="1" t="n"/>
-      <c r="S94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T94" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U94" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V94" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W94" s="1" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X94" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y94" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25">
-      <c r="A95" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H95" s="1" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I95" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K95" s="1" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="L95" s="1" t="n"/>
-      <c r="M95" s="1" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="N95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="1" t="n"/>
-      <c r="R95" s="1" t="n"/>
-      <c r="S95" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T95" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U95" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V95" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W95" s="1" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X95" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y95" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25">
-      <c r="A96" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" s="1" t="n"/>
-      <c r="C96" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>-11.25</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H96" s="1" t="n">
-        <v>-8.449999999999999</v>
-      </c>
-      <c r="I96" s="1" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="J96" s="1" t="n">
-        <v>-10.8</v>
-      </c>
-      <c r="K96" s="1" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="L96" s="1" t="n"/>
-      <c r="M96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" s="1" t="n">
-        <v>-11.25</v>
-      </c>
-      <c r="Q96" s="1" t="n"/>
-      <c r="R96" s="1" t="n"/>
-      <c r="S96" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T96" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="U96" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V96" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W96" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X96" s="1" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="Y96" s="1" t="n">
-        <v>99.88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
-      <c r="A97" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B97" s="1" t="n"/>
-      <c r="C97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G97" s="1" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H97" s="1" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="I97" s="1" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J97" s="1" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="K97" s="1" t="n">
-        <v>-8.449999999999999</v>
-      </c>
-      <c r="L97" s="1" t="n"/>
-      <c r="M97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" s="1" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="P97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="1" t="n"/>
-      <c r="R97" s="1" t="n"/>
-      <c r="S97" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U97" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V97" s="1" t="n">
-        <v>-49.95</v>
-      </c>
-      <c r="W97" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X97" s="1" t="n">
-        <v>99.88</v>
-      </c>
-      <c r="Y97" s="1" t="n">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25">
-      <c r="A98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H98" s="1" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I98" s="1" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J98" s="1" t="n">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="K98" s="1" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="L98" s="1" t="n"/>
-      <c r="M98" s="1" t="n">
-        <v>-2.996000000000001</v>
-      </c>
-      <c r="N98" s="1" t="n">
-        <v>16.302</v>
-      </c>
-      <c r="O98" s="1" t="n">
-        <v>5.996</v>
-      </c>
-      <c r="P98" s="1" t="n">
-        <v>-16.652</v>
-      </c>
-      <c r="Q98" s="1" t="n"/>
-      <c r="R98" s="1" t="n"/>
-      <c r="S98" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U98" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V98" s="1" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="W98" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="1" t="n">
-        <v>32.604</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25">
-      <c r="A99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" s="1" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J99" s="1" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K99" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L99" s="1" t="n"/>
-      <c r="M99" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P99" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q99" s="1" t="n"/>
-      <c r="R99" s="1" t="n"/>
-      <c r="S99" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T99" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U99" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V99" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W99" s="1" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X99" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y99" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25">
-      <c r="A100" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H100" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" s="1" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J100" s="1" t="n">
-        <v>0.04999999999999999</v>
-      </c>
-      <c r="K100" s="1" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="L100" s="1" t="n"/>
-      <c r="M100" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P100" s="1" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="Q100" s="1" t="n"/>
-      <c r="R100" s="1" t="n"/>
-      <c r="S100" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T100" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U100" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V100" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W100" s="1" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X100" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y100" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25">
-      <c r="A101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" s="1" t="n"/>
-      <c r="C101" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="I101" s="1" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J101" s="1" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K101" s="1" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L101" s="1" t="n"/>
-      <c r="M101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" s="1" t="n">
-        <v>-0.959</v>
-      </c>
-      <c r="O101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" s="1" t="n">
-        <v>12.959</v>
-      </c>
-      <c r="Q101" s="1" t="n"/>
-      <c r="R101" s="1" t="n"/>
-      <c r="S101" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T101" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U101" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V101" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W101" s="1" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="X101" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y101" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25">
-      <c r="A102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="1" t="n"/>
-      <c r="C102" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F102" s="1" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H102" s="1" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="I102" s="1" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J102" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="K102" s="1" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L102" s="1" t="n"/>
-      <c r="M102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" s="1" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="O102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" s="1" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="Q102" s="1" t="n"/>
-      <c r="R102" s="1" t="n"/>
-      <c r="S102" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U102" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V102" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W102" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="1" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="1" t="n"/>
-      <c r="C103" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G103" s="1" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="H103" s="1" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="I103" s="1" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J103" s="1" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K103" s="1" t="n">
-        <v>-11.2</v>
-      </c>
-      <c r="L103" s="1" t="n"/>
-      <c r="M103" s="1" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="N103" s="1" t="n">
-        <v>-27.496</v>
-      </c>
-      <c r="O103" s="1" t="n">
-        <v>7.603999999999999</v>
-      </c>
-      <c r="P103" s="1" t="n">
-        <v>27.496</v>
-      </c>
-      <c r="Q103" s="1" t="n"/>
-      <c r="R103" s="1" t="n"/>
-      <c r="S103" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U103" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V103" s="1" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="W103" s="1" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X103" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="1" t="n">
-        <v>54.992</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25">
-      <c r="A104" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" s="1" t="n"/>
-      <c r="C104" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H104" s="1" t="n">
-        <v>-9.6</v>
-      </c>
-      <c r="I104" s="1" t="n">
-        <v>-9.200000000000001</v>
-      </c>
-      <c r="J104" s="1" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K104" s="1" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="L104" s="1" t="n"/>
-      <c r="M104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" s="1" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="P104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="1" t="n"/>
-      <c r="R104" s="1" t="n"/>
-      <c r="S104" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U104" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="V104" s="1" t="n">
-        <v>-44</v>
-      </c>
-      <c r="W104" s="1" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="X104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="1" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25">
-      <c r="A105" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="1" t="n"/>
-      <c r="C105" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H105" s="1" t="n">
-        <v>-9.6</v>
-      </c>
-      <c r="I105" s="1" t="n">
-        <v>-9.200000000000001</v>
-      </c>
-      <c r="J105" s="1" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K105" s="1" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="L105" s="1" t="n"/>
-      <c r="M105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" s="1" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="P105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="1" t="n"/>
-      <c r="R105" s="1" t="n"/>
-      <c r="S105" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V105" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="W105" s="1" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="X105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="1" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25">
-      <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="n"/>
-      <c r="C106" s="1" t="n"/>
-      <c r="D106" s="1" t="n"/>
-      <c r="E106" s="1" t="n"/>
-      <c r="F106" s="1" t="n"/>
-      <c r="G106" s="1" t="n"/>
-      <c r="H106" s="1" t="n"/>
-      <c r="I106" s="1" t="n"/>
-      <c r="J106" s="1" t="n"/>
-      <c r="K106" s="1" t="n"/>
-      <c r="L106" s="1" t="n"/>
-      <c r="M106" s="1" t="n"/>
-      <c r="N106" s="1" t="n"/>
-      <c r="O106" s="1" t="n"/>
-      <c r="P106" s="1" t="n"/>
-      <c r="Q106" s="1" t="n"/>
-      <c r="R106" s="1" t="n"/>
-      <c r="S106" s="1" t="n"/>
-      <c r="T106" s="1" t="n"/>
-      <c r="U106" s="1" t="n"/>
-      <c r="V106" s="1" t="n"/>
-      <c r="W106" s="1" t="n"/>
-      <c r="X106" s="1" t="n"/>
-      <c r="Y106" s="1" t="n"/>
+      <c r="S87" s="1" t="n"/>
+      <c r="T87" s="1" t="n"/>
+      <c r="U87" s="1" t="n"/>
+      <c r="V87" s="1" t="n"/>
+      <c r="W87" s="1" t="n"/>
+      <c r="X87" s="1" t="n"/>
+      <c r="Y87" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5639,13 +5639,13 @@
         <v>49.996</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>-15.323</v>
+        <v>-15.337</v>
       </c>
       <c r="O84" s="1" t="n">
         <v>-46.996</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>14.973</v>
+        <v>14.987</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>32.564</v>
+        <v>32.592</v>
       </c>
     </row>
     <row r="85" spans="1:25">

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -86,18 +86,57 @@
     <t>R</t>
   </si>
   <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>alignment_marks_patch_new</t>
+  </si>
+  <si>
+    <t>Frontside</t>
+  </si>
+  <si>
+    <t>ResoArray_Mask_May2018</t>
+  </si>
+  <si>
+    <t>feedline_GP_sub</t>
+  </si>
+  <si>
+    <t>gndfeed_bondpad</t>
+  </si>
+  <si>
+    <t>gndsub_hor_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>gndsub_vert_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>reso_GP_sub</t>
+  </si>
+  <si>
+    <t>vert_gndsub_with_corners</t>
+  </si>
+  <si>
+    <t>ILD</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_hor_r</t>
+  </si>
+  <si>
+    <t>GP_edge_opening_vert_r</t>
+  </si>
+  <si>
+    <t>Via_to_Ground</t>
+  </si>
+  <si>
+    <t>reso_ILD_sub</t>
+  </si>
+  <si>
     <t>120nm_NbWiring</t>
   </si>
   <si>
     <t>50umX15mm_Hline</t>
   </si>
   <si>
-    <t>Frontside</t>
-  </si>
-  <si>
-    <t>ResoArray_Mask_May2018</t>
-  </si>
-  <si>
     <t>50umX15mm_Vline</t>
   </si>
   <si>
@@ -293,6 +332,15 @@
     <t>Capacitor_489MHz</t>
   </si>
   <si>
+    <t>Capacitor_common</t>
+  </si>
+  <si>
+    <t>ALUMINUM</t>
+  </si>
+  <si>
+    <t>Al_inductor</t>
+  </si>
+  <si>
     <t>400nm_NbWiring</t>
   </si>
   <si>
@@ -306,6 +354,21 @@
   </si>
   <si>
     <t>MSfeed_bondpad</t>
+  </si>
+  <si>
+    <t>cap_to_feed</t>
+  </si>
+  <si>
+    <t>cap_to_gnd</t>
+  </si>
+  <si>
+    <t>feedline_main</t>
+  </si>
+  <si>
+    <t>main_hor_feedline_to_pad</t>
+  </si>
+  <si>
+    <t>main_vert_feedline_to_pad</t>
   </si>
   <si>
     <t>vert_main_with_corners</t>
@@ -672,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:Y87"/>
+  <dimension ref="A11:Y106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,41 +911,41 @@
         <v>24</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>12.6</v>
+        <v>-0.15</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>15.4</v>
+        <v>0.9</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>-7.7</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>7.7</v>
+        <v>1.55</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>12.8</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>12.4</v>
+        <v>-0.4</v>
       </c>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n">
-        <v>-52.5</v>
+        <v>-41.15</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-50.525</v>
+        <v>-38.5</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>52.5</v>
+        <v>42.25</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>63.125</v>
+        <v>38.35</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>25</v>
@@ -895,19 +958,19 @@
         <v>8</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>-0</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.099</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -919,41 +982,41 @@
         <v>27</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="F16" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>15.4</v>
-      </c>
       <c r="H16" s="1" t="n">
-        <v>-10.2</v>
+        <v>-5.7</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>-9.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>7.7</v>
+        <v>11.6</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-7.7</v>
+        <v>11.2</v>
       </c>
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n">
-        <v>-50.525</v>
+        <v>-38.5</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-52.5</v>
+        <v>-37.541</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>40.525</v>
+        <v>38.5</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>52.5</v>
+        <v>48.941</v>
       </c>
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
@@ -961,22 +1024,22 @@
         <v>26</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U16" s="1" t="n">
         <v>8</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0</v>
+        <v>0.099</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -988,41 +1051,41 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-3.7</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>-2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
-        <v>0</v>
+        <v>49.996</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0</v>
+        <v>-15.337</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-3.7</v>
+        <v>-46.996</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>15.987</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1033,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>-39.483</v>
+        <v>2.996</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-38.5</v>
+        <v>-0</v>
       </c>
       <c r="X17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>0</v>
+        <v>32.592</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1057,41 +1120,41 @@
         <v>29</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-2.75</v>
+        <v>-3.2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>10</v>
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>0</v>
+        <v>-37.541</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-1.85</v>
+        <v>-47</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>47.741</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1102,19 +1165,19 @@
         <v>1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>-39.483</v>
+        <v>-0</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-27.5</v>
+        <v>-0</v>
       </c>
       <c r="X18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1126,41 +1189,41 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0</v>
+        <v>-10.6</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1.5</v>
+        <v>22.4</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-0.9</v>
+        <v>-10.8</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.9</v>
+        <v>-10.4</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-11.2</v>
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
-        <v>0</v>
+        <v>49.996</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>0</v>
+        <v>-26.537</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>0</v>
+        <v>-60.596</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>26.537</v>
       </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1171,19 +1234,19 @@
         <v>1</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>-28.483</v>
+        <v>2.996</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>-27.5</v>
+        <v>-0</v>
       </c>
       <c r="X19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y19" s="1" t="n">
-        <v>0</v>
+        <v>54.992</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1195,41 +1258,41 @@
         <v>31</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>1.85</v>
+        <v>5.8</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-1.05</v>
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>1.85</v>
+        <v>44.3</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>38.5</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1237,22 +1300,22 @@
         <v>26</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>-28.483</v>
+        <v>-0</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>-38.5</v>
+        <v>0.099</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1264,41 +1327,41 @@
         <v>32</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>3.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1.5</v>
+        <v>11.4</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>2.8</v>
+        <v>-9</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-5.7</v>
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>0</v>
+        <v>-32.041</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>3.7</v>
+        <v>35.2</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>32.041</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1309,19 +1372,19 @@
         <v>1</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>-17.483</v>
+        <v>-44</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>-38.5</v>
+        <v>0.959</v>
       </c>
       <c r="X21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -1330,44 +1393,44 @@
       </c>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-3.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1.5</v>
+        <v>11.4</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-9</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>-2.8</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-5.7</v>
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0</v>
+        <v>-21.041</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-3.7</v>
+        <v>-52.8</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>21.041</v>
       </c>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1378,65 +1441,65 @@
         <v>1</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>-6.483</v>
+        <v>44</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>-38.5</v>
+        <v>0.959</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>7.65</v>
+        <v>-12.35</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1.8</v>
+        <v>16.9</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>-2.75</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>8.4</v>
+        <v>-11.9</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>6.9</v>
+        <v>-12.8</v>
       </c>
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>0</v>
+        <v>-49.94</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>-1.85</v>
+        <v>38.9</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>7.65</v>
+        <v>37.59</v>
       </c>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -1444,68 +1507,68 @@
         <v>26</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>-6.483</v>
+        <v>-0</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-27.5</v>
+        <v>-0</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1.5</v>
+        <v>16.9</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>-0.9</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.9</v>
+        <v>9.1</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>8.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>6.9</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
-        <v>0</v>
+        <v>-49.95</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>7.65</v>
+        <v>38.9</v>
       </c>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -1516,65 +1579,65 @@
         <v>1</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>-17.483</v>
+        <v>-49.95</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>-27.5</v>
+        <v>-0</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0</v>
+        <v>99.88</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>7.65</v>
+        <v>0.4</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>8.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
-        <v>0</v>
+        <v>-38.8</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>0</v>
+        <v>-39.267</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>1.85</v>
+        <v>40.55</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>7.65</v>
+        <v>39.667</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1582,68 +1645,68 @@
         <v>26</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>-17.483</v>
+        <v>-0</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>-16.5</v>
+        <v>0.099</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>3.7</v>
+        <v>6.45</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.15</v>
       </c>
       <c r="F26" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G26" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H26" s="1" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>8.4</v>
+        <v>-1.25</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>6.9</v>
+        <v>-3.05</v>
       </c>
       <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n">
-        <v>0</v>
+        <v>-39.063</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>3.7</v>
+        <v>45.51300000000001</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>7.65</v>
+        <v>36.35</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -1651,68 +1714,68 @@
         <v>26</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>-6.483</v>
+        <v>-0</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>-16.5</v>
+        <v>0.099</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>7.65</v>
+        <v>12.6</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1.8</v>
+        <v>15.4</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-7.7</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>-2.8</v>
+        <v>7.7</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>8.4</v>
+        <v>12.8</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>6.9</v>
+        <v>12.4</v>
       </c>
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
-        <v>0</v>
+        <v>-52.5</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0</v>
+        <v>-50.525</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>-3.7</v>
+        <v>52.5</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>7.65</v>
+        <v>63.125</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
@@ -1720,68 +1783,68 @@
         <v>26</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>-6.483</v>
+        <v>-0</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>-5.5</v>
+        <v>-0.025</v>
       </c>
       <c r="X27" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-1.85</v>
+        <v>-10</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1.5</v>
+        <v>15.4</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>-2.75</v>
+        <v>-10.2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>6.9</v>
+        <v>-7.7</v>
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>0</v>
+        <v>-50.525</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0</v>
+        <v>-52.5</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>-1.85</v>
+        <v>40.525</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>7.65</v>
+        <v>52.5</v>
       </c>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
@@ -1789,37 +1852,37 @@
         <v>26</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-17.483</v>
+        <v>-0.025</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-5.5</v>
+        <v>-0</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>1.8</v>
@@ -1828,16 +1891,16 @@
         <v>1.5</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>6.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>5.35</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n">
@@ -1847,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q29" s="1" t="n"/>
       <c r="R29" s="1" t="n"/>
@@ -1864,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>-5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X29" s="1" t="n">
         <v>0</v>
@@ -1878,17 +1941,17 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>1.8</v>
@@ -1897,16 +1960,16 @@
         <v>1.5</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>6.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>5.35</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
@@ -1916,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
@@ -1933,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>-28.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>0</v>
@@ -1947,17 +2010,17 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>1.8</v>
@@ -1966,16 +2029,16 @@
         <v>1.5</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>6.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>5.35</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
@@ -1985,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
@@ -2002,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X31" s="1" t="n">
         <v>0</v>
@@ -2016,17 +2079,17 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1.8</v>
@@ -2035,16 +2098,16 @@
         <v>1.5</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>6.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>5.35</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n">
@@ -2054,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
@@ -2071,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-39.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>0</v>
@@ -2085,17 +2148,17 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>1.8</v>
@@ -2104,16 +2167,16 @@
         <v>1.5</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>6.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>5.35</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
@@ -2123,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q33" s="1" t="n"/>
       <c r="R33" s="1" t="n"/>
@@ -2140,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X33" s="1" t="n">
         <v>0</v>
@@ -2154,17 +2217,17 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1.8</v>
@@ -2173,16 +2236,16 @@
         <v>1.5</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>6.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>5.35</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n">
@@ -2192,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q34" s="1" t="n"/>
       <c r="R34" s="1" t="n"/>
@@ -2209,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>5.5</v>
+        <v>-38.5</v>
       </c>
       <c r="X34" s="1" t="n">
         <v>0</v>
@@ -2223,17 +2286,17 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>1.8</v>
@@ -2242,16 +2305,16 @@
         <v>1.5</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
@@ -2261,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q35" s="1" t="n"/>
       <c r="R35" s="1" t="n"/>
@@ -2278,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X35" s="1" t="n">
         <v>0</v>
@@ -2292,17 +2355,17 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>1.8</v>
@@ -2311,16 +2374,16 @@
         <v>1.5</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n">
@@ -2330,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q36" s="1" t="n"/>
       <c r="R36" s="1" t="n"/>
@@ -2347,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>16.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X36" s="1" t="n">
         <v>0</v>
@@ -2361,17 +2424,17 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>1.8</v>
@@ -2380,16 +2443,16 @@
         <v>1.5</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n">
@@ -2399,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q37" s="1" t="n"/>
       <c r="R37" s="1" t="n"/>
@@ -2416,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>-39.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X37" s="1" t="n">
         <v>0</v>
@@ -2430,17 +2493,17 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>1.8</v>
@@ -2449,16 +2512,16 @@
         <v>1.5</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n">
@@ -2468,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q38" s="1" t="n"/>
       <c r="R38" s="1" t="n"/>
@@ -2485,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>-39.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X38" s="1" t="n">
         <v>0</v>
@@ -2499,17 +2562,17 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>1.8</v>
@@ -2518,16 +2581,16 @@
         <v>1.5</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n">
@@ -2537,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q39" s="1" t="n"/>
       <c r="R39" s="1" t="n"/>
@@ -2554,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X39" s="1" t="n">
         <v>0</v>
@@ -2568,17 +2631,17 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>1.8</v>
@@ -2587,16 +2650,16 @@
         <v>1.5</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n">
@@ -2606,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q40" s="1" t="n"/>
       <c r="R40" s="1" t="n"/>
@@ -2623,10 +2686,10 @@
         <v>1</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X40" s="1" t="n">
         <v>0</v>
@@ -2637,17 +2700,17 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>1.8</v>
@@ -2656,16 +2719,16 @@
         <v>1.5</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
@@ -2675,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
@@ -2692,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X41" s="1" t="n">
         <v>0</v>
@@ -2706,17 +2769,17 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>1.8</v>
@@ -2725,16 +2788,16 @@
         <v>1.5</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n">
@@ -2744,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q42" s="1" t="n"/>
       <c r="R42" s="1" t="n"/>
@@ -2761,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>0</v>
@@ -2775,17 +2838,17 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>1.8</v>
@@ -2794,16 +2857,16 @@
         <v>1.5</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n">
@@ -2813,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q43" s="1" t="n"/>
       <c r="R43" s="1" t="n"/>
@@ -2830,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>38.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X43" s="1" t="n">
         <v>0</v>
@@ -2844,17 +2907,17 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>1.8</v>
@@ -2863,16 +2926,16 @@
         <v>1.5</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
@@ -2882,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q44" s="1" t="n"/>
       <c r="R44" s="1" t="n"/>
@@ -2899,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X44" s="1" t="n">
         <v>0</v>
@@ -2913,17 +2976,17 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>1.8</v>
@@ -2932,16 +2995,16 @@
         <v>1.5</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
@@ -2951,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q45" s="1" t="n"/>
       <c r="R45" s="1" t="n"/>
@@ -2968,10 +3031,10 @@
         <v>1</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X45" s="1" t="n">
         <v>0</v>
@@ -2982,17 +3045,17 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>1.8</v>
@@ -3001,16 +3064,16 @@
         <v>1.5</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
@@ -3020,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
@@ -3037,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X46" s="1" t="n">
         <v>0</v>
@@ -3051,17 +3114,17 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>-0.9</v>
+        <v>1.85</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-1.45</v>
+        <v>4.55</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>1.8</v>
@@ -3070,16 +3133,16 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>-1.8</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>-0.7</v>
+        <v>5.3</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>-2.2</v>
+        <v>3.8</v>
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
@@ -3089,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>-0.9</v>
+        <v>1.85</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>-1.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
@@ -3106,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X47" s="1" t="n">
         <v>0</v>
@@ -3120,17 +3183,17 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-1.45</v>
+        <v>4.55</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>1.8</v>
@@ -3139,16 +3202,16 @@
         <v>1.5</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>1.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>-0.7</v>
+        <v>5.3</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>-2.2</v>
+        <v>3.8</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
@@ -3158,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>-1.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
@@ -3175,10 +3238,10 @@
         <v>1</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>-6.483</v>
+        <v>-39.483</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X48" s="1" t="n">
         <v>0</v>
@@ -3189,17 +3252,17 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-0.9</v>
+        <v>-3.7</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>1.45</v>
+        <v>4.55</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>1.8</v>
@@ -3208,16 +3271,16 @@
         <v>1.5</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>-1.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
@@ -3227,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>-0.9</v>
+        <v>-3.7</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>1.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q49" s="1" t="n"/>
       <c r="R49" s="1" t="n"/>
@@ -3244,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>4.517</v>
+        <v>-39.483</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X49" s="1" t="n">
         <v>0</v>
@@ -3258,17 +3321,17 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.9</v>
+        <v>-1.85</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>1.45</v>
+        <v>4.55</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1.8</v>
@@ -3277,16 +3340,16 @@
         <v>1.5</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>1.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
@@ -3296,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>0.9</v>
+        <v>-1.85</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>1.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q50" s="1" t="n"/>
       <c r="R50" s="1" t="n"/>
@@ -3313,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>15.517</v>
+        <v>-39.483</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X50" s="1" t="n">
         <v>0</v>
@@ -3327,17 +3390,17 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.55</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>1.8</v>
@@ -3346,16 +3409,16 @@
         <v>1.5</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
@@ -3365,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.55</v>
       </c>
       <c r="Q51" s="1" t="n"/>
       <c r="R51" s="1" t="n"/>
@@ -3382,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>15.517</v>
+        <v>-28.483</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X51" s="1" t="n">
         <v>0</v>
@@ -3396,17 +3459,17 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.55</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>1.8</v>
@@ -3415,16 +3478,16 @@
         <v>1.5</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="L52" s="1" t="n"/>
       <c r="M52" s="1" t="n">
@@ -3434,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>4.55</v>
       </c>
       <c r="Q52" s="1" t="n"/>
       <c r="R52" s="1" t="n"/>
@@ -3451,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>4.517</v>
+        <v>-28.483</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X52" s="1" t="n">
         <v>0</v>
@@ -3465,17 +3528,17 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>1.8</v>
@@ -3484,16 +3547,16 @@
         <v>1.5</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n">
@@ -3503,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="1" t="n"/>
       <c r="R53" s="1" t="n"/>
@@ -3520,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>4.517</v>
+        <v>-17.483</v>
       </c>
       <c r="W53" s="1" t="n">
         <v>27.5</v>
@@ -3534,17 +3597,17 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>1.8</v>
@@ -3553,16 +3616,16 @@
         <v>1.5</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n">
@@ -3572,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q54" s="1" t="n"/>
       <c r="R54" s="1" t="n"/>
@@ -3589,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>4.517</v>
+        <v>-17.483</v>
       </c>
       <c r="W54" s="1" t="n">
         <v>38.5</v>
@@ -3603,17 +3666,17 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>1.8</v>
@@ -3622,16 +3685,16 @@
         <v>1.5</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="L55" s="1" t="n"/>
       <c r="M55" s="1" t="n">
@@ -3641,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="1" t="n"/>
       <c r="R55" s="1" t="n"/>
@@ -3658,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>15.517</v>
+        <v>-6.483</v>
       </c>
       <c r="W55" s="1" t="n">
         <v>38.5</v>
@@ -3672,17 +3735,17 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>1.8</v>
@@ -3691,16 +3754,16 @@
         <v>1.5</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="L56" s="1" t="n"/>
       <c r="M56" s="1" t="n">
@@ -3710,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="1" t="n"/>
       <c r="R56" s="1" t="n"/>
@@ -3727,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>15.517</v>
+        <v>-6.483</v>
       </c>
       <c r="W56" s="1" t="n">
         <v>27.5</v>
@@ -3741,17 +3804,17 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>-7.65</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>1.8</v>
@@ -3760,16 +3823,16 @@
         <v>1.5</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>-6.9</v>
+        <v>3.75</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>-8.4</v>
+        <v>2.25</v>
       </c>
       <c r="L57" s="1" t="n"/>
       <c r="M57" s="1" t="n">
@@ -3779,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>-7.65</v>
+        <v>3</v>
       </c>
       <c r="Q57" s="1" t="n"/>
       <c r="R57" s="1" t="n"/>
@@ -3796,10 +3859,10 @@
         <v>1</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>26.517</v>
+        <v>-6.483</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X57" s="1" t="n">
         <v>0</v>
@@ -3810,17 +3873,17 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>-7.65</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>1.8</v>
@@ -3829,16 +3892,16 @@
         <v>1.5</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>-6.9</v>
+        <v>3.75</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>-8.4</v>
+        <v>2.25</v>
       </c>
       <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n">
@@ -3848,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>-7.65</v>
+        <v>3</v>
       </c>
       <c r="Q58" s="1" t="n"/>
       <c r="R58" s="1" t="n"/>
@@ -3865,10 +3928,10 @@
         <v>1</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>26.517</v>
+        <v>-17.483</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>38.5</v>
+        <v>16.5</v>
       </c>
       <c r="X58" s="1" t="n">
         <v>0</v>
@@ -3879,17 +3942,17 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>-7.65</v>
+        <v>-1.45</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>1.8</v>
@@ -3898,16 +3961,16 @@
         <v>1.5</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>-6.9</v>
+        <v>-0.7</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-8.4</v>
+        <v>-2.2</v>
       </c>
       <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n">
@@ -3917,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>-7.65</v>
+        <v>-1.45</v>
       </c>
       <c r="Q59" s="1" t="n"/>
       <c r="R59" s="1" t="n"/>
@@ -3934,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>37.517</v>
+        <v>-17.483</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X59" s="1" t="n">
         <v>0</v>
@@ -3948,17 +4011,17 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>-7.65</v>
+        <v>-1.45</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>1.8</v>
@@ -3967,16 +4030,16 @@
         <v>1.5</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>-6.9</v>
+        <v>-0.7</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-8.4</v>
+        <v>-2.2</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
@@ -3986,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>-7.65</v>
+        <v>-1.45</v>
       </c>
       <c r="Q60" s="1" t="n"/>
       <c r="R60" s="1" t="n"/>
@@ -4003,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>37.517</v>
+        <v>-6.483</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X60" s="1" t="n">
         <v>0</v>
@@ -4017,17 +4080,17 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>-3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>-7.65</v>
+        <v>1.45</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>1.8</v>
@@ -4036,16 +4099,16 @@
         <v>1.5</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>-6.9</v>
+        <v>2.2</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>-8.4</v>
+        <v>0.7</v>
       </c>
       <c r="L61" s="1" t="n"/>
       <c r="M61" s="1" t="n">
@@ -4055,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>-3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>-7.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
@@ -4072,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X61" s="1" t="n">
         <v>0</v>
@@ -4086,17 +4149,17 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>-1.85</v>
+        <v>0.9</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>-7.65</v>
+        <v>1.45</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>1.8</v>
@@ -4105,16 +4168,16 @@
         <v>1.5</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>-6.9</v>
+        <v>2.2</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>-8.4</v>
+        <v>0.7</v>
       </c>
       <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n">
@@ -4124,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>-1.85</v>
+        <v>0.9</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>-7.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
@@ -4141,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>0</v>
@@ -4155,17 +4218,17 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>1.8</v>
@@ -4174,16 +4237,16 @@
         <v>1.5</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n">
@@ -4193,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
@@ -4210,10 +4273,10 @@
         <v>1</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X63" s="1" t="n">
         <v>0</v>
@@ -4224,17 +4287,17 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>1.8</v>
@@ -4243,16 +4306,16 @@
         <v>1.5</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n">
@@ -4262,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
@@ -4279,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X64" s="1" t="n">
         <v>0</v>
@@ -4293,17 +4356,17 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>1.8</v>
@@ -4312,16 +4375,16 @@
         <v>1.5</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n">
@@ -4331,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
@@ -4348,10 +4411,10 @@
         <v>1</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X65" s="1" t="n">
         <v>0</v>
@@ -4362,17 +4425,17 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>1.8</v>
@@ -4381,16 +4444,16 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
@@ -4400,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
@@ -4417,10 +4480,10 @@
         <v>1</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>37.517</v>
+        <v>4.517</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>-16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X66" s="1" t="n">
         <v>0</v>
@@ -4431,17 +4494,17 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>1.8</v>
@@ -4450,16 +4513,16 @@
         <v>1.5</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n">
@@ -4469,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
@@ -4486,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>-16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X67" s="1" t="n">
         <v>0</v>
@@ -4500,17 +4563,17 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>1.8</v>
@@ -4519,16 +4582,16 @@
         <v>1.5</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n">
@@ -4538,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
@@ -4555,10 +4618,10 @@
         <v>1</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X68" s="1" t="n">
         <v>0</v>
@@ -4569,17 +4632,17 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>1.8</v>
@@ -4588,16 +4651,16 @@
         <v>1.5</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
@@ -4607,10 +4670,10 @@
         <v>0</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
@@ -4624,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X69" s="1" t="n">
         <v>0</v>
@@ -4638,17 +4701,17 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>1.8</v>
@@ -4657,16 +4720,16 @@
         <v>1.5</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n">
@@ -4676,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
@@ -4693,10 +4756,10 @@
         <v>1</v>
       </c>
       <c r="V70" s="1" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>-5.5</v>
+        <v>38.5</v>
       </c>
       <c r="X70" s="1" t="n">
         <v>0</v>
@@ -4707,17 +4770,17 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>1.8</v>
@@ -4726,16 +4789,16 @@
         <v>1.5</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
@@ -4745,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
@@ -4762,10 +4825,10 @@
         <v>1</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>4.517</v>
+        <v>37.517</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>-16.5</v>
+        <v>38.5</v>
       </c>
       <c r="X71" s="1" t="n">
         <v>0</v>
@@ -4776,17 +4839,17 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>1.8</v>
@@ -4795,16 +4858,16 @@
         <v>1.5</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n">
@@ -4814,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
@@ -4831,10 +4894,10 @@
         <v>1</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>-16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X72" s="1" t="n">
         <v>0</v>
@@ -4845,17 +4908,17 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>1.8</v>
@@ -4864,16 +4927,16 @@
         <v>1.5</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n">
@@ -4883,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
@@ -4900,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>-27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X73" s="1" t="n">
         <v>0</v>
@@ -4914,17 +4977,17 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>1.8</v>
@@ -4933,16 +4996,16 @@
         <v>1.5</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
@@ -4952,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
@@ -4969,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="V74" s="1" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="W74" s="1" t="n">
-        <v>-27.5</v>
+        <v>16.5</v>
       </c>
       <c r="X74" s="1" t="n">
         <v>0</v>
@@ -4983,17 +5046,17 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>1.8</v>
@@ -5002,16 +5065,16 @@
         <v>1.5</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>-2.25</v>
+        <v>-5.35</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-3.75</v>
+        <v>-6.85</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
@@ -5021,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
@@ -5038,10 +5101,10 @@
         <v>1</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>-38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X75" s="1" t="n">
         <v>0</v>
@@ -5052,17 +5115,17 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>1.8</v>
@@ -5071,16 +5134,16 @@
         <v>1.5</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>-2.25</v>
+        <v>-5.35</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>-3.75</v>
+        <v>-6.85</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
@@ -5090,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
@@ -5107,10 +5170,10 @@
         <v>1</v>
       </c>
       <c r="V76" s="1" t="n">
-        <v>15.517</v>
+        <v>37.517</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>-38.5</v>
+        <v>5.5</v>
       </c>
       <c r="X76" s="1" t="n">
         <v>0</v>
@@ -5121,17 +5184,17 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="F77" s="1" t="n">
         <v>1.8</v>
@@ -5140,16 +5203,16 @@
         <v>1.5</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>-2.25</v>
+        <v>-5.35</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>-3.75</v>
+        <v>-6.85</v>
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
@@ -5159,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
@@ -5176,10 +5239,10 @@
         <v>1</v>
       </c>
       <c r="V77" s="1" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="W77" s="1" t="n">
-        <v>-38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X77" s="1" t="n">
         <v>0</v>
@@ -5190,17 +5253,17 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>1.8</v>
@@ -5209,16 +5272,16 @@
         <v>1.5</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>-2.25</v>
+        <v>-5.35</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>-3.75</v>
+        <v>-6.85</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
@@ -5228,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
@@ -5245,10 +5308,10 @@
         <v>1</v>
       </c>
       <c r="V78" s="1" t="n">
-        <v>26.517</v>
+        <v>37.517</v>
       </c>
       <c r="W78" s="1" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X78" s="1" t="n">
         <v>0</v>
@@ -5259,17 +5322,17 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>1.8</v>
@@ -5278,16 +5341,16 @@
         <v>1.5</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>-2.25</v>
+        <v>-5.35</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>-3.75</v>
+        <v>-6.85</v>
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
@@ -5297,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
@@ -5314,10 +5377,10 @@
         <v>1</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>-27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X79" s="1" t="n">
         <v>0</v>
@@ -5328,17 +5391,17 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>1.8</v>
@@ -5347,16 +5410,16 @@
         <v>1.5</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>-2.25</v>
+        <v>-5.35</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>-3.75</v>
+        <v>-6.85</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
@@ -5366,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>-3</v>
+        <v>-6.1</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
@@ -5383,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="V80" s="1" t="n">
-        <v>37.517</v>
+        <v>26.517</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>-38.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X80" s="1" t="n">
         <v>0</v>
@@ -5397,48 +5460,48 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>-0.6</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>0.6</v>
+        <v>2.75</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>0.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>-0.65</v>
+        <v>-5.3</v>
       </c>
       <c r="L81" s="1" t="n"/>
       <c r="M81" s="1" t="n">
-        <v>-37.542</v>
+        <v>0</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>37.542</v>
+        <v>1.85</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>38.5</v>
+        <v>-4.55</v>
       </c>
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
@@ -5446,68 +5509,68 @@
         <v>26</v>
       </c>
       <c r="T81" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U81" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V81" s="1" t="n">
-        <v>-0</v>
+        <v>15.517</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>0.099</v>
+        <v>-5.5</v>
       </c>
       <c r="X81" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>-11.25</v>
+        <v>-4.55</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>16.9</v>
+        <v>1.8</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>-10.8</v>
+        <v>-3.8</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>-11.7</v>
+        <v>-5.3</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>-49.94</v>
+        <v>0</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>38.9</v>
+        <v>3.7</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>38.69</v>
+        <v>-4.55</v>
       </c>
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
@@ -5515,68 +5578,68 @@
         <v>26</v>
       </c>
       <c r="T82" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U82" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V82" s="1" t="n">
-        <v>-0</v>
+        <v>4.517</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>-0</v>
+        <v>-5.5</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>99.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>9.75</v>
+        <v>-3.7</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>16.9</v>
+        <v>1.5</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>10.2</v>
+        <v>-2.8</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-3.8</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.3</v>
       </c>
       <c r="L83" s="1" t="n"/>
       <c r="M83" s="1" t="n">
-        <v>-49.95</v>
+        <v>0</v>
       </c>
       <c r="N83" s="1" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>59.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>38.9</v>
+        <v>-4.55</v>
       </c>
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
@@ -5587,65 +5650,65 @@
         <v>1</v>
       </c>
       <c r="U83" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>-49.95</v>
+        <v>4.517</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>-0</v>
+        <v>-16.5</v>
       </c>
       <c r="X83" s="1" t="n">
-        <v>99.88</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>3</v>
+        <v>-1.85</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>-0.35</v>
+        <v>-4.55</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>2.6</v>
+        <v>-2.75</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>3.4</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>-3.8</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>-0.75</v>
+        <v>-5.3</v>
       </c>
       <c r="L84" s="1" t="n"/>
       <c r="M84" s="1" t="n">
-        <v>49.996</v>
+        <v>0</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>-15.337</v>
+        <v>0</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>-46.996</v>
+        <v>-1.85</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>14.987</v>
+        <v>-4.55</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
@@ -5656,65 +5719,65 @@
         <v>1</v>
       </c>
       <c r="U84" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84" s="1" t="n">
-        <v>2.996</v>
+        <v>15.517</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>-0</v>
+        <v>-16.5</v>
       </c>
       <c r="X84" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>32.592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-9.6</v>
+        <v>-0.9</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>-9.200000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>5.7</v>
+        <v>-3.8</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.3</v>
       </c>
       <c r="L85" s="1" t="n"/>
       <c r="M85" s="1" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="N85" s="1" t="n">
-        <v>-32.041</v>
+        <v>0</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>32.041</v>
+        <v>-4.55</v>
       </c>
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
@@ -5725,65 +5788,65 @@
         <v>1</v>
       </c>
       <c r="U85" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V85" s="1" t="n">
-        <v>-44</v>
+        <v>15.517</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>0.959</v>
+        <v>-27.5</v>
       </c>
       <c r="X85" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y85" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>-9.4</v>
+        <v>1.85</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>-9.6</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>-9.200000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>5.7</v>
+        <v>-3.8</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>-5.7</v>
+        <v>-5.3</v>
       </c>
       <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>-21.041</v>
+        <v>0</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>-53.4</v>
+        <v>1.85</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>21.041</v>
+        <v>-4.55</v>
       </c>
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
@@ -5794,47 +5857,1358 @@
         <v>1</v>
       </c>
       <c r="U86" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V86" s="1" t="n">
-        <v>44</v>
+        <v>4.517</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>0.959</v>
+        <v>-27.5</v>
       </c>
       <c r="X86" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y86" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="1" t="n"/>
+      <c r="A87" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
-      <c r="D87" s="1" t="n"/>
-      <c r="E87" s="1" t="n"/>
-      <c r="F87" s="1" t="n"/>
-      <c r="G87" s="1" t="n"/>
-      <c r="H87" s="1" t="n"/>
-      <c r="I87" s="1" t="n"/>
-      <c r="J87" s="1" t="n"/>
-      <c r="K87" s="1" t="n"/>
+      <c r="C87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>-3.75</v>
+      </c>
       <c r="L87" s="1" t="n"/>
-      <c r="M87" s="1" t="n"/>
-      <c r="N87" s="1" t="n"/>
-      <c r="O87" s="1" t="n"/>
-      <c r="P87" s="1" t="n"/>
+      <c r="M87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>-3</v>
+      </c>
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
-      <c r="S87" s="1" t="n"/>
-      <c r="T87" s="1" t="n"/>
-      <c r="U87" s="1" t="n"/>
-      <c r="V87" s="1" t="n"/>
-      <c r="W87" s="1" t="n"/>
-      <c r="X87" s="1" t="n"/>
-      <c r="Y87" s="1" t="n"/>
+      <c r="S87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" s="1" t="n">
+        <v>4.517</v>
+      </c>
+      <c r="W87" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="X87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>-4.600000000000001</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" s="1" t="n">
+        <v>15.517</v>
+      </c>
+      <c r="W88" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="X88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>-0.9500000000000001</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" s="1" t="n">
+        <v>26.517</v>
+      </c>
+      <c r="W89" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="X89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" s="1" t="n">
+        <v>26.517</v>
+      </c>
+      <c r="W90" s="1" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="X90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" s="1" t="n">
+        <v>37.517</v>
+      </c>
+      <c r="W91" s="1" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>37.517</v>
+      </c>
+      <c r="W92" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="X92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n">
+        <v>-38.363</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="O93" s="1" t="n">
+        <v>37.113</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T93" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U93" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V93" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W93" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X93" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y93" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n">
+        <v>-36.98</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="O94" s="1" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T94" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U94" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V94" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W94" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X94" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y94" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n">
+        <v>-37.542</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="O95" s="1" t="n">
+        <v>37.542</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V95" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W95" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y95" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <v>-49.94</v>
+      </c>
+      <c r="O96" s="1" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <v>38.69</v>
+      </c>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T96" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W96" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X96" s="1" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Y96" s="1" t="n">
+        <v>99.88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n">
+        <v>-49.95</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="O97" s="1" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="P97" s="1" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Q97" s="1" t="n"/>
+      <c r="R97" s="1" t="n"/>
+      <c r="S97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U97" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" s="1" t="n">
+        <v>-49.95</v>
+      </c>
+      <c r="W97" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X97" s="1" t="n">
+        <v>99.88</v>
+      </c>
+      <c r="Y97" s="1" t="n">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n">
+        <v>49.996</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>-15.337</v>
+      </c>
+      <c r="O98" s="1" t="n">
+        <v>-46.996</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>14.987</v>
+      </c>
+      <c r="Q98" s="1" t="n"/>
+      <c r="R98" s="1" t="n"/>
+      <c r="S98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" s="1" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="W98" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="1" t="n">
+        <v>32.592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>-37.744</v>
+      </c>
+      <c r="O99" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>38.394</v>
+      </c>
+      <c r="Q99" s="1" t="n"/>
+      <c r="R99" s="1" t="n"/>
+      <c r="S99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T99" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U99" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V99" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W99" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X99" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y99" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>-39.162</v>
+      </c>
+      <c r="O100" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>38.912</v>
+      </c>
+      <c r="Q100" s="1" t="n"/>
+      <c r="R100" s="1" t="n"/>
+      <c r="S100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T100" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U100" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V100" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W100" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X100" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y100" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L101" s="1" t="n"/>
+      <c r="M101" s="1" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>-37.541</v>
+      </c>
+      <c r="O101" s="1" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>49.541</v>
+      </c>
+      <c r="Q101" s="1" t="n"/>
+      <c r="R101" s="1" t="n"/>
+      <c r="S101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V101" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W101" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="X101" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y101" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="1" t="n"/>
+      <c r="C102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L102" s="1" t="n"/>
+      <c r="M102" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>-37.541</v>
+      </c>
+      <c r="O102" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>48.34099999999999</v>
+      </c>
+      <c r="Q102" s="1" t="n"/>
+      <c r="R102" s="1" t="n"/>
+      <c r="S102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W102" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="L103" s="1" t="n"/>
+      <c r="M103" s="1" t="n">
+        <v>49.996</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>-26.537</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>-39.396</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>26.537</v>
+      </c>
+      <c r="Q103" s="1" t="n"/>
+      <c r="R103" s="1" t="n"/>
+      <c r="S103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V103" s="1" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="W103" s="1" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="1" t="n">
+        <v>54.992</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>-9.200000000000001</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="L104" s="1" t="n"/>
+      <c r="M104" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>-32.041</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>32.041</v>
+      </c>
+      <c r="Q104" s="1" t="n"/>
+      <c r="R104" s="1" t="n"/>
+      <c r="S104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="W104" s="1" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="X104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>-9.200000000000001</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="L105" s="1" t="n"/>
+      <c r="M105" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>-21.041</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <v>-53.4</v>
+      </c>
+      <c r="P105" s="1" t="n">
+        <v>21.041</v>
+      </c>
+      <c r="Q105" s="1" t="n"/>
+      <c r="R105" s="1" t="n"/>
+      <c r="S105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="W105" s="1" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="X105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="n"/>
+      <c r="D106" s="1" t="n"/>
+      <c r="E106" s="1" t="n"/>
+      <c r="F106" s="1" t="n"/>
+      <c r="G106" s="1" t="n"/>
+      <c r="H106" s="1" t="n"/>
+      <c r="I106" s="1" t="n"/>
+      <c r="J106" s="1" t="n"/>
+      <c r="K106" s="1" t="n"/>
+      <c r="L106" s="1" t="n"/>
+      <c r="M106" s="1" t="n"/>
+      <c r="N106" s="1" t="n"/>
+      <c r="O106" s="1" t="n"/>
+      <c r="P106" s="1" t="n"/>
+      <c r="Q106" s="1" t="n"/>
+      <c r="R106" s="1" t="n"/>
+      <c r="S106" s="1" t="n"/>
+      <c r="T106" s="1" t="n"/>
+      <c r="U106" s="1" t="n"/>
+      <c r="V106" s="1" t="n"/>
+      <c r="W106" s="1" t="n"/>
+      <c r="X106" s="1" t="n"/>
+      <c r="Y106" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,14 +735,51 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:Y106"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="16"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="29"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="8"/>
+    <col customWidth="1" max="6" min="6" width="6"/>
+    <col customWidth="1" max="7" min="7" width="6"/>
+    <col customWidth="1" max="8" min="8" width="21"/>
+    <col customWidth="1" max="9" min="9" width="21"/>
+    <col customWidth="1" max="10" min="10" width="22"/>
+    <col customWidth="1" max="11" min="11" width="21"/>
+    <col customWidth="1" max="12" min="12" width="6"/>
+    <col customWidth="1" max="13" min="13" width="19"/>
+    <col customWidth="1" max="14" min="14" width="9"/>
+    <col customWidth="1" max="15" min="15" width="20"/>
+    <col customWidth="1" max="16" min="16" width="20"/>
+    <col customWidth="1" max="17" min="17" width="6"/>
+    <col customWidth="1" max="18" min="18" width="6"/>
+    <col customWidth="1" max="19" min="19" width="24"/>
+    <col customWidth="1" max="20" min="20" width="6"/>
+    <col customWidth="1" max="21" min="21" width="6"/>
+    <col customWidth="1" max="22" min="22" width="9"/>
+    <col customWidth="1" max="23" min="23" width="8"/>
+    <col customWidth="1" max="24" min="24" width="7"/>
+    <col customWidth="1" max="25" min="25" width="8"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:25"/>
+    <row r="2" spans="1:25"/>
+    <row r="3" spans="1:25"/>
+    <row r="4" spans="1:25"/>
+    <row r="5" spans="1:25"/>
+    <row r="6" spans="1:25"/>
+    <row r="7" spans="1:25"/>
+    <row r="8" spans="1:25"/>
+    <row r="9" spans="1:25"/>
+    <row r="10" spans="1:25"/>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
@@ -939,13 +976,13 @@
         <v>-41.15</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-38.5</v>
+        <v>-38.401</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>42.25</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>38.35</v>
+        <v>38.251</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>25</v>
@@ -1010,13 +1047,13 @@
         <v>-38.5</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-37.541</v>
+        <v>-37.442</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>38.5</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>48.941</v>
+        <v>48.842</v>
       </c>
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
@@ -1076,16 +1113,16 @@
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
-        <v>49.996</v>
+        <v>5.992000000000001</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-15.337</v>
+        <v>-16.296</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-46.996</v>
+        <v>-2.992000000000001</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>15.987</v>
+        <v>16.946</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1145,16 +1182,16 @@
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-37.541</v>
+        <v>-38.5</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>47.741</v>
+        <v>48.7</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1214,16 +1251,16 @@
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
-        <v>49.996</v>
+        <v>5.992</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>-26.537</v>
+        <v>-27.496</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>-60.596</v>
+        <v>-16.592</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>26.537</v>
+        <v>27.496</v>
       </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1286,13 +1323,13 @@
         <v>-38.5</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>-38.5</v>
+        <v>-38.401</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>44.3</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>38.5</v>
+        <v>38.401</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1352,16 +1389,16 @@
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
-        <v>-44</v>
+        <v>-88</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>-32.041</v>
+        <v>-31.082</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>35.2</v>
+        <v>79.2</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>32.041</v>
+        <v>31.082</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1421,16 +1458,16 @@
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>-21.041</v>
+        <v>-20.082</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-52.8</v>
+        <v>-96.8</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>21.041</v>
+        <v>20.082</v>
       </c>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1559,13 +1596,13 @@
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
-        <v>-49.95</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>-38.9</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>58.6</v>
+        <v>108.55</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>38.9</v>
@@ -1631,13 +1668,13 @@
         <v>-38.8</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>-39.267</v>
+        <v>-39.168</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>40.55</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>39.667</v>
+        <v>39.568</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1700,13 +1737,13 @@
         <v>-39.063</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>-38.5</v>
+        <v>-38.401</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>45.51300000000001</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>36.35</v>
+        <v>36.251</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -1769,13 +1806,13 @@
         <v>-52.5</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>-50.525</v>
+        <v>-50.55</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>52.5</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>63.125</v>
+        <v>63.15</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
@@ -1835,13 +1872,13 @@
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>-50.525</v>
+        <v>-50.55</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>-52.5</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>40.525</v>
+        <v>40.55</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>52.5</v>
@@ -6323,13 +6360,13 @@
         <v>-38.363</v>
       </c>
       <c r="N93" s="1" t="n">
-        <v>-38.5</v>
+        <v>-38.401</v>
       </c>
       <c r="O93" s="1" t="n">
         <v>37.113</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>38.5</v>
+        <v>38.401</v>
       </c>
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
@@ -6392,13 +6429,13 @@
         <v>-36.98</v>
       </c>
       <c r="N94" s="1" t="n">
-        <v>-38.5</v>
+        <v>-38.401</v>
       </c>
       <c r="O94" s="1" t="n">
         <v>37.98</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>38.9</v>
+        <v>38.801</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -6461,13 +6498,13 @@
         <v>-37.542</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>-38.5</v>
+        <v>-38.401</v>
       </c>
       <c r="O95" s="1" t="n">
         <v>37.542</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>38.5</v>
+        <v>38.401</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -6596,13 +6633,13 @@
       </c>
       <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
-        <v>-49.95</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="N97" s="1" t="n">
         <v>-38.9</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>59.7</v>
+        <v>109.65</v>
       </c>
       <c r="P97" s="1" t="n">
         <v>38.9</v>
@@ -6665,16 +6702,16 @@
       </c>
       <c r="L98" s="1" t="n"/>
       <c r="M98" s="1" t="n">
-        <v>49.996</v>
+        <v>5.992000000000001</v>
       </c>
       <c r="N98" s="1" t="n">
-        <v>-15.337</v>
+        <v>-16.296</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>-46.996</v>
+        <v>-2.992000000000001</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>14.987</v>
+        <v>15.946</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -6737,13 +6774,13 @@
         <v>-38.8</v>
       </c>
       <c r="N99" s="1" t="n">
-        <v>-37.744</v>
+        <v>-37.645</v>
       </c>
       <c r="O99" s="1" t="n">
         <v>41</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>38.394</v>
+        <v>38.295</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -6806,13 +6843,13 @@
         <v>-38.8</v>
       </c>
       <c r="N100" s="1" t="n">
-        <v>-39.162</v>
+        <v>-39.063</v>
       </c>
       <c r="O100" s="1" t="n">
         <v>41</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>38.912</v>
+        <v>38.813</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
@@ -6875,13 +6912,13 @@
         <v>-38.5</v>
       </c>
       <c r="N101" s="1" t="n">
-        <v>-37.541</v>
+        <v>-37.442</v>
       </c>
       <c r="O101" s="1" t="n">
         <v>38.5</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>49.541</v>
+        <v>49.442</v>
       </c>
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
@@ -6941,16 +6978,16 @@
       </c>
       <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>-37.541</v>
+        <v>-38.5</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>48.34099999999999</v>
+        <v>49.3</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -7010,16 +7047,16 @@
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
-        <v>49.996</v>
+        <v>5.992</v>
       </c>
       <c r="N103" s="1" t="n">
-        <v>-26.537</v>
+        <v>-27.496</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>-39.396</v>
+        <v>4.608</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>26.537</v>
+        <v>27.496</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -7079,16 +7116,16 @@
       </c>
       <c r="L104" s="1" t="n"/>
       <c r="M104" s="1" t="n">
-        <v>-44</v>
+        <v>-88</v>
       </c>
       <c r="N104" s="1" t="n">
-        <v>-32.041</v>
+        <v>-31.082</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>34.6</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>32.041</v>
+        <v>31.082</v>
       </c>
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
@@ -7148,16 +7185,16 @@
       </c>
       <c r="L105" s="1" t="n"/>
       <c r="M105" s="1" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="N105" s="1" t="n">
-        <v>-21.041</v>
+        <v>-20.082</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>-53.4</v>
+        <v>-97.40000000000001</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>21.041</v>
+        <v>20.082</v>
       </c>
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1916,7 +1916,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>-3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>9.199999999999999</v>
@@ -1928,10 +1928,10 @@
         <v>1.5</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-6.45</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>-2.8</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>9.949999999999999</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>-3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>9.199999999999999</v>
@@ -1985,7 +1985,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>9.199999999999999</v>
@@ -1997,10 +1997,10 @@
         <v>1.5</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>-2.75</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>9.949999999999999</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>-1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2066,10 +2066,10 @@
         <v>1.5</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>-0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.9</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>9.949999999999999</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2123,7 +2123,7 @@
         <v>44</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2135,10 +2135,10 @@
         <v>1.5</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>2.75</v>
+        <v>0.9</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>9.949999999999999</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2192,7 +2192,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2204,10 +2204,10 @@
         <v>1.5</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>2.8</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>9.949999999999999</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P33" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2261,7 +2261,7 @@
         <v>46</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-3.7</v>
+        <v>3.7</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2273,10 +2273,10 @@
         <v>1.5</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>-2.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>9.949999999999999</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>-3.7</v>
+        <v>3.7</v>
       </c>
       <c r="P34" s="1" t="n">
         <v>9.199999999999999</v>
@@ -2330,7 +2330,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>7.65</v>
@@ -2342,10 +2342,10 @@
         <v>1.5</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>-2.75</v>
+        <v>-6.45</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>8.4</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>-1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>7.65</v>
@@ -2399,7 +2399,7 @@
         <v>48</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>7.65</v>
@@ -2411,10 +2411,10 @@
         <v>1.5</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>8.4</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P36" s="1" t="n">
         <v>7.65</v>
@@ -2468,7 +2468,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>7.65</v>
@@ -2480,10 +2480,10 @@
         <v>1.5</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>8.4</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P37" s="1" t="n">
         <v>7.65</v>
@@ -2537,7 +2537,7 @@
         <v>50</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>7.65</v>
@@ -2549,10 +2549,10 @@
         <v>1.5</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>8.4</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P38" s="1" t="n">
         <v>7.65</v>
@@ -2606,7 +2606,7 @@
         <v>51</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>7.65</v>
@@ -2618,10 +2618,10 @@
         <v>1.5</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>8.4</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P39" s="1" t="n">
         <v>7.65</v>
@@ -2675,7 +2675,7 @@
         <v>52</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>7.65</v>
@@ -2687,10 +2687,10 @@
         <v>1.5</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>8.4</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P40" s="1" t="n">
         <v>7.65</v>
@@ -2744,7 +2744,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0</v>
+        <v>-5.55</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>6.1</v>
@@ -2756,10 +2756,10 @@
         <v>1.5</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-0.9</v>
+        <v>-6.45</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.9</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>6.85</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>0</v>
+        <v>-5.55</v>
       </c>
       <c r="P41" s="1" t="n">
         <v>6.1</v>
@@ -2813,7 +2813,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>6.1</v>
@@ -2825,10 +2825,10 @@
         <v>1.5</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>6.85</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>6.1</v>
@@ -2882,7 +2882,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>6.1</v>
@@ -2894,10 +2894,10 @@
         <v>1.5</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>6.85</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P43" s="1" t="n">
         <v>6.1</v>
@@ -2951,7 +2951,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>6.1</v>
@@ -2963,10 +2963,10 @@
         <v>1.5</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>6.85</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P44" s="1" t="n">
         <v>6.1</v>
@@ -3020,7 +3020,7 @@
         <v>57</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>6.1</v>
@@ -3032,10 +3032,10 @@
         <v>1.5</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>6.85</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P45" s="1" t="n">
         <v>6.1</v>
@@ -3089,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>6.1</v>
@@ -3101,10 +3101,10 @@
         <v>1.5</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>6.85</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P46" s="1" t="n">
         <v>6.1</v>
@@ -3158,7 +3158,7 @@
         <v>59</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>4.55</v>
@@ -3170,10 +3170,10 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-6.45</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>2.75</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>5.3</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="P47" s="1" t="n">
         <v>4.55</v>
@@ -3227,7 +3227,7 @@
         <v>60</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>4.55</v>
@@ -3239,10 +3239,10 @@
         <v>1.5</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>5.3</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P48" s="1" t="n">
         <v>4.55</v>
@@ -3296,7 +3296,7 @@
         <v>61</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>4.55</v>
@@ -3308,10 +3308,10 @@
         <v>1.5</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>5.3</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P49" s="1" t="n">
         <v>4.55</v>
@@ -3365,7 +3365,7 @@
         <v>62</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>4.55</v>
@@ -3377,10 +3377,10 @@
         <v>1.5</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>5.3</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>4.55</v>
@@ -3434,7 +3434,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>4.55</v>
@@ -3446,10 +3446,10 @@
         <v>1.5</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>5.3</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P51" s="1" t="n">
         <v>4.55</v>
@@ -3503,7 +3503,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>4.55</v>
@@ -3515,10 +3515,10 @@
         <v>1.5</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>5.3</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P52" s="1" t="n">
         <v>4.55</v>
@@ -3572,7 +3572,7 @@
         <v>65</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>3</v>
@@ -3584,10 +3584,10 @@
         <v>1.5</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.45</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>3.75</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P53" s="1" t="n">
         <v>3</v>
@@ -4262,7 +4262,7 @@
         <v>75</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4274,10 +4274,10 @@
         <v>1.5</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-6.45</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-2.8</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J63" s="1" t="n">
         <v>-8.449999999999999</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4331,7 +4331,7 @@
         <v>76</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>-1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4343,10 +4343,10 @@
         <v>1.5</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>-2.75</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J64" s="1" t="n">
         <v>-8.449999999999999</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>-1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P64" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4400,7 +4400,7 @@
         <v>77</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4412,10 +4412,10 @@
         <v>1.5</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-0.9</v>
+        <v>-2.75</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>0.9</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J65" s="1" t="n">
         <v>-8.449999999999999</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4469,7 +4469,7 @@
         <v>78</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4481,10 +4481,10 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>2.75</v>
+        <v>0.9</v>
       </c>
       <c r="J66" s="1" t="n">
         <v>-8.449999999999999</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4538,7 +4538,7 @@
         <v>79</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4550,10 +4550,10 @@
         <v>1.5</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>2.8</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J67" s="1" t="n">
         <v>-8.449999999999999</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4607,7 +4607,7 @@
         <v>80</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>-3.7</v>
+        <v>3.7</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4619,10 +4619,10 @@
         <v>1.5</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>-2.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J68" s="1" t="n">
         <v>-8.449999999999999</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>-3.7</v>
+        <v>3.7</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -4676,7 +4676,7 @@
         <v>81</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>-1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>-7.65</v>
@@ -4688,10 +4688,10 @@
         <v>1.5</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-2.75</v>
+        <v>-6.45</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J69" s="1" t="n">
         <v>-6.9</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>-1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>-7.65</v>
@@ -4745,7 +4745,7 @@
         <v>82</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>-7.65</v>
@@ -4757,10 +4757,10 @@
         <v>1.5</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J70" s="1" t="n">
         <v>-6.9</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>-7.65</v>
@@ -4814,7 +4814,7 @@
         <v>83</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>-7.65</v>
@@ -4826,10 +4826,10 @@
         <v>1.5</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J71" s="1" t="n">
         <v>-6.9</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>-7.65</v>
@@ -4883,7 +4883,7 @@
         <v>84</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>-7.65</v>
@@ -4895,10 +4895,10 @@
         <v>1.5</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J72" s="1" t="n">
         <v>-6.9</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>-7.65</v>
@@ -4952,7 +4952,7 @@
         <v>85</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>-7.65</v>
@@ -4964,10 +4964,10 @@
         <v>1.5</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J73" s="1" t="n">
         <v>-6.9</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>-3.7</v>
+        <v>1.85</v>
       </c>
       <c r="P73" s="1" t="n">
         <v>-7.65</v>
@@ -5021,7 +5021,7 @@
         <v>86</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>-7.65</v>
@@ -5033,10 +5033,10 @@
         <v>1.5</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>-2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J74" s="1" t="n">
         <v>-6.9</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>-1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P74" s="1" t="n">
         <v>-7.65</v>
@@ -5090,7 +5090,7 @@
         <v>87</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>0</v>
+        <v>-5.55</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>-6.1</v>
@@ -5102,10 +5102,10 @@
         <v>1.5</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>-0.9</v>
+        <v>-6.45</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>0.9</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J75" s="1" t="n">
         <v>-5.35</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>0</v>
+        <v>-5.55</v>
       </c>
       <c r="P75" s="1" t="n">
         <v>-6.1</v>
@@ -5159,7 +5159,7 @@
         <v>88</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>-6.1</v>
@@ -5171,10 +5171,10 @@
         <v>1.5</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>2.75</v>
+        <v>-2.8</v>
       </c>
       <c r="J76" s="1" t="n">
         <v>-5.35</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>1.85</v>
+        <v>-3.7</v>
       </c>
       <c r="P76" s="1" t="n">
         <v>-6.1</v>
@@ -5228,7 +5228,7 @@
         <v>89</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>-6.1</v>
@@ -5240,10 +5240,10 @@
         <v>1.5</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J77" s="1" t="n">
         <v>-5.35</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P77" s="1" t="n">
         <v>-6.1</v>
@@ -5297,7 +5297,7 @@
         <v>90</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>-6.1</v>
@@ -5309,10 +5309,10 @@
         <v>1.5</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="J78" s="1" t="n">
         <v>-5.35</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>-6.1</v>
@@ -5366,7 +5366,7 @@
         <v>91</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>-6.1</v>
@@ -5378,10 +5378,10 @@
         <v>1.5</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>-2.75</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J79" s="1" t="n">
         <v>-5.35</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>-1.85</v>
+        <v>1.85</v>
       </c>
       <c r="P79" s="1" t="n">
         <v>-6.1</v>
@@ -5435,7 +5435,7 @@
         <v>92</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>-6.1</v>
@@ -5447,10 +5447,10 @@
         <v>1.5</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>0.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J80" s="1" t="n">
         <v>-5.35</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P80" s="1" t="n">
         <v>-6.1</v>
@@ -5504,7 +5504,7 @@
         <v>93</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>-4.55</v>
@@ -5516,10 +5516,10 @@
         <v>1.5</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-6.45</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>2.75</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J81" s="1" t="n">
         <v>-3.8</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="P81" s="1" t="n">
         <v>-4.55</v>
@@ -5573,7 +5573,7 @@
         <v>94</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>-4.55</v>
@@ -5585,10 +5585,10 @@
         <v>1.5</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>2.8</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="J82" s="1" t="n">
         <v>-3.8</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P82" s="1" t="n">
         <v>-4.55</v>
@@ -5642,7 +5642,7 @@
         <v>95</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>-4.55</v>
@@ -5654,10 +5654,10 @@
         <v>1.5</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J83" s="1" t="n">
         <v>-3.8</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P83" s="1" t="n">
         <v>-4.55</v>
@@ -5711,7 +5711,7 @@
         <v>96</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>-4.55</v>
@@ -5723,10 +5723,10 @@
         <v>1.5</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>-2.75</v>
+        <v>-0.9</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J84" s="1" t="n">
         <v>-3.8</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="P84" s="1" t="n">
         <v>-4.55</v>
@@ -5780,7 +5780,7 @@
         <v>97</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>-4.55</v>
@@ -5792,10 +5792,10 @@
         <v>1.5</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J85" s="1" t="n">
         <v>-3.8</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P85" s="1" t="n">
         <v>-4.55</v>
@@ -5849,7 +5849,7 @@
         <v>98</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>-4.55</v>
@@ -5861,10 +5861,10 @@
         <v>1.5</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J86" s="1" t="n">
         <v>-3.8</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P86" s="1" t="n">
         <v>-4.55</v>
@@ -5918,7 +5918,7 @@
         <v>99</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>-3</v>
@@ -5930,10 +5930,10 @@
         <v>1.5</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.45</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J87" s="1" t="n">
         <v>-2.25</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P87" s="1" t="n">
         <v>-3</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -750,15 +750,15 @@
     <col customWidth="1" max="5" min="5" width="8"/>
     <col customWidth="1" max="6" min="6" width="6"/>
     <col customWidth="1" max="7" min="7" width="6"/>
-    <col customWidth="1" max="8" min="8" width="21"/>
-    <col customWidth="1" max="9" min="9" width="21"/>
-    <col customWidth="1" max="10" min="10" width="22"/>
-    <col customWidth="1" max="11" min="11" width="21"/>
+    <col customWidth="1" max="8" min="8" width="7"/>
+    <col customWidth="1" max="9" min="9" width="7"/>
+    <col customWidth="1" max="10" min="10" width="7"/>
+    <col customWidth="1" max="11" min="11" width="7"/>
     <col customWidth="1" max="12" min="12" width="6"/>
-    <col customWidth="1" max="13" min="13" width="19"/>
+    <col customWidth="1" max="13" min="13" width="9"/>
     <col customWidth="1" max="14" min="14" width="9"/>
-    <col customWidth="1" max="15" min="15" width="20"/>
-    <col customWidth="1" max="16" min="16" width="20"/>
+    <col customWidth="1" max="15" min="15" width="9"/>
+    <col customWidth="1" max="16" min="16" width="8"/>
     <col customWidth="1" max="17" min="17" width="6"/>
     <col customWidth="1" max="18" min="18" width="6"/>
     <col customWidth="1" max="19" min="19" width="24"/>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -750,15 +750,15 @@
     <col customWidth="1" max="5" min="5" width="8"/>
     <col customWidth="1" max="6" min="6" width="6"/>
     <col customWidth="1" max="7" min="7" width="6"/>
-    <col customWidth="1" max="8" min="8" width="7"/>
-    <col customWidth="1" max="9" min="9" width="7"/>
-    <col customWidth="1" max="10" min="10" width="7"/>
-    <col customWidth="1" max="11" min="11" width="7"/>
+    <col customWidth="1" max="8" min="8" width="21"/>
+    <col customWidth="1" max="9" min="9" width="21"/>
+    <col customWidth="1" max="10" min="10" width="22"/>
+    <col customWidth="1" max="11" min="11" width="21"/>
     <col customWidth="1" max="12" min="12" width="6"/>
-    <col customWidth="1" max="13" min="13" width="9"/>
+    <col customWidth="1" max="13" min="13" width="19"/>
     <col customWidth="1" max="14" min="14" width="9"/>
-    <col customWidth="1" max="15" min="15" width="9"/>
-    <col customWidth="1" max="16" min="16" width="8"/>
+    <col customWidth="1" max="15" min="15" width="20"/>
+    <col customWidth="1" max="16" min="16" width="20"/>
     <col customWidth="1" max="17" min="17" width="6"/>
     <col customWidth="1" max="18" min="18" width="6"/>
     <col customWidth="1" max="19" min="19" width="24"/>
@@ -1088,7 +1088,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.65</v>
@@ -1100,10 +1100,10 @@
         <v>0.8</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>1.05</v>
@@ -1119,7 +1119,7 @@
         <v>-16.296</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-2.992000000000001</v>
+        <v>-2.392000000000001</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>16.946</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>6.4</v>
@@ -1175,10 +1175,10 @@
         <v>3.2</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1226,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>-10.6</v>
+        <v>-8.75</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>22.4</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-10.8</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>-10.4</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>11.2</v>
@@ -1257,7 +1257,7 @@
         <v>-27.496</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>-16.592</v>
+        <v>-14.742</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>27.496</v>
@@ -1295,7 +1295,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>2.1</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>8</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>1.05</v>
@@ -1326,7 +1326,7 @@
         <v>-38.401</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>44.3</v>
+        <v>44.9</v>
       </c>
       <c r="P20" s="1" t="n">
         <v>38.401</v>
@@ -1364,7 +1364,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.35</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>11.4</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-9</v>
+        <v>-9.549999999999999</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-8.600000000000001</v>
+        <v>-9.15</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>5.7</v>
@@ -1395,7 +1395,7 @@
         <v>-31.082</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>79.2</v>
+        <v>78.65000000000001</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>31.082</v>
@@ -1433,7 +1433,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.35</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>11.4</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>-9</v>
+        <v>-9.549999999999999</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>-8.600000000000001</v>
+        <v>-9.15</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>5.7</v>
@@ -1464,7 +1464,7 @@
         <v>-20.082</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-96.8</v>
+        <v>-97.34999999999999</v>
       </c>
       <c r="P22" s="1" t="n">
         <v>20.082</v>
@@ -1571,7 +1571,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>8.65</v>
+        <v>9.25</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>16.9</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>8.200000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>8.449999999999999</v>
@@ -1602,7 +1602,7 @@
         <v>-38.9</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>108.55</v>
+        <v>109.15</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>38.9</v>
@@ -1709,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>6.45</v>
+        <v>7.05</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>-2.15</v>
@@ -1721,10 +1721,10 @@
         <v>1.8</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>-1.25</v>
@@ -1740,7 +1740,7 @@
         <v>-38.401</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>45.51300000000001</v>
+        <v>46.113</v>
       </c>
       <c r="P26" s="1" t="n">
         <v>36.251</v>
@@ -1781,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>12.6</v>
+        <v>12.55</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>15.4</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>-7.7</v>
@@ -1799,20 +1799,20 @@
         <v>12.8</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
         <v>-52.5</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>-50.55</v>
+        <v>-50.624</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>52.5</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>63.15</v>
+        <v>63.17400000000001</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
@@ -1829,7 +1829,7 @@
         <v>-0</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.062</v>
       </c>
       <c r="X27" s="1" t="n">
         <v>15</v>
@@ -1847,22 +1847,22 @@
         <v>40</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-10</v>
+        <v>-10.6</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>15.4</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>-10.2</v>
+        <v>-10.85</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.35</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>7.7</v>
@@ -1872,13 +1872,13 @@
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>-50.55</v>
+        <v>-50.624</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>-52.5</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>40.55</v>
+        <v>40.024</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>52.5</v>
@@ -1895,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.062</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>-0</v>
@@ -6608,7 +6608,7 @@
         <v>111</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>9.75</v>
+        <v>10.35</v>
       </c>
       <c r="E97" s="1" t="n">
         <v>0</v>
@@ -6620,10 +6620,10 @@
         <v>16.9</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="J97" s="1" t="n">
         <v>8.449999999999999</v>
@@ -6639,7 +6639,7 @@
         <v>-38.9</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>109.65</v>
+        <v>110.25</v>
       </c>
       <c r="P97" s="1" t="n">
         <v>38.9</v>
@@ -6677,7 +6677,7 @@
         <v>112</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>-0.35</v>
@@ -6689,10 +6689,10 @@
         <v>0.8</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J98" s="1" t="n">
         <v>0.05000000000000004</v>
@@ -6708,7 +6708,7 @@
         <v>-16.296</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>-2.992000000000001</v>
+        <v>-2.392000000000001</v>
       </c>
       <c r="P98" s="1" t="n">
         <v>15.946</v>
@@ -6746,7 +6746,7 @@
         <v>113</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>0.65</v>
@@ -6758,10 +6758,10 @@
         <v>0.8</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J99" s="1" t="n">
         <v>1.05</v>
@@ -6777,7 +6777,7 @@
         <v>-37.645</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>41</v>
+        <v>41.59999999999999</v>
       </c>
       <c r="P99" s="1" t="n">
         <v>38.295</v>
@@ -6815,7 +6815,7 @@
         <v>114</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>-0.25</v>
@@ -6827,10 +6827,10 @@
         <v>0.6</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J100" s="1" t="n">
         <v>0.04999999999999999</v>
@@ -6846,7 +6846,7 @@
         <v>-39.063</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>41</v>
+        <v>41.59999999999999</v>
       </c>
       <c r="P100" s="1" t="n">
         <v>38.813</v>
@@ -7022,10 +7022,10 @@
         <v>117</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>10.6</v>
+        <v>-8.15</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F103" s="1" t="n">
         <v>0.4</v>
@@ -7034,16 +7034,16 @@
         <v>22.4</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>10.4</v>
+        <v>-8.35</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>10.8</v>
+        <v>-7.95</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>11.2</v>
+        <v>12</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>-11.2</v>
+        <v>-10.4</v>
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
@@ -7053,10 +7053,10 @@
         <v>-27.496</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>4.608</v>
+        <v>-14.142</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>27.496</v>
+        <v>28.296</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -7091,7 +7091,7 @@
         <v>118</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>-9.4</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>0</v>
@@ -7103,10 +7103,10 @@
         <v>11.4</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>-9.6</v>
+        <v>-10.15</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>-9.200000000000001</v>
+        <v>-9.75</v>
       </c>
       <c r="J104" s="1" t="n">
         <v>5.7</v>
@@ -7122,7 +7122,7 @@
         <v>-31.082</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>78.59999999999999</v>
+        <v>78.05</v>
       </c>
       <c r="P104" s="1" t="n">
         <v>31.082</v>
@@ -7160,7 +7160,7 @@
         <v>118</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>-9.4</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>0</v>
@@ -7172,10 +7172,10 @@
         <v>11.4</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>-9.6</v>
+        <v>-10.15</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>-9.200000000000001</v>
+        <v>-9.75</v>
       </c>
       <c r="J105" s="1" t="n">
         <v>5.7</v>
@@ -7191,7 +7191,7 @@
         <v>-20.082</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>-97.40000000000001</v>
+        <v>-97.95</v>
       </c>
       <c r="P105" s="1" t="n">
         <v>20.082</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -755,16 +755,16 @@
     <col customWidth="1" max="10" min="10" width="22"/>
     <col customWidth="1" max="11" min="11" width="21"/>
     <col customWidth="1" max="12" min="12" width="6"/>
-    <col customWidth="1" max="13" min="13" width="19"/>
+    <col customWidth="1" max="13" min="13" width="20"/>
     <col customWidth="1" max="14" min="14" width="9"/>
     <col customWidth="1" max="15" min="15" width="20"/>
-    <col customWidth="1" max="16" min="16" width="20"/>
+    <col customWidth="1" max="16" min="16" width="22"/>
     <col customWidth="1" max="17" min="17" width="6"/>
     <col customWidth="1" max="18" min="18" width="6"/>
     <col customWidth="1" max="19" min="19" width="24"/>
     <col customWidth="1" max="20" min="20" width="6"/>
     <col customWidth="1" max="21" min="21" width="6"/>
-    <col customWidth="1" max="22" min="22" width="9"/>
+    <col customWidth="1" max="22" min="22" width="20"/>
     <col customWidth="1" max="23" min="23" width="8"/>
     <col customWidth="1" max="24" min="24" width="7"/>
     <col customWidth="1" max="25" min="25" width="8"/>
@@ -973,16 +973,16 @@
       </c>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n">
-        <v>-41.15</v>
+        <v>-2.65</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-38.401</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>42.25</v>
+        <v>3.75</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>38.251</v>
+        <v>-0.15</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>25</v>
@@ -1001,7 +1001,7 @@
         <v>-0</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1" t="n">
         <v>11</v>
@@ -1044,16 +1044,16 @@
       </c>
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-37.442</v>
+        <v>0.959</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>48.842</v>
+        <v>10.441</v>
       </c>
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
@@ -1070,7 +1070,7 @@
         <v>-0</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1" t="n">
         <v>11</v>
@@ -1113,16 +1113,16 @@
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
-        <v>5.992000000000001</v>
+        <v>49.996</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-16.296</v>
+        <v>0.959</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-2.392000000000001</v>
+        <v>-46.396</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>16.946</v>
+        <v>-0.3089999999999999</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1182,16 +1182,16 @@
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-38.5</v>
+        <v>-37.541</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>48.8</v>
+        <v>47.84099999999999</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1251,16 +1251,16 @@
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
-        <v>5.992</v>
+        <v>49.996</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>-27.496</v>
+        <v>-26.537</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>-14.742</v>
+        <v>-58.746</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>27.496</v>
+        <v>26.537</v>
       </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1320,16 +1320,16 @@
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>-38.401</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>44.9</v>
+        <v>6.4</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>38.401</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1346,7 +1346,7 @@
         <v>-0</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1" t="n">
         <v>11</v>
@@ -1389,16 +1389,16 @@
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
-        <v>-88</v>
+        <v>-44</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>-31.082</v>
+        <v>0.959</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>78.65000000000001</v>
+        <v>34.65</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>31.082</v>
+        <v>-0.959</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1458,16 +1458,16 @@
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>-20.082</v>
+        <v>0.959</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-97.34999999999999</v>
+        <v>-53.35</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>20.082</v>
+        <v>-0.959</v>
       </c>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1527,16 +1527,16 @@
       </c>
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>-49.94</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>37.59</v>
+        <v>-12.35</v>
       </c>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -1596,16 +1596,16 @@
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
-        <v>-99.90000000000001</v>
+        <v>-49.95</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>109.15</v>
+        <v>59.2</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -1665,16 +1665,16 @@
       </c>
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
-        <v>-38.8</v>
+        <v>-0.3</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>-39.168</v>
+        <v>-0.767</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>40.55</v>
+        <v>2.05</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>39.568</v>
+        <v>1.167</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1691,7 +1691,7 @@
         <v>-0</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1" t="n">
         <v>11</v>
@@ -1734,16 +1734,16 @@
       </c>
       <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n">
-        <v>-39.063</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>-38.401</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>46.113</v>
+        <v>7.613</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>36.251</v>
+        <v>-2.15</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -1760,7 +1760,7 @@
         <v>-0</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1" t="n">
         <v>11</v>
@@ -1806,13 +1806,13 @@
         <v>-52.5</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>-50.624</v>
+        <v>-50.562</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>52.5</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>63.17400000000001</v>
+        <v>63.11199999999999</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
@@ -1872,13 +1872,13 @@
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>-50.624</v>
+        <v>-50.562</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>-52.5</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>40.024</v>
+        <v>39.962</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>52.5</v>
@@ -6357,16 +6357,16 @@
       </c>
       <c r="L93" s="1" t="n"/>
       <c r="M93" s="1" t="n">
-        <v>-38.363</v>
+        <v>0.1369999999999999</v>
       </c>
       <c r="N93" s="1" t="n">
-        <v>-38.401</v>
+        <v>0</v>
       </c>
       <c r="O93" s="1" t="n">
-        <v>37.113</v>
+        <v>-1.387</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>38.401</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
@@ -6383,7 +6383,7 @@
         <v>-0</v>
       </c>
       <c r="W93" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X93" s="1" t="n">
         <v>11</v>
@@ -6426,16 +6426,16 @@
       </c>
       <c r="L94" s="1" t="n"/>
       <c r="M94" s="1" t="n">
-        <v>-36.98</v>
+        <v>1.52</v>
       </c>
       <c r="N94" s="1" t="n">
-        <v>-38.401</v>
+        <v>0</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>37.98</v>
+        <v>-0.52</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>38.801</v>
+        <v>0.4</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -6452,7 +6452,7 @@
         <v>-0</v>
       </c>
       <c r="W94" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X94" s="1" t="n">
         <v>11</v>
@@ -6495,16 +6495,16 @@
       </c>
       <c r="L95" s="1" t="n"/>
       <c r="M95" s="1" t="n">
-        <v>-37.542</v>
+        <v>0.958</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>-38.401</v>
+        <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>37.542</v>
+        <v>-0.958</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>38.401</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -6521,7 +6521,7 @@
         <v>-0</v>
       </c>
       <c r="W95" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X95" s="1" t="n">
         <v>11</v>
@@ -6564,16 +6564,16 @@
       </c>
       <c r="L96" s="1" t="n"/>
       <c r="M96" s="1" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="N96" s="1" t="n">
-        <v>-49.94</v>
+        <v>0</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>38.69</v>
+        <v>-11.25</v>
       </c>
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
@@ -6633,16 +6633,16 @@
       </c>
       <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
-        <v>-99.90000000000001</v>
+        <v>-49.95</v>
       </c>
       <c r="N97" s="1" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>110.25</v>
+        <v>60.3</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
@@ -6702,16 +6702,16 @@
       </c>
       <c r="L98" s="1" t="n"/>
       <c r="M98" s="1" t="n">
-        <v>5.992000000000001</v>
+        <v>49.996</v>
       </c>
       <c r="N98" s="1" t="n">
-        <v>-16.296</v>
+        <v>0.959</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>-2.392000000000001</v>
+        <v>-46.396</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>15.946</v>
+        <v>-1.309</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -6771,16 +6771,16 @@
       </c>
       <c r="L99" s="1" t="n"/>
       <c r="M99" s="1" t="n">
-        <v>-38.8</v>
+        <v>-0.3</v>
       </c>
       <c r="N99" s="1" t="n">
-        <v>-37.645</v>
+        <v>0.756</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>41.59999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>38.295</v>
+        <v>-0.106</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -6797,7 +6797,7 @@
         <v>-0</v>
       </c>
       <c r="W99" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X99" s="1" t="n">
         <v>11</v>
@@ -6840,16 +6840,16 @@
       </c>
       <c r="L100" s="1" t="n"/>
       <c r="M100" s="1" t="n">
-        <v>-38.8</v>
+        <v>-0.3</v>
       </c>
       <c r="N100" s="1" t="n">
-        <v>-39.063</v>
+        <v>-0.662</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>41.59999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>38.813</v>
+        <v>0.412</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
@@ -6866,7 +6866,7 @@
         <v>-0</v>
       </c>
       <c r="W100" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X100" s="1" t="n">
         <v>11</v>
@@ -6909,16 +6909,16 @@
       </c>
       <c r="L101" s="1" t="n"/>
       <c r="M101" s="1" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="N101" s="1" t="n">
-        <v>-37.442</v>
+        <v>0.959</v>
       </c>
       <c r="O101" s="1" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>49.442</v>
+        <v>11.041</v>
       </c>
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
@@ -6935,7 +6935,7 @@
         <v>-0</v>
       </c>
       <c r="W101" s="1" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="X101" s="1" t="n">
         <v>11</v>
@@ -6978,16 +6978,16 @@
       </c>
       <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>-38.5</v>
+        <v>-37.541</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>49.3</v>
+        <v>48.34099999999999</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -7047,16 +7047,16 @@
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
-        <v>5.992</v>
+        <v>49.996</v>
       </c>
       <c r="N103" s="1" t="n">
-        <v>-27.496</v>
+        <v>-26.537</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>-14.142</v>
+        <v>-58.146</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>28.296</v>
+        <v>27.337</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -7116,16 +7116,16 @@
       </c>
       <c r="L104" s="1" t="n"/>
       <c r="M104" s="1" t="n">
-        <v>-88</v>
+        <v>-44</v>
       </c>
       <c r="N104" s="1" t="n">
-        <v>-31.082</v>
+        <v>0.959</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>78.05</v>
+        <v>34.05</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>31.082</v>
+        <v>-0.959</v>
       </c>
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
@@ -7185,16 +7185,16 @@
       </c>
       <c r="L105" s="1" t="n"/>
       <c r="M105" s="1" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="N105" s="1" t="n">
-        <v>-20.082</v>
+        <v>0.959</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>-97.95</v>
+        <v>-53.95</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>20.082</v>
+        <v>-0.959</v>
       </c>
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -765,7 +765,7 @@
     <col customWidth="1" max="20" min="20" width="6"/>
     <col customWidth="1" max="21" min="21" width="6"/>
     <col customWidth="1" max="22" min="22" width="20"/>
-    <col customWidth="1" max="23" min="23" width="8"/>
+    <col customWidth="1" max="23" min="23" width="9"/>
     <col customWidth="1" max="24" min="24" width="7"/>
     <col customWidth="1" max="25" min="25" width="8"/>
   </cols>
@@ -976,13 +976,13 @@
         <v>-2.65</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0</v>
+        <v>-0.864</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>3.75</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>-0.15</v>
+        <v>0.714</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>25</v>
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>10.441</v>
+        <v>11.305</v>
       </c>
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
@@ -1116,13 +1116,13 @@
         <v>49.996</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>-46.396</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-0.3089999999999999</v>
+        <v>0.555</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1185,13 +1185,13 @@
         <v>47</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-37.541</v>
+        <v>-38.405</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>-47</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>47.84099999999999</v>
+        <v>48.705</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1254,13 +1254,13 @@
         <v>49.996</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>-26.537</v>
+        <v>-27.401</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>-58.746</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>26.537</v>
+        <v>27.401</v>
       </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0</v>
+        <v>-0.864</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>6.4</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1392,13 +1392,13 @@
         <v>-44</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O21" s="1" t="n">
         <v>34.65</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>-0.959</v>
+        <v>-0.095</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1415,7 +1415,7 @@
         <v>-44</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="X21" s="1" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>44</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>-53.35</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>-0.959</v>
+        <v>-0.095</v>
       </c>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1484,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>-0.3</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>-0.767</v>
+        <v>-1.631</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>2.05</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>1.167</v>
+        <v>2.031</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1737,13 +1737,13 @@
         <v>-0.5629999999999999</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>-0.864</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>7.613</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>-2.15</v>
+        <v>-1.286</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -1967,7 +1967,7 @@
         <v>-39.483</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X29" s="1" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>-39.483</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>-28.483</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X31" s="1" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>-28.483</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>-17.483</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X33" s="1" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>-6.483</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X34" s="1" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>-6.483</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X35" s="1" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>-17.483</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X36" s="1" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>-17.483</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X37" s="1" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>-6.483</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X38" s="1" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>-6.483</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X39" s="1" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>-17.483</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X40" s="1" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>-28.483</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X41" s="1" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>-28.483</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>-39.483</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X43" s="1" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>-39.483</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X44" s="1" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>-39.483</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X45" s="1" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>-28.483</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X46" s="1" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>-28.483</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X47" s="1" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>-39.483</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X48" s="1" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>-39.483</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X49" s="1" t="n">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>-39.483</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X50" s="1" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>-28.483</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X51" s="1" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>-28.483</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X52" s="1" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>-17.483</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X53" s="1" t="n">
         <v>0</v>
@@ -3692,7 +3692,7 @@
         <v>-17.483</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X54" s="1" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>-6.483</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X55" s="1" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>-6.483</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X56" s="1" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>-6.483</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X57" s="1" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>-17.483</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X58" s="1" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>-17.483</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X59" s="1" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>-6.483</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X60" s="1" t="n">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>4.517</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X61" s="1" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>15.517</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>15.517</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X63" s="1" t="n">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>4.517</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X64" s="1" t="n">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>4.517</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X65" s="1" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4.517</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X66" s="1" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>15.517</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X67" s="1" t="n">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>15.517</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X68" s="1" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>26.517</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X69" s="1" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>26.517</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X70" s="1" t="n">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>37.517</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>38.5</v>
+        <v>37.636</v>
       </c>
       <c r="X71" s="1" t="n">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>37.517</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>27.5</v>
+        <v>26.636</v>
       </c>
       <c r="X72" s="1" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>37.517</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X73" s="1" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>26.517</v>
       </c>
       <c r="W74" s="1" t="n">
-        <v>16.5</v>
+        <v>15.636</v>
       </c>
       <c r="X74" s="1" t="n">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>26.517</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X75" s="1" t="n">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>37.517</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>5.5</v>
+        <v>4.636</v>
       </c>
       <c r="X76" s="1" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>37.517</v>
       </c>
       <c r="W77" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X77" s="1" t="n">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>37.517</v>
       </c>
       <c r="W78" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X78" s="1" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>26.517</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X79" s="1" t="n">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>26.517</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X80" s="1" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>15.517</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X81" s="1" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>4.517</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>-5.5</v>
+        <v>-6.364</v>
       </c>
       <c r="X82" s="1" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>4.517</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X83" s="1" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>15.517</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>-16.5</v>
+        <v>-17.364</v>
       </c>
       <c r="X84" s="1" t="n">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>15.517</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X85" s="1" t="n">
         <v>0</v>
@@ -5900,7 +5900,7 @@
         <v>4.517</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X86" s="1" t="n">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>4.517</v>
       </c>
       <c r="W87" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X87" s="1" t="n">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>15.517</v>
       </c>
       <c r="W88" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X88" s="1" t="n">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>26.517</v>
       </c>
       <c r="W89" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X89" s="1" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>26.517</v>
       </c>
       <c r="W90" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X90" s="1" t="n">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>37.517</v>
       </c>
       <c r="W91" s="1" t="n">
-        <v>-27.5</v>
+        <v>-28.364</v>
       </c>
       <c r="X91" s="1" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>37.517</v>
       </c>
       <c r="W92" s="1" t="n">
-        <v>-38.5</v>
+        <v>-39.364</v>
       </c>
       <c r="X92" s="1" t="n">
         <v>0</v>
@@ -6360,13 +6360,13 @@
         <v>0.1369999999999999</v>
       </c>
       <c r="N93" s="1" t="n">
-        <v>0</v>
+        <v>-0.864</v>
       </c>
       <c r="O93" s="1" t="n">
         <v>-1.387</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
@@ -6429,13 +6429,13 @@
         <v>1.52</v>
       </c>
       <c r="N94" s="1" t="n">
-        <v>0</v>
+        <v>-0.864</v>
       </c>
       <c r="O94" s="1" t="n">
         <v>-0.52</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>0.4</v>
+        <v>1.264</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -6498,13 +6498,13 @@
         <v>0.958</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>0</v>
+        <v>-0.864</v>
       </c>
       <c r="O95" s="1" t="n">
         <v>-0.958</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -6705,13 +6705,13 @@
         <v>49.996</v>
       </c>
       <c r="N98" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O98" s="1" t="n">
         <v>-46.396</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>-1.309</v>
+        <v>-0.445</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -6774,13 +6774,13 @@
         <v>-0.3</v>
       </c>
       <c r="N99" s="1" t="n">
-        <v>0.756</v>
+        <v>-0.108</v>
       </c>
       <c r="O99" s="1" t="n">
         <v>3.1</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>-0.106</v>
+        <v>0.758</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -6843,13 +6843,13 @@
         <v>-0.3</v>
       </c>
       <c r="N100" s="1" t="n">
-        <v>-0.662</v>
+        <v>-1.526</v>
       </c>
       <c r="O100" s="1" t="n">
         <v>3.1</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>0.412</v>
+        <v>1.276</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
@@ -6912,13 +6912,13 @@
         <v>0</v>
       </c>
       <c r="N101" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>11.041</v>
+        <v>11.905</v>
       </c>
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
@@ -6981,13 +6981,13 @@
         <v>47</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>-37.541</v>
+        <v>-38.405</v>
       </c>
       <c r="O102" s="1" t="n">
         <v>-47</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>48.34099999999999</v>
+        <v>49.205</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -7050,13 +7050,13 @@
         <v>49.996</v>
       </c>
       <c r="N103" s="1" t="n">
-        <v>-26.537</v>
+        <v>-27.401</v>
       </c>
       <c r="O103" s="1" t="n">
         <v>-58.146</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>27.337</v>
+        <v>28.201</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -7119,13 +7119,13 @@
         <v>-44</v>
       </c>
       <c r="N104" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O104" s="1" t="n">
         <v>34.05</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>-0.959</v>
+        <v>-0.095</v>
       </c>
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
@@ -7142,7 +7142,7 @@
         <v>-44</v>
       </c>
       <c r="W104" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="X104" s="1" t="n">
         <v>0</v>
@@ -7188,13 +7188,13 @@
         <v>44</v>
       </c>
       <c r="N105" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="O105" s="1" t="n">
         <v>-53.95</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>-0.959</v>
+        <v>-0.095</v>
       </c>
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
@@ -7211,7 +7211,7 @@
         <v>44</v>
       </c>
       <c r="W105" s="1" t="n">
-        <v>0.959</v>
+        <v>0.095</v>
       </c>
       <c r="X105" s="1" t="n">
         <v>0</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -750,22 +750,22 @@
     <col customWidth="1" max="5" min="5" width="8"/>
     <col customWidth="1" max="6" min="6" width="6"/>
     <col customWidth="1" max="7" min="7" width="6"/>
-    <col customWidth="1" max="8" min="8" width="21"/>
-    <col customWidth="1" max="9" min="9" width="21"/>
-    <col customWidth="1" max="10" min="10" width="22"/>
-    <col customWidth="1" max="11" min="11" width="21"/>
+    <col customWidth="1" max="8" min="8" width="8"/>
+    <col customWidth="1" max="9" min="9" width="8"/>
+    <col customWidth="1" max="10" min="10" width="7"/>
+    <col customWidth="1" max="11" min="11" width="7"/>
     <col customWidth="1" max="12" min="12" width="6"/>
-    <col customWidth="1" max="13" min="13" width="20"/>
-    <col customWidth="1" max="14" min="14" width="9"/>
-    <col customWidth="1" max="15" min="15" width="20"/>
-    <col customWidth="1" max="16" min="16" width="22"/>
+    <col customWidth="1" max="13" min="13" width="8"/>
+    <col customWidth="1" max="14" min="14" width="8"/>
+    <col customWidth="1" max="15" min="15" width="8"/>
+    <col customWidth="1" max="16" min="16" width="8"/>
     <col customWidth="1" max="17" min="17" width="6"/>
     <col customWidth="1" max="18" min="18" width="6"/>
     <col customWidth="1" max="19" min="19" width="24"/>
     <col customWidth="1" max="20" min="20" width="6"/>
     <col customWidth="1" max="21" min="21" width="6"/>
-    <col customWidth="1" max="22" min="22" width="20"/>
-    <col customWidth="1" max="23" min="23" width="9"/>
+    <col customWidth="1" max="22" min="22" width="9"/>
+    <col customWidth="1" max="23" min="23" width="7"/>
     <col customWidth="1" max="24" min="24" width="7"/>
     <col customWidth="1" max="25" min="25" width="8"/>
   </cols>
@@ -976,13 +976,13 @@
         <v>-2.65</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-0.864</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>3.75</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>0.714</v>
+        <v>-0.15</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>25</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>0</v>
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>0.095</v>
+        <v>0.959</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>11.305</v>
+        <v>10.441</v>
       </c>
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
@@ -1067,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
-        <v>49.996</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-46.396</v>
+        <v>3.6</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>0.555</v>
+        <v>0.65</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1136,10 +1136,10 @@
         <v>2</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>2.996</v>
+        <v>49.996</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X17" s="1" t="n">
         <v>0</v>
@@ -1182,16 +1182,16 @@
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-38.405</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>48.705</v>
+        <v>10.3</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1205,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>-0</v>
+        <v>47</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X18" s="1" t="n">
         <v>0</v>
@@ -1251,16 +1251,16 @@
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
-        <v>49.996</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>-27.401</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>-58.746</v>
+        <v>-8.75</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>27.401</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1274,10 +1274,10 @@
         <v>2</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>2.996</v>
+        <v>49.996</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X19" s="1" t="n">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>-0.864</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>6.4</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>0.864</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1" t="n">
         <v>0</v>
@@ -1389,16 +1389,16 @@
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>34.65</v>
+        <v>-9.35</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>-0.095</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1415,7 +1415,7 @@
         <v>-44</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.095</v>
+        <v>0.959</v>
       </c>
       <c r="X21" s="1" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-53.35</v>
+        <v>-9.35</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>-0.095</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1484,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.095</v>
+        <v>0.959</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>2</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1" t="n">
         <v>38.9</v>
@@ -1596,13 +1596,13 @@
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
-        <v>-49.95</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>59.2</v>
+        <v>9.25</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>-49.95</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1" t="n">
         <v>99.88</v>
@@ -1668,13 +1668,13 @@
         <v>-0.3</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>-1.631</v>
+        <v>-0.767</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>2.05</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>2.031</v>
+        <v>1.167</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>-0.5629999999999999</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>-0.864</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>7.613</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>-1.286</v>
+        <v>-2.15</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -1757,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="1" t="n">
         <v>0</v>
@@ -1803,16 +1803,16 @@
       </c>
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>-50.562</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>63.11199999999999</v>
+        <v>12.55</v>
       </c>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
@@ -1826,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>-0.062</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1" t="n">
         <v>15</v>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>-50.562</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>-52.5</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>39.962</v>
+        <v>-10.6</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
@@ -1895,10 +1895,10 @@
         <v>8</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.062</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1" t="n">
         <v>101</v>
@@ -1967,7 +1967,7 @@
         <v>-39.483</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X29" s="1" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>-39.483</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>-28.483</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X31" s="1" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>-28.483</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>-17.483</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X33" s="1" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>-6.483</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X34" s="1" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>-6.483</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X35" s="1" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>-17.483</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X36" s="1" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>-17.483</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X37" s="1" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>-6.483</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X38" s="1" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>-6.483</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X39" s="1" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>-17.483</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X40" s="1" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>-28.483</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X41" s="1" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>-28.483</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>-39.483</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X43" s="1" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>-39.483</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X44" s="1" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>-39.483</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X45" s="1" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>-28.483</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X46" s="1" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>-28.483</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X47" s="1" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>-39.483</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X48" s="1" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>-39.483</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X49" s="1" t="n">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>-39.483</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X50" s="1" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>-28.483</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X51" s="1" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>-28.483</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X52" s="1" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>-17.483</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X53" s="1" t="n">
         <v>0</v>
@@ -3692,7 +3692,7 @@
         <v>-17.483</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X54" s="1" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>-6.483</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X55" s="1" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>-6.483</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X56" s="1" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>-6.483</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X57" s="1" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>-17.483</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X58" s="1" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>-17.483</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X59" s="1" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>-6.483</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X60" s="1" t="n">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>4.517</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X61" s="1" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>15.517</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>15.517</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X63" s="1" t="n">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>4.517</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X64" s="1" t="n">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>4.517</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X65" s="1" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4.517</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X66" s="1" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>15.517</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X67" s="1" t="n">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>15.517</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X68" s="1" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>26.517</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X69" s="1" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>26.517</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X70" s="1" t="n">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>37.517</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>37.636</v>
+        <v>38.5</v>
       </c>
       <c r="X71" s="1" t="n">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>37.517</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>26.636</v>
+        <v>27.5</v>
       </c>
       <c r="X72" s="1" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>37.517</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X73" s="1" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>26.517</v>
       </c>
       <c r="W74" s="1" t="n">
-        <v>15.636</v>
+        <v>16.5</v>
       </c>
       <c r="X74" s="1" t="n">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>26.517</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X75" s="1" t="n">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>37.517</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>4.636</v>
+        <v>5.5</v>
       </c>
       <c r="X76" s="1" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>37.517</v>
       </c>
       <c r="W77" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X77" s="1" t="n">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>37.517</v>
       </c>
       <c r="W78" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X78" s="1" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>26.517</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X79" s="1" t="n">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>26.517</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X80" s="1" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>15.517</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X81" s="1" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>4.517</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>-6.364</v>
+        <v>-5.5</v>
       </c>
       <c r="X82" s="1" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>4.517</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X83" s="1" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>15.517</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>-17.364</v>
+        <v>-16.5</v>
       </c>
       <c r="X84" s="1" t="n">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>15.517</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X85" s="1" t="n">
         <v>0</v>
@@ -5900,7 +5900,7 @@
         <v>4.517</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X86" s="1" t="n">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>4.517</v>
       </c>
       <c r="W87" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X87" s="1" t="n">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>15.517</v>
       </c>
       <c r="W88" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X88" s="1" t="n">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>26.517</v>
       </c>
       <c r="W89" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X89" s="1" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>26.517</v>
       </c>
       <c r="W90" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X90" s="1" t="n">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>37.517</v>
       </c>
       <c r="W91" s="1" t="n">
-        <v>-28.364</v>
+        <v>-27.5</v>
       </c>
       <c r="X91" s="1" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>37.517</v>
       </c>
       <c r="W92" s="1" t="n">
-        <v>-39.364</v>
+        <v>-38.5</v>
       </c>
       <c r="X92" s="1" t="n">
         <v>0</v>
@@ -6360,13 +6360,13 @@
         <v>0.1369999999999999</v>
       </c>
       <c r="N93" s="1" t="n">
-        <v>-0.864</v>
+        <v>0</v>
       </c>
       <c r="O93" s="1" t="n">
         <v>-1.387</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>0.864</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
@@ -6380,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="V93" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W93" s="1" t="n">
         <v>0</v>
@@ -6429,13 +6429,13 @@
         <v>1.52</v>
       </c>
       <c r="N94" s="1" t="n">
-        <v>-0.864</v>
+        <v>0</v>
       </c>
       <c r="O94" s="1" t="n">
         <v>-0.52</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>1.264</v>
+        <v>0.4</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -6449,7 +6449,7 @@
         <v>8</v>
       </c>
       <c r="V94" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W94" s="1" t="n">
         <v>0</v>
@@ -6498,13 +6498,13 @@
         <v>0.958</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>-0.864</v>
+        <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
         <v>-0.958</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>0.864</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -6518,7 +6518,7 @@
         <v>8</v>
       </c>
       <c r="V95" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W95" s="1" t="n">
         <v>0</v>
@@ -6587,10 +6587,10 @@
         <v>2</v>
       </c>
       <c r="V96" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W96" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X96" s="1" t="n">
         <v>38.9</v>
@@ -6633,13 +6633,13 @@
       </c>
       <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
-        <v>-49.95</v>
+        <v>0</v>
       </c>
       <c r="N97" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>60.3</v>
+        <v>10.35</v>
       </c>
       <c r="P97" s="1" t="n">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>-49.95</v>
       </c>
       <c r="W97" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X97" s="1" t="n">
         <v>99.88</v>
@@ -6702,16 +6702,16 @@
       </c>
       <c r="L98" s="1" t="n"/>
       <c r="M98" s="1" t="n">
-        <v>49.996</v>
+        <v>0</v>
       </c>
       <c r="N98" s="1" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>-46.396</v>
+        <v>3.6</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>-0.445</v>
+        <v>-0.35</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -6725,10 +6725,10 @@
         <v>2</v>
       </c>
       <c r="V98" s="1" t="n">
-        <v>2.996</v>
+        <v>49.996</v>
       </c>
       <c r="W98" s="1" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X98" s="1" t="n">
         <v>0</v>
@@ -6774,13 +6774,13 @@
         <v>-0.3</v>
       </c>
       <c r="N99" s="1" t="n">
-        <v>-0.108</v>
+        <v>0.756</v>
       </c>
       <c r="O99" s="1" t="n">
         <v>3.1</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>0.758</v>
+        <v>-0.106</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -6794,7 +6794,7 @@
         <v>8</v>
       </c>
       <c r="V99" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W99" s="1" t="n">
         <v>0</v>
@@ -6843,13 +6843,13 @@
         <v>-0.3</v>
       </c>
       <c r="N100" s="1" t="n">
-        <v>-1.526</v>
+        <v>-0.662</v>
       </c>
       <c r="O100" s="1" t="n">
         <v>3.1</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>1.276</v>
+        <v>0.412</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
@@ -6863,7 +6863,7 @@
         <v>8</v>
       </c>
       <c r="V100" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W100" s="1" t="n">
         <v>0</v>
@@ -6912,13 +6912,13 @@
         <v>0</v>
       </c>
       <c r="N101" s="1" t="n">
-        <v>0.095</v>
+        <v>0.959</v>
       </c>
       <c r="O101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>11.905</v>
+        <v>11.041</v>
       </c>
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
@@ -6932,7 +6932,7 @@
         <v>8</v>
       </c>
       <c r="V101" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W101" s="1" t="n">
         <v>0</v>
@@ -6978,16 +6978,16 @@
       </c>
       <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>-38.405</v>
+        <v>0</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>49.205</v>
+        <v>10.8</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -7001,10 +7001,10 @@
         <v>2</v>
       </c>
       <c r="V102" s="1" t="n">
-        <v>-0</v>
+        <v>47</v>
       </c>
       <c r="W102" s="1" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X102" s="1" t="n">
         <v>0</v>
@@ -7047,16 +7047,16 @@
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
-        <v>49.996</v>
+        <v>0</v>
       </c>
       <c r="N103" s="1" t="n">
-        <v>-27.401</v>
+        <v>0</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>-58.146</v>
+        <v>-8.15</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>28.201</v>
+        <v>0.8</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -7070,10 +7070,10 @@
         <v>2</v>
       </c>
       <c r="V103" s="1" t="n">
-        <v>2.996</v>
+        <v>49.996</v>
       </c>
       <c r="W103" s="1" t="n">
-        <v>-0</v>
+        <v>0.959</v>
       </c>
       <c r="X103" s="1" t="n">
         <v>0</v>
@@ -7116,16 +7116,16 @@
       </c>
       <c r="L104" s="1" t="n"/>
       <c r="M104" s="1" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="N104" s="1" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>34.05</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>-0.095</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
@@ -7142,7 +7142,7 @@
         <v>-44</v>
       </c>
       <c r="W104" s="1" t="n">
-        <v>0.095</v>
+        <v>0.959</v>
       </c>
       <c r="X104" s="1" t="n">
         <v>0</v>
@@ -7185,16 +7185,16 @@
       </c>
       <c r="L105" s="1" t="n"/>
       <c r="M105" s="1" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N105" s="1" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>-53.95</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>-0.095</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
@@ -7211,7 +7211,7 @@
         <v>44</v>
       </c>
       <c r="W105" s="1" t="n">
-        <v>0.095</v>
+        <v>0.959</v>
       </c>
       <c r="X105" s="1" t="n">
         <v>0</v>

--- a/masks/code/ResonatorArray.xlsx
+++ b/masks/code/ResonatorArray.xlsx
@@ -15,7 +15,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+  <si>
+    <t>AGA Marks</t>
+  </si>
+  <si>
+    <t>TVPA</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
   <si>
     <t>Alternate Array Layout</t>
   </si>
@@ -53,12 +74,6 @@
     <t>Cell name</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>xl</t>
   </si>
   <si>
@@ -84,9 +99,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>GP</t>
   </si>
   <si>
     <t>alignment_marks_patch_new</t>
@@ -744,12 +756,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="16"/>
-    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
     <col customWidth="1" max="3" min="3" width="29"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
     <col customWidth="1" max="5" min="5" width="8"/>
     <col customWidth="1" max="6" min="6" width="6"/>
-    <col customWidth="1" max="7" min="7" width="6"/>
+    <col customWidth="1" max="7" min="7" width="7"/>
     <col customWidth="1" max="8" min="8" width="8"/>
     <col customWidth="1" max="9" min="9" width="8"/>
     <col customWidth="1" max="10" min="10" width="7"/>
@@ -773,13 +785,235 @@
     <row r="1" spans="1:25"/>
     <row r="2" spans="1:25"/>
     <row r="3" spans="1:25"/>
-    <row r="4" spans="1:25"/>
-    <row r="5" spans="1:25"/>
-    <row r="6" spans="1:25"/>
-    <row r="7" spans="1:25"/>
-    <row r="8" spans="1:25"/>
-    <row r="9" spans="1:25"/>
-    <row r="10" spans="1:25"/>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-2.875</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-2.525</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-2.775</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+    </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
@@ -828,7 +1062,7 @@
       <c r="R12" s="1" t="n"/>
       <c r="S12" s="1" t="n"/>
       <c r="T12" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -836,116 +1070,116 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="1" t="n"/>
       <c r="R13" s="1" t="n"/>
       <c r="S13" s="1" t="n"/>
       <c r="T13" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1.1</v>
@@ -985,11 +1219,11 @@
         <v>-0.15</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R15" s="1" t="n"/>
       <c r="S15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T15" s="1" t="n">
         <v>8</v>
@@ -1012,11 +1246,11 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -1058,7 +1292,7 @@
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
       <c r="S16" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T16" s="1" t="n">
         <v>8</v>
@@ -1081,11 +1315,11 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>3.6</v>
@@ -1127,7 +1361,7 @@
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
       <c r="S17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T17" s="1" t="n">
         <v>1</v>
@@ -1150,11 +1384,11 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
@@ -1196,7 +1430,7 @@
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
       <c r="S18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T18" s="1" t="n">
         <v>1</v>
@@ -1219,11 +1453,11 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>-8.75</v>
@@ -1265,7 +1499,7 @@
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
       <c r="S19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T19" s="1" t="n">
         <v>1</v>
@@ -1288,11 +1522,11 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>6.4</v>
@@ -1334,7 +1568,7 @@
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
       <c r="S20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T20" s="1" t="n">
         <v>8</v>
@@ -1357,11 +1591,11 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>-9.35</v>
@@ -1403,7 +1637,7 @@
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
       <c r="S21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T21" s="1" t="n">
         <v>1</v>
@@ -1426,11 +1660,11 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>-9.35</v>
@@ -1472,7 +1706,7 @@
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
       <c r="S22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T22" s="1" t="n">
         <v>1</v>
@@ -1495,11 +1729,11 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
@@ -1541,7 +1775,7 @@
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
       <c r="S23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T23" s="1" t="n">
         <v>3</v>
@@ -1564,11 +1798,11 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>9.25</v>
@@ -1610,7 +1844,7 @@
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
       <c r="S24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T24" s="1" t="n">
         <v>1</v>
@@ -1633,11 +1867,11 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>1.75</v>
@@ -1679,7 +1913,7 @@
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
       <c r="S25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T25" s="1" t="n">
         <v>8</v>
@@ -1702,11 +1936,11 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>7.05</v>
@@ -1748,7 +1982,7 @@
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
       <c r="S26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T26" s="1" t="n">
         <v>8</v>
@@ -1771,11 +2005,11 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
@@ -1817,7 +2051,7 @@
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
       <c r="S27" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T27" s="1" t="n">
         <v>8</v>
@@ -1840,11 +2074,11 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>-10.6</v>
@@ -1886,7 +2120,7 @@
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
       <c r="S28" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>2</v>
@@ -1909,11 +2143,11 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>-5.55</v>
@@ -1955,7 +2189,7 @@
       <c r="Q29" s="1" t="n"/>
       <c r="R29" s="1" t="n"/>
       <c r="S29" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>1</v>
@@ -1978,11 +2212,11 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>-3.7</v>
@@ -2024,7 +2258,7 @@
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
       <c r="S30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>1</v>
@@ -2047,11 +2281,11 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>-1.85</v>
@@ -2093,7 +2327,7 @@
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
       <c r="S31" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T31" s="1" t="n">
         <v>1</v>
@@ -2116,11 +2350,11 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
@@ -2162,7 +2396,7 @@
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
       <c r="S32" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>1</v>
@@ -2185,11 +2419,11 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>1.85</v>
@@ -2231,7 +2465,7 @@
       <c r="Q33" s="1" t="n"/>
       <c r="R33" s="1" t="n"/>
       <c r="S33" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T33" s="1" t="n">
         <v>1</v>
@@ -2254,11 +2488,11 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>3.7</v>
@@ -2300,7 +2534,7 @@
       <c r="Q34" s="1" t="n"/>
       <c r="R34" s="1" t="n"/>
       <c r="S34" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>1</v>
@@ -2323,11 +2557,11 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>-5.55</v>
@@ -2369,7 +2603,7 @@
       <c r="Q35" s="1" t="n"/>
       <c r="R35" s="1" t="n"/>
       <c r="S35" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>1</v>
@@ -2392,11 +2626,11 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>-3.7</v>
@@ -2438,7 +2672,7 @@
       <c r="Q36" s="1" t="n"/>
       <c r="R36" s="1" t="n"/>
       <c r="S36" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>1</v>
@@ -2461,11 +2695,11 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>-1.85</v>
@@ -2507,7 +2741,7 @@
       <c r="Q37" s="1" t="n"/>
       <c r="R37" s="1" t="n"/>
       <c r="S37" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>1</v>
@@ -2530,11 +2764,11 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>0</v>
@@ -2576,7 +2810,7 @@
       <c r="Q38" s="1" t="n"/>
       <c r="R38" s="1" t="n"/>
       <c r="S38" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>1</v>
@@ -2599,11 +2833,11 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1.85</v>
@@ -2645,7 +2879,7 @@
       <c r="Q39" s="1" t="n"/>
       <c r="R39" s="1" t="n"/>
       <c r="S39" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>1</v>
@@ -2668,11 +2902,11 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>3.7</v>
@@ -2714,7 +2948,7 @@
       <c r="Q40" s="1" t="n"/>
       <c r="R40" s="1" t="n"/>
       <c r="S40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>1</v>
@@ -2737,11 +2971,11 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>-5.55</v>
@@ -2783,7 +3017,7 @@
       <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
       <c r="S41" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>1</v>
@@ -2806,11 +3040,11 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>-3.7</v>
@@ -2852,7 +3086,7 @@
       <c r="Q42" s="1" t="n"/>
       <c r="R42" s="1" t="n"/>
       <c r="S42" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>1</v>
@@ -2875,11 +3109,11 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>-1.85</v>
@@ -2921,7 +3155,7 @@
       <c r="Q43" s="1" t="n"/>
       <c r="R43" s="1" t="n"/>
       <c r="S43" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>1</v>
@@ -2944,11 +3178,11 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0</v>
@@ -2990,7 +3224,7 @@
       <c r="Q44" s="1" t="n"/>
       <c r="R44" s="1" t="n"/>
       <c r="S44" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>1</v>
@@ -3013,11 +3247,11 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>1.85</v>
@@ -3059,7 +3293,7 @@
       <c r="Q45" s="1" t="n"/>
       <c r="R45" s="1" t="n"/>
       <c r="S45" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>1</v>
@@ -3082,11 +3316,11 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>3.7</v>
@@ -3128,7 +3362,7 @@
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
       <c r="S46" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>1</v>
@@ -3151,11 +3385,11 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>-5.55</v>
@@ -3197,7 +3431,7 @@
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
       <c r="S47" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>1</v>
@@ -3220,11 +3454,11 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>-3.7</v>
@@ -3266,7 +3500,7 @@
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
       <c r="S48" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T48" s="1" t="n">
         <v>1</v>
@@ -3289,11 +3523,11 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>-1.85</v>
@@ -3335,7 +3569,7 @@
       <c r="Q49" s="1" t="n"/>
       <c r="R49" s="1" t="n"/>
       <c r="S49" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>1</v>
@@ -3358,11 +3592,11 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>0</v>
@@ -3404,7 +3638,7 @@
       <c r="Q50" s="1" t="n"/>
       <c r="R50" s="1" t="n"/>
       <c r="S50" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T50" s="1" t="n">
         <v>1</v>
@@ -3427,11 +3661,11 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>1.85</v>
@@ -3473,7 +3707,7 @@
       <c r="Q51" s="1" t="n"/>
       <c r="R51" s="1" t="n"/>
       <c r="S51" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>1</v>
@@ -3496,11 +3730,11 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>3.7</v>
@@ -3542,7 +3776,7 @@
       <c r="Q52" s="1" t="n"/>
       <c r="R52" s="1" t="n"/>
       <c r="S52" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T52" s="1" t="n">
         <v>1</v>
@@ -3565,11 +3799,11 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>-5.55</v>
@@ -3611,7 +3845,7 @@
       <c r="Q53" s="1" t="n"/>
       <c r="R53" s="1" t="n"/>
       <c r="S53" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>1</v>
@@ -3634,11 +3868,11 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>-3.7</v>
@@ -3680,7 +3914,7 @@
       <c r="Q54" s="1" t="n"/>
       <c r="R54" s="1" t="n"/>
       <c r="S54" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>1</v>
@@ -3703,11 +3937,11 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>-1.85</v>
@@ -3749,7 +3983,7 @@
       <c r="Q55" s="1" t="n"/>
       <c r="R55" s="1" t="n"/>
       <c r="S55" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T55" s="1" t="n">
         <v>1</v>
@@ -3772,11 +4006,11 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>0</v>
@@ -3818,7 +4052,7 @@
       <c r="Q56" s="1" t="n"/>
       <c r="R56" s="1" t="n"/>
       <c r="S56" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T56" s="1" t="n">
         <v>1</v>
@@ -3841,11 +4075,11 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>1.85</v>
@@ -3887,7 +4121,7 @@
       <c r="Q57" s="1" t="n"/>
       <c r="R57" s="1" t="n"/>
       <c r="S57" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T57" s="1" t="n">
         <v>1</v>
@@ -3910,11 +4144,11 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>3.7</v>
@@ -3956,7 +4190,7 @@
       <c r="Q58" s="1" t="n"/>
       <c r="R58" s="1" t="n"/>
       <c r="S58" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T58" s="1" t="n">
         <v>1</v>
@@ -3979,11 +4213,11 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>-0.9</v>
@@ -4025,7 +4259,7 @@
       <c r="Q59" s="1" t="n"/>
       <c r="R59" s="1" t="n"/>
       <c r="S59" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T59" s="1" t="n">
         <v>1</v>
@@ -4048,11 +4282,11 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>0.9</v>
@@ -4094,7 +4328,7 @@
       <c r="Q60" s="1" t="n"/>
       <c r="R60" s="1" t="n"/>
       <c r="S60" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T60" s="1" t="n">
         <v>1</v>
@@ -4117,11 +4351,11 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>-0.9</v>
@@ -4163,7 +4397,7 @@
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
       <c r="S61" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T61" s="1" t="n">
         <v>1</v>
@@ -4186,11 +4420,11 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>0.9</v>
@@ -4232,7 +4466,7 @@
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
       <c r="S62" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T62" s="1" t="n">
         <v>1</v>
@@ -4255,11 +4489,11 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>-5.55</v>
@@ -4301,7 +4535,7 @@
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
       <c r="S63" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T63" s="1" t="n">
         <v>1</v>
@@ -4324,11 +4558,11 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>-3.7</v>
@@ -4370,7 +4604,7 @@
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
       <c r="S64" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T64" s="1" t="n">
         <v>1</v>
@@ -4393,11 +4627,11 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>-1.85</v>
@@ -4439,7 +4673,7 @@
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
       <c r="S65" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T65" s="1" t="n">
         <v>1</v>
@@ -4462,11 +4696,11 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>0</v>
@@ -4508,7 +4742,7 @@
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
       <c r="S66" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T66" s="1" t="n">
         <v>1</v>
@@ -4531,11 +4765,11 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>1.85</v>
@@ -4577,7 +4811,7 @@
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
       <c r="S67" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T67" s="1" t="n">
         <v>1</v>
@@ -4600,11 +4834,11 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>3.7</v>
@@ -4646,7 +4880,7 @@
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
       <c r="S68" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T68" s="1" t="n">
         <v>1</v>
@@ -4669,11 +4903,11 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>-5.55</v>
@@ -4715,7 +4949,7 @@
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
       <c r="S69" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T69" s="1" t="n">
         <v>1</v>
@@ -4738,11 +4972,11 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>-3.7</v>
@@ -4784,7 +5018,7 @@
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
       <c r="S70" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T70" s="1" t="n">
         <v>1</v>
@@ -4807,11 +5041,11 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>-1.85</v>
@@ -4853,7 +5087,7 @@
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
       <c r="S71" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T71" s="1" t="n">
         <v>1</v>
@@ -4876,11 +5110,11 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>0</v>
@@ -4922,7 +5156,7 @@
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
       <c r="S72" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T72" s="1" t="n">
         <v>1</v>
@@ -4945,11 +5179,11 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>1.85</v>
@@ -4991,7 +5225,7 @@
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
       <c r="S73" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T73" s="1" t="n">
         <v>1</v>
@@ -5014,11 +5248,11 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>3.7</v>
@@ -5060,7 +5294,7 @@
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
       <c r="S74" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T74" s="1" t="n">
         <v>1</v>
@@ -5083,11 +5317,11 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>-5.55</v>
@@ -5129,7 +5363,7 @@
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
       <c r="S75" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T75" s="1" t="n">
         <v>1</v>
@@ -5152,11 +5386,11 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>-3.7</v>
@@ -5198,7 +5432,7 @@
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
       <c r="S76" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T76" s="1" t="n">
         <v>1</v>
@@ -5221,11 +5455,11 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>-1.85</v>
@@ -5267,7 +5501,7 @@
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
       <c r="S77" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T77" s="1" t="n">
         <v>1</v>
@@ -5290,11 +5524,11 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>0</v>
@@ -5336,7 +5570,7 @@
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
       <c r="S78" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T78" s="1" t="n">
         <v>1</v>
@@ -5359,11 +5593,11 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1.85</v>
@@ -5405,7 +5639,7 @@
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
       <c r="S79" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T79" s="1" t="n">
         <v>1</v>
@@ -5428,11 +5662,11 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>3.7</v>
@@ -5474,7 +5708,7 @@
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
       <c r="S80" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T80" s="1" t="n">
         <v>1</v>
@@ -5497,11 +5731,11 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>-5.55</v>
@@ -5543,7 +5777,7 @@
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
       <c r="S81" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T81" s="1" t="n">
         <v>1</v>
@@ -5566,11 +5800,11 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>-3.7</v>
@@ -5612,7 +5846,7 @@
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
       <c r="S82" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T82" s="1" t="n">
         <v>1</v>
@@ -5635,11 +5869,11 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>-1.85</v>
@@ -5681,7 +5915,7 @@
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
       <c r="S83" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T83" s="1" t="n">
         <v>1</v>
@@ -5704,11 +5938,11 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>0</v>
@@ -5750,7 +5984,7 @@
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
       <c r="S84" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T84" s="1" t="n">
         <v>1</v>
@@ -5773,11 +6007,11 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>1.85</v>
@@ -5819,7 +6053,7 @@
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
       <c r="S85" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T85" s="1" t="n">
         <v>1</v>
@@ -5842,11 +6076,11 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>3.7</v>
@@ -5888,7 +6122,7 @@
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
       <c r="S86" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T86" s="1" t="n">
         <v>1</v>
@@ -5911,11 +6145,11 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>-5.55</v>
@@ -5957,7 +6191,7 @@
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
       <c r="S87" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T87" s="1" t="n">
         <v>1</v>
@@ -5980,11 +6214,11 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>-3.7</v>
@@ -6026,7 +6260,7 @@
       <c r="Q88" s="1" t="n"/>
       <c r="R88" s="1" t="n"/>
       <c r="S88" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T88" s="1" t="n">
         <v>1</v>
@@ -6049,11 +6283,11 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>-1.85</v>
@@ -6095,7 +6329,7 @@
       <c r="Q89" s="1" t="n"/>
       <c r="R89" s="1" t="n"/>
       <c r="S89" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T89" s="1" t="n">
         <v>1</v>
@@ -6118,11 +6352,11 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B90" s="1" t="n"/>
       <c r="C90" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>0</v>
@@ -6164,7 +6398,7 @@
       <c r="Q90" s="1" t="n"/>
       <c r="R90" s="1" t="n"/>
       <c r="S90" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T90" s="1" t="n">
         <v>1</v>
@@ -6187,11 +6421,11 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>1.85</v>
@@ -6233,7 +6467,7 @@
       <c r="Q91" s="1" t="n"/>
       <c r="R91" s="1" t="n"/>
       <c r="S91" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T91" s="1" t="n">
         <v>1</v>
@@ -6256,11 +6490,11 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B92" s="1" t="n"/>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>3.7</v>
@@ -6302,7 +6536,7 @@
       <c r="Q92" s="1" t="n"/>
       <c r="R92" s="1" t="n"/>
       <c r="S92" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T92" s="1" t="n">
         <v>1</v>
@@ -6325,11 +6559,11 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B93" s="1" t="n"/>
       <c r="C93" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>-1.25</v>
@@ -6371,7 +6605,7 @@
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
       <c r="S93" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T93" s="1" t="n">
         <v>8</v>
@@ -6394,11 +6628,11 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
@@ -6440,7 +6674,7 @@
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
       <c r="S94" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T94" s="1" t="n">
         <v>8</v>
@@ -6463,11 +6697,11 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B95" s="1" t="n"/>
       <c r="C95" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>0</v>
@@ -6509,7 +6743,7 @@
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
       <c r="S95" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T95" s="1" t="n">
         <v>8</v>
@@ -6532,11 +6766,11 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>0</v>
@@ -6578,7 +6812,7 @@
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
       <c r="S96" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T96" s="1" t="n">
         <v>3</v>
@@ -6601,11 +6835,11 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1" t="n"/>
       <c r="C97" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>10.35</v>
@@ -6647,7 +6881,7 @@
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
       <c r="S97" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T97" s="1" t="n">
         <v>1</v>
@@ -6670,11 +6904,11 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>3.6</v>
@@ -6716,7 +6950,7 @@
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
       <c r="S98" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T98" s="1" t="n">
         <v>1</v>
@@ -6739,11 +6973,11 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="n"/>
       <c r="C99" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>2.8</v>
@@ -6785,7 +7019,7 @@
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
       <c r="S99" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T99" s="1" t="n">
         <v>8</v>
@@ -6808,11 +7042,11 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>2.8</v>
@@ -6854,7 +7088,7 @@
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
       <c r="S100" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T100" s="1" t="n">
         <v>8</v>
@@ -6877,11 +7111,11 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B101" s="1" t="n"/>
       <c r="C101" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>0</v>
@@ -6923,7 +7157,7 @@
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
       <c r="S101" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T101" s="1" t="n">
         <v>8</v>
@@ -6946,11 +7180,11 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102" s="1" t="n"/>
       <c r="C102" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>0</v>
@@ -6992,7 +7226,7 @@
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
       <c r="S102" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T102" s="1" t="n">
         <v>1</v>
@@ -7015,11 +7249,11 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103" s="1" t="n"/>
       <c r="C103" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>-8.15</v>
@@ -7061,7 +7295,7 @@
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
       <c r="S103" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T103" s="1" t="n">
         <v>1</v>
@@ -7084,11 +7318,11 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104" s="1" t="n"/>
       <c r="C104" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>-9.949999999999999</v>
@@ -7130,7 +7364,7 @@
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
       <c r="S104" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T104" s="1" t="n">
         <v>1</v>
@@ -7153,11 +7387,11 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B105" s="1" t="n"/>
       <c r="C105" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>-9.949999999999999</v>
@@ -7199,7 +7433,7 @@
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
       <c r="S105" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T105" s="1" t="n">
         <v>1</v>
